--- a/benchmarktests/testdefinitions/Benchmartktest_traject 83-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 83-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE8A65-994C-47C6-9023-1993CE8A8670}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D2210-0816-436C-A1AD-A8CCA79CCED3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="28800" windowHeight="15435" tabRatio="653" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="121">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>ngo</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -1205,34 +1208,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1269,6 +1244,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2275,7 +2278,7 @@
   </sheetPr>
   <dimension ref="B1:K558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+    <sheetView topLeftCell="A475" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D523"/>
     </sheetView>
   </sheetViews>
@@ -23312,8 +23315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23368,10 +23371,16 @@
         <v>1.1111111111111112E-4</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="9">
+        <v>15.9</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>31</v>
       </c>
@@ -23415,7 +23424,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>
@@ -23549,7 +23558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -23717,19 +23726,19 @@
       <c r="J10" s="5"/>
       <c r="K10" s="25"/>
       <c r="L10" s="29">
-        <f t="shared" ref="L10:L33" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+        <f t="shared" ref="L10:L32" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
         <v>5.9999999999999995E-8</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" ref="M10:M33" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
+        <f t="shared" ref="M10:M32" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
         <v>9.6287999999999995E-8</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" ref="N10:N33" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
+        <f t="shared" ref="N10:N32" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
         <v>1.6048</v>
       </c>
       <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O33" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
+        <f t="shared" ref="O10:O32" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="Q10" s="31">
@@ -23837,7 +23846,7 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X33" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f t="shared" ref="X11:X32" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -24041,19 +24050,19 @@
         <v>+III</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" ref="Q14:Q33" si="9">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
+        <f t="shared" ref="Q14:Q32" si="9">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
         <v>0.99998840240431996</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14:R33" si="10">IF(M14="-",1,Q14)</f>
+        <f t="shared" ref="R14:R32" si="10">IF(M14="-",1,Q14)</f>
         <v>0.99998840240431996</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" ref="S14:S33" si="11">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
+        <f t="shared" ref="S14:S32" si="11">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
         <v>1.5653396E-4</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" ref="T14:T33" si="12">IF(L14="-",0,S14)</f>
+        <f t="shared" ref="T14:T32" si="12">IF(L14="-",0,S14)</f>
         <v>1.5653396E-4</v>
       </c>
       <c r="U14" s="9">
@@ -27620,22 +27629,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K21">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>IF($E19="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K16">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>IF($E14="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>IF($E28="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>IF($E31="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 83-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 83-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A28F1-0B94-4DBF-BE4E-DDE1D1112F81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657C660-897A-4520-AF49-8D4F762FC590}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2274,8 +2274,8 @@
   </sheetPr>
   <dimension ref="B1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E523"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,11 +2328,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2372,11 +2372,11 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2416,11 +2416,11 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2460,11 +2460,11 @@
         <v>0.105</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2504,11 +2504,11 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2548,11 +2548,11 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2592,11 +2592,11 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2636,11 +2636,11 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2680,11 +2680,11 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2724,11 +2724,11 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2768,11 +2768,11 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -2812,11 +2812,11 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -2856,11 +2856,11 @@
         <v>0.377</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -2900,11 +2900,11 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -2944,11 +2944,11 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -2988,11 +2988,11 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3032,11 +3032,11 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3076,11 +3076,11 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3120,11 +3120,11 @@
         <v>0.59</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3164,11 +3164,11 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3208,11 +3208,11 @@
         <v>0.62</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3252,11 +3252,11 @@
         <v>0.625</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3296,11 +3296,11 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3340,11 +3340,11 @@
         <v>0.67</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3384,11 +3384,11 @@
         <v>0.77</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3428,11 +3428,11 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3472,11 +3472,11 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3516,11 +3516,11 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3560,11 +3560,11 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3604,11 +3604,11 @@
         <v>1.004</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3648,11 +3648,11 @@
         <v>1.052</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3692,11 +3692,11 @@
         <v>1.1060000000000001</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3736,11 +3736,11 @@
         <v>1.123</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3780,11 +3780,11 @@
         <v>1.129</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -3824,11 +3824,11 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -3868,11 +3868,11 @@
         <v>1.1639999999999999</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -3912,11 +3912,11 @@
         <v>1.1890000000000001</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -3956,11 +3956,11 @@
         <v>1.2</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -4000,11 +4000,11 @@
         <v>1.204</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4044,11 +4044,11 @@
         <v>1.222</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4088,11 +4088,11 @@
         <v>1.2270000000000001</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4132,11 +4132,11 @@
         <v>1.252</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4176,11 +4176,11 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4220,11 +4220,11 @@
         <v>1.3029999999999999</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4264,11 +4264,11 @@
         <v>1.3180000000000001</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4308,11 +4308,11 @@
         <v>1.335</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4352,11 +4352,11 @@
         <v>1.337</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4396,11 +4396,11 @@
         <v>1.367</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4440,11 +4440,11 @@
         <v>1.369</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4484,11 +4484,11 @@
         <v>1.407</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4528,11 +4528,11 @@
         <v>1.444</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4572,11 +4572,11 @@
         <v>1.4470000000000001</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4616,11 +4616,11 @@
         <v>1.464</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4660,11 +4660,11 @@
         <v>1.492</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -4704,11 +4704,11 @@
         <v>1.496</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -4748,11 +4748,11 @@
         <v>1.5069999999999999</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -4792,11 +4792,11 @@
         <v>1.5229999999999999</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -4836,11 +4836,11 @@
         <v>1.577</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -4880,11 +4880,11 @@
         <v>1.5880000000000001</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -4924,11 +4924,11 @@
         <v>1.62</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -4968,11 +4968,11 @@
         <v>1.6459999999999999</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -5012,11 +5012,11 @@
         <v>1.651</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5056,11 +5056,11 @@
         <v>1.663</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5100,11 +5100,11 @@
         <v>1.669</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="0"/>
         <v>+II</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5144,11 +5144,11 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D67:D130" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E67:E130" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5188,11 +5188,11 @@
         <v>1.744</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5232,11 +5232,11 @@
         <v>1.7509999999999999</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f>IF(COUNTIF(F69:L69,"D")&gt;0,"D",IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E69" s="23" t="str">
-        <f>IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F69" s="9" t="str">
@@ -5276,11 +5276,11 @@
         <v>1.7789999999999999</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f>IF(COUNTIF(F70:L70,"D")&gt;0,"D",IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E70" s="23" t="str">
-        <f>IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F70" s="9" t="str">
@@ -5320,11 +5320,11 @@
         <v>1.8029999999999999</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f>IF(COUNTIF(F71:L71,"D")&gt;0,"D",IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E71" s="23" t="str">
-        <f>IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F71" s="9" t="str">
@@ -5364,11 +5364,11 @@
         <v>1.8180000000000001</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f>IF(COUNTIF(F72:L72,"D")&gt;0,"D",IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E72" s="23" t="str">
-        <f>IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F72" s="9" t="str">
@@ -5408,11 +5408,11 @@
         <v>1.833</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f>IF(COUNTIF(F73:L73,"D")&gt;0,"D",IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E73" s="23" t="str">
-        <f>IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F73" s="9" t="str">
@@ -5452,11 +5452,11 @@
         <v>1.8939999999999999</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f>IF(COUNTIF(F74:L74,"D")&gt;0,"D",IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E74" s="23" t="str">
-        <f>IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F74" s="9" t="str">
@@ -5496,11 +5496,11 @@
         <v>1.911</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f>IF(COUNTIF(F75:L75,"D")&gt;0,"D",IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E75" s="23" t="str">
-        <f>IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F75" s="9" t="str">
@@ -5540,11 +5540,11 @@
         <v>1.9279999999999999</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f>IF(COUNTIF(F76:L76,"D")&gt;0,"D",IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E76" s="23" t="str">
-        <f>IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F76" s="9" t="str">
@@ -5584,11 +5584,11 @@
         <v>1.9850000000000001</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f>IF(COUNTIF(F77:L77,"D")&gt;0,"D",IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E77" s="23" t="str">
-        <f>IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F77" s="9" t="str">
@@ -5628,11 +5628,11 @@
         <v>2.048</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f>IF(COUNTIF(F78:L78,"D")&gt;0,"D",IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E78" s="23" t="str">
-        <f>IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F78" s="9" t="str">
@@ -5672,11 +5672,11 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f>IF(COUNTIF(F79:L79,"D")&gt;0,"D",IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E79" s="23" t="str">
-        <f>IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F79" s="9" t="str">
@@ -5716,11 +5716,11 @@
         <v>2.0680000000000001</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f>IF(COUNTIF(F80:L80,"D")&gt;0,"D",IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E80" s="23" t="str">
-        <f>IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F80" s="9" t="str">
@@ -5760,11 +5760,11 @@
         <v>2.0979999999999999</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f>IF(COUNTIF(F81:L81,"D")&gt;0,"D",IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E81" s="23" t="str">
-        <f>IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F81" s="9" t="str">
@@ -5804,11 +5804,11 @@
         <v>2.12</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f>IF(COUNTIF(F82:L82,"D")&gt;0,"D",IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E82" s="23" t="str">
-        <f>IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F82" s="9" t="str">
@@ -5848,11 +5848,11 @@
         <v>2.1269999999999998</v>
       </c>
       <c r="D83" s="23" t="str">
-        <f>IF(COUNTIF(F83:L83,"D")&gt;0,"D",IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E83" s="23" t="str">
-        <f>IF(COUNTIF(F83:L83,"-III")&gt;0,"-III",IF(COUNTIF(F83:L83,"-II")&gt;0,"-II",IF(COUNTIF(F83:L83,"-I")&gt;0,"-I",IF(COUNTIF(F83:L83,"+0")&gt;0,"+0",IF(COUNTIF(F83:L83,"+I")&gt;0,"+I",IF(COUNTIF(F83:L83,"+II")&gt;0,"+II",IF(COUNTIF(F83:L83,"+III")&gt;0,"+III",IF(COUNTIF(F83:L83,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F83" s="9" t="str">
@@ -5892,11 +5892,11 @@
         <v>2.149</v>
       </c>
       <c r="D84" s="23" t="str">
-        <f>IF(COUNTIF(F84:L84,"D")&gt;0,"D",IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E84" s="23" t="str">
-        <f>IF(COUNTIF(F84:L84,"-III")&gt;0,"-III",IF(COUNTIF(F84:L84,"-II")&gt;0,"-II",IF(COUNTIF(F84:L84,"-I")&gt;0,"-I",IF(COUNTIF(F84:L84,"+0")&gt;0,"+0",IF(COUNTIF(F84:L84,"+I")&gt;0,"+I",IF(COUNTIF(F84:L84,"+II")&gt;0,"+II",IF(COUNTIF(F84:L84,"+III")&gt;0,"+III",IF(COUNTIF(F84:L84,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F84" s="9" t="str">
@@ -5936,11 +5936,11 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="D85" s="23" t="str">
-        <f>IF(COUNTIF(F85:L85,"D")&gt;0,"D",IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E85" s="23" t="str">
-        <f>IF(COUNTIF(F85:L85,"-III")&gt;0,"-III",IF(COUNTIF(F85:L85,"-II")&gt;0,"-II",IF(COUNTIF(F85:L85,"-I")&gt;0,"-I",IF(COUNTIF(F85:L85,"+0")&gt;0,"+0",IF(COUNTIF(F85:L85,"+I")&gt;0,"+I",IF(COUNTIF(F85:L85,"+II")&gt;0,"+II",IF(COUNTIF(F85:L85,"+III")&gt;0,"+III",IF(COUNTIF(F85:L85,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F85" s="9" t="str">
@@ -5980,11 +5980,11 @@
         <v>2.2349999999999999</v>
       </c>
       <c r="D86" s="23" t="str">
-        <f>IF(COUNTIF(F86:L86,"D")&gt;0,"D",IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E86" s="23" t="str">
-        <f>IF(COUNTIF(F86:L86,"-III")&gt;0,"-III",IF(COUNTIF(F86:L86,"-II")&gt;0,"-II",IF(COUNTIF(F86:L86,"-I")&gt;0,"-I",IF(COUNTIF(F86:L86,"+0")&gt;0,"+0",IF(COUNTIF(F86:L86,"+I")&gt;0,"+I",IF(COUNTIF(F86:L86,"+II")&gt;0,"+II",IF(COUNTIF(F86:L86,"+III")&gt;0,"+III",IF(COUNTIF(F86:L86,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F86" s="9" t="str">
@@ -6024,11 +6024,11 @@
         <v>2.254</v>
       </c>
       <c r="D87" s="23" t="str">
-        <f>IF(COUNTIF(F87:L87,"D")&gt;0,"D",IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E87" s="23" t="str">
-        <f>IF(COUNTIF(F87:L87,"-III")&gt;0,"-III",IF(COUNTIF(F87:L87,"-II")&gt;0,"-II",IF(COUNTIF(F87:L87,"-I")&gt;0,"-I",IF(COUNTIF(F87:L87,"+0")&gt;0,"+0",IF(COUNTIF(F87:L87,"+I")&gt;0,"+I",IF(COUNTIF(F87:L87,"+II")&gt;0,"+II",IF(COUNTIF(F87:L87,"+III")&gt;0,"+III",IF(COUNTIF(F87:L87,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F87" s="9" t="str">
@@ -6068,11 +6068,11 @@
         <v>2.258</v>
       </c>
       <c r="D88" s="23" t="str">
-        <f>IF(COUNTIF(F88:L88,"D")&gt;0,"D",IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E88" s="23" t="str">
-        <f>IF(COUNTIF(F88:L88,"-III")&gt;0,"-III",IF(COUNTIF(F88:L88,"-II")&gt;0,"-II",IF(COUNTIF(F88:L88,"-I")&gt;0,"-I",IF(COUNTIF(F88:L88,"+0")&gt;0,"+0",IF(COUNTIF(F88:L88,"+I")&gt;0,"+I",IF(COUNTIF(F88:L88,"+II")&gt;0,"+II",IF(COUNTIF(F88:L88,"+III")&gt;0,"+III",IF(COUNTIF(F88:L88,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F88" s="9" t="str">
@@ -6112,11 +6112,11 @@
         <v>2.2789999999999999</v>
       </c>
       <c r="D89" s="23" t="str">
-        <f>IF(COUNTIF(F89:L89,"D")&gt;0,"D",IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E89" s="23" t="str">
-        <f>IF(COUNTIF(F89:L89,"-III")&gt;0,"-III",IF(COUNTIF(F89:L89,"-II")&gt;0,"-II",IF(COUNTIF(F89:L89,"-I")&gt;0,"-I",IF(COUNTIF(F89:L89,"+0")&gt;0,"+0",IF(COUNTIF(F89:L89,"+I")&gt;0,"+I",IF(COUNTIF(F89:L89,"+II")&gt;0,"+II",IF(COUNTIF(F89:L89,"+III")&gt;0,"+III",IF(COUNTIF(F89:L89,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F89" s="9" t="str">
@@ -6156,11 +6156,11 @@
         <v>2.2989999999999999</v>
       </c>
       <c r="D90" s="23" t="str">
-        <f>IF(COUNTIF(F90:L90,"D")&gt;0,"D",IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E90" s="23" t="str">
-        <f>IF(COUNTIF(F90:L90,"-III")&gt;0,"-III",IF(COUNTIF(F90:L90,"-II")&gt;0,"-II",IF(COUNTIF(F90:L90,"-I")&gt;0,"-I",IF(COUNTIF(F90:L90,"+0")&gt;0,"+0",IF(COUNTIF(F90:L90,"+I")&gt;0,"+I",IF(COUNTIF(F90:L90,"+II")&gt;0,"+II",IF(COUNTIF(F90:L90,"+III")&gt;0,"+III",IF(COUNTIF(F90:L90,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F90" s="9" t="str">
@@ -6200,11 +6200,11 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="D91" s="23" t="str">
-        <f>IF(COUNTIF(F91:L91,"D")&gt;0,"D",IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E91" s="23" t="str">
-        <f>IF(COUNTIF(F91:L91,"-III")&gt;0,"-III",IF(COUNTIF(F91:L91,"-II")&gt;0,"-II",IF(COUNTIF(F91:L91,"-I")&gt;0,"-I",IF(COUNTIF(F91:L91,"+0")&gt;0,"+0",IF(COUNTIF(F91:L91,"+I")&gt;0,"+I",IF(COUNTIF(F91:L91,"+II")&gt;0,"+II",IF(COUNTIF(F91:L91,"+III")&gt;0,"+III",IF(COUNTIF(F91:L91,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F91" s="9" t="str">
@@ -6244,11 +6244,11 @@
         <v>2.355</v>
       </c>
       <c r="D92" s="23" t="str">
-        <f>IF(COUNTIF(F92:L92,"D")&gt;0,"D",IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E92" s="23" t="str">
-        <f>IF(COUNTIF(F92:L92,"-III")&gt;0,"-III",IF(COUNTIF(F92:L92,"-II")&gt;0,"-II",IF(COUNTIF(F92:L92,"-I")&gt;0,"-I",IF(COUNTIF(F92:L92,"+0")&gt;0,"+0",IF(COUNTIF(F92:L92,"+I")&gt;0,"+I",IF(COUNTIF(F92:L92,"+II")&gt;0,"+II",IF(COUNTIF(F92:L92,"+III")&gt;0,"+III",IF(COUNTIF(F92:L92,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F92" s="9" t="str">
@@ -6288,11 +6288,11 @@
         <v>2.3759999999999999</v>
       </c>
       <c r="D93" s="23" t="str">
-        <f>IF(COUNTIF(F93:L93,"D")&gt;0,"D",IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E93" s="23" t="str">
-        <f>IF(COUNTIF(F93:L93,"-III")&gt;0,"-III",IF(COUNTIF(F93:L93,"-II")&gt;0,"-II",IF(COUNTIF(F93:L93,"-I")&gt;0,"-I",IF(COUNTIF(F93:L93,"+0")&gt;0,"+0",IF(COUNTIF(F93:L93,"+I")&gt;0,"+I",IF(COUNTIF(F93:L93,"+II")&gt;0,"+II",IF(COUNTIF(F93:L93,"+III")&gt;0,"+III",IF(COUNTIF(F93:L93,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F93" s="9" t="str">
@@ -6332,11 +6332,11 @@
         <v>2.3769999999999998</v>
       </c>
       <c r="D94" s="23" t="str">
-        <f>IF(COUNTIF(F94:L94,"D")&gt;0,"D",IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E94" s="23" t="str">
-        <f>IF(COUNTIF(F94:L94,"-III")&gt;0,"-III",IF(COUNTIF(F94:L94,"-II")&gt;0,"-II",IF(COUNTIF(F94:L94,"-I")&gt;0,"-I",IF(COUNTIF(F94:L94,"+0")&gt;0,"+0",IF(COUNTIF(F94:L94,"+I")&gt;0,"+I",IF(COUNTIF(F94:L94,"+II")&gt;0,"+II",IF(COUNTIF(F94:L94,"+III")&gt;0,"+III",IF(COUNTIF(F94:L94,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F94" s="9" t="str">
@@ -6376,11 +6376,11 @@
         <v>2.3780000000000001</v>
       </c>
       <c r="D95" s="23" t="str">
-        <f>IF(COUNTIF(F95:L95,"D")&gt;0,"D",IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E95" s="23" t="str">
-        <f>IF(COUNTIF(F95:L95,"-III")&gt;0,"-III",IF(COUNTIF(F95:L95,"-II")&gt;0,"-II",IF(COUNTIF(F95:L95,"-I")&gt;0,"-I",IF(COUNTIF(F95:L95,"+0")&gt;0,"+0",IF(COUNTIF(F95:L95,"+I")&gt;0,"+I",IF(COUNTIF(F95:L95,"+II")&gt;0,"+II",IF(COUNTIF(F95:L95,"+III")&gt;0,"+III",IF(COUNTIF(F95:L95,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F95" s="9" t="str">
@@ -6420,11 +6420,11 @@
         <v>2.391</v>
       </c>
       <c r="D96" s="23" t="str">
-        <f>IF(COUNTIF(F96:L96,"D")&gt;0,"D",IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E96" s="23" t="str">
-        <f>IF(COUNTIF(F96:L96,"-III")&gt;0,"-III",IF(COUNTIF(F96:L96,"-II")&gt;0,"-II",IF(COUNTIF(F96:L96,"-I")&gt;0,"-I",IF(COUNTIF(F96:L96,"+0")&gt;0,"+0",IF(COUNTIF(F96:L96,"+I")&gt;0,"+I",IF(COUNTIF(F96:L96,"+II")&gt;0,"+II",IF(COUNTIF(F96:L96,"+III")&gt;0,"+III",IF(COUNTIF(F96:L96,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F96" s="9" t="str">
@@ -6464,11 +6464,11 @@
         <v>2.4129999999999998</v>
       </c>
       <c r="D97" s="23" t="str">
-        <f>IF(COUNTIF(F97:L97,"D")&gt;0,"D",IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E97" s="23" t="str">
-        <f>IF(COUNTIF(F97:L97,"-III")&gt;0,"-III",IF(COUNTIF(F97:L97,"-II")&gt;0,"-II",IF(COUNTIF(F97:L97,"-I")&gt;0,"-I",IF(COUNTIF(F97:L97,"+0")&gt;0,"+0",IF(COUNTIF(F97:L97,"+I")&gt;0,"+I",IF(COUNTIF(F97:L97,"+II")&gt;0,"+II",IF(COUNTIF(F97:L97,"+III")&gt;0,"+III",IF(COUNTIF(F97:L97,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F97" s="9" t="str">
@@ -6508,11 +6508,11 @@
         <v>2.423</v>
       </c>
       <c r="D98" s="23" t="str">
-        <f>IF(COUNTIF(F98:L98,"D")&gt;0,"D",IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E98" s="23" t="str">
-        <f>IF(COUNTIF(F98:L98,"-III")&gt;0,"-III",IF(COUNTIF(F98:L98,"-II")&gt;0,"-II",IF(COUNTIF(F98:L98,"-I")&gt;0,"-I",IF(COUNTIF(F98:L98,"+0")&gt;0,"+0",IF(COUNTIF(F98:L98,"+I")&gt;0,"+I",IF(COUNTIF(F98:L98,"+II")&gt;0,"+II",IF(COUNTIF(F98:L98,"+III")&gt;0,"+III",IF(COUNTIF(F98:L98,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F98" s="9" t="str">
@@ -6552,11 +6552,11 @@
         <v>2.4420000000000002</v>
       </c>
       <c r="D99" s="23" t="str">
-        <f>IF(COUNTIF(F99:L99,"D")&gt;0,"D",IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E99" s="23" t="str">
-        <f>IF(COUNTIF(F99:L99,"-III")&gt;0,"-III",IF(COUNTIF(F99:L99,"-II")&gt;0,"-II",IF(COUNTIF(F99:L99,"-I")&gt;0,"-I",IF(COUNTIF(F99:L99,"+0")&gt;0,"+0",IF(COUNTIF(F99:L99,"+I")&gt;0,"+I",IF(COUNTIF(F99:L99,"+II")&gt;0,"+II",IF(COUNTIF(F99:L99,"+III")&gt;0,"+III",IF(COUNTIF(F99:L99,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F99" s="9" t="str">
@@ -6596,11 +6596,11 @@
         <v>2.5</v>
       </c>
       <c r="D100" s="23" t="str">
-        <f>IF(COUNTIF(F100:L100,"D")&gt;0,"D",IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E100" s="23" t="str">
-        <f>IF(COUNTIF(F100:L100,"-III")&gt;0,"-III",IF(COUNTIF(F100:L100,"-II")&gt;0,"-II",IF(COUNTIF(F100:L100,"-I")&gt;0,"-I",IF(COUNTIF(F100:L100,"+0")&gt;0,"+0",IF(COUNTIF(F100:L100,"+I")&gt;0,"+I",IF(COUNTIF(F100:L100,"+II")&gt;0,"+II",IF(COUNTIF(F100:L100,"+III")&gt;0,"+III",IF(COUNTIF(F100:L100,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F100" s="9" t="str">
@@ -6640,11 +6640,11 @@
         <v>2.5110000000000001</v>
       </c>
       <c r="D101" s="23" t="str">
-        <f>IF(COUNTIF(F101:L101,"D")&gt;0,"D",IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E101" s="23" t="str">
-        <f>IF(COUNTIF(F101:L101,"-III")&gt;0,"-III",IF(COUNTIF(F101:L101,"-II")&gt;0,"-II",IF(COUNTIF(F101:L101,"-I")&gt;0,"-I",IF(COUNTIF(F101:L101,"+0")&gt;0,"+0",IF(COUNTIF(F101:L101,"+I")&gt;0,"+I",IF(COUNTIF(F101:L101,"+II")&gt;0,"+II",IF(COUNTIF(F101:L101,"+III")&gt;0,"+III",IF(COUNTIF(F101:L101,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F101" s="9" t="str">
@@ -6684,11 +6684,11 @@
         <v>2.5640000000000001</v>
       </c>
       <c r="D102" s="23" t="str">
-        <f>IF(COUNTIF(F102:L102,"D")&gt;0,"D",IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E102" s="23" t="str">
-        <f>IF(COUNTIF(F102:L102,"-III")&gt;0,"-III",IF(COUNTIF(F102:L102,"-II")&gt;0,"-II",IF(COUNTIF(F102:L102,"-I")&gt;0,"-I",IF(COUNTIF(F102:L102,"+0")&gt;0,"+0",IF(COUNTIF(F102:L102,"+I")&gt;0,"+I",IF(COUNTIF(F102:L102,"+II")&gt;0,"+II",IF(COUNTIF(F102:L102,"+III")&gt;0,"+III",IF(COUNTIF(F102:L102,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F102" s="9" t="str">
@@ -6728,11 +6728,11 @@
         <v>2.5960000000000001</v>
       </c>
       <c r="D103" s="23" t="str">
-        <f>IF(COUNTIF(F103:L103,"D")&gt;0,"D",IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E103" s="23" t="str">
-        <f>IF(COUNTIF(F103:L103,"-III")&gt;0,"-III",IF(COUNTIF(F103:L103,"-II")&gt;0,"-II",IF(COUNTIF(F103:L103,"-I")&gt;0,"-I",IF(COUNTIF(F103:L103,"+0")&gt;0,"+0",IF(COUNTIF(F103:L103,"+I")&gt;0,"+I",IF(COUNTIF(F103:L103,"+II")&gt;0,"+II",IF(COUNTIF(F103:L103,"+III")&gt;0,"+III",IF(COUNTIF(F103:L103,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F103" s="9" t="str">
@@ -6772,11 +6772,11 @@
         <v>2.6160000000000001</v>
       </c>
       <c r="D104" s="23" t="str">
-        <f>IF(COUNTIF(F104:L104,"D")&gt;0,"D",IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E104" s="23" t="str">
-        <f>IF(COUNTIF(F104:L104,"-III")&gt;0,"-III",IF(COUNTIF(F104:L104,"-II")&gt;0,"-II",IF(COUNTIF(F104:L104,"-I")&gt;0,"-I",IF(COUNTIF(F104:L104,"+0")&gt;0,"+0",IF(COUNTIF(F104:L104,"+I")&gt;0,"+I",IF(COUNTIF(F104:L104,"+II")&gt;0,"+II",IF(COUNTIF(F104:L104,"+III")&gt;0,"+III",IF(COUNTIF(F104:L104,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F104" s="9" t="str">
@@ -6816,11 +6816,11 @@
         <v>2.6320000000000001</v>
       </c>
       <c r="D105" s="23" t="str">
-        <f>IF(COUNTIF(F105:L105,"D")&gt;0,"D",IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E105" s="23" t="str">
-        <f>IF(COUNTIF(F105:L105,"-III")&gt;0,"-III",IF(COUNTIF(F105:L105,"-II")&gt;0,"-II",IF(COUNTIF(F105:L105,"-I")&gt;0,"-I",IF(COUNTIF(F105:L105,"+0")&gt;0,"+0",IF(COUNTIF(F105:L105,"+I")&gt;0,"+I",IF(COUNTIF(F105:L105,"+II")&gt;0,"+II",IF(COUNTIF(F105:L105,"+III")&gt;0,"+III",IF(COUNTIF(F105:L105,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F105" s="9" t="str">
@@ -6860,11 +6860,11 @@
         <v>2.657</v>
       </c>
       <c r="D106" s="23" t="str">
-        <f>IF(COUNTIF(F106:L106,"D")&gt;0,"D",IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E106" s="23" t="str">
-        <f>IF(COUNTIF(F106:L106,"-III")&gt;0,"-III",IF(COUNTIF(F106:L106,"-II")&gt;0,"-II",IF(COUNTIF(F106:L106,"-I")&gt;0,"-I",IF(COUNTIF(F106:L106,"+0")&gt;0,"+0",IF(COUNTIF(F106:L106,"+I")&gt;0,"+I",IF(COUNTIF(F106:L106,"+II")&gt;0,"+II",IF(COUNTIF(F106:L106,"+III")&gt;0,"+III",IF(COUNTIF(F106:L106,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F106" s="9" t="str">
@@ -6904,11 +6904,11 @@
         <v>2.6619999999999999</v>
       </c>
       <c r="D107" s="23" t="str">
-        <f>IF(COUNTIF(F107:L107,"D")&gt;0,"D",IF(COUNTIF(F107:L107,"-III")&gt;0,"-III",IF(COUNTIF(F107:L107,"-II")&gt;0,"-II",IF(COUNTIF(F107:L107,"-I")&gt;0,"-I",IF(COUNTIF(F107:L107,"+0")&gt;0,"+0",IF(COUNTIF(F107:L107,"+I")&gt;0,"+I",IF(COUNTIF(F107:L107,"+II")&gt;0,"+II",IF(COUNTIF(F107:L107,"+III")&gt;0,"+III",IF(COUNTIF(F107:L107,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E107" s="23" t="str">
-        <f>IF(COUNTIF(F107:L107,"-III")&gt;0,"-III",IF(COUNTIF(F107:L107,"-II")&gt;0,"-II",IF(COUNTIF(F107:L107,"-I")&gt;0,"-I",IF(COUNTIF(F107:L107,"+0")&gt;0,"+0",IF(COUNTIF(F107:L107,"+I")&gt;0,"+I",IF(COUNTIF(F107:L107,"+II")&gt;0,"+II",IF(COUNTIF(F107:L107,"+III")&gt;0,"+III",IF(COUNTIF(F107:L107,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F107" s="9" t="str">
@@ -6948,11 +6948,11 @@
         <v>2.7080000000000002</v>
       </c>
       <c r="D108" s="23" t="str">
-        <f>IF(COUNTIF(F108:L108,"D")&gt;0,"D",IF(COUNTIF(F108:L108,"-III")&gt;0,"-III",IF(COUNTIF(F108:L108,"-II")&gt;0,"-II",IF(COUNTIF(F108:L108,"-I")&gt;0,"-I",IF(COUNTIF(F108:L108,"+0")&gt;0,"+0",IF(COUNTIF(F108:L108,"+I")&gt;0,"+I",IF(COUNTIF(F108:L108,"+II")&gt;0,"+II",IF(COUNTIF(F108:L108,"+III")&gt;0,"+III",IF(COUNTIF(F108:L108,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E108" s="23" t="str">
-        <f>IF(COUNTIF(F108:L108,"-III")&gt;0,"-III",IF(COUNTIF(F108:L108,"-II")&gt;0,"-II",IF(COUNTIF(F108:L108,"-I")&gt;0,"-I",IF(COUNTIF(F108:L108,"+0")&gt;0,"+0",IF(COUNTIF(F108:L108,"+I")&gt;0,"+I",IF(COUNTIF(F108:L108,"+II")&gt;0,"+II",IF(COUNTIF(F108:L108,"+III")&gt;0,"+III",IF(COUNTIF(F108:L108,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F108" s="9" t="str">
@@ -6992,11 +6992,11 @@
         <v>2.7090000000000001</v>
       </c>
       <c r="D109" s="23" t="str">
-        <f>IF(COUNTIF(F109:L109,"D")&gt;0,"D",IF(COUNTIF(F109:L109,"-III")&gt;0,"-III",IF(COUNTIF(F109:L109,"-II")&gt;0,"-II",IF(COUNTIF(F109:L109,"-I")&gt;0,"-I",IF(COUNTIF(F109:L109,"+0")&gt;0,"+0",IF(COUNTIF(F109:L109,"+I")&gt;0,"+I",IF(COUNTIF(F109:L109,"+II")&gt;0,"+II",IF(COUNTIF(F109:L109,"+III")&gt;0,"+III",IF(COUNTIF(F109:L109,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E109" s="23" t="str">
-        <f>IF(COUNTIF(F109:L109,"-III")&gt;0,"-III",IF(COUNTIF(F109:L109,"-II")&gt;0,"-II",IF(COUNTIF(F109:L109,"-I")&gt;0,"-I",IF(COUNTIF(F109:L109,"+0")&gt;0,"+0",IF(COUNTIF(F109:L109,"+I")&gt;0,"+I",IF(COUNTIF(F109:L109,"+II")&gt;0,"+II",IF(COUNTIF(F109:L109,"+III")&gt;0,"+III",IF(COUNTIF(F109:L109,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F109" s="9" t="str">
@@ -7036,11 +7036,11 @@
         <v>2.7149999999999999</v>
       </c>
       <c r="D110" s="23" t="str">
-        <f>IF(COUNTIF(F110:L110,"D")&gt;0,"D",IF(COUNTIF(F110:L110,"-III")&gt;0,"-III",IF(COUNTIF(F110:L110,"-II")&gt;0,"-II",IF(COUNTIF(F110:L110,"-I")&gt;0,"-I",IF(COUNTIF(F110:L110,"+0")&gt;0,"+0",IF(COUNTIF(F110:L110,"+I")&gt;0,"+I",IF(COUNTIF(F110:L110,"+II")&gt;0,"+II",IF(COUNTIF(F110:L110,"+III")&gt;0,"+III",IF(COUNTIF(F110:L110,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E110" s="23" t="str">
-        <f>IF(COUNTIF(F110:L110,"-III")&gt;0,"-III",IF(COUNTIF(F110:L110,"-II")&gt;0,"-II",IF(COUNTIF(F110:L110,"-I")&gt;0,"-I",IF(COUNTIF(F110:L110,"+0")&gt;0,"+0",IF(COUNTIF(F110:L110,"+I")&gt;0,"+I",IF(COUNTIF(F110:L110,"+II")&gt;0,"+II",IF(COUNTIF(F110:L110,"+III")&gt;0,"+III",IF(COUNTIF(F110:L110,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F110" s="9" t="str">
@@ -7080,11 +7080,11 @@
         <v>2.74</v>
       </c>
       <c r="D111" s="23" t="str">
-        <f>IF(COUNTIF(F111:L111,"D")&gt;0,"D",IF(COUNTIF(F111:L111,"-III")&gt;0,"-III",IF(COUNTIF(F111:L111,"-II")&gt;0,"-II",IF(COUNTIF(F111:L111,"-I")&gt;0,"-I",IF(COUNTIF(F111:L111,"+0")&gt;0,"+0",IF(COUNTIF(F111:L111,"+I")&gt;0,"+I",IF(COUNTIF(F111:L111,"+II")&gt;0,"+II",IF(COUNTIF(F111:L111,"+III")&gt;0,"+III",IF(COUNTIF(F111:L111,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E111" s="23" t="str">
-        <f>IF(COUNTIF(F111:L111,"-III")&gt;0,"-III",IF(COUNTIF(F111:L111,"-II")&gt;0,"-II",IF(COUNTIF(F111:L111,"-I")&gt;0,"-I",IF(COUNTIF(F111:L111,"+0")&gt;0,"+0",IF(COUNTIF(F111:L111,"+I")&gt;0,"+I",IF(COUNTIF(F111:L111,"+II")&gt;0,"+II",IF(COUNTIF(F111:L111,"+III")&gt;0,"+III",IF(COUNTIF(F111:L111,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F111" s="9" t="str">
@@ -7124,11 +7124,11 @@
         <v>2.7610000000000001</v>
       </c>
       <c r="D112" s="23" t="str">
-        <f>IF(COUNTIF(F112:L112,"D")&gt;0,"D",IF(COUNTIF(F112:L112,"-III")&gt;0,"-III",IF(COUNTIF(F112:L112,"-II")&gt;0,"-II",IF(COUNTIF(F112:L112,"-I")&gt;0,"-I",IF(COUNTIF(F112:L112,"+0")&gt;0,"+0",IF(COUNTIF(F112:L112,"+I")&gt;0,"+I",IF(COUNTIF(F112:L112,"+II")&gt;0,"+II",IF(COUNTIF(F112:L112,"+III")&gt;0,"+III",IF(COUNTIF(F112:L112,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E112" s="23" t="str">
-        <f>IF(COUNTIF(F112:L112,"-III")&gt;0,"-III",IF(COUNTIF(F112:L112,"-II")&gt;0,"-II",IF(COUNTIF(F112:L112,"-I")&gt;0,"-I",IF(COUNTIF(F112:L112,"+0")&gt;0,"+0",IF(COUNTIF(F112:L112,"+I")&gt;0,"+I",IF(COUNTIF(F112:L112,"+II")&gt;0,"+II",IF(COUNTIF(F112:L112,"+III")&gt;0,"+III",IF(COUNTIF(F112:L112,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F112" s="9" t="str">
@@ -7168,11 +7168,11 @@
         <v>2.83</v>
       </c>
       <c r="D113" s="23" t="str">
-        <f>IF(COUNTIF(F113:L113,"D")&gt;0,"D",IF(COUNTIF(F113:L113,"-III")&gt;0,"-III",IF(COUNTIF(F113:L113,"-II")&gt;0,"-II",IF(COUNTIF(F113:L113,"-I")&gt;0,"-I",IF(COUNTIF(F113:L113,"+0")&gt;0,"+0",IF(COUNTIF(F113:L113,"+I")&gt;0,"+I",IF(COUNTIF(F113:L113,"+II")&gt;0,"+II",IF(COUNTIF(F113:L113,"+III")&gt;0,"+III",IF(COUNTIF(F113:L113,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E113" s="23" t="str">
-        <f>IF(COUNTIF(F113:L113,"-III")&gt;0,"-III",IF(COUNTIF(F113:L113,"-II")&gt;0,"-II",IF(COUNTIF(F113:L113,"-I")&gt;0,"-I",IF(COUNTIF(F113:L113,"+0")&gt;0,"+0",IF(COUNTIF(F113:L113,"+I")&gt;0,"+I",IF(COUNTIF(F113:L113,"+II")&gt;0,"+II",IF(COUNTIF(F113:L113,"+III")&gt;0,"+III",IF(COUNTIF(F113:L113,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F113" s="9" t="str">
@@ -7212,11 +7212,11 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="D114" s="23" t="str">
-        <f>IF(COUNTIF(F114:L114,"D")&gt;0,"D",IF(COUNTIF(F114:L114,"-III")&gt;0,"-III",IF(COUNTIF(F114:L114,"-II")&gt;0,"-II",IF(COUNTIF(F114:L114,"-I")&gt;0,"-I",IF(COUNTIF(F114:L114,"+0")&gt;0,"+0",IF(COUNTIF(F114:L114,"+I")&gt;0,"+I",IF(COUNTIF(F114:L114,"+II")&gt;0,"+II",IF(COUNTIF(F114:L114,"+III")&gt;0,"+III",IF(COUNTIF(F114:L114,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E114" s="23" t="str">
-        <f>IF(COUNTIF(F114:L114,"-III")&gt;0,"-III",IF(COUNTIF(F114:L114,"-II")&gt;0,"-II",IF(COUNTIF(F114:L114,"-I")&gt;0,"-I",IF(COUNTIF(F114:L114,"+0")&gt;0,"+0",IF(COUNTIF(F114:L114,"+I")&gt;0,"+I",IF(COUNTIF(F114:L114,"+II")&gt;0,"+II",IF(COUNTIF(F114:L114,"+III")&gt;0,"+III",IF(COUNTIF(F114:L114,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="F114" s="9" t="str">
@@ -7256,11 +7256,11 @@
         <v>2.867</v>
       </c>
       <c r="D115" s="23" t="str">
-        <f>IF(COUNTIF(F115:L115,"D")&gt;0,"D",IF(COUNTIF(F115:L115,"-III")&gt;0,"-III",IF(COUNTIF(F115:L115,"-II")&gt;0,"-II",IF(COUNTIF(F115:L115,"-I")&gt;0,"-I",IF(COUNTIF(F115:L115,"+0")&gt;0,"+0",IF(COUNTIF(F115:L115,"+I")&gt;0,"+I",IF(COUNTIF(F115:L115,"+II")&gt;0,"+II",IF(COUNTIF(F115:L115,"+III")&gt;0,"+III",IF(COUNTIF(F115:L115,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E115" s="23" t="str">
-        <f>IF(COUNTIF(F115:L115,"-III")&gt;0,"-III",IF(COUNTIF(F115:L115,"-II")&gt;0,"-II",IF(COUNTIF(F115:L115,"-I")&gt;0,"-I",IF(COUNTIF(F115:L115,"+0")&gt;0,"+0",IF(COUNTIF(F115:L115,"+I")&gt;0,"+I",IF(COUNTIF(F115:L115,"+II")&gt;0,"+II",IF(COUNTIF(F115:L115,"+III")&gt;0,"+III",IF(COUNTIF(F115:L115,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F115" s="9" t="str">
@@ -7300,11 +7300,11 @@
         <v>2.8919999999999999</v>
       </c>
       <c r="D116" s="23" t="str">
-        <f>IF(COUNTIF(F116:L116,"D")&gt;0,"D",IF(COUNTIF(F116:L116,"-III")&gt;0,"-III",IF(COUNTIF(F116:L116,"-II")&gt;0,"-II",IF(COUNTIF(F116:L116,"-I")&gt;0,"-I",IF(COUNTIF(F116:L116,"+0")&gt;0,"+0",IF(COUNTIF(F116:L116,"+I")&gt;0,"+I",IF(COUNTIF(F116:L116,"+II")&gt;0,"+II",IF(COUNTIF(F116:L116,"+III")&gt;0,"+III",IF(COUNTIF(F116:L116,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E116" s="23" t="str">
-        <f>IF(COUNTIF(F116:L116,"-III")&gt;0,"-III",IF(COUNTIF(F116:L116,"-II")&gt;0,"-II",IF(COUNTIF(F116:L116,"-I")&gt;0,"-I",IF(COUNTIF(F116:L116,"+0")&gt;0,"+0",IF(COUNTIF(F116:L116,"+I")&gt;0,"+I",IF(COUNTIF(F116:L116,"+II")&gt;0,"+II",IF(COUNTIF(F116:L116,"+III")&gt;0,"+III",IF(COUNTIF(F116:L116,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F116" s="9" t="str">
@@ -7344,11 +7344,11 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="D117" s="23" t="str">
-        <f>IF(COUNTIF(F117:L117,"D")&gt;0,"D",IF(COUNTIF(F117:L117,"-III")&gt;0,"-III",IF(COUNTIF(F117:L117,"-II")&gt;0,"-II",IF(COUNTIF(F117:L117,"-I")&gt;0,"-I",IF(COUNTIF(F117:L117,"+0")&gt;0,"+0",IF(COUNTIF(F117:L117,"+I")&gt;0,"+I",IF(COUNTIF(F117:L117,"+II")&gt;0,"+II",IF(COUNTIF(F117:L117,"+III")&gt;0,"+III",IF(COUNTIF(F117:L117,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E117" s="23" t="str">
-        <f>IF(COUNTIF(F117:L117,"-III")&gt;0,"-III",IF(COUNTIF(F117:L117,"-II")&gt;0,"-II",IF(COUNTIF(F117:L117,"-I")&gt;0,"-I",IF(COUNTIF(F117:L117,"+0")&gt;0,"+0",IF(COUNTIF(F117:L117,"+I")&gt;0,"+I",IF(COUNTIF(F117:L117,"+II")&gt;0,"+II",IF(COUNTIF(F117:L117,"+III")&gt;0,"+III",IF(COUNTIF(F117:L117,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F117" s="9" t="str">
@@ -7388,11 +7388,11 @@
         <v>2.9159999999999999</v>
       </c>
       <c r="D118" s="23" t="str">
-        <f>IF(COUNTIF(F118:L118,"D")&gt;0,"D",IF(COUNTIF(F118:L118,"-III")&gt;0,"-III",IF(COUNTIF(F118:L118,"-II")&gt;0,"-II",IF(COUNTIF(F118:L118,"-I")&gt;0,"-I",IF(COUNTIF(F118:L118,"+0")&gt;0,"+0",IF(COUNTIF(F118:L118,"+I")&gt;0,"+I",IF(COUNTIF(F118:L118,"+II")&gt;0,"+II",IF(COUNTIF(F118:L118,"+III")&gt;0,"+III",IF(COUNTIF(F118:L118,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E118" s="23" t="str">
-        <f>IF(COUNTIF(F118:L118,"-III")&gt;0,"-III",IF(COUNTIF(F118:L118,"-II")&gt;0,"-II",IF(COUNTIF(F118:L118,"-I")&gt;0,"-I",IF(COUNTIF(F118:L118,"+0")&gt;0,"+0",IF(COUNTIF(F118:L118,"+I")&gt;0,"+I",IF(COUNTIF(F118:L118,"+II")&gt;0,"+II",IF(COUNTIF(F118:L118,"+III")&gt;0,"+III",IF(COUNTIF(F118:L118,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F118" s="9" t="str">
@@ -7432,11 +7432,11 @@
         <v>2.9609999999999999</v>
       </c>
       <c r="D119" s="23" t="str">
-        <f>IF(COUNTIF(F119:L119,"D")&gt;0,"D",IF(COUNTIF(F119:L119,"-III")&gt;0,"-III",IF(COUNTIF(F119:L119,"-II")&gt;0,"-II",IF(COUNTIF(F119:L119,"-I")&gt;0,"-I",IF(COUNTIF(F119:L119,"+0")&gt;0,"+0",IF(COUNTIF(F119:L119,"+I")&gt;0,"+I",IF(COUNTIF(F119:L119,"+II")&gt;0,"+II",IF(COUNTIF(F119:L119,"+III")&gt;0,"+III",IF(COUNTIF(F119:L119,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E119" s="23" t="str">
-        <f>IF(COUNTIF(F119:L119,"-III")&gt;0,"-III",IF(COUNTIF(F119:L119,"-II")&gt;0,"-II",IF(COUNTIF(F119:L119,"-I")&gt;0,"-I",IF(COUNTIF(F119:L119,"+0")&gt;0,"+0",IF(COUNTIF(F119:L119,"+I")&gt;0,"+I",IF(COUNTIF(F119:L119,"+II")&gt;0,"+II",IF(COUNTIF(F119:L119,"+III")&gt;0,"+III",IF(COUNTIF(F119:L119,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F119" s="9" t="str">
@@ -7476,11 +7476,11 @@
         <v>2.9940000000000002</v>
       </c>
       <c r="D120" s="23" t="str">
-        <f>IF(COUNTIF(F120:L120,"D")&gt;0,"D",IF(COUNTIF(F120:L120,"-III")&gt;0,"-III",IF(COUNTIF(F120:L120,"-II")&gt;0,"-II",IF(COUNTIF(F120:L120,"-I")&gt;0,"-I",IF(COUNTIF(F120:L120,"+0")&gt;0,"+0",IF(COUNTIF(F120:L120,"+I")&gt;0,"+I",IF(COUNTIF(F120:L120,"+II")&gt;0,"+II",IF(COUNTIF(F120:L120,"+III")&gt;0,"+III",IF(COUNTIF(F120:L120,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E120" s="23" t="str">
-        <f>IF(COUNTIF(F120:L120,"-III")&gt;0,"-III",IF(COUNTIF(F120:L120,"-II")&gt;0,"-II",IF(COUNTIF(F120:L120,"-I")&gt;0,"-I",IF(COUNTIF(F120:L120,"+0")&gt;0,"+0",IF(COUNTIF(F120:L120,"+I")&gt;0,"+I",IF(COUNTIF(F120:L120,"+II")&gt;0,"+II",IF(COUNTIF(F120:L120,"+III")&gt;0,"+III",IF(COUNTIF(F120:L120,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F120" s="9" t="str">
@@ -7520,11 +7520,11 @@
         <v>3.0569999999999999</v>
       </c>
       <c r="D121" s="23" t="str">
-        <f>IF(COUNTIF(F121:L121,"D")&gt;0,"D",IF(COUNTIF(F121:L121,"-III")&gt;0,"-III",IF(COUNTIF(F121:L121,"-II")&gt;0,"-II",IF(COUNTIF(F121:L121,"-I")&gt;0,"-I",IF(COUNTIF(F121:L121,"+0")&gt;0,"+0",IF(COUNTIF(F121:L121,"+I")&gt;0,"+I",IF(COUNTIF(F121:L121,"+II")&gt;0,"+II",IF(COUNTIF(F121:L121,"+III")&gt;0,"+III",IF(COUNTIF(F121:L121,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E121" s="23" t="str">
-        <f>IF(COUNTIF(F121:L121,"-III")&gt;0,"-III",IF(COUNTIF(F121:L121,"-II")&gt;0,"-II",IF(COUNTIF(F121:L121,"-I")&gt;0,"-I",IF(COUNTIF(F121:L121,"+0")&gt;0,"+0",IF(COUNTIF(F121:L121,"+I")&gt;0,"+I",IF(COUNTIF(F121:L121,"+II")&gt;0,"+II",IF(COUNTIF(F121:L121,"+III")&gt;0,"+III",IF(COUNTIF(F121:L121,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F121" s="9" t="str">
@@ -7564,11 +7564,11 @@
         <v>3.0750000000000002</v>
       </c>
       <c r="D122" s="23" t="str">
-        <f>IF(COUNTIF(F122:L122,"D")&gt;0,"D",IF(COUNTIF(F122:L122,"-III")&gt;0,"-III",IF(COUNTIF(F122:L122,"-II")&gt;0,"-II",IF(COUNTIF(F122:L122,"-I")&gt;0,"-I",IF(COUNTIF(F122:L122,"+0")&gt;0,"+0",IF(COUNTIF(F122:L122,"+I")&gt;0,"+I",IF(COUNTIF(F122:L122,"+II")&gt;0,"+II",IF(COUNTIF(F122:L122,"+III")&gt;0,"+III",IF(COUNTIF(F122:L122,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E122" s="23" t="str">
-        <f>IF(COUNTIF(F122:L122,"-III")&gt;0,"-III",IF(COUNTIF(F122:L122,"-II")&gt;0,"-II",IF(COUNTIF(F122:L122,"-I")&gt;0,"-I",IF(COUNTIF(F122:L122,"+0")&gt;0,"+0",IF(COUNTIF(F122:L122,"+I")&gt;0,"+I",IF(COUNTIF(F122:L122,"+II")&gt;0,"+II",IF(COUNTIF(F122:L122,"+III")&gt;0,"+III",IF(COUNTIF(F122:L122,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F122" s="9" t="str">
@@ -7608,11 +7608,11 @@
         <v>3.0819999999999999</v>
       </c>
       <c r="D123" s="23" t="str">
-        <f>IF(COUNTIF(F123:L123,"D")&gt;0,"D",IF(COUNTIF(F123:L123,"-III")&gt;0,"-III",IF(COUNTIF(F123:L123,"-II")&gt;0,"-II",IF(COUNTIF(F123:L123,"-I")&gt;0,"-I",IF(COUNTIF(F123:L123,"+0")&gt;0,"+0",IF(COUNTIF(F123:L123,"+I")&gt;0,"+I",IF(COUNTIF(F123:L123,"+II")&gt;0,"+II",IF(COUNTIF(F123:L123,"+III")&gt;0,"+III",IF(COUNTIF(F123:L123,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E123" s="23" t="str">
-        <f>IF(COUNTIF(F123:L123,"-III")&gt;0,"-III",IF(COUNTIF(F123:L123,"-II")&gt;0,"-II",IF(COUNTIF(F123:L123,"-I")&gt;0,"-I",IF(COUNTIF(F123:L123,"+0")&gt;0,"+0",IF(COUNTIF(F123:L123,"+I")&gt;0,"+I",IF(COUNTIF(F123:L123,"+II")&gt;0,"+II",IF(COUNTIF(F123:L123,"+III")&gt;0,"+III",IF(COUNTIF(F123:L123,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F123" s="9" t="str">
@@ -7652,11 +7652,11 @@
         <v>3.1789999999999998</v>
       </c>
       <c r="D124" s="23" t="str">
-        <f>IF(COUNTIF(F124:L124,"D")&gt;0,"D",IF(COUNTIF(F124:L124,"-III")&gt;0,"-III",IF(COUNTIF(F124:L124,"-II")&gt;0,"-II",IF(COUNTIF(F124:L124,"-I")&gt;0,"-I",IF(COUNTIF(F124:L124,"+0")&gt;0,"+0",IF(COUNTIF(F124:L124,"+I")&gt;0,"+I",IF(COUNTIF(F124:L124,"+II")&gt;0,"+II",IF(COUNTIF(F124:L124,"+III")&gt;0,"+III",IF(COUNTIF(F124:L124,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E124" s="23" t="str">
-        <f>IF(COUNTIF(F124:L124,"-III")&gt;0,"-III",IF(COUNTIF(F124:L124,"-II")&gt;0,"-II",IF(COUNTIF(F124:L124,"-I")&gt;0,"-I",IF(COUNTIF(F124:L124,"+0")&gt;0,"+0",IF(COUNTIF(F124:L124,"+I")&gt;0,"+I",IF(COUNTIF(F124:L124,"+II")&gt;0,"+II",IF(COUNTIF(F124:L124,"+III")&gt;0,"+III",IF(COUNTIF(F124:L124,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F124" s="9" t="str">
@@ -7696,11 +7696,11 @@
         <v>3.1819999999999999</v>
       </c>
       <c r="D125" s="23" t="str">
-        <f>IF(COUNTIF(F125:L125,"D")&gt;0,"D",IF(COUNTIF(F125:L125,"-III")&gt;0,"-III",IF(COUNTIF(F125:L125,"-II")&gt;0,"-II",IF(COUNTIF(F125:L125,"-I")&gt;0,"-I",IF(COUNTIF(F125:L125,"+0")&gt;0,"+0",IF(COUNTIF(F125:L125,"+I")&gt;0,"+I",IF(COUNTIF(F125:L125,"+II")&gt;0,"+II",IF(COUNTIF(F125:L125,"+III")&gt;0,"+III",IF(COUNTIF(F125:L125,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E125" s="23" t="str">
-        <f>IF(COUNTIF(F125:L125,"-III")&gt;0,"-III",IF(COUNTIF(F125:L125,"-II")&gt;0,"-II",IF(COUNTIF(F125:L125,"-I")&gt;0,"-I",IF(COUNTIF(F125:L125,"+0")&gt;0,"+0",IF(COUNTIF(F125:L125,"+I")&gt;0,"+I",IF(COUNTIF(F125:L125,"+II")&gt;0,"+II",IF(COUNTIF(F125:L125,"+III")&gt;0,"+III",IF(COUNTIF(F125:L125,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F125" s="9" t="str">
@@ -7740,11 +7740,11 @@
         <v>3.222</v>
       </c>
       <c r="D126" s="23" t="str">
-        <f>IF(COUNTIF(F126:L126,"D")&gt;0,"D",IF(COUNTIF(F126:L126,"-III")&gt;0,"-III",IF(COUNTIF(F126:L126,"-II")&gt;0,"-II",IF(COUNTIF(F126:L126,"-I")&gt;0,"-I",IF(COUNTIF(F126:L126,"+0")&gt;0,"+0",IF(COUNTIF(F126:L126,"+I")&gt;0,"+I",IF(COUNTIF(F126:L126,"+II")&gt;0,"+II",IF(COUNTIF(F126:L126,"+III")&gt;0,"+III",IF(COUNTIF(F126:L126,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E126" s="23" t="str">
-        <f>IF(COUNTIF(F126:L126,"-III")&gt;0,"-III",IF(COUNTIF(F126:L126,"-II")&gt;0,"-II",IF(COUNTIF(F126:L126,"-I")&gt;0,"-I",IF(COUNTIF(F126:L126,"+0")&gt;0,"+0",IF(COUNTIF(F126:L126,"+I")&gt;0,"+I",IF(COUNTIF(F126:L126,"+II")&gt;0,"+II",IF(COUNTIF(F126:L126,"+III")&gt;0,"+III",IF(COUNTIF(F126:L126,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F126" s="9" t="str">
@@ -7784,11 +7784,11 @@
         <v>3.246</v>
       </c>
       <c r="D127" s="23" t="str">
-        <f>IF(COUNTIF(F127:L127,"D")&gt;0,"D",IF(COUNTIF(F127:L127,"-III")&gt;0,"-III",IF(COUNTIF(F127:L127,"-II")&gt;0,"-II",IF(COUNTIF(F127:L127,"-I")&gt;0,"-I",IF(COUNTIF(F127:L127,"+0")&gt;0,"+0",IF(COUNTIF(F127:L127,"+I")&gt;0,"+I",IF(COUNTIF(F127:L127,"+II")&gt;0,"+II",IF(COUNTIF(F127:L127,"+III")&gt;0,"+III",IF(COUNTIF(F127:L127,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E127" s="23" t="str">
-        <f>IF(COUNTIF(F127:L127,"-III")&gt;0,"-III",IF(COUNTIF(F127:L127,"-II")&gt;0,"-II",IF(COUNTIF(F127:L127,"-I")&gt;0,"-I",IF(COUNTIF(F127:L127,"+0")&gt;0,"+0",IF(COUNTIF(F127:L127,"+I")&gt;0,"+I",IF(COUNTIF(F127:L127,"+II")&gt;0,"+II",IF(COUNTIF(F127:L127,"+III")&gt;0,"+III",IF(COUNTIF(F127:L127,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F127" s="9" t="str">
@@ -7828,11 +7828,11 @@
         <v>3.3180000000000001</v>
       </c>
       <c r="D128" s="23" t="str">
-        <f>IF(COUNTIF(F128:L128,"D")&gt;0,"D",IF(COUNTIF(F128:L128,"-III")&gt;0,"-III",IF(COUNTIF(F128:L128,"-II")&gt;0,"-II",IF(COUNTIF(F128:L128,"-I")&gt;0,"-I",IF(COUNTIF(F128:L128,"+0")&gt;0,"+0",IF(COUNTIF(F128:L128,"+I")&gt;0,"+I",IF(COUNTIF(F128:L128,"+II")&gt;0,"+II",IF(COUNTIF(F128:L128,"+III")&gt;0,"+III",IF(COUNTIF(F128:L128,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E128" s="23" t="str">
-        <f>IF(COUNTIF(F128:L128,"-III")&gt;0,"-III",IF(COUNTIF(F128:L128,"-II")&gt;0,"-II",IF(COUNTIF(F128:L128,"-I")&gt;0,"-I",IF(COUNTIF(F128:L128,"+0")&gt;0,"+0",IF(COUNTIF(F128:L128,"+I")&gt;0,"+I",IF(COUNTIF(F128:L128,"+II")&gt;0,"+II",IF(COUNTIF(F128:L128,"+III")&gt;0,"+III",IF(COUNTIF(F128:L128,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F128" s="9" t="str">
@@ -7872,11 +7872,11 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="D129" s="23" t="str">
-        <f>IF(COUNTIF(F129:L129,"D")&gt;0,"D",IF(COUNTIF(F129:L129,"-III")&gt;0,"-III",IF(COUNTIF(F129:L129,"-II")&gt;0,"-II",IF(COUNTIF(F129:L129,"-I")&gt;0,"-I",IF(COUNTIF(F129:L129,"+0")&gt;0,"+0",IF(COUNTIF(F129:L129,"+I")&gt;0,"+I",IF(COUNTIF(F129:L129,"+II")&gt;0,"+II",IF(COUNTIF(F129:L129,"+III")&gt;0,"+III",IF(COUNTIF(F129:L129,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E129" s="23" t="str">
-        <f>IF(COUNTIF(F129:L129,"-III")&gt;0,"-III",IF(COUNTIF(F129:L129,"-II")&gt;0,"-II",IF(COUNTIF(F129:L129,"-I")&gt;0,"-I",IF(COUNTIF(F129:L129,"+0")&gt;0,"+0",IF(COUNTIF(F129:L129,"+I")&gt;0,"+I",IF(COUNTIF(F129:L129,"+II")&gt;0,"+II",IF(COUNTIF(F129:L129,"+III")&gt;0,"+III",IF(COUNTIF(F129:L129,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F129" s="9" t="str">
@@ -7916,11 +7916,11 @@
         <v>3.3860000000000001</v>
       </c>
       <c r="D130" s="23" t="str">
-        <f>IF(COUNTIF(F130:L130,"D")&gt;0,"D",IF(COUNTIF(F130:L130,"-III")&gt;0,"-III",IF(COUNTIF(F130:L130,"-II")&gt;0,"-II",IF(COUNTIF(F130:L130,"-I")&gt;0,"-I",IF(COUNTIF(F130:L130,"+0")&gt;0,"+0",IF(COUNTIF(F130:L130,"+I")&gt;0,"+I",IF(COUNTIF(F130:L130,"+II")&gt;0,"+II",IF(COUNTIF(F130:L130,"+III")&gt;0,"+III",IF(COUNTIF(F130:L130,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="2"/>
         <v>+I</v>
       </c>
       <c r="E130" s="23" t="str">
-        <f>IF(COUNTIF(F130:L130,"-III")&gt;0,"-III",IF(COUNTIF(F130:L130,"-II")&gt;0,"-II",IF(COUNTIF(F130:L130,"-I")&gt;0,"-I",IF(COUNTIF(F130:L130,"+0")&gt;0,"+0",IF(COUNTIF(F130:L130,"+I")&gt;0,"+I",IF(COUNTIF(F130:L130,"+II")&gt;0,"+II",IF(COUNTIF(F130:L130,"+III")&gt;0,"+III",IF(COUNTIF(F130:L130,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="3"/>
         <v>+I</v>
       </c>
       <c r="F130" s="9" t="str">
@@ -7960,11 +7960,11 @@
         <v>3.387</v>
       </c>
       <c r="D131" s="23" t="str">
-        <f>IF(COUNTIF(F131:L131,"D")&gt;0,"D",IF(COUNTIF(F131:L131,"-III")&gt;0,"-III",IF(COUNTIF(F131:L131,"-II")&gt;0,"-II",IF(COUNTIF(F131:L131,"-I")&gt;0,"-I",IF(COUNTIF(F131:L131,"+0")&gt;0,"+0",IF(COUNTIF(F131:L131,"+I")&gt;0,"+I",IF(COUNTIF(F131:L131,"+II")&gt;0,"+II",IF(COUNTIF(F131:L131,"+III")&gt;0,"+III",IF(COUNTIF(F131:L131,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D131:D194" si="4">IF(COUNTIF(F131:L131,"D")&gt;0,"D",IF(COUNTIF(F131:L131,"-III")&gt;0,"-III",IF(COUNTIF(F131:L131,"-II")&gt;0,"-II",IF(COUNTIF(F131:L131,"-I")&gt;0,"-I",IF(COUNTIF(F131:L131,"+0")&gt;0,"+0",IF(COUNTIF(F131:L131,"+I")&gt;0,"+I",IF(COUNTIF(F131:L131,"+II")&gt;0,"+II",IF(COUNTIF(F131:L131,"+III")&gt;0,"+III",IF(COUNTIF(F131:L131,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E131" s="23" t="str">
-        <f>IF(COUNTIF(F131:L131,"-III")&gt;0,"-III",IF(COUNTIF(F131:L131,"-II")&gt;0,"-II",IF(COUNTIF(F131:L131,"-I")&gt;0,"-I",IF(COUNTIF(F131:L131,"+0")&gt;0,"+0",IF(COUNTIF(F131:L131,"+I")&gt;0,"+I",IF(COUNTIF(F131:L131,"+II")&gt;0,"+II",IF(COUNTIF(F131:L131,"+III")&gt;0,"+III",IF(COUNTIF(F131:L131,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E131:E194" si="5">IF(COUNTIF(F131:L131,"-III")&gt;0,"-III",IF(COUNTIF(F131:L131,"-II")&gt;0,"-II",IF(COUNTIF(F131:L131,"-I")&gt;0,"-I",IF(COUNTIF(F131:L131,"+0")&gt;0,"+0",IF(COUNTIF(F131:L131,"+I")&gt;0,"+I",IF(COUNTIF(F131:L131,"+II")&gt;0,"+II",IF(COUNTIF(F131:L131,"+III")&gt;0,"+III",IF(COUNTIF(F131:L131,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F131" s="9" t="str">
@@ -8004,11 +8004,11 @@
         <v>3.4079999999999999</v>
       </c>
       <c r="D132" s="23" t="str">
-        <f>IF(COUNTIF(F132:L132,"D")&gt;0,"D",IF(COUNTIF(F132:L132,"-III")&gt;0,"-III",IF(COUNTIF(F132:L132,"-II")&gt;0,"-II",IF(COUNTIF(F132:L132,"-I")&gt;0,"-I",IF(COUNTIF(F132:L132,"+0")&gt;0,"+0",IF(COUNTIF(F132:L132,"+I")&gt;0,"+I",IF(COUNTIF(F132:L132,"+II")&gt;0,"+II",IF(COUNTIF(F132:L132,"+III")&gt;0,"+III",IF(COUNTIF(F132:L132,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E132" s="23" t="str">
-        <f>IF(COUNTIF(F132:L132,"-III")&gt;0,"-III",IF(COUNTIF(F132:L132,"-II")&gt;0,"-II",IF(COUNTIF(F132:L132,"-I")&gt;0,"-I",IF(COUNTIF(F132:L132,"+0")&gt;0,"+0",IF(COUNTIF(F132:L132,"+I")&gt;0,"+I",IF(COUNTIF(F132:L132,"+II")&gt;0,"+II",IF(COUNTIF(F132:L132,"+III")&gt;0,"+III",IF(COUNTIF(F132:L132,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F132" s="9" t="str">
@@ -8048,11 +8048,11 @@
         <v>3.4540000000000002</v>
       </c>
       <c r="D133" s="23" t="str">
-        <f>IF(COUNTIF(F133:L133,"D")&gt;0,"D",IF(COUNTIF(F133:L133,"-III")&gt;0,"-III",IF(COUNTIF(F133:L133,"-II")&gt;0,"-II",IF(COUNTIF(F133:L133,"-I")&gt;0,"-I",IF(COUNTIF(F133:L133,"+0")&gt;0,"+0",IF(COUNTIF(F133:L133,"+I")&gt;0,"+I",IF(COUNTIF(F133:L133,"+II")&gt;0,"+II",IF(COUNTIF(F133:L133,"+III")&gt;0,"+III",IF(COUNTIF(F133:L133,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E133" s="23" t="str">
-        <f>IF(COUNTIF(F133:L133,"-III")&gt;0,"-III",IF(COUNTIF(F133:L133,"-II")&gt;0,"-II",IF(COUNTIF(F133:L133,"-I")&gt;0,"-I",IF(COUNTIF(F133:L133,"+0")&gt;0,"+0",IF(COUNTIF(F133:L133,"+I")&gt;0,"+I",IF(COUNTIF(F133:L133,"+II")&gt;0,"+II",IF(COUNTIF(F133:L133,"+III")&gt;0,"+III",IF(COUNTIF(F133:L133,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F133" s="9" t="str">
@@ -8092,11 +8092,11 @@
         <v>3.5329999999999999</v>
       </c>
       <c r="D134" s="23" t="str">
-        <f>IF(COUNTIF(F134:L134,"D")&gt;0,"D",IF(COUNTIF(F134:L134,"-III")&gt;0,"-III",IF(COUNTIF(F134:L134,"-II")&gt;0,"-II",IF(COUNTIF(F134:L134,"-I")&gt;0,"-I",IF(COUNTIF(F134:L134,"+0")&gt;0,"+0",IF(COUNTIF(F134:L134,"+I")&gt;0,"+I",IF(COUNTIF(F134:L134,"+II")&gt;0,"+II",IF(COUNTIF(F134:L134,"+III")&gt;0,"+III",IF(COUNTIF(F134:L134,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E134" s="23" t="str">
-        <f>IF(COUNTIF(F134:L134,"-III")&gt;0,"-III",IF(COUNTIF(F134:L134,"-II")&gt;0,"-II",IF(COUNTIF(F134:L134,"-I")&gt;0,"-I",IF(COUNTIF(F134:L134,"+0")&gt;0,"+0",IF(COUNTIF(F134:L134,"+I")&gt;0,"+I",IF(COUNTIF(F134:L134,"+II")&gt;0,"+II",IF(COUNTIF(F134:L134,"+III")&gt;0,"+III",IF(COUNTIF(F134:L134,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F134" s="9" t="str">
@@ -8136,11 +8136,11 @@
         <v>3.5680000000000001</v>
       </c>
       <c r="D135" s="23" t="str">
-        <f>IF(COUNTIF(F135:L135,"D")&gt;0,"D",IF(COUNTIF(F135:L135,"-III")&gt;0,"-III",IF(COUNTIF(F135:L135,"-II")&gt;0,"-II",IF(COUNTIF(F135:L135,"-I")&gt;0,"-I",IF(COUNTIF(F135:L135,"+0")&gt;0,"+0",IF(COUNTIF(F135:L135,"+I")&gt;0,"+I",IF(COUNTIF(F135:L135,"+II")&gt;0,"+II",IF(COUNTIF(F135:L135,"+III")&gt;0,"+III",IF(COUNTIF(F135:L135,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E135" s="23" t="str">
-        <f>IF(COUNTIF(F135:L135,"-III")&gt;0,"-III",IF(COUNTIF(F135:L135,"-II")&gt;0,"-II",IF(COUNTIF(F135:L135,"-I")&gt;0,"-I",IF(COUNTIF(F135:L135,"+0")&gt;0,"+0",IF(COUNTIF(F135:L135,"+I")&gt;0,"+I",IF(COUNTIF(F135:L135,"+II")&gt;0,"+II",IF(COUNTIF(F135:L135,"+III")&gt;0,"+III",IF(COUNTIF(F135:L135,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F135" s="9" t="str">
@@ -8180,11 +8180,11 @@
         <v>3.6120000000000001</v>
       </c>
       <c r="D136" s="23" t="str">
-        <f>IF(COUNTIF(F136:L136,"D")&gt;0,"D",IF(COUNTIF(F136:L136,"-III")&gt;0,"-III",IF(COUNTIF(F136:L136,"-II")&gt;0,"-II",IF(COUNTIF(F136:L136,"-I")&gt;0,"-I",IF(COUNTIF(F136:L136,"+0")&gt;0,"+0",IF(COUNTIF(F136:L136,"+I")&gt;0,"+I",IF(COUNTIF(F136:L136,"+II")&gt;0,"+II",IF(COUNTIF(F136:L136,"+III")&gt;0,"+III",IF(COUNTIF(F136:L136,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E136" s="23" t="str">
-        <f>IF(COUNTIF(F136:L136,"-III")&gt;0,"-III",IF(COUNTIF(F136:L136,"-II")&gt;0,"-II",IF(COUNTIF(F136:L136,"-I")&gt;0,"-I",IF(COUNTIF(F136:L136,"+0")&gt;0,"+0",IF(COUNTIF(F136:L136,"+I")&gt;0,"+I",IF(COUNTIF(F136:L136,"+II")&gt;0,"+II",IF(COUNTIF(F136:L136,"+III")&gt;0,"+III",IF(COUNTIF(F136:L136,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F136" s="9" t="str">
@@ -8224,11 +8224,11 @@
         <v>3.6190000000000002</v>
       </c>
       <c r="D137" s="23" t="str">
-        <f>IF(COUNTIF(F137:L137,"D")&gt;0,"D",IF(COUNTIF(F137:L137,"-III")&gt;0,"-III",IF(COUNTIF(F137:L137,"-II")&gt;0,"-II",IF(COUNTIF(F137:L137,"-I")&gt;0,"-I",IF(COUNTIF(F137:L137,"+0")&gt;0,"+0",IF(COUNTIF(F137:L137,"+I")&gt;0,"+I",IF(COUNTIF(F137:L137,"+II")&gt;0,"+II",IF(COUNTIF(F137:L137,"+III")&gt;0,"+III",IF(COUNTIF(F137:L137,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E137" s="23" t="str">
-        <f>IF(COUNTIF(F137:L137,"-III")&gt;0,"-III",IF(COUNTIF(F137:L137,"-II")&gt;0,"-II",IF(COUNTIF(F137:L137,"-I")&gt;0,"-I",IF(COUNTIF(F137:L137,"+0")&gt;0,"+0",IF(COUNTIF(F137:L137,"+I")&gt;0,"+I",IF(COUNTIF(F137:L137,"+II")&gt;0,"+II",IF(COUNTIF(F137:L137,"+III")&gt;0,"+III",IF(COUNTIF(F137:L137,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F137" s="9" t="str">
@@ -8268,11 +8268,11 @@
         <v>3.6520000000000001</v>
       </c>
       <c r="D138" s="23" t="str">
-        <f>IF(COUNTIF(F138:L138,"D")&gt;0,"D",IF(COUNTIF(F138:L138,"-III")&gt;0,"-III",IF(COUNTIF(F138:L138,"-II")&gt;0,"-II",IF(COUNTIF(F138:L138,"-I")&gt;0,"-I",IF(COUNTIF(F138:L138,"+0")&gt;0,"+0",IF(COUNTIF(F138:L138,"+I")&gt;0,"+I",IF(COUNTIF(F138:L138,"+II")&gt;0,"+II",IF(COUNTIF(F138:L138,"+III")&gt;0,"+III",IF(COUNTIF(F138:L138,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E138" s="23" t="str">
-        <f>IF(COUNTIF(F138:L138,"-III")&gt;0,"-III",IF(COUNTIF(F138:L138,"-II")&gt;0,"-II",IF(COUNTIF(F138:L138,"-I")&gt;0,"-I",IF(COUNTIF(F138:L138,"+0")&gt;0,"+0",IF(COUNTIF(F138:L138,"+I")&gt;0,"+I",IF(COUNTIF(F138:L138,"+II")&gt;0,"+II",IF(COUNTIF(F138:L138,"+III")&gt;0,"+III",IF(COUNTIF(F138:L138,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F138" s="9" t="str">
@@ -8312,11 +8312,11 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="D139" s="23" t="str">
-        <f>IF(COUNTIF(F139:L139,"D")&gt;0,"D",IF(COUNTIF(F139:L139,"-III")&gt;0,"-III",IF(COUNTIF(F139:L139,"-II")&gt;0,"-II",IF(COUNTIF(F139:L139,"-I")&gt;0,"-I",IF(COUNTIF(F139:L139,"+0")&gt;0,"+0",IF(COUNTIF(F139:L139,"+I")&gt;0,"+I",IF(COUNTIF(F139:L139,"+II")&gt;0,"+II",IF(COUNTIF(F139:L139,"+III")&gt;0,"+III",IF(COUNTIF(F139:L139,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E139" s="23" t="str">
-        <f>IF(COUNTIF(F139:L139,"-III")&gt;0,"-III",IF(COUNTIF(F139:L139,"-II")&gt;0,"-II",IF(COUNTIF(F139:L139,"-I")&gt;0,"-I",IF(COUNTIF(F139:L139,"+0")&gt;0,"+0",IF(COUNTIF(F139:L139,"+I")&gt;0,"+I",IF(COUNTIF(F139:L139,"+II")&gt;0,"+II",IF(COUNTIF(F139:L139,"+III")&gt;0,"+III",IF(COUNTIF(F139:L139,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F139" s="9" t="str">
@@ -8356,11 +8356,11 @@
         <v>3.673</v>
       </c>
       <c r="D140" s="23" t="str">
-        <f>IF(COUNTIF(F140:L140,"D")&gt;0,"D",IF(COUNTIF(F140:L140,"-III")&gt;0,"-III",IF(COUNTIF(F140:L140,"-II")&gt;0,"-II",IF(COUNTIF(F140:L140,"-I")&gt;0,"-I",IF(COUNTIF(F140:L140,"+0")&gt;0,"+0",IF(COUNTIF(F140:L140,"+I")&gt;0,"+I",IF(COUNTIF(F140:L140,"+II")&gt;0,"+II",IF(COUNTIF(F140:L140,"+III")&gt;0,"+III",IF(COUNTIF(F140:L140,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E140" s="23" t="str">
-        <f>IF(COUNTIF(F140:L140,"-III")&gt;0,"-III",IF(COUNTIF(F140:L140,"-II")&gt;0,"-II",IF(COUNTIF(F140:L140,"-I")&gt;0,"-I",IF(COUNTIF(F140:L140,"+0")&gt;0,"+0",IF(COUNTIF(F140:L140,"+I")&gt;0,"+I",IF(COUNTIF(F140:L140,"+II")&gt;0,"+II",IF(COUNTIF(F140:L140,"+III")&gt;0,"+III",IF(COUNTIF(F140:L140,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F140" s="9" t="str">
@@ -8400,11 +8400,11 @@
         <v>3.72</v>
       </c>
       <c r="D141" s="23" t="str">
-        <f>IF(COUNTIF(F141:L141,"D")&gt;0,"D",IF(COUNTIF(F141:L141,"-III")&gt;0,"-III",IF(COUNTIF(F141:L141,"-II")&gt;0,"-II",IF(COUNTIF(F141:L141,"-I")&gt;0,"-I",IF(COUNTIF(F141:L141,"+0")&gt;0,"+0",IF(COUNTIF(F141:L141,"+I")&gt;0,"+I",IF(COUNTIF(F141:L141,"+II")&gt;0,"+II",IF(COUNTIF(F141:L141,"+III")&gt;0,"+III",IF(COUNTIF(F141:L141,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E141" s="23" t="str">
-        <f>IF(COUNTIF(F141:L141,"-III")&gt;0,"-III",IF(COUNTIF(F141:L141,"-II")&gt;0,"-II",IF(COUNTIF(F141:L141,"-I")&gt;0,"-I",IF(COUNTIF(F141:L141,"+0")&gt;0,"+0",IF(COUNTIF(F141:L141,"+I")&gt;0,"+I",IF(COUNTIF(F141:L141,"+II")&gt;0,"+II",IF(COUNTIF(F141:L141,"+III")&gt;0,"+III",IF(COUNTIF(F141:L141,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F141" s="9" t="str">
@@ -8444,11 +8444,11 @@
         <v>3.8319999999999999</v>
       </c>
       <c r="D142" s="23" t="str">
-        <f>IF(COUNTIF(F142:L142,"D")&gt;0,"D",IF(COUNTIF(F142:L142,"-III")&gt;0,"-III",IF(COUNTIF(F142:L142,"-II")&gt;0,"-II",IF(COUNTIF(F142:L142,"-I")&gt;0,"-I",IF(COUNTIF(F142:L142,"+0")&gt;0,"+0",IF(COUNTIF(F142:L142,"+I")&gt;0,"+I",IF(COUNTIF(F142:L142,"+II")&gt;0,"+II",IF(COUNTIF(F142:L142,"+III")&gt;0,"+III",IF(COUNTIF(F142:L142,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E142" s="23" t="str">
-        <f>IF(COUNTIF(F142:L142,"-III")&gt;0,"-III",IF(COUNTIF(F142:L142,"-II")&gt;0,"-II",IF(COUNTIF(F142:L142,"-I")&gt;0,"-I",IF(COUNTIF(F142:L142,"+0")&gt;0,"+0",IF(COUNTIF(F142:L142,"+I")&gt;0,"+I",IF(COUNTIF(F142:L142,"+II")&gt;0,"+II",IF(COUNTIF(F142:L142,"+III")&gt;0,"+III",IF(COUNTIF(F142:L142,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F142" s="9" t="str">
@@ -8488,11 +8488,11 @@
         <v>3.8479999999999999</v>
       </c>
       <c r="D143" s="23" t="str">
-        <f>IF(COUNTIF(F143:L143,"D")&gt;0,"D",IF(COUNTIF(F143:L143,"-III")&gt;0,"-III",IF(COUNTIF(F143:L143,"-II")&gt;0,"-II",IF(COUNTIF(F143:L143,"-I")&gt;0,"-I",IF(COUNTIF(F143:L143,"+0")&gt;0,"+0",IF(COUNTIF(F143:L143,"+I")&gt;0,"+I",IF(COUNTIF(F143:L143,"+II")&gt;0,"+II",IF(COUNTIF(F143:L143,"+III")&gt;0,"+III",IF(COUNTIF(F143:L143,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E143" s="23" t="str">
-        <f>IF(COUNTIF(F143:L143,"-III")&gt;0,"-III",IF(COUNTIF(F143:L143,"-II")&gt;0,"-II",IF(COUNTIF(F143:L143,"-I")&gt;0,"-I",IF(COUNTIF(F143:L143,"+0")&gt;0,"+0",IF(COUNTIF(F143:L143,"+I")&gt;0,"+I",IF(COUNTIF(F143:L143,"+II")&gt;0,"+II",IF(COUNTIF(F143:L143,"+III")&gt;0,"+III",IF(COUNTIF(F143:L143,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F143" s="9" t="str">
@@ -8532,11 +8532,11 @@
         <v>3.8839999999999999</v>
       </c>
       <c r="D144" s="23" t="str">
-        <f>IF(COUNTIF(F144:L144,"D")&gt;0,"D",IF(COUNTIF(F144:L144,"-III")&gt;0,"-III",IF(COUNTIF(F144:L144,"-II")&gt;0,"-II",IF(COUNTIF(F144:L144,"-I")&gt;0,"-I",IF(COUNTIF(F144:L144,"+0")&gt;0,"+0",IF(COUNTIF(F144:L144,"+I")&gt;0,"+I",IF(COUNTIF(F144:L144,"+II")&gt;0,"+II",IF(COUNTIF(F144:L144,"+III")&gt;0,"+III",IF(COUNTIF(F144:L144,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E144" s="23" t="str">
-        <f>IF(COUNTIF(F144:L144,"-III")&gt;0,"-III",IF(COUNTIF(F144:L144,"-II")&gt;0,"-II",IF(COUNTIF(F144:L144,"-I")&gt;0,"-I",IF(COUNTIF(F144:L144,"+0")&gt;0,"+0",IF(COUNTIF(F144:L144,"+I")&gt;0,"+I",IF(COUNTIF(F144:L144,"+II")&gt;0,"+II",IF(COUNTIF(F144:L144,"+III")&gt;0,"+III",IF(COUNTIF(F144:L144,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F144" s="9" t="str">
@@ -8576,11 +8576,11 @@
         <v>3.9319999999999999</v>
       </c>
       <c r="D145" s="23" t="str">
-        <f>IF(COUNTIF(F145:L145,"D")&gt;0,"D",IF(COUNTIF(F145:L145,"-III")&gt;0,"-III",IF(COUNTIF(F145:L145,"-II")&gt;0,"-II",IF(COUNTIF(F145:L145,"-I")&gt;0,"-I",IF(COUNTIF(F145:L145,"+0")&gt;0,"+0",IF(COUNTIF(F145:L145,"+I")&gt;0,"+I",IF(COUNTIF(F145:L145,"+II")&gt;0,"+II",IF(COUNTIF(F145:L145,"+III")&gt;0,"+III",IF(COUNTIF(F145:L145,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E145" s="23" t="str">
-        <f>IF(COUNTIF(F145:L145,"-III")&gt;0,"-III",IF(COUNTIF(F145:L145,"-II")&gt;0,"-II",IF(COUNTIF(F145:L145,"-I")&gt;0,"-I",IF(COUNTIF(F145:L145,"+0")&gt;0,"+0",IF(COUNTIF(F145:L145,"+I")&gt;0,"+I",IF(COUNTIF(F145:L145,"+II")&gt;0,"+II",IF(COUNTIF(F145:L145,"+III")&gt;0,"+III",IF(COUNTIF(F145:L145,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F145" s="9" t="str">
@@ -8620,11 +8620,11 @@
         <v>3.9620000000000002</v>
       </c>
       <c r="D146" s="23" t="str">
-        <f>IF(COUNTIF(F146:L146,"D")&gt;0,"D",IF(COUNTIF(F146:L146,"-III")&gt;0,"-III",IF(COUNTIF(F146:L146,"-II")&gt;0,"-II",IF(COUNTIF(F146:L146,"-I")&gt;0,"-I",IF(COUNTIF(F146:L146,"+0")&gt;0,"+0",IF(COUNTIF(F146:L146,"+I")&gt;0,"+I",IF(COUNTIF(F146:L146,"+II")&gt;0,"+II",IF(COUNTIF(F146:L146,"+III")&gt;0,"+III",IF(COUNTIF(F146:L146,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E146" s="23" t="str">
-        <f>IF(COUNTIF(F146:L146,"-III")&gt;0,"-III",IF(COUNTIF(F146:L146,"-II")&gt;0,"-II",IF(COUNTIF(F146:L146,"-I")&gt;0,"-I",IF(COUNTIF(F146:L146,"+0")&gt;0,"+0",IF(COUNTIF(F146:L146,"+I")&gt;0,"+I",IF(COUNTIF(F146:L146,"+II")&gt;0,"+II",IF(COUNTIF(F146:L146,"+III")&gt;0,"+III",IF(COUNTIF(F146:L146,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F146" s="9" t="str">
@@ -8664,11 +8664,11 @@
         <v>3.9809999999999999</v>
       </c>
       <c r="D147" s="23" t="str">
-        <f>IF(COUNTIF(F147:L147,"D")&gt;0,"D",IF(COUNTIF(F147:L147,"-III")&gt;0,"-III",IF(COUNTIF(F147:L147,"-II")&gt;0,"-II",IF(COUNTIF(F147:L147,"-I")&gt;0,"-I",IF(COUNTIF(F147:L147,"+0")&gt;0,"+0",IF(COUNTIF(F147:L147,"+I")&gt;0,"+I",IF(COUNTIF(F147:L147,"+II")&gt;0,"+II",IF(COUNTIF(F147:L147,"+III")&gt;0,"+III",IF(COUNTIF(F147:L147,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E147" s="23" t="str">
-        <f>IF(COUNTIF(F147:L147,"-III")&gt;0,"-III",IF(COUNTIF(F147:L147,"-II")&gt;0,"-II",IF(COUNTIF(F147:L147,"-I")&gt;0,"-I",IF(COUNTIF(F147:L147,"+0")&gt;0,"+0",IF(COUNTIF(F147:L147,"+I")&gt;0,"+I",IF(COUNTIF(F147:L147,"+II")&gt;0,"+II",IF(COUNTIF(F147:L147,"+III")&gt;0,"+III",IF(COUNTIF(F147:L147,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F147" s="9" t="str">
@@ -8708,11 +8708,11 @@
         <v>4.0940000000000003</v>
       </c>
       <c r="D148" s="23" t="str">
-        <f>IF(COUNTIF(F148:L148,"D")&gt;0,"D",IF(COUNTIF(F148:L148,"-III")&gt;0,"-III",IF(COUNTIF(F148:L148,"-II")&gt;0,"-II",IF(COUNTIF(F148:L148,"-I")&gt;0,"-I",IF(COUNTIF(F148:L148,"+0")&gt;0,"+0",IF(COUNTIF(F148:L148,"+I")&gt;0,"+I",IF(COUNTIF(F148:L148,"+II")&gt;0,"+II",IF(COUNTIF(F148:L148,"+III")&gt;0,"+III",IF(COUNTIF(F148:L148,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E148" s="23" t="str">
-        <f>IF(COUNTIF(F148:L148,"-III")&gt;0,"-III",IF(COUNTIF(F148:L148,"-II")&gt;0,"-II",IF(COUNTIF(F148:L148,"-I")&gt;0,"-I",IF(COUNTIF(F148:L148,"+0")&gt;0,"+0",IF(COUNTIF(F148:L148,"+I")&gt;0,"+I",IF(COUNTIF(F148:L148,"+II")&gt;0,"+II",IF(COUNTIF(F148:L148,"+III")&gt;0,"+III",IF(COUNTIF(F148:L148,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F148" s="9" t="str">
@@ -8752,11 +8752,11 @@
         <v>4.0949999999999998</v>
       </c>
       <c r="D149" s="23" t="str">
-        <f>IF(COUNTIF(F149:L149,"D")&gt;0,"D",IF(COUNTIF(F149:L149,"-III")&gt;0,"-III",IF(COUNTIF(F149:L149,"-II")&gt;0,"-II",IF(COUNTIF(F149:L149,"-I")&gt;0,"-I",IF(COUNTIF(F149:L149,"+0")&gt;0,"+0",IF(COUNTIF(F149:L149,"+I")&gt;0,"+I",IF(COUNTIF(F149:L149,"+II")&gt;0,"+II",IF(COUNTIF(F149:L149,"+III")&gt;0,"+III",IF(COUNTIF(F149:L149,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>+I</v>
       </c>
       <c r="E149" s="23" t="str">
-        <f>IF(COUNTIF(F149:L149,"-III")&gt;0,"-III",IF(COUNTIF(F149:L149,"-II")&gt;0,"-II",IF(COUNTIF(F149:L149,"-I")&gt;0,"-I",IF(COUNTIF(F149:L149,"+0")&gt;0,"+0",IF(COUNTIF(F149:L149,"+I")&gt;0,"+I",IF(COUNTIF(F149:L149,"+II")&gt;0,"+II",IF(COUNTIF(F149:L149,"+III")&gt;0,"+III",IF(COUNTIF(F149:L149,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F149" s="9" t="str">
@@ -8796,11 +8796,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D150" s="23" t="str">
-        <f>IF(COUNTIF(F150:L150,"D")&gt;0,"D",IF(COUNTIF(F150:L150,"-III")&gt;0,"-III",IF(COUNTIF(F150:L150,"-II")&gt;0,"-II",IF(COUNTIF(F150:L150,"-I")&gt;0,"-I",IF(COUNTIF(F150:L150,"+0")&gt;0,"+0",IF(COUNTIF(F150:L150,"+I")&gt;0,"+I",IF(COUNTIF(F150:L150,"+II")&gt;0,"+II",IF(COUNTIF(F150:L150,"+III")&gt;0,"+III",IF(COUNTIF(F150:L150,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E150" s="23" t="str">
-        <f>IF(COUNTIF(F150:L150,"-III")&gt;0,"-III",IF(COUNTIF(F150:L150,"-II")&gt;0,"-II",IF(COUNTIF(F150:L150,"-I")&gt;0,"-I",IF(COUNTIF(F150:L150,"+0")&gt;0,"+0",IF(COUNTIF(F150:L150,"+I")&gt;0,"+I",IF(COUNTIF(F150:L150,"+II")&gt;0,"+II",IF(COUNTIF(F150:L150,"+III")&gt;0,"+III",IF(COUNTIF(F150:L150,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F150" s="9" t="str">
@@ -8840,11 +8840,11 @@
         <v>4.125</v>
       </c>
       <c r="D151" s="23" t="str">
-        <f>IF(COUNTIF(F151:L151,"D")&gt;0,"D",IF(COUNTIF(F151:L151,"-III")&gt;0,"-III",IF(COUNTIF(F151:L151,"-II")&gt;0,"-II",IF(COUNTIF(F151:L151,"-I")&gt;0,"-I",IF(COUNTIF(F151:L151,"+0")&gt;0,"+0",IF(COUNTIF(F151:L151,"+I")&gt;0,"+I",IF(COUNTIF(F151:L151,"+II")&gt;0,"+II",IF(COUNTIF(F151:L151,"+III")&gt;0,"+III",IF(COUNTIF(F151:L151,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E151" s="23" t="str">
-        <f>IF(COUNTIF(F151:L151,"-III")&gt;0,"-III",IF(COUNTIF(F151:L151,"-II")&gt;0,"-II",IF(COUNTIF(F151:L151,"-I")&gt;0,"-I",IF(COUNTIF(F151:L151,"+0")&gt;0,"+0",IF(COUNTIF(F151:L151,"+I")&gt;0,"+I",IF(COUNTIF(F151:L151,"+II")&gt;0,"+II",IF(COUNTIF(F151:L151,"+III")&gt;0,"+III",IF(COUNTIF(F151:L151,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F151" s="9" t="str">
@@ -8884,11 +8884,11 @@
         <v>4.1470000000000002</v>
       </c>
       <c r="D152" s="23" t="str">
-        <f>IF(COUNTIF(F152:L152,"D")&gt;0,"D",IF(COUNTIF(F152:L152,"-III")&gt;0,"-III",IF(COUNTIF(F152:L152,"-II")&gt;0,"-II",IF(COUNTIF(F152:L152,"-I")&gt;0,"-I",IF(COUNTIF(F152:L152,"+0")&gt;0,"+0",IF(COUNTIF(F152:L152,"+I")&gt;0,"+I",IF(COUNTIF(F152:L152,"+II")&gt;0,"+II",IF(COUNTIF(F152:L152,"+III")&gt;0,"+III",IF(COUNTIF(F152:L152,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E152" s="23" t="str">
-        <f>IF(COUNTIF(F152:L152,"-III")&gt;0,"-III",IF(COUNTIF(F152:L152,"-II")&gt;0,"-II",IF(COUNTIF(F152:L152,"-I")&gt;0,"-I",IF(COUNTIF(F152:L152,"+0")&gt;0,"+0",IF(COUNTIF(F152:L152,"+I")&gt;0,"+I",IF(COUNTIF(F152:L152,"+II")&gt;0,"+II",IF(COUNTIF(F152:L152,"+III")&gt;0,"+III",IF(COUNTIF(F152:L152,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F152" s="9" t="str">
@@ -8928,11 +8928,11 @@
         <v>4.1479999999999997</v>
       </c>
       <c r="D153" s="23" t="str">
-        <f>IF(COUNTIF(F153:L153,"D")&gt;0,"D",IF(COUNTIF(F153:L153,"-III")&gt;0,"-III",IF(COUNTIF(F153:L153,"-II")&gt;0,"-II",IF(COUNTIF(F153:L153,"-I")&gt;0,"-I",IF(COUNTIF(F153:L153,"+0")&gt;0,"+0",IF(COUNTIF(F153:L153,"+I")&gt;0,"+I",IF(COUNTIF(F153:L153,"+II")&gt;0,"+II",IF(COUNTIF(F153:L153,"+III")&gt;0,"+III",IF(COUNTIF(F153:L153,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E153" s="23" t="str">
-        <f>IF(COUNTIF(F153:L153,"-III")&gt;0,"-III",IF(COUNTIF(F153:L153,"-II")&gt;0,"-II",IF(COUNTIF(F153:L153,"-I")&gt;0,"-I",IF(COUNTIF(F153:L153,"+0")&gt;0,"+0",IF(COUNTIF(F153:L153,"+I")&gt;0,"+I",IF(COUNTIF(F153:L153,"+II")&gt;0,"+II",IF(COUNTIF(F153:L153,"+III")&gt;0,"+III",IF(COUNTIF(F153:L153,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F153" s="9" t="str">
@@ -8972,11 +8972,11 @@
         <v>4.1829999999999998</v>
       </c>
       <c r="D154" s="23" t="str">
-        <f>IF(COUNTIF(F154:L154,"D")&gt;0,"D",IF(COUNTIF(F154:L154,"-III")&gt;0,"-III",IF(COUNTIF(F154:L154,"-II")&gt;0,"-II",IF(COUNTIF(F154:L154,"-I")&gt;0,"-I",IF(COUNTIF(F154:L154,"+0")&gt;0,"+0",IF(COUNTIF(F154:L154,"+I")&gt;0,"+I",IF(COUNTIF(F154:L154,"+II")&gt;0,"+II",IF(COUNTIF(F154:L154,"+III")&gt;0,"+III",IF(COUNTIF(F154:L154,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E154" s="23" t="str">
-        <f>IF(COUNTIF(F154:L154,"-III")&gt;0,"-III",IF(COUNTIF(F154:L154,"-II")&gt;0,"-II",IF(COUNTIF(F154:L154,"-I")&gt;0,"-I",IF(COUNTIF(F154:L154,"+0")&gt;0,"+0",IF(COUNTIF(F154:L154,"+I")&gt;0,"+I",IF(COUNTIF(F154:L154,"+II")&gt;0,"+II",IF(COUNTIF(F154:L154,"+III")&gt;0,"+III",IF(COUNTIF(F154:L154,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F154" s="9" t="str">
@@ -9016,11 +9016,11 @@
         <v>4.2110000000000003</v>
       </c>
       <c r="D155" s="23" t="str">
-        <f>IF(COUNTIF(F155:L155,"D")&gt;0,"D",IF(COUNTIF(F155:L155,"-III")&gt;0,"-III",IF(COUNTIF(F155:L155,"-II")&gt;0,"-II",IF(COUNTIF(F155:L155,"-I")&gt;0,"-I",IF(COUNTIF(F155:L155,"+0")&gt;0,"+0",IF(COUNTIF(F155:L155,"+I")&gt;0,"+I",IF(COUNTIF(F155:L155,"+II")&gt;0,"+II",IF(COUNTIF(F155:L155,"+III")&gt;0,"+III",IF(COUNTIF(F155:L155,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E155" s="23" t="str">
-        <f>IF(COUNTIF(F155:L155,"-III")&gt;0,"-III",IF(COUNTIF(F155:L155,"-II")&gt;0,"-II",IF(COUNTIF(F155:L155,"-I")&gt;0,"-I",IF(COUNTIF(F155:L155,"+0")&gt;0,"+0",IF(COUNTIF(F155:L155,"+I")&gt;0,"+I",IF(COUNTIF(F155:L155,"+II")&gt;0,"+II",IF(COUNTIF(F155:L155,"+III")&gt;0,"+III",IF(COUNTIF(F155:L155,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F155" s="9" t="str">
@@ -9060,11 +9060,11 @@
         <v>4.2160000000000002</v>
       </c>
       <c r="D156" s="23" t="str">
-        <f>IF(COUNTIF(F156:L156,"D")&gt;0,"D",IF(COUNTIF(F156:L156,"-III")&gt;0,"-III",IF(COUNTIF(F156:L156,"-II")&gt;0,"-II",IF(COUNTIF(F156:L156,"-I")&gt;0,"-I",IF(COUNTIF(F156:L156,"+0")&gt;0,"+0",IF(COUNTIF(F156:L156,"+I")&gt;0,"+I",IF(COUNTIF(F156:L156,"+II")&gt;0,"+II",IF(COUNTIF(F156:L156,"+III")&gt;0,"+III",IF(COUNTIF(F156:L156,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E156" s="23" t="str">
-        <f>IF(COUNTIF(F156:L156,"-III")&gt;0,"-III",IF(COUNTIF(F156:L156,"-II")&gt;0,"-II",IF(COUNTIF(F156:L156,"-I")&gt;0,"-I",IF(COUNTIF(F156:L156,"+0")&gt;0,"+0",IF(COUNTIF(F156:L156,"+I")&gt;0,"+I",IF(COUNTIF(F156:L156,"+II")&gt;0,"+II",IF(COUNTIF(F156:L156,"+III")&gt;0,"+III",IF(COUNTIF(F156:L156,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F156" s="9" t="str">
@@ -9104,11 +9104,11 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="D157" s="23" t="str">
-        <f>IF(COUNTIF(F157:L157,"D")&gt;0,"D",IF(COUNTIF(F157:L157,"-III")&gt;0,"-III",IF(COUNTIF(F157:L157,"-II")&gt;0,"-II",IF(COUNTIF(F157:L157,"-I")&gt;0,"-I",IF(COUNTIF(F157:L157,"+0")&gt;0,"+0",IF(COUNTIF(F157:L157,"+I")&gt;0,"+I",IF(COUNTIF(F157:L157,"+II")&gt;0,"+II",IF(COUNTIF(F157:L157,"+III")&gt;0,"+III",IF(COUNTIF(F157:L157,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E157" s="23" t="str">
-        <f>IF(COUNTIF(F157:L157,"-III")&gt;0,"-III",IF(COUNTIF(F157:L157,"-II")&gt;0,"-II",IF(COUNTIF(F157:L157,"-I")&gt;0,"-I",IF(COUNTIF(F157:L157,"+0")&gt;0,"+0",IF(COUNTIF(F157:L157,"+I")&gt;0,"+I",IF(COUNTIF(F157:L157,"+II")&gt;0,"+II",IF(COUNTIF(F157:L157,"+III")&gt;0,"+III",IF(COUNTIF(F157:L157,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F157" s="9" t="str">
@@ -9148,11 +9148,11 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="D158" s="23" t="str">
-        <f>IF(COUNTIF(F158:L158,"D")&gt;0,"D",IF(COUNTIF(F158:L158,"-III")&gt;0,"-III",IF(COUNTIF(F158:L158,"-II")&gt;0,"-II",IF(COUNTIF(F158:L158,"-I")&gt;0,"-I",IF(COUNTIF(F158:L158,"+0")&gt;0,"+0",IF(COUNTIF(F158:L158,"+I")&gt;0,"+I",IF(COUNTIF(F158:L158,"+II")&gt;0,"+II",IF(COUNTIF(F158:L158,"+III")&gt;0,"+III",IF(COUNTIF(F158:L158,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E158" s="23" t="str">
-        <f>IF(COUNTIF(F158:L158,"-III")&gt;0,"-III",IF(COUNTIF(F158:L158,"-II")&gt;0,"-II",IF(COUNTIF(F158:L158,"-I")&gt;0,"-I",IF(COUNTIF(F158:L158,"+0")&gt;0,"+0",IF(COUNTIF(F158:L158,"+I")&gt;0,"+I",IF(COUNTIF(F158:L158,"+II")&gt;0,"+II",IF(COUNTIF(F158:L158,"+III")&gt;0,"+III",IF(COUNTIF(F158:L158,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F158" s="9" t="str">
@@ -9192,11 +9192,11 @@
         <v>4.4169999999999998</v>
       </c>
       <c r="D159" s="23" t="str">
-        <f>IF(COUNTIF(F159:L159,"D")&gt;0,"D",IF(COUNTIF(F159:L159,"-III")&gt;0,"-III",IF(COUNTIF(F159:L159,"-II")&gt;0,"-II",IF(COUNTIF(F159:L159,"-I")&gt;0,"-I",IF(COUNTIF(F159:L159,"+0")&gt;0,"+0",IF(COUNTIF(F159:L159,"+I")&gt;0,"+I",IF(COUNTIF(F159:L159,"+II")&gt;0,"+II",IF(COUNTIF(F159:L159,"+III")&gt;0,"+III",IF(COUNTIF(F159:L159,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E159" s="23" t="str">
-        <f>IF(COUNTIF(F159:L159,"-III")&gt;0,"-III",IF(COUNTIF(F159:L159,"-II")&gt;0,"-II",IF(COUNTIF(F159:L159,"-I")&gt;0,"-I",IF(COUNTIF(F159:L159,"+0")&gt;0,"+0",IF(COUNTIF(F159:L159,"+I")&gt;0,"+I",IF(COUNTIF(F159:L159,"+II")&gt;0,"+II",IF(COUNTIF(F159:L159,"+III")&gt;0,"+III",IF(COUNTIF(F159:L159,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F159" s="9" t="str">
@@ -9236,11 +9236,11 @@
         <v>4.4480000000000004</v>
       </c>
       <c r="D160" s="23" t="str">
-        <f>IF(COUNTIF(F160:L160,"D")&gt;0,"D",IF(COUNTIF(F160:L160,"-III")&gt;0,"-III",IF(COUNTIF(F160:L160,"-II")&gt;0,"-II",IF(COUNTIF(F160:L160,"-I")&gt;0,"-I",IF(COUNTIF(F160:L160,"+0")&gt;0,"+0",IF(COUNTIF(F160:L160,"+I")&gt;0,"+I",IF(COUNTIF(F160:L160,"+II")&gt;0,"+II",IF(COUNTIF(F160:L160,"+III")&gt;0,"+III",IF(COUNTIF(F160:L160,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E160" s="23" t="str">
-        <f>IF(COUNTIF(F160:L160,"-III")&gt;0,"-III",IF(COUNTIF(F160:L160,"-II")&gt;0,"-II",IF(COUNTIF(F160:L160,"-I")&gt;0,"-I",IF(COUNTIF(F160:L160,"+0")&gt;0,"+0",IF(COUNTIF(F160:L160,"+I")&gt;0,"+I",IF(COUNTIF(F160:L160,"+II")&gt;0,"+II",IF(COUNTIF(F160:L160,"+III")&gt;0,"+III",IF(COUNTIF(F160:L160,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F160" s="9" t="str">
@@ -9280,11 +9280,11 @@
         <v>4.4619999999999997</v>
       </c>
       <c r="D161" s="23" t="str">
-        <f>IF(COUNTIF(F161:L161,"D")&gt;0,"D",IF(COUNTIF(F161:L161,"-III")&gt;0,"-III",IF(COUNTIF(F161:L161,"-II")&gt;0,"-II",IF(COUNTIF(F161:L161,"-I")&gt;0,"-I",IF(COUNTIF(F161:L161,"+0")&gt;0,"+0",IF(COUNTIF(F161:L161,"+I")&gt;0,"+I",IF(COUNTIF(F161:L161,"+II")&gt;0,"+II",IF(COUNTIF(F161:L161,"+III")&gt;0,"+III",IF(COUNTIF(F161:L161,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E161" s="23" t="str">
-        <f>IF(COUNTIF(F161:L161,"-III")&gt;0,"-III",IF(COUNTIF(F161:L161,"-II")&gt;0,"-II",IF(COUNTIF(F161:L161,"-I")&gt;0,"-I",IF(COUNTIF(F161:L161,"+0")&gt;0,"+0",IF(COUNTIF(F161:L161,"+I")&gt;0,"+I",IF(COUNTIF(F161:L161,"+II")&gt;0,"+II",IF(COUNTIF(F161:L161,"+III")&gt;0,"+III",IF(COUNTIF(F161:L161,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F161" s="9" t="str">
@@ -9324,11 +9324,11 @@
         <v>4.5679999999999996</v>
       </c>
       <c r="D162" s="23" t="str">
-        <f>IF(COUNTIF(F162:L162,"D")&gt;0,"D",IF(COUNTIF(F162:L162,"-III")&gt;0,"-III",IF(COUNTIF(F162:L162,"-II")&gt;0,"-II",IF(COUNTIF(F162:L162,"-I")&gt;0,"-I",IF(COUNTIF(F162:L162,"+0")&gt;0,"+0",IF(COUNTIF(F162:L162,"+I")&gt;0,"+I",IF(COUNTIF(F162:L162,"+II")&gt;0,"+II",IF(COUNTIF(F162:L162,"+III")&gt;0,"+III",IF(COUNTIF(F162:L162,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E162" s="23" t="str">
-        <f>IF(COUNTIF(F162:L162,"-III")&gt;0,"-III",IF(COUNTIF(F162:L162,"-II")&gt;0,"-II",IF(COUNTIF(F162:L162,"-I")&gt;0,"-I",IF(COUNTIF(F162:L162,"+0")&gt;0,"+0",IF(COUNTIF(F162:L162,"+I")&gt;0,"+I",IF(COUNTIF(F162:L162,"+II")&gt;0,"+II",IF(COUNTIF(F162:L162,"+III")&gt;0,"+III",IF(COUNTIF(F162:L162,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F162" s="9" t="str">
@@ -9368,11 +9368,11 @@
         <v>4.6029999999999998</v>
       </c>
       <c r="D163" s="23" t="str">
-        <f>IF(COUNTIF(F163:L163,"D")&gt;0,"D",IF(COUNTIF(F163:L163,"-III")&gt;0,"-III",IF(COUNTIF(F163:L163,"-II")&gt;0,"-II",IF(COUNTIF(F163:L163,"-I")&gt;0,"-I",IF(COUNTIF(F163:L163,"+0")&gt;0,"+0",IF(COUNTIF(F163:L163,"+I")&gt;0,"+I",IF(COUNTIF(F163:L163,"+II")&gt;0,"+II",IF(COUNTIF(F163:L163,"+III")&gt;0,"+III",IF(COUNTIF(F163:L163,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E163" s="23" t="str">
-        <f>IF(COUNTIF(F163:L163,"-III")&gt;0,"-III",IF(COUNTIF(F163:L163,"-II")&gt;0,"-II",IF(COUNTIF(F163:L163,"-I")&gt;0,"-I",IF(COUNTIF(F163:L163,"+0")&gt;0,"+0",IF(COUNTIF(F163:L163,"+I")&gt;0,"+I",IF(COUNTIF(F163:L163,"+II")&gt;0,"+II",IF(COUNTIF(F163:L163,"+III")&gt;0,"+III",IF(COUNTIF(F163:L163,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F163" s="9" t="str">
@@ -9412,11 +9412,11 @@
         <v>4.6630000000000003</v>
       </c>
       <c r="D164" s="23" t="str">
-        <f>IF(COUNTIF(F164:L164,"D")&gt;0,"D",IF(COUNTIF(F164:L164,"-III")&gt;0,"-III",IF(COUNTIF(F164:L164,"-II")&gt;0,"-II",IF(COUNTIF(F164:L164,"-I")&gt;0,"-I",IF(COUNTIF(F164:L164,"+0")&gt;0,"+0",IF(COUNTIF(F164:L164,"+I")&gt;0,"+I",IF(COUNTIF(F164:L164,"+II")&gt;0,"+II",IF(COUNTIF(F164:L164,"+III")&gt;0,"+III",IF(COUNTIF(F164:L164,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E164" s="23" t="str">
-        <f>IF(COUNTIF(F164:L164,"-III")&gt;0,"-III",IF(COUNTIF(F164:L164,"-II")&gt;0,"-II",IF(COUNTIF(F164:L164,"-I")&gt;0,"-I",IF(COUNTIF(F164:L164,"+0")&gt;0,"+0",IF(COUNTIF(F164:L164,"+I")&gt;0,"+I",IF(COUNTIF(F164:L164,"+II")&gt;0,"+II",IF(COUNTIF(F164:L164,"+III")&gt;0,"+III",IF(COUNTIF(F164:L164,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F164" s="9" t="str">
@@ -9456,11 +9456,11 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="D165" s="23" t="str">
-        <f>IF(COUNTIF(F165:L165,"D")&gt;0,"D",IF(COUNTIF(F165:L165,"-III")&gt;0,"-III",IF(COUNTIF(F165:L165,"-II")&gt;0,"-II",IF(COUNTIF(F165:L165,"-I")&gt;0,"-I",IF(COUNTIF(F165:L165,"+0")&gt;0,"+0",IF(COUNTIF(F165:L165,"+I")&gt;0,"+I",IF(COUNTIF(F165:L165,"+II")&gt;0,"+II",IF(COUNTIF(F165:L165,"+III")&gt;0,"+III",IF(COUNTIF(F165:L165,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E165" s="23" t="str">
-        <f>IF(COUNTIF(F165:L165,"-III")&gt;0,"-III",IF(COUNTIF(F165:L165,"-II")&gt;0,"-II",IF(COUNTIF(F165:L165,"-I")&gt;0,"-I",IF(COUNTIF(F165:L165,"+0")&gt;0,"+0",IF(COUNTIF(F165:L165,"+I")&gt;0,"+I",IF(COUNTIF(F165:L165,"+II")&gt;0,"+II",IF(COUNTIF(F165:L165,"+III")&gt;0,"+III",IF(COUNTIF(F165:L165,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F165" s="9" t="str">
@@ -9500,11 +9500,11 @@
         <v>4.7220000000000004</v>
       </c>
       <c r="D166" s="23" t="str">
-        <f>IF(COUNTIF(F166:L166,"D")&gt;0,"D",IF(COUNTIF(F166:L166,"-III")&gt;0,"-III",IF(COUNTIF(F166:L166,"-II")&gt;0,"-II",IF(COUNTIF(F166:L166,"-I")&gt;0,"-I",IF(COUNTIF(F166:L166,"+0")&gt;0,"+0",IF(COUNTIF(F166:L166,"+I")&gt;0,"+I",IF(COUNTIF(F166:L166,"+II")&gt;0,"+II",IF(COUNTIF(F166:L166,"+III")&gt;0,"+III",IF(COUNTIF(F166:L166,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E166" s="23" t="str">
-        <f>IF(COUNTIF(F166:L166,"-III")&gt;0,"-III",IF(COUNTIF(F166:L166,"-II")&gt;0,"-II",IF(COUNTIF(F166:L166,"-I")&gt;0,"-I",IF(COUNTIF(F166:L166,"+0")&gt;0,"+0",IF(COUNTIF(F166:L166,"+I")&gt;0,"+I",IF(COUNTIF(F166:L166,"+II")&gt;0,"+II",IF(COUNTIF(F166:L166,"+III")&gt;0,"+III",IF(COUNTIF(F166:L166,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F166" s="9" t="str">
@@ -9544,11 +9544,11 @@
         <v>4.8079999999999998</v>
       </c>
       <c r="D167" s="23" t="str">
-        <f>IF(COUNTIF(F167:L167,"D")&gt;0,"D",IF(COUNTIF(F167:L167,"-III")&gt;0,"-III",IF(COUNTIF(F167:L167,"-II")&gt;0,"-II",IF(COUNTIF(F167:L167,"-I")&gt;0,"-I",IF(COUNTIF(F167:L167,"+0")&gt;0,"+0",IF(COUNTIF(F167:L167,"+I")&gt;0,"+I",IF(COUNTIF(F167:L167,"+II")&gt;0,"+II",IF(COUNTIF(F167:L167,"+III")&gt;0,"+III",IF(COUNTIF(F167:L167,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E167" s="23" t="str">
-        <f>IF(COUNTIF(F167:L167,"-III")&gt;0,"-III",IF(COUNTIF(F167:L167,"-II")&gt;0,"-II",IF(COUNTIF(F167:L167,"-I")&gt;0,"-I",IF(COUNTIF(F167:L167,"+0")&gt;0,"+0",IF(COUNTIF(F167:L167,"+I")&gt;0,"+I",IF(COUNTIF(F167:L167,"+II")&gt;0,"+II",IF(COUNTIF(F167:L167,"+III")&gt;0,"+III",IF(COUNTIF(F167:L167,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F167" s="9" t="str">
@@ -9588,11 +9588,11 @@
         <v>4.8209999999999997</v>
       </c>
       <c r="D168" s="23" t="str">
-        <f>IF(COUNTIF(F168:L168,"D")&gt;0,"D",IF(COUNTIF(F168:L168,"-III")&gt;0,"-III",IF(COUNTIF(F168:L168,"-II")&gt;0,"-II",IF(COUNTIF(F168:L168,"-I")&gt;0,"-I",IF(COUNTIF(F168:L168,"+0")&gt;0,"+0",IF(COUNTIF(F168:L168,"+I")&gt;0,"+I",IF(COUNTIF(F168:L168,"+II")&gt;0,"+II",IF(COUNTIF(F168:L168,"+III")&gt;0,"+III",IF(COUNTIF(F168:L168,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E168" s="23" t="str">
-        <f>IF(COUNTIF(F168:L168,"-III")&gt;0,"-III",IF(COUNTIF(F168:L168,"-II")&gt;0,"-II",IF(COUNTIF(F168:L168,"-I")&gt;0,"-I",IF(COUNTIF(F168:L168,"+0")&gt;0,"+0",IF(COUNTIF(F168:L168,"+I")&gt;0,"+I",IF(COUNTIF(F168:L168,"+II")&gt;0,"+II",IF(COUNTIF(F168:L168,"+III")&gt;0,"+III",IF(COUNTIF(F168:L168,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F168" s="9" t="str">
@@ -9632,11 +9632,11 @@
         <v>4.835</v>
       </c>
       <c r="D169" s="23" t="str">
-        <f>IF(COUNTIF(F169:L169,"D")&gt;0,"D",IF(COUNTIF(F169:L169,"-III")&gt;0,"-III",IF(COUNTIF(F169:L169,"-II")&gt;0,"-II",IF(COUNTIF(F169:L169,"-I")&gt;0,"-I",IF(COUNTIF(F169:L169,"+0")&gt;0,"+0",IF(COUNTIF(F169:L169,"+I")&gt;0,"+I",IF(COUNTIF(F169:L169,"+II")&gt;0,"+II",IF(COUNTIF(F169:L169,"+III")&gt;0,"+III",IF(COUNTIF(F169:L169,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E169" s="23" t="str">
-        <f>IF(COUNTIF(F169:L169,"-III")&gt;0,"-III",IF(COUNTIF(F169:L169,"-II")&gt;0,"-II",IF(COUNTIF(F169:L169,"-I")&gt;0,"-I",IF(COUNTIF(F169:L169,"+0")&gt;0,"+0",IF(COUNTIF(F169:L169,"+I")&gt;0,"+I",IF(COUNTIF(F169:L169,"+II")&gt;0,"+II",IF(COUNTIF(F169:L169,"+III")&gt;0,"+III",IF(COUNTIF(F169:L169,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F169" s="9" t="str">
@@ -9676,11 +9676,11 @@
         <v>4.84</v>
       </c>
       <c r="D170" s="23" t="str">
-        <f>IF(COUNTIF(F170:L170,"D")&gt;0,"D",IF(COUNTIF(F170:L170,"-III")&gt;0,"-III",IF(COUNTIF(F170:L170,"-II")&gt;0,"-II",IF(COUNTIF(F170:L170,"-I")&gt;0,"-I",IF(COUNTIF(F170:L170,"+0")&gt;0,"+0",IF(COUNTIF(F170:L170,"+I")&gt;0,"+I",IF(COUNTIF(F170:L170,"+II")&gt;0,"+II",IF(COUNTIF(F170:L170,"+III")&gt;0,"+III",IF(COUNTIF(F170:L170,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E170" s="23" t="str">
-        <f>IF(COUNTIF(F170:L170,"-III")&gt;0,"-III",IF(COUNTIF(F170:L170,"-II")&gt;0,"-II",IF(COUNTIF(F170:L170,"-I")&gt;0,"-I",IF(COUNTIF(F170:L170,"+0")&gt;0,"+0",IF(COUNTIF(F170:L170,"+I")&gt;0,"+I",IF(COUNTIF(F170:L170,"+II")&gt;0,"+II",IF(COUNTIF(F170:L170,"+III")&gt;0,"+III",IF(COUNTIF(F170:L170,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F170" s="9" t="str">
@@ -9720,11 +9720,11 @@
         <v>4.8860000000000001</v>
       </c>
       <c r="D171" s="23" t="str">
-        <f>IF(COUNTIF(F171:L171,"D")&gt;0,"D",IF(COUNTIF(F171:L171,"-III")&gt;0,"-III",IF(COUNTIF(F171:L171,"-II")&gt;0,"-II",IF(COUNTIF(F171:L171,"-I")&gt;0,"-I",IF(COUNTIF(F171:L171,"+0")&gt;0,"+0",IF(COUNTIF(F171:L171,"+I")&gt;0,"+I",IF(COUNTIF(F171:L171,"+II")&gt;0,"+II",IF(COUNTIF(F171:L171,"+III")&gt;0,"+III",IF(COUNTIF(F171:L171,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E171" s="23" t="str">
-        <f>IF(COUNTIF(F171:L171,"-III")&gt;0,"-III",IF(COUNTIF(F171:L171,"-II")&gt;0,"-II",IF(COUNTIF(F171:L171,"-I")&gt;0,"-I",IF(COUNTIF(F171:L171,"+0")&gt;0,"+0",IF(COUNTIF(F171:L171,"+I")&gt;0,"+I",IF(COUNTIF(F171:L171,"+II")&gt;0,"+II",IF(COUNTIF(F171:L171,"+III")&gt;0,"+III",IF(COUNTIF(F171:L171,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F171" s="9" t="str">
@@ -9764,11 +9764,11 @@
         <v>4.9820000000000002</v>
       </c>
       <c r="D172" s="23" t="str">
-        <f>IF(COUNTIF(F172:L172,"D")&gt;0,"D",IF(COUNTIF(F172:L172,"-III")&gt;0,"-III",IF(COUNTIF(F172:L172,"-II")&gt;0,"-II",IF(COUNTIF(F172:L172,"-I")&gt;0,"-I",IF(COUNTIF(F172:L172,"+0")&gt;0,"+0",IF(COUNTIF(F172:L172,"+I")&gt;0,"+I",IF(COUNTIF(F172:L172,"+II")&gt;0,"+II",IF(COUNTIF(F172:L172,"+III")&gt;0,"+III",IF(COUNTIF(F172:L172,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E172" s="23" t="str">
-        <f>IF(COUNTIF(F172:L172,"-III")&gt;0,"-III",IF(COUNTIF(F172:L172,"-II")&gt;0,"-II",IF(COUNTIF(F172:L172,"-I")&gt;0,"-I",IF(COUNTIF(F172:L172,"+0")&gt;0,"+0",IF(COUNTIF(F172:L172,"+I")&gt;0,"+I",IF(COUNTIF(F172:L172,"+II")&gt;0,"+II",IF(COUNTIF(F172:L172,"+III")&gt;0,"+III",IF(COUNTIF(F172:L172,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F172" s="9" t="str">
@@ -9808,11 +9808,11 @@
         <v>4.9909999999999997</v>
       </c>
       <c r="D173" s="23" t="str">
-        <f>IF(COUNTIF(F173:L173,"D")&gt;0,"D",IF(COUNTIF(F173:L173,"-III")&gt;0,"-III",IF(COUNTIF(F173:L173,"-II")&gt;0,"-II",IF(COUNTIF(F173:L173,"-I")&gt;0,"-I",IF(COUNTIF(F173:L173,"+0")&gt;0,"+0",IF(COUNTIF(F173:L173,"+I")&gt;0,"+I",IF(COUNTIF(F173:L173,"+II")&gt;0,"+II",IF(COUNTIF(F173:L173,"+III")&gt;0,"+III",IF(COUNTIF(F173:L173,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E173" s="23" t="str">
-        <f>IF(COUNTIF(F173:L173,"-III")&gt;0,"-III",IF(COUNTIF(F173:L173,"-II")&gt;0,"-II",IF(COUNTIF(F173:L173,"-I")&gt;0,"-I",IF(COUNTIF(F173:L173,"+0")&gt;0,"+0",IF(COUNTIF(F173:L173,"+I")&gt;0,"+I",IF(COUNTIF(F173:L173,"+II")&gt;0,"+II",IF(COUNTIF(F173:L173,"+III")&gt;0,"+III",IF(COUNTIF(F173:L173,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F173" s="9" t="str">
@@ -9852,11 +9852,11 @@
         <v>5.0049999999999999</v>
       </c>
       <c r="D174" s="23" t="str">
-        <f>IF(COUNTIF(F174:L174,"D")&gt;0,"D",IF(COUNTIF(F174:L174,"-III")&gt;0,"-III",IF(COUNTIF(F174:L174,"-II")&gt;0,"-II",IF(COUNTIF(F174:L174,"-I")&gt;0,"-I",IF(COUNTIF(F174:L174,"+0")&gt;0,"+0",IF(COUNTIF(F174:L174,"+I")&gt;0,"+I",IF(COUNTIF(F174:L174,"+II")&gt;0,"+II",IF(COUNTIF(F174:L174,"+III")&gt;0,"+III",IF(COUNTIF(F174:L174,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E174" s="23" t="str">
-        <f>IF(COUNTIF(F174:L174,"-III")&gt;0,"-III",IF(COUNTIF(F174:L174,"-II")&gt;0,"-II",IF(COUNTIF(F174:L174,"-I")&gt;0,"-I",IF(COUNTIF(F174:L174,"+0")&gt;0,"+0",IF(COUNTIF(F174:L174,"+I")&gt;0,"+I",IF(COUNTIF(F174:L174,"+II")&gt;0,"+II",IF(COUNTIF(F174:L174,"+III")&gt;0,"+III",IF(COUNTIF(F174:L174,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F174" s="9" t="str">
@@ -9896,11 +9896,11 @@
         <v>5.0140000000000002</v>
       </c>
       <c r="D175" s="23" t="str">
-        <f>IF(COUNTIF(F175:L175,"D")&gt;0,"D",IF(COUNTIF(F175:L175,"-III")&gt;0,"-III",IF(COUNTIF(F175:L175,"-II")&gt;0,"-II",IF(COUNTIF(F175:L175,"-I")&gt;0,"-I",IF(COUNTIF(F175:L175,"+0")&gt;0,"+0",IF(COUNTIF(F175:L175,"+I")&gt;0,"+I",IF(COUNTIF(F175:L175,"+II")&gt;0,"+II",IF(COUNTIF(F175:L175,"+III")&gt;0,"+III",IF(COUNTIF(F175:L175,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E175" s="23" t="str">
-        <f>IF(COUNTIF(F175:L175,"-III")&gt;0,"-III",IF(COUNTIF(F175:L175,"-II")&gt;0,"-II",IF(COUNTIF(F175:L175,"-I")&gt;0,"-I",IF(COUNTIF(F175:L175,"+0")&gt;0,"+0",IF(COUNTIF(F175:L175,"+I")&gt;0,"+I",IF(COUNTIF(F175:L175,"+II")&gt;0,"+II",IF(COUNTIF(F175:L175,"+III")&gt;0,"+III",IF(COUNTIF(F175:L175,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F175" s="9" t="str">
@@ -9940,11 +9940,11 @@
         <v>5.0330000000000004</v>
       </c>
       <c r="D176" s="23" t="str">
-        <f>IF(COUNTIF(F176:L176,"D")&gt;0,"D",IF(COUNTIF(F176:L176,"-III")&gt;0,"-III",IF(COUNTIF(F176:L176,"-II")&gt;0,"-II",IF(COUNTIF(F176:L176,"-I")&gt;0,"-I",IF(COUNTIF(F176:L176,"+0")&gt;0,"+0",IF(COUNTIF(F176:L176,"+I")&gt;0,"+I",IF(COUNTIF(F176:L176,"+II")&gt;0,"+II",IF(COUNTIF(F176:L176,"+III")&gt;0,"+III",IF(COUNTIF(F176:L176,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E176" s="23" t="str">
-        <f>IF(COUNTIF(F176:L176,"-III")&gt;0,"-III",IF(COUNTIF(F176:L176,"-II")&gt;0,"-II",IF(COUNTIF(F176:L176,"-I")&gt;0,"-I",IF(COUNTIF(F176:L176,"+0")&gt;0,"+0",IF(COUNTIF(F176:L176,"+I")&gt;0,"+I",IF(COUNTIF(F176:L176,"+II")&gt;0,"+II",IF(COUNTIF(F176:L176,"+III")&gt;0,"+III",IF(COUNTIF(F176:L176,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F176" s="9" t="str">
@@ -9984,11 +9984,11 @@
         <v>5.0570000000000004</v>
       </c>
       <c r="D177" s="23" t="str">
-        <f>IF(COUNTIF(F177:L177,"D")&gt;0,"D",IF(COUNTIF(F177:L177,"-III")&gt;0,"-III",IF(COUNTIF(F177:L177,"-II")&gt;0,"-II",IF(COUNTIF(F177:L177,"-I")&gt;0,"-I",IF(COUNTIF(F177:L177,"+0")&gt;0,"+0",IF(COUNTIF(F177:L177,"+I")&gt;0,"+I",IF(COUNTIF(F177:L177,"+II")&gt;0,"+II",IF(COUNTIF(F177:L177,"+III")&gt;0,"+III",IF(COUNTIF(F177:L177,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E177" s="23" t="str">
-        <f>IF(COUNTIF(F177:L177,"-III")&gt;0,"-III",IF(COUNTIF(F177:L177,"-II")&gt;0,"-II",IF(COUNTIF(F177:L177,"-I")&gt;0,"-I",IF(COUNTIF(F177:L177,"+0")&gt;0,"+0",IF(COUNTIF(F177:L177,"+I")&gt;0,"+I",IF(COUNTIF(F177:L177,"+II")&gt;0,"+II",IF(COUNTIF(F177:L177,"+III")&gt;0,"+III",IF(COUNTIF(F177:L177,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F177" s="9" t="str">
@@ -10028,11 +10028,11 @@
         <v>5.0759999999999996</v>
       </c>
       <c r="D178" s="23" t="str">
-        <f>IF(COUNTIF(F178:L178,"D")&gt;0,"D",IF(COUNTIF(F178:L178,"-III")&gt;0,"-III",IF(COUNTIF(F178:L178,"-II")&gt;0,"-II",IF(COUNTIF(F178:L178,"-I")&gt;0,"-I",IF(COUNTIF(F178:L178,"+0")&gt;0,"+0",IF(COUNTIF(F178:L178,"+I")&gt;0,"+I",IF(COUNTIF(F178:L178,"+II")&gt;0,"+II",IF(COUNTIF(F178:L178,"+III")&gt;0,"+III",IF(COUNTIF(F178:L178,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E178" s="23" t="str">
-        <f>IF(COUNTIF(F178:L178,"-III")&gt;0,"-III",IF(COUNTIF(F178:L178,"-II")&gt;0,"-II",IF(COUNTIF(F178:L178,"-I")&gt;0,"-I",IF(COUNTIF(F178:L178,"+0")&gt;0,"+0",IF(COUNTIF(F178:L178,"+I")&gt;0,"+I",IF(COUNTIF(F178:L178,"+II")&gt;0,"+II",IF(COUNTIF(F178:L178,"+III")&gt;0,"+III",IF(COUNTIF(F178:L178,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F178" s="9" t="str">
@@ -10072,11 +10072,11 @@
         <v>5.1280000000000001</v>
       </c>
       <c r="D179" s="23" t="str">
-        <f>IF(COUNTIF(F179:L179,"D")&gt;0,"D",IF(COUNTIF(F179:L179,"-III")&gt;0,"-III",IF(COUNTIF(F179:L179,"-II")&gt;0,"-II",IF(COUNTIF(F179:L179,"-I")&gt;0,"-I",IF(COUNTIF(F179:L179,"+0")&gt;0,"+0",IF(COUNTIF(F179:L179,"+I")&gt;0,"+I",IF(COUNTIF(F179:L179,"+II")&gt;0,"+II",IF(COUNTIF(F179:L179,"+III")&gt;0,"+III",IF(COUNTIF(F179:L179,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E179" s="23" t="str">
-        <f>IF(COUNTIF(F179:L179,"-III")&gt;0,"-III",IF(COUNTIF(F179:L179,"-II")&gt;0,"-II",IF(COUNTIF(F179:L179,"-I")&gt;0,"-I",IF(COUNTIF(F179:L179,"+0")&gt;0,"+0",IF(COUNTIF(F179:L179,"+I")&gt;0,"+I",IF(COUNTIF(F179:L179,"+II")&gt;0,"+II",IF(COUNTIF(F179:L179,"+III")&gt;0,"+III",IF(COUNTIF(F179:L179,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F179" s="9" t="str">
@@ -10116,11 +10116,11 @@
         <v>5.1440000000000001</v>
       </c>
       <c r="D180" s="23" t="str">
-        <f>IF(COUNTIF(F180:L180,"D")&gt;0,"D",IF(COUNTIF(F180:L180,"-III")&gt;0,"-III",IF(COUNTIF(F180:L180,"-II")&gt;0,"-II",IF(COUNTIF(F180:L180,"-I")&gt;0,"-I",IF(COUNTIF(F180:L180,"+0")&gt;0,"+0",IF(COUNTIF(F180:L180,"+I")&gt;0,"+I",IF(COUNTIF(F180:L180,"+II")&gt;0,"+II",IF(COUNTIF(F180:L180,"+III")&gt;0,"+III",IF(COUNTIF(F180:L180,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E180" s="23" t="str">
-        <f>IF(COUNTIF(F180:L180,"-III")&gt;0,"-III",IF(COUNTIF(F180:L180,"-II")&gt;0,"-II",IF(COUNTIF(F180:L180,"-I")&gt;0,"-I",IF(COUNTIF(F180:L180,"+0")&gt;0,"+0",IF(COUNTIF(F180:L180,"+I")&gt;0,"+I",IF(COUNTIF(F180:L180,"+II")&gt;0,"+II",IF(COUNTIF(F180:L180,"+III")&gt;0,"+III",IF(COUNTIF(F180:L180,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F180" s="9" t="str">
@@ -10160,11 +10160,11 @@
         <v>5.1520000000000001</v>
       </c>
       <c r="D181" s="23" t="str">
-        <f>IF(COUNTIF(F181:L181,"D")&gt;0,"D",IF(COUNTIF(F181:L181,"-III")&gt;0,"-III",IF(COUNTIF(F181:L181,"-II")&gt;0,"-II",IF(COUNTIF(F181:L181,"-I")&gt;0,"-I",IF(COUNTIF(F181:L181,"+0")&gt;0,"+0",IF(COUNTIF(F181:L181,"+I")&gt;0,"+I",IF(COUNTIF(F181:L181,"+II")&gt;0,"+II",IF(COUNTIF(F181:L181,"+III")&gt;0,"+III",IF(COUNTIF(F181:L181,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E181" s="23" t="str">
-        <f>IF(COUNTIF(F181:L181,"-III")&gt;0,"-III",IF(COUNTIF(F181:L181,"-II")&gt;0,"-II",IF(COUNTIF(F181:L181,"-I")&gt;0,"-I",IF(COUNTIF(F181:L181,"+0")&gt;0,"+0",IF(COUNTIF(F181:L181,"+I")&gt;0,"+I",IF(COUNTIF(F181:L181,"+II")&gt;0,"+II",IF(COUNTIF(F181:L181,"+III")&gt;0,"+III",IF(COUNTIF(F181:L181,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F181" s="9" t="str">
@@ -10204,11 +10204,11 @@
         <v>5.1820000000000004</v>
       </c>
       <c r="D182" s="23" t="str">
-        <f>IF(COUNTIF(F182:L182,"D")&gt;0,"D",IF(COUNTIF(F182:L182,"-III")&gt;0,"-III",IF(COUNTIF(F182:L182,"-II")&gt;0,"-II",IF(COUNTIF(F182:L182,"-I")&gt;0,"-I",IF(COUNTIF(F182:L182,"+0")&gt;0,"+0",IF(COUNTIF(F182:L182,"+I")&gt;0,"+I",IF(COUNTIF(F182:L182,"+II")&gt;0,"+II",IF(COUNTIF(F182:L182,"+III")&gt;0,"+III",IF(COUNTIF(F182:L182,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E182" s="23" t="str">
-        <f>IF(COUNTIF(F182:L182,"-III")&gt;0,"-III",IF(COUNTIF(F182:L182,"-II")&gt;0,"-II",IF(COUNTIF(F182:L182,"-I")&gt;0,"-I",IF(COUNTIF(F182:L182,"+0")&gt;0,"+0",IF(COUNTIF(F182:L182,"+I")&gt;0,"+I",IF(COUNTIF(F182:L182,"+II")&gt;0,"+II",IF(COUNTIF(F182:L182,"+III")&gt;0,"+III",IF(COUNTIF(F182:L182,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F182" s="9" t="str">
@@ -10248,11 +10248,11 @@
         <v>5.2149999999999999</v>
       </c>
       <c r="D183" s="23" t="str">
-        <f>IF(COUNTIF(F183:L183,"D")&gt;0,"D",IF(COUNTIF(F183:L183,"-III")&gt;0,"-III",IF(COUNTIF(F183:L183,"-II")&gt;0,"-II",IF(COUNTIF(F183:L183,"-I")&gt;0,"-I",IF(COUNTIF(F183:L183,"+0")&gt;0,"+0",IF(COUNTIF(F183:L183,"+I")&gt;0,"+I",IF(COUNTIF(F183:L183,"+II")&gt;0,"+II",IF(COUNTIF(F183:L183,"+III")&gt;0,"+III",IF(COUNTIF(F183:L183,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E183" s="23" t="str">
-        <f>IF(COUNTIF(F183:L183,"-III")&gt;0,"-III",IF(COUNTIF(F183:L183,"-II")&gt;0,"-II",IF(COUNTIF(F183:L183,"-I")&gt;0,"-I",IF(COUNTIF(F183:L183,"+0")&gt;0,"+0",IF(COUNTIF(F183:L183,"+I")&gt;0,"+I",IF(COUNTIF(F183:L183,"+II")&gt;0,"+II",IF(COUNTIF(F183:L183,"+III")&gt;0,"+III",IF(COUNTIF(F183:L183,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F183" s="9" t="str">
@@ -10292,11 +10292,11 @@
         <v>5.2229999999999999</v>
       </c>
       <c r="D184" s="23" t="str">
-        <f>IF(COUNTIF(F184:L184,"D")&gt;0,"D",IF(COUNTIF(F184:L184,"-III")&gt;0,"-III",IF(COUNTIF(F184:L184,"-II")&gt;0,"-II",IF(COUNTIF(F184:L184,"-I")&gt;0,"-I",IF(COUNTIF(F184:L184,"+0")&gt;0,"+0",IF(COUNTIF(F184:L184,"+I")&gt;0,"+I",IF(COUNTIF(F184:L184,"+II")&gt;0,"+II",IF(COUNTIF(F184:L184,"+III")&gt;0,"+III",IF(COUNTIF(F184:L184,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E184" s="23" t="str">
-        <f>IF(COUNTIF(F184:L184,"-III")&gt;0,"-III",IF(COUNTIF(F184:L184,"-II")&gt;0,"-II",IF(COUNTIF(F184:L184,"-I")&gt;0,"-I",IF(COUNTIF(F184:L184,"+0")&gt;0,"+0",IF(COUNTIF(F184:L184,"+I")&gt;0,"+I",IF(COUNTIF(F184:L184,"+II")&gt;0,"+II",IF(COUNTIF(F184:L184,"+III")&gt;0,"+III",IF(COUNTIF(F184:L184,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F184" s="9" t="str">
@@ -10336,11 +10336,11 @@
         <v>5.2489999999999997</v>
       </c>
       <c r="D185" s="23" t="str">
-        <f>IF(COUNTIF(F185:L185,"D")&gt;0,"D",IF(COUNTIF(F185:L185,"-III")&gt;0,"-III",IF(COUNTIF(F185:L185,"-II")&gt;0,"-II",IF(COUNTIF(F185:L185,"-I")&gt;0,"-I",IF(COUNTIF(F185:L185,"+0")&gt;0,"+0",IF(COUNTIF(F185:L185,"+I")&gt;0,"+I",IF(COUNTIF(F185:L185,"+II")&gt;0,"+II",IF(COUNTIF(F185:L185,"+III")&gt;0,"+III",IF(COUNTIF(F185:L185,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E185" s="23" t="str">
-        <f>IF(COUNTIF(F185:L185,"-III")&gt;0,"-III",IF(COUNTIF(F185:L185,"-II")&gt;0,"-II",IF(COUNTIF(F185:L185,"-I")&gt;0,"-I",IF(COUNTIF(F185:L185,"+0")&gt;0,"+0",IF(COUNTIF(F185:L185,"+I")&gt;0,"+I",IF(COUNTIF(F185:L185,"+II")&gt;0,"+II",IF(COUNTIF(F185:L185,"+III")&gt;0,"+III",IF(COUNTIF(F185:L185,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F185" s="9" t="str">
@@ -10380,11 +10380,11 @@
         <v>5.2590000000000003</v>
       </c>
       <c r="D186" s="23" t="str">
-        <f>IF(COUNTIF(F186:L186,"D")&gt;0,"D",IF(COUNTIF(F186:L186,"-III")&gt;0,"-III",IF(COUNTIF(F186:L186,"-II")&gt;0,"-II",IF(COUNTIF(F186:L186,"-I")&gt;0,"-I",IF(COUNTIF(F186:L186,"+0")&gt;0,"+0",IF(COUNTIF(F186:L186,"+I")&gt;0,"+I",IF(COUNTIF(F186:L186,"+II")&gt;0,"+II",IF(COUNTIF(F186:L186,"+III")&gt;0,"+III",IF(COUNTIF(F186:L186,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E186" s="23" t="str">
-        <f>IF(COUNTIF(F186:L186,"-III")&gt;0,"-III",IF(COUNTIF(F186:L186,"-II")&gt;0,"-II",IF(COUNTIF(F186:L186,"-I")&gt;0,"-I",IF(COUNTIF(F186:L186,"+0")&gt;0,"+0",IF(COUNTIF(F186:L186,"+I")&gt;0,"+I",IF(COUNTIF(F186:L186,"+II")&gt;0,"+II",IF(COUNTIF(F186:L186,"+III")&gt;0,"+III",IF(COUNTIF(F186:L186,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F186" s="9" t="str">
@@ -10424,11 +10424,11 @@
         <v>5.2990000000000004</v>
       </c>
       <c r="D187" s="23" t="str">
-        <f>IF(COUNTIF(F187:L187,"D")&gt;0,"D",IF(COUNTIF(F187:L187,"-III")&gt;0,"-III",IF(COUNTIF(F187:L187,"-II")&gt;0,"-II",IF(COUNTIF(F187:L187,"-I")&gt;0,"-I",IF(COUNTIF(F187:L187,"+0")&gt;0,"+0",IF(COUNTIF(F187:L187,"+I")&gt;0,"+I",IF(COUNTIF(F187:L187,"+II")&gt;0,"+II",IF(COUNTIF(F187:L187,"+III")&gt;0,"+III",IF(COUNTIF(F187:L187,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E187" s="23" t="str">
-        <f>IF(COUNTIF(F187:L187,"-III")&gt;0,"-III",IF(COUNTIF(F187:L187,"-II")&gt;0,"-II",IF(COUNTIF(F187:L187,"-I")&gt;0,"-I",IF(COUNTIF(F187:L187,"+0")&gt;0,"+0",IF(COUNTIF(F187:L187,"+I")&gt;0,"+I",IF(COUNTIF(F187:L187,"+II")&gt;0,"+II",IF(COUNTIF(F187:L187,"+III")&gt;0,"+III",IF(COUNTIF(F187:L187,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+I</v>
       </c>
       <c r="F187" s="9" t="str">
@@ -10468,11 +10468,11 @@
         <v>5.3440000000000003</v>
       </c>
       <c r="D188" s="23" t="str">
-        <f>IF(COUNTIF(F188:L188,"D")&gt;0,"D",IF(COUNTIF(F188:L188,"-III")&gt;0,"-III",IF(COUNTIF(F188:L188,"-II")&gt;0,"-II",IF(COUNTIF(F188:L188,"-I")&gt;0,"-I",IF(COUNTIF(F188:L188,"+0")&gt;0,"+0",IF(COUNTIF(F188:L188,"+I")&gt;0,"+I",IF(COUNTIF(F188:L188,"+II")&gt;0,"+II",IF(COUNTIF(F188:L188,"+III")&gt;0,"+III",IF(COUNTIF(F188:L188,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E188" s="23" t="str">
-        <f>IF(COUNTIF(F188:L188,"-III")&gt;0,"-III",IF(COUNTIF(F188:L188,"-II")&gt;0,"-II",IF(COUNTIF(F188:L188,"-I")&gt;0,"-I",IF(COUNTIF(F188:L188,"+0")&gt;0,"+0",IF(COUNTIF(F188:L188,"+I")&gt;0,"+I",IF(COUNTIF(F188:L188,"+II")&gt;0,"+II",IF(COUNTIF(F188:L188,"+III")&gt;0,"+III",IF(COUNTIF(F188:L188,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F188" s="9" t="str">
@@ -10512,11 +10512,11 @@
         <v>5.359</v>
       </c>
       <c r="D189" s="23" t="str">
-        <f>IF(COUNTIF(F189:L189,"D")&gt;0,"D",IF(COUNTIF(F189:L189,"-III")&gt;0,"-III",IF(COUNTIF(F189:L189,"-II")&gt;0,"-II",IF(COUNTIF(F189:L189,"-I")&gt;0,"-I",IF(COUNTIF(F189:L189,"+0")&gt;0,"+0",IF(COUNTIF(F189:L189,"+I")&gt;0,"+I",IF(COUNTIF(F189:L189,"+II")&gt;0,"+II",IF(COUNTIF(F189:L189,"+III")&gt;0,"+III",IF(COUNTIF(F189:L189,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E189" s="23" t="str">
-        <f>IF(COUNTIF(F189:L189,"-III")&gt;0,"-III",IF(COUNTIF(F189:L189,"-II")&gt;0,"-II",IF(COUNTIF(F189:L189,"-I")&gt;0,"-I",IF(COUNTIF(F189:L189,"+0")&gt;0,"+0",IF(COUNTIF(F189:L189,"+I")&gt;0,"+I",IF(COUNTIF(F189:L189,"+II")&gt;0,"+II",IF(COUNTIF(F189:L189,"+III")&gt;0,"+III",IF(COUNTIF(F189:L189,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F189" s="9" t="str">
@@ -10556,11 +10556,11 @@
         <v>5.4359999999999999</v>
       </c>
       <c r="D190" s="23" t="str">
-        <f>IF(COUNTIF(F190:L190,"D")&gt;0,"D",IF(COUNTIF(F190:L190,"-III")&gt;0,"-III",IF(COUNTIF(F190:L190,"-II")&gt;0,"-II",IF(COUNTIF(F190:L190,"-I")&gt;0,"-I",IF(COUNTIF(F190:L190,"+0")&gt;0,"+0",IF(COUNTIF(F190:L190,"+I")&gt;0,"+I",IF(COUNTIF(F190:L190,"+II")&gt;0,"+II",IF(COUNTIF(F190:L190,"+III")&gt;0,"+III",IF(COUNTIF(F190:L190,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E190" s="23" t="str">
-        <f>IF(COUNTIF(F190:L190,"-III")&gt;0,"-III",IF(COUNTIF(F190:L190,"-II")&gt;0,"-II",IF(COUNTIF(F190:L190,"-I")&gt;0,"-I",IF(COUNTIF(F190:L190,"+0")&gt;0,"+0",IF(COUNTIF(F190:L190,"+I")&gt;0,"+I",IF(COUNTIF(F190:L190,"+II")&gt;0,"+II",IF(COUNTIF(F190:L190,"+III")&gt;0,"+III",IF(COUNTIF(F190:L190,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F190" s="9" t="str">
@@ -10600,11 +10600,11 @@
         <v>5.4779999999999998</v>
       </c>
       <c r="D191" s="23" t="str">
-        <f>IF(COUNTIF(F191:L191,"D")&gt;0,"D",IF(COUNTIF(F191:L191,"-III")&gt;0,"-III",IF(COUNTIF(F191:L191,"-II")&gt;0,"-II",IF(COUNTIF(F191:L191,"-I")&gt;0,"-I",IF(COUNTIF(F191:L191,"+0")&gt;0,"+0",IF(COUNTIF(F191:L191,"+I")&gt;0,"+I",IF(COUNTIF(F191:L191,"+II")&gt;0,"+II",IF(COUNTIF(F191:L191,"+III")&gt;0,"+III",IF(COUNTIF(F191:L191,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E191" s="23" t="str">
-        <f>IF(COUNTIF(F191:L191,"-III")&gt;0,"-III",IF(COUNTIF(F191:L191,"-II")&gt;0,"-II",IF(COUNTIF(F191:L191,"-I")&gt;0,"-I",IF(COUNTIF(F191:L191,"+0")&gt;0,"+0",IF(COUNTIF(F191:L191,"+I")&gt;0,"+I",IF(COUNTIF(F191:L191,"+II")&gt;0,"+II",IF(COUNTIF(F191:L191,"+III")&gt;0,"+III",IF(COUNTIF(F191:L191,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F191" s="9" t="str">
@@ -10644,11 +10644,11 @@
         <v>5.4870000000000001</v>
       </c>
       <c r="D192" s="23" t="str">
-        <f>IF(COUNTIF(F192:L192,"D")&gt;0,"D",IF(COUNTIF(F192:L192,"-III")&gt;0,"-III",IF(COUNTIF(F192:L192,"-II")&gt;0,"-II",IF(COUNTIF(F192:L192,"-I")&gt;0,"-I",IF(COUNTIF(F192:L192,"+0")&gt;0,"+0",IF(COUNTIF(F192:L192,"+I")&gt;0,"+I",IF(COUNTIF(F192:L192,"+II")&gt;0,"+II",IF(COUNTIF(F192:L192,"+III")&gt;0,"+III",IF(COUNTIF(F192:L192,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E192" s="23" t="str">
-        <f>IF(COUNTIF(F192:L192,"-III")&gt;0,"-III",IF(COUNTIF(F192:L192,"-II")&gt;0,"-II",IF(COUNTIF(F192:L192,"-I")&gt;0,"-I",IF(COUNTIF(F192:L192,"+0")&gt;0,"+0",IF(COUNTIF(F192:L192,"+I")&gt;0,"+I",IF(COUNTIF(F192:L192,"+II")&gt;0,"+II",IF(COUNTIF(F192:L192,"+III")&gt;0,"+III",IF(COUNTIF(F192:L192,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F192" s="9" t="str">
@@ -10688,11 +10688,11 @@
         <v>5.5149999999999997</v>
       </c>
       <c r="D193" s="23" t="str">
-        <f>IF(COUNTIF(F193:L193,"D")&gt;0,"D",IF(COUNTIF(F193:L193,"-III")&gt;0,"-III",IF(COUNTIF(F193:L193,"-II")&gt;0,"-II",IF(COUNTIF(F193:L193,"-I")&gt;0,"-I",IF(COUNTIF(F193:L193,"+0")&gt;0,"+0",IF(COUNTIF(F193:L193,"+I")&gt;0,"+I",IF(COUNTIF(F193:L193,"+II")&gt;0,"+II",IF(COUNTIF(F193:L193,"+III")&gt;0,"+III",IF(COUNTIF(F193:L193,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E193" s="23" t="str">
-        <f>IF(COUNTIF(F193:L193,"-III")&gt;0,"-III",IF(COUNTIF(F193:L193,"-II")&gt;0,"-II",IF(COUNTIF(F193:L193,"-I")&gt;0,"-I",IF(COUNTIF(F193:L193,"+0")&gt;0,"+0",IF(COUNTIF(F193:L193,"+I")&gt;0,"+I",IF(COUNTIF(F193:L193,"+II")&gt;0,"+II",IF(COUNTIF(F193:L193,"+III")&gt;0,"+III",IF(COUNTIF(F193:L193,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F193" s="9" t="str">
@@ -10732,11 +10732,11 @@
         <v>5.57</v>
       </c>
       <c r="D194" s="23" t="str">
-        <f>IF(COUNTIF(F194:L194,"D")&gt;0,"D",IF(COUNTIF(F194:L194,"-III")&gt;0,"-III",IF(COUNTIF(F194:L194,"-II")&gt;0,"-II",IF(COUNTIF(F194:L194,"-I")&gt;0,"-I",IF(COUNTIF(F194:L194,"+0")&gt;0,"+0",IF(COUNTIF(F194:L194,"+I")&gt;0,"+I",IF(COUNTIF(F194:L194,"+II")&gt;0,"+II",IF(COUNTIF(F194:L194,"+III")&gt;0,"+III",IF(COUNTIF(F194:L194,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="E194" s="23" t="str">
-        <f>IF(COUNTIF(F194:L194,"-III")&gt;0,"-III",IF(COUNTIF(F194:L194,"-II")&gt;0,"-II",IF(COUNTIF(F194:L194,"-I")&gt;0,"-I",IF(COUNTIF(F194:L194,"+0")&gt;0,"+0",IF(COUNTIF(F194:L194,"+I")&gt;0,"+I",IF(COUNTIF(F194:L194,"+II")&gt;0,"+II",IF(COUNTIF(F194:L194,"+III")&gt;0,"+III",IF(COUNTIF(F194:L194,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="5"/>
         <v>+II</v>
       </c>
       <c r="F194" s="9" t="str">
@@ -10776,11 +10776,11 @@
         <v>5.593</v>
       </c>
       <c r="D195" s="23" t="str">
-        <f>IF(COUNTIF(F195:L195,"D")&gt;0,"D",IF(COUNTIF(F195:L195,"-III")&gt;0,"-III",IF(COUNTIF(F195:L195,"-II")&gt;0,"-II",IF(COUNTIF(F195:L195,"-I")&gt;0,"-I",IF(COUNTIF(F195:L195,"+0")&gt;0,"+0",IF(COUNTIF(F195:L195,"+I")&gt;0,"+I",IF(COUNTIF(F195:L195,"+II")&gt;0,"+II",IF(COUNTIF(F195:L195,"+III")&gt;0,"+III",IF(COUNTIF(F195:L195,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D195:D258" si="6">IF(COUNTIF(F195:L195,"D")&gt;0,"D",IF(COUNTIF(F195:L195,"-III")&gt;0,"-III",IF(COUNTIF(F195:L195,"-II")&gt;0,"-II",IF(COUNTIF(F195:L195,"-I")&gt;0,"-I",IF(COUNTIF(F195:L195,"+0")&gt;0,"+0",IF(COUNTIF(F195:L195,"+I")&gt;0,"+I",IF(COUNTIF(F195:L195,"+II")&gt;0,"+II",IF(COUNTIF(F195:L195,"+III")&gt;0,"+III",IF(COUNTIF(F195:L195,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E195" s="23" t="str">
-        <f>IF(COUNTIF(F195:L195,"-III")&gt;0,"-III",IF(COUNTIF(F195:L195,"-II")&gt;0,"-II",IF(COUNTIF(F195:L195,"-I")&gt;0,"-I",IF(COUNTIF(F195:L195,"+0")&gt;0,"+0",IF(COUNTIF(F195:L195,"+I")&gt;0,"+I",IF(COUNTIF(F195:L195,"+II")&gt;0,"+II",IF(COUNTIF(F195:L195,"+III")&gt;0,"+III",IF(COUNTIF(F195:L195,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E195:E258" si="7">IF(COUNTIF(F195:L195,"-III")&gt;0,"-III",IF(COUNTIF(F195:L195,"-II")&gt;0,"-II",IF(COUNTIF(F195:L195,"-I")&gt;0,"-I",IF(COUNTIF(F195:L195,"+0")&gt;0,"+0",IF(COUNTIF(F195:L195,"+I")&gt;0,"+I",IF(COUNTIF(F195:L195,"+II")&gt;0,"+II",IF(COUNTIF(F195:L195,"+III")&gt;0,"+III",IF(COUNTIF(F195:L195,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F195" s="9" t="str">
@@ -10820,11 +10820,11 @@
         <v>5.7450000000000001</v>
       </c>
       <c r="D196" s="23" t="str">
-        <f>IF(COUNTIF(F196:L196,"D")&gt;0,"D",IF(COUNTIF(F196:L196,"-III")&gt;0,"-III",IF(COUNTIF(F196:L196,"-II")&gt;0,"-II",IF(COUNTIF(F196:L196,"-I")&gt;0,"-I",IF(COUNTIF(F196:L196,"+0")&gt;0,"+0",IF(COUNTIF(F196:L196,"+I")&gt;0,"+I",IF(COUNTIF(F196:L196,"+II")&gt;0,"+II",IF(COUNTIF(F196:L196,"+III")&gt;0,"+III",IF(COUNTIF(F196:L196,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E196" s="23" t="str">
-        <f>IF(COUNTIF(F196:L196,"-III")&gt;0,"-III",IF(COUNTIF(F196:L196,"-II")&gt;0,"-II",IF(COUNTIF(F196:L196,"-I")&gt;0,"-I",IF(COUNTIF(F196:L196,"+0")&gt;0,"+0",IF(COUNTIF(F196:L196,"+I")&gt;0,"+I",IF(COUNTIF(F196:L196,"+II")&gt;0,"+II",IF(COUNTIF(F196:L196,"+III")&gt;0,"+III",IF(COUNTIF(F196:L196,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F196" s="9" t="str">
@@ -10864,11 +10864,11 @@
         <v>5.7649999999999997</v>
       </c>
       <c r="D197" s="23" t="str">
-        <f>IF(COUNTIF(F197:L197,"D")&gt;0,"D",IF(COUNTIF(F197:L197,"-III")&gt;0,"-III",IF(COUNTIF(F197:L197,"-II")&gt;0,"-II",IF(COUNTIF(F197:L197,"-I")&gt;0,"-I",IF(COUNTIF(F197:L197,"+0")&gt;0,"+0",IF(COUNTIF(F197:L197,"+I")&gt;0,"+I",IF(COUNTIF(F197:L197,"+II")&gt;0,"+II",IF(COUNTIF(F197:L197,"+III")&gt;0,"+III",IF(COUNTIF(F197:L197,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E197" s="23" t="str">
-        <f>IF(COUNTIF(F197:L197,"-III")&gt;0,"-III",IF(COUNTIF(F197:L197,"-II")&gt;0,"-II",IF(COUNTIF(F197:L197,"-I")&gt;0,"-I",IF(COUNTIF(F197:L197,"+0")&gt;0,"+0",IF(COUNTIF(F197:L197,"+I")&gt;0,"+I",IF(COUNTIF(F197:L197,"+II")&gt;0,"+II",IF(COUNTIF(F197:L197,"+III")&gt;0,"+III",IF(COUNTIF(F197:L197,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F197" s="9" t="str">
@@ -10908,11 +10908,11 @@
         <v>5.7690000000000001</v>
       </c>
       <c r="D198" s="23" t="str">
-        <f>IF(COUNTIF(F198:L198,"D")&gt;0,"D",IF(COUNTIF(F198:L198,"-III")&gt;0,"-III",IF(COUNTIF(F198:L198,"-II")&gt;0,"-II",IF(COUNTIF(F198:L198,"-I")&gt;0,"-I",IF(COUNTIF(F198:L198,"+0")&gt;0,"+0",IF(COUNTIF(F198:L198,"+I")&gt;0,"+I",IF(COUNTIF(F198:L198,"+II")&gt;0,"+II",IF(COUNTIF(F198:L198,"+III")&gt;0,"+III",IF(COUNTIF(F198:L198,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E198" s="23" t="str">
-        <f>IF(COUNTIF(F198:L198,"-III")&gt;0,"-III",IF(COUNTIF(F198:L198,"-II")&gt;0,"-II",IF(COUNTIF(F198:L198,"-I")&gt;0,"-I",IF(COUNTIF(F198:L198,"+0")&gt;0,"+0",IF(COUNTIF(F198:L198,"+I")&gt;0,"+I",IF(COUNTIF(F198:L198,"+II")&gt;0,"+II",IF(COUNTIF(F198:L198,"+III")&gt;0,"+III",IF(COUNTIF(F198:L198,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F198" s="9" t="str">
@@ -10952,11 +10952,11 @@
         <v>5.8070000000000004</v>
       </c>
       <c r="D199" s="23" t="str">
-        <f>IF(COUNTIF(F199:L199,"D")&gt;0,"D",IF(COUNTIF(F199:L199,"-III")&gt;0,"-III",IF(COUNTIF(F199:L199,"-II")&gt;0,"-II",IF(COUNTIF(F199:L199,"-I")&gt;0,"-I",IF(COUNTIF(F199:L199,"+0")&gt;0,"+0",IF(COUNTIF(F199:L199,"+I")&gt;0,"+I",IF(COUNTIF(F199:L199,"+II")&gt;0,"+II",IF(COUNTIF(F199:L199,"+III")&gt;0,"+III",IF(COUNTIF(F199:L199,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E199" s="23" t="str">
-        <f>IF(COUNTIF(F199:L199,"-III")&gt;0,"-III",IF(COUNTIF(F199:L199,"-II")&gt;0,"-II",IF(COUNTIF(F199:L199,"-I")&gt;0,"-I",IF(COUNTIF(F199:L199,"+0")&gt;0,"+0",IF(COUNTIF(F199:L199,"+I")&gt;0,"+I",IF(COUNTIF(F199:L199,"+II")&gt;0,"+II",IF(COUNTIF(F199:L199,"+III")&gt;0,"+III",IF(COUNTIF(F199:L199,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F199" s="9" t="str">
@@ -10996,11 +10996,11 @@
         <v>5.8250000000000002</v>
       </c>
       <c r="D200" s="23" t="str">
-        <f>IF(COUNTIF(F200:L200,"D")&gt;0,"D",IF(COUNTIF(F200:L200,"-III")&gt;0,"-III",IF(COUNTIF(F200:L200,"-II")&gt;0,"-II",IF(COUNTIF(F200:L200,"-I")&gt;0,"-I",IF(COUNTIF(F200:L200,"+0")&gt;0,"+0",IF(COUNTIF(F200:L200,"+I")&gt;0,"+I",IF(COUNTIF(F200:L200,"+II")&gt;0,"+II",IF(COUNTIF(F200:L200,"+III")&gt;0,"+III",IF(COUNTIF(F200:L200,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E200" s="23" t="str">
-        <f>IF(COUNTIF(F200:L200,"-III")&gt;0,"-III",IF(COUNTIF(F200:L200,"-II")&gt;0,"-II",IF(COUNTIF(F200:L200,"-I")&gt;0,"-I",IF(COUNTIF(F200:L200,"+0")&gt;0,"+0",IF(COUNTIF(F200:L200,"+I")&gt;0,"+I",IF(COUNTIF(F200:L200,"+II")&gt;0,"+II",IF(COUNTIF(F200:L200,"+III")&gt;0,"+III",IF(COUNTIF(F200:L200,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F200" s="9" t="str">
@@ -11040,11 +11040,11 @@
         <v>5.8280000000000003</v>
       </c>
       <c r="D201" s="23" t="str">
-        <f>IF(COUNTIF(F201:L201,"D")&gt;0,"D",IF(COUNTIF(F201:L201,"-III")&gt;0,"-III",IF(COUNTIF(F201:L201,"-II")&gt;0,"-II",IF(COUNTIF(F201:L201,"-I")&gt;0,"-I",IF(COUNTIF(F201:L201,"+0")&gt;0,"+0",IF(COUNTIF(F201:L201,"+I")&gt;0,"+I",IF(COUNTIF(F201:L201,"+II")&gt;0,"+II",IF(COUNTIF(F201:L201,"+III")&gt;0,"+III",IF(COUNTIF(F201:L201,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E201" s="23" t="str">
-        <f>IF(COUNTIF(F201:L201,"-III")&gt;0,"-III",IF(COUNTIF(F201:L201,"-II")&gt;0,"-II",IF(COUNTIF(F201:L201,"-I")&gt;0,"-I",IF(COUNTIF(F201:L201,"+0")&gt;0,"+0",IF(COUNTIF(F201:L201,"+I")&gt;0,"+I",IF(COUNTIF(F201:L201,"+II")&gt;0,"+II",IF(COUNTIF(F201:L201,"+III")&gt;0,"+III",IF(COUNTIF(F201:L201,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F201" s="9" t="str">
@@ -11084,11 +11084,11 @@
         <v>5.8289999999999997</v>
       </c>
       <c r="D202" s="23" t="str">
-        <f>IF(COUNTIF(F202:L202,"D")&gt;0,"D",IF(COUNTIF(F202:L202,"-III")&gt;0,"-III",IF(COUNTIF(F202:L202,"-II")&gt;0,"-II",IF(COUNTIF(F202:L202,"-I")&gt;0,"-I",IF(COUNTIF(F202:L202,"+0")&gt;0,"+0",IF(COUNTIF(F202:L202,"+I")&gt;0,"+I",IF(COUNTIF(F202:L202,"+II")&gt;0,"+II",IF(COUNTIF(F202:L202,"+III")&gt;0,"+III",IF(COUNTIF(F202:L202,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E202" s="23" t="str">
-        <f>IF(COUNTIF(F202:L202,"-III")&gt;0,"-III",IF(COUNTIF(F202:L202,"-II")&gt;0,"-II",IF(COUNTIF(F202:L202,"-I")&gt;0,"-I",IF(COUNTIF(F202:L202,"+0")&gt;0,"+0",IF(COUNTIF(F202:L202,"+I")&gt;0,"+I",IF(COUNTIF(F202:L202,"+II")&gt;0,"+II",IF(COUNTIF(F202:L202,"+III")&gt;0,"+III",IF(COUNTIF(F202:L202,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F202" s="9" t="str">
@@ -11128,11 +11128,11 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="D203" s="23" t="str">
-        <f>IF(COUNTIF(F203:L203,"D")&gt;0,"D",IF(COUNTIF(F203:L203,"-III")&gt;0,"-III",IF(COUNTIF(F203:L203,"-II")&gt;0,"-II",IF(COUNTIF(F203:L203,"-I")&gt;0,"-I",IF(COUNTIF(F203:L203,"+0")&gt;0,"+0",IF(COUNTIF(F203:L203,"+I")&gt;0,"+I",IF(COUNTIF(F203:L203,"+II")&gt;0,"+II",IF(COUNTIF(F203:L203,"+III")&gt;0,"+III",IF(COUNTIF(F203:L203,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E203" s="23" t="str">
-        <f>IF(COUNTIF(F203:L203,"-III")&gt;0,"-III",IF(COUNTIF(F203:L203,"-II")&gt;0,"-II",IF(COUNTIF(F203:L203,"-I")&gt;0,"-I",IF(COUNTIF(F203:L203,"+0")&gt;0,"+0",IF(COUNTIF(F203:L203,"+I")&gt;0,"+I",IF(COUNTIF(F203:L203,"+II")&gt;0,"+II",IF(COUNTIF(F203:L203,"+III")&gt;0,"+III",IF(COUNTIF(F203:L203,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F203" s="9" t="str">
@@ -11172,11 +11172,11 @@
         <v>5.8760000000000003</v>
       </c>
       <c r="D204" s="23" t="str">
-        <f>IF(COUNTIF(F204:L204,"D")&gt;0,"D",IF(COUNTIF(F204:L204,"-III")&gt;0,"-III",IF(COUNTIF(F204:L204,"-II")&gt;0,"-II",IF(COUNTIF(F204:L204,"-I")&gt;0,"-I",IF(COUNTIF(F204:L204,"+0")&gt;0,"+0",IF(COUNTIF(F204:L204,"+I")&gt;0,"+I",IF(COUNTIF(F204:L204,"+II")&gt;0,"+II",IF(COUNTIF(F204:L204,"+III")&gt;0,"+III",IF(COUNTIF(F204:L204,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E204" s="23" t="str">
-        <f>IF(COUNTIF(F204:L204,"-III")&gt;0,"-III",IF(COUNTIF(F204:L204,"-II")&gt;0,"-II",IF(COUNTIF(F204:L204,"-I")&gt;0,"-I",IF(COUNTIF(F204:L204,"+0")&gt;0,"+0",IF(COUNTIF(F204:L204,"+I")&gt;0,"+I",IF(COUNTIF(F204:L204,"+II")&gt;0,"+II",IF(COUNTIF(F204:L204,"+III")&gt;0,"+III",IF(COUNTIF(F204:L204,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F204" s="9" t="str">
@@ -11216,11 +11216,11 @@
         <v>5.9429999999999996</v>
       </c>
       <c r="D205" s="23" t="str">
-        <f>IF(COUNTIF(F205:L205,"D")&gt;0,"D",IF(COUNTIF(F205:L205,"-III")&gt;0,"-III",IF(COUNTIF(F205:L205,"-II")&gt;0,"-II",IF(COUNTIF(F205:L205,"-I")&gt;0,"-I",IF(COUNTIF(F205:L205,"+0")&gt;0,"+0",IF(COUNTIF(F205:L205,"+I")&gt;0,"+I",IF(COUNTIF(F205:L205,"+II")&gt;0,"+II",IF(COUNTIF(F205:L205,"+III")&gt;0,"+III",IF(COUNTIF(F205:L205,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+II</v>
       </c>
       <c r="E205" s="23" t="str">
-        <f>IF(COUNTIF(F205:L205,"-III")&gt;0,"-III",IF(COUNTIF(F205:L205,"-II")&gt;0,"-II",IF(COUNTIF(F205:L205,"-I")&gt;0,"-I",IF(COUNTIF(F205:L205,"+0")&gt;0,"+0",IF(COUNTIF(F205:L205,"+I")&gt;0,"+I",IF(COUNTIF(F205:L205,"+II")&gt;0,"+II",IF(COUNTIF(F205:L205,"+III")&gt;0,"+III",IF(COUNTIF(F205:L205,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F205" s="9" t="str">
@@ -11260,11 +11260,11 @@
         <v>5.9660000000000002</v>
       </c>
       <c r="D206" s="23" t="str">
-        <f>IF(COUNTIF(F206:L206,"D")&gt;0,"D",IF(COUNTIF(F206:L206,"-III")&gt;0,"-III",IF(COUNTIF(F206:L206,"-II")&gt;0,"-II",IF(COUNTIF(F206:L206,"-I")&gt;0,"-I",IF(COUNTIF(F206:L206,"+0")&gt;0,"+0",IF(COUNTIF(F206:L206,"+I")&gt;0,"+I",IF(COUNTIF(F206:L206,"+II")&gt;0,"+II",IF(COUNTIF(F206:L206,"+III")&gt;0,"+III",IF(COUNTIF(F206:L206,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>+I</v>
       </c>
       <c r="E206" s="23" t="str">
-        <f>IF(COUNTIF(F206:L206,"-III")&gt;0,"-III",IF(COUNTIF(F206:L206,"-II")&gt;0,"-II",IF(COUNTIF(F206:L206,"-I")&gt;0,"-I",IF(COUNTIF(F206:L206,"+0")&gt;0,"+0",IF(COUNTIF(F206:L206,"+I")&gt;0,"+I",IF(COUNTIF(F206:L206,"+II")&gt;0,"+II",IF(COUNTIF(F206:L206,"+III")&gt;0,"+III",IF(COUNTIF(F206:L206,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F206" s="9" t="str">
@@ -11304,11 +11304,11 @@
         <v>5.9850000000000003</v>
       </c>
       <c r="D207" s="23" t="str">
-        <f>IF(COUNTIF(F207:L207,"D")&gt;0,"D",IF(COUNTIF(F207:L207,"-III")&gt;0,"-III",IF(COUNTIF(F207:L207,"-II")&gt;0,"-II",IF(COUNTIF(F207:L207,"-I")&gt;0,"-I",IF(COUNTIF(F207:L207,"+0")&gt;0,"+0",IF(COUNTIF(F207:L207,"+I")&gt;0,"+I",IF(COUNTIF(F207:L207,"+II")&gt;0,"+II",IF(COUNTIF(F207:L207,"+III")&gt;0,"+III",IF(COUNTIF(F207:L207,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E207" s="23" t="str">
-        <f>IF(COUNTIF(F207:L207,"-III")&gt;0,"-III",IF(COUNTIF(F207:L207,"-II")&gt;0,"-II",IF(COUNTIF(F207:L207,"-I")&gt;0,"-I",IF(COUNTIF(F207:L207,"+0")&gt;0,"+0",IF(COUNTIF(F207:L207,"+I")&gt;0,"+I",IF(COUNTIF(F207:L207,"+II")&gt;0,"+II",IF(COUNTIF(F207:L207,"+III")&gt;0,"+III",IF(COUNTIF(F207:L207,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F207" s="9" t="str">
@@ -11348,11 +11348,11 @@
         <v>6.0540000000000003</v>
       </c>
       <c r="D208" s="23" t="str">
-        <f>IF(COUNTIF(F208:L208,"D")&gt;0,"D",IF(COUNTIF(F208:L208,"-III")&gt;0,"-III",IF(COUNTIF(F208:L208,"-II")&gt;0,"-II",IF(COUNTIF(F208:L208,"-I")&gt;0,"-I",IF(COUNTIF(F208:L208,"+0")&gt;0,"+0",IF(COUNTIF(F208:L208,"+I")&gt;0,"+I",IF(COUNTIF(F208:L208,"+II")&gt;0,"+II",IF(COUNTIF(F208:L208,"+III")&gt;0,"+III",IF(COUNTIF(F208:L208,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E208" s="23" t="str">
-        <f>IF(COUNTIF(F208:L208,"-III")&gt;0,"-III",IF(COUNTIF(F208:L208,"-II")&gt;0,"-II",IF(COUNTIF(F208:L208,"-I")&gt;0,"-I",IF(COUNTIF(F208:L208,"+0")&gt;0,"+0",IF(COUNTIF(F208:L208,"+I")&gt;0,"+I",IF(COUNTIF(F208:L208,"+II")&gt;0,"+II",IF(COUNTIF(F208:L208,"+III")&gt;0,"+III",IF(COUNTIF(F208:L208,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F208" s="9" t="str">
@@ -11392,11 +11392,11 @@
         <v>6.07</v>
       </c>
       <c r="D209" s="23" t="str">
-        <f>IF(COUNTIF(F209:L209,"D")&gt;0,"D",IF(COUNTIF(F209:L209,"-III")&gt;0,"-III",IF(COUNTIF(F209:L209,"-II")&gt;0,"-II",IF(COUNTIF(F209:L209,"-I")&gt;0,"-I",IF(COUNTIF(F209:L209,"+0")&gt;0,"+0",IF(COUNTIF(F209:L209,"+I")&gt;0,"+I",IF(COUNTIF(F209:L209,"+II")&gt;0,"+II",IF(COUNTIF(F209:L209,"+III")&gt;0,"+III",IF(COUNTIF(F209:L209,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E209" s="23" t="str">
-        <f>IF(COUNTIF(F209:L209,"-III")&gt;0,"-III",IF(COUNTIF(F209:L209,"-II")&gt;0,"-II",IF(COUNTIF(F209:L209,"-I")&gt;0,"-I",IF(COUNTIF(F209:L209,"+0")&gt;0,"+0",IF(COUNTIF(F209:L209,"+I")&gt;0,"+I",IF(COUNTIF(F209:L209,"+II")&gt;0,"+II",IF(COUNTIF(F209:L209,"+III")&gt;0,"+III",IF(COUNTIF(F209:L209,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+II</v>
       </c>
       <c r="F209" s="9" t="str">
@@ -11436,11 +11436,11 @@
         <v>6.0810000000000004</v>
       </c>
       <c r="D210" s="23" t="str">
-        <f>IF(COUNTIF(F210:L210,"D")&gt;0,"D",IF(COUNTIF(F210:L210,"-III")&gt;0,"-III",IF(COUNTIF(F210:L210,"-II")&gt;0,"-II",IF(COUNTIF(F210:L210,"-I")&gt;0,"-I",IF(COUNTIF(F210:L210,"+0")&gt;0,"+0",IF(COUNTIF(F210:L210,"+I")&gt;0,"+I",IF(COUNTIF(F210:L210,"+II")&gt;0,"+II",IF(COUNTIF(F210:L210,"+III")&gt;0,"+III",IF(COUNTIF(F210:L210,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E210" s="23" t="str">
-        <f>IF(COUNTIF(F210:L210,"-III")&gt;0,"-III",IF(COUNTIF(F210:L210,"-II")&gt;0,"-II",IF(COUNTIF(F210:L210,"-I")&gt;0,"-I",IF(COUNTIF(F210:L210,"+0")&gt;0,"+0",IF(COUNTIF(F210:L210,"+I")&gt;0,"+I",IF(COUNTIF(F210:L210,"+II")&gt;0,"+II",IF(COUNTIF(F210:L210,"+III")&gt;0,"+III",IF(COUNTIF(F210:L210,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F210" s="9" t="str">
@@ -11480,11 +11480,11 @@
         <v>6.0819999999999999</v>
       </c>
       <c r="D211" s="23" t="str">
-        <f>IF(COUNTIF(F211:L211,"D")&gt;0,"D",IF(COUNTIF(F211:L211,"-III")&gt;0,"-III",IF(COUNTIF(F211:L211,"-II")&gt;0,"-II",IF(COUNTIF(F211:L211,"-I")&gt;0,"-I",IF(COUNTIF(F211:L211,"+0")&gt;0,"+0",IF(COUNTIF(F211:L211,"+I")&gt;0,"+I",IF(COUNTIF(F211:L211,"+II")&gt;0,"+II",IF(COUNTIF(F211:L211,"+III")&gt;0,"+III",IF(COUNTIF(F211:L211,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E211" s="23" t="str">
-        <f>IF(COUNTIF(F211:L211,"-III")&gt;0,"-III",IF(COUNTIF(F211:L211,"-II")&gt;0,"-II",IF(COUNTIF(F211:L211,"-I")&gt;0,"-I",IF(COUNTIF(F211:L211,"+0")&gt;0,"+0",IF(COUNTIF(F211:L211,"+I")&gt;0,"+I",IF(COUNTIF(F211:L211,"+II")&gt;0,"+II",IF(COUNTIF(F211:L211,"+III")&gt;0,"+III",IF(COUNTIF(F211:L211,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F211" s="9" t="str">
@@ -11524,11 +11524,11 @@
         <v>6.133</v>
       </c>
       <c r="D212" s="23" t="str">
-        <f>IF(COUNTIF(F212:L212,"D")&gt;0,"D",IF(COUNTIF(F212:L212,"-III")&gt;0,"-III",IF(COUNTIF(F212:L212,"-II")&gt;0,"-II",IF(COUNTIF(F212:L212,"-I")&gt;0,"-I",IF(COUNTIF(F212:L212,"+0")&gt;0,"+0",IF(COUNTIF(F212:L212,"+I")&gt;0,"+I",IF(COUNTIF(F212:L212,"+II")&gt;0,"+II",IF(COUNTIF(F212:L212,"+III")&gt;0,"+III",IF(COUNTIF(F212:L212,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E212" s="23" t="str">
-        <f>IF(COUNTIF(F212:L212,"-III")&gt;0,"-III",IF(COUNTIF(F212:L212,"-II")&gt;0,"-II",IF(COUNTIF(F212:L212,"-I")&gt;0,"-I",IF(COUNTIF(F212:L212,"+0")&gt;0,"+0",IF(COUNTIF(F212:L212,"+I")&gt;0,"+I",IF(COUNTIF(F212:L212,"+II")&gt;0,"+II",IF(COUNTIF(F212:L212,"+III")&gt;0,"+III",IF(COUNTIF(F212:L212,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F212" s="9" t="str">
@@ -11568,11 +11568,11 @@
         <v>6.1859999999999999</v>
       </c>
       <c r="D213" s="23" t="str">
-        <f>IF(COUNTIF(F213:L213,"D")&gt;0,"D",IF(COUNTIF(F213:L213,"-III")&gt;0,"-III",IF(COUNTIF(F213:L213,"-II")&gt;0,"-II",IF(COUNTIF(F213:L213,"-I")&gt;0,"-I",IF(COUNTIF(F213:L213,"+0")&gt;0,"+0",IF(COUNTIF(F213:L213,"+I")&gt;0,"+I",IF(COUNTIF(F213:L213,"+II")&gt;0,"+II",IF(COUNTIF(F213:L213,"+III")&gt;0,"+III",IF(COUNTIF(F213:L213,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E213" s="23" t="str">
-        <f>IF(COUNTIF(F213:L213,"-III")&gt;0,"-III",IF(COUNTIF(F213:L213,"-II")&gt;0,"-II",IF(COUNTIF(F213:L213,"-I")&gt;0,"-I",IF(COUNTIF(F213:L213,"+0")&gt;0,"+0",IF(COUNTIF(F213:L213,"+I")&gt;0,"+I",IF(COUNTIF(F213:L213,"+II")&gt;0,"+II",IF(COUNTIF(F213:L213,"+III")&gt;0,"+III",IF(COUNTIF(F213:L213,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F213" s="9" t="str">
@@ -11612,11 +11612,11 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="D214" s="23" t="str">
-        <f>IF(COUNTIF(F214:L214,"D")&gt;0,"D",IF(COUNTIF(F214:L214,"-III")&gt;0,"-III",IF(COUNTIF(F214:L214,"-II")&gt;0,"-II",IF(COUNTIF(F214:L214,"-I")&gt;0,"-I",IF(COUNTIF(F214:L214,"+0")&gt;0,"+0",IF(COUNTIF(F214:L214,"+I")&gt;0,"+I",IF(COUNTIF(F214:L214,"+II")&gt;0,"+II",IF(COUNTIF(F214:L214,"+III")&gt;0,"+III",IF(COUNTIF(F214:L214,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E214" s="23" t="str">
-        <f>IF(COUNTIF(F214:L214,"-III")&gt;0,"-III",IF(COUNTIF(F214:L214,"-II")&gt;0,"-II",IF(COUNTIF(F214:L214,"-I")&gt;0,"-I",IF(COUNTIF(F214:L214,"+0")&gt;0,"+0",IF(COUNTIF(F214:L214,"+I")&gt;0,"+I",IF(COUNTIF(F214:L214,"+II")&gt;0,"+II",IF(COUNTIF(F214:L214,"+III")&gt;0,"+III",IF(COUNTIF(F214:L214,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F214" s="9" t="str">
@@ -11656,11 +11656,11 @@
         <v>6.2809999999999997</v>
       </c>
       <c r="D215" s="23" t="str">
-        <f>IF(COUNTIF(F215:L215,"D")&gt;0,"D",IF(COUNTIF(F215:L215,"-III")&gt;0,"-III",IF(COUNTIF(F215:L215,"-II")&gt;0,"-II",IF(COUNTIF(F215:L215,"-I")&gt;0,"-I",IF(COUNTIF(F215:L215,"+0")&gt;0,"+0",IF(COUNTIF(F215:L215,"+I")&gt;0,"+I",IF(COUNTIF(F215:L215,"+II")&gt;0,"+II",IF(COUNTIF(F215:L215,"+III")&gt;0,"+III",IF(COUNTIF(F215:L215,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E215" s="23" t="str">
-        <f>IF(COUNTIF(F215:L215,"-III")&gt;0,"-III",IF(COUNTIF(F215:L215,"-II")&gt;0,"-II",IF(COUNTIF(F215:L215,"-I")&gt;0,"-I",IF(COUNTIF(F215:L215,"+0")&gt;0,"+0",IF(COUNTIF(F215:L215,"+I")&gt;0,"+I",IF(COUNTIF(F215:L215,"+II")&gt;0,"+II",IF(COUNTIF(F215:L215,"+III")&gt;0,"+III",IF(COUNTIF(F215:L215,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F215" s="9" t="str">
@@ -11700,11 +11700,11 @@
         <v>6.3630000000000004</v>
       </c>
       <c r="D216" s="23" t="str">
-        <f>IF(COUNTIF(F216:L216,"D")&gt;0,"D",IF(COUNTIF(F216:L216,"-III")&gt;0,"-III",IF(COUNTIF(F216:L216,"-II")&gt;0,"-II",IF(COUNTIF(F216:L216,"-I")&gt;0,"-I",IF(COUNTIF(F216:L216,"+0")&gt;0,"+0",IF(COUNTIF(F216:L216,"+I")&gt;0,"+I",IF(COUNTIF(F216:L216,"+II")&gt;0,"+II",IF(COUNTIF(F216:L216,"+III")&gt;0,"+III",IF(COUNTIF(F216:L216,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E216" s="23" t="str">
-        <f>IF(COUNTIF(F216:L216,"-III")&gt;0,"-III",IF(COUNTIF(F216:L216,"-II")&gt;0,"-II",IF(COUNTIF(F216:L216,"-I")&gt;0,"-I",IF(COUNTIF(F216:L216,"+0")&gt;0,"+0",IF(COUNTIF(F216:L216,"+I")&gt;0,"+I",IF(COUNTIF(F216:L216,"+II")&gt;0,"+II",IF(COUNTIF(F216:L216,"+III")&gt;0,"+III",IF(COUNTIF(F216:L216,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F216" s="9" t="str">
@@ -11744,11 +11744,11 @@
         <v>6.47</v>
       </c>
       <c r="D217" s="23" t="str">
-        <f>IF(COUNTIF(F217:L217,"D")&gt;0,"D",IF(COUNTIF(F217:L217,"-III")&gt;0,"-III",IF(COUNTIF(F217:L217,"-II")&gt;0,"-II",IF(COUNTIF(F217:L217,"-I")&gt;0,"-I",IF(COUNTIF(F217:L217,"+0")&gt;0,"+0",IF(COUNTIF(F217:L217,"+I")&gt;0,"+I",IF(COUNTIF(F217:L217,"+II")&gt;0,"+II",IF(COUNTIF(F217:L217,"+III")&gt;0,"+III",IF(COUNTIF(F217:L217,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E217" s="23" t="str">
-        <f>IF(COUNTIF(F217:L217,"-III")&gt;0,"-III",IF(COUNTIF(F217:L217,"-II")&gt;0,"-II",IF(COUNTIF(F217:L217,"-I")&gt;0,"-I",IF(COUNTIF(F217:L217,"+0")&gt;0,"+0",IF(COUNTIF(F217:L217,"+I")&gt;0,"+I",IF(COUNTIF(F217:L217,"+II")&gt;0,"+II",IF(COUNTIF(F217:L217,"+III")&gt;0,"+III",IF(COUNTIF(F217:L217,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F217" s="9" t="str">
@@ -11788,11 +11788,11 @@
         <v>6.52</v>
       </c>
       <c r="D218" s="23" t="str">
-        <f>IF(COUNTIF(F218:L218,"D")&gt;0,"D",IF(COUNTIF(F218:L218,"-III")&gt;0,"-III",IF(COUNTIF(F218:L218,"-II")&gt;0,"-II",IF(COUNTIF(F218:L218,"-I")&gt;0,"-I",IF(COUNTIF(F218:L218,"+0")&gt;0,"+0",IF(COUNTIF(F218:L218,"+I")&gt;0,"+I",IF(COUNTIF(F218:L218,"+II")&gt;0,"+II",IF(COUNTIF(F218:L218,"+III")&gt;0,"+III",IF(COUNTIF(F218:L218,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E218" s="23" t="str">
-        <f>IF(COUNTIF(F218:L218,"-III")&gt;0,"-III",IF(COUNTIF(F218:L218,"-II")&gt;0,"-II",IF(COUNTIF(F218:L218,"-I")&gt;0,"-I",IF(COUNTIF(F218:L218,"+0")&gt;0,"+0",IF(COUNTIF(F218:L218,"+I")&gt;0,"+I",IF(COUNTIF(F218:L218,"+II")&gt;0,"+II",IF(COUNTIF(F218:L218,"+III")&gt;0,"+III",IF(COUNTIF(F218:L218,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F218" s="9" t="str">
@@ -11832,11 +11832,11 @@
         <v>6.5220000000000002</v>
       </c>
       <c r="D219" s="23" t="str">
-        <f>IF(COUNTIF(F219:L219,"D")&gt;0,"D",IF(COUNTIF(F219:L219,"-III")&gt;0,"-III",IF(COUNTIF(F219:L219,"-II")&gt;0,"-II",IF(COUNTIF(F219:L219,"-I")&gt;0,"-I",IF(COUNTIF(F219:L219,"+0")&gt;0,"+0",IF(COUNTIF(F219:L219,"+I")&gt;0,"+I",IF(COUNTIF(F219:L219,"+II")&gt;0,"+II",IF(COUNTIF(F219:L219,"+III")&gt;0,"+III",IF(COUNTIF(F219:L219,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E219" s="23" t="str">
-        <f>IF(COUNTIF(F219:L219,"-III")&gt;0,"-III",IF(COUNTIF(F219:L219,"-II")&gt;0,"-II",IF(COUNTIF(F219:L219,"-I")&gt;0,"-I",IF(COUNTIF(F219:L219,"+0")&gt;0,"+0",IF(COUNTIF(F219:L219,"+I")&gt;0,"+I",IF(COUNTIF(F219:L219,"+II")&gt;0,"+II",IF(COUNTIF(F219:L219,"+III")&gt;0,"+III",IF(COUNTIF(F219:L219,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F219" s="9" t="str">
@@ -11876,11 +11876,11 @@
         <v>6.5860000000000003</v>
       </c>
       <c r="D220" s="23" t="str">
-        <f>IF(COUNTIF(F220:L220,"D")&gt;0,"D",IF(COUNTIF(F220:L220,"-III")&gt;0,"-III",IF(COUNTIF(F220:L220,"-II")&gt;0,"-II",IF(COUNTIF(F220:L220,"-I")&gt;0,"-I",IF(COUNTIF(F220:L220,"+0")&gt;0,"+0",IF(COUNTIF(F220:L220,"+I")&gt;0,"+I",IF(COUNTIF(F220:L220,"+II")&gt;0,"+II",IF(COUNTIF(F220:L220,"+III")&gt;0,"+III",IF(COUNTIF(F220:L220,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E220" s="23" t="str">
-        <f>IF(COUNTIF(F220:L220,"-III")&gt;0,"-III",IF(COUNTIF(F220:L220,"-II")&gt;0,"-II",IF(COUNTIF(F220:L220,"-I")&gt;0,"-I",IF(COUNTIF(F220:L220,"+0")&gt;0,"+0",IF(COUNTIF(F220:L220,"+I")&gt;0,"+I",IF(COUNTIF(F220:L220,"+II")&gt;0,"+II",IF(COUNTIF(F220:L220,"+III")&gt;0,"+III",IF(COUNTIF(F220:L220,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+III</v>
       </c>
       <c r="F220" s="9" t="str">
@@ -11920,11 +11920,11 @@
         <v>6.6</v>
       </c>
       <c r="D221" s="23" t="str">
-        <f>IF(COUNTIF(F221:L221,"D")&gt;0,"D",IF(COUNTIF(F221:L221,"-III")&gt;0,"-III",IF(COUNTIF(F221:L221,"-II")&gt;0,"-II",IF(COUNTIF(F221:L221,"-I")&gt;0,"-I",IF(COUNTIF(F221:L221,"+0")&gt;0,"+0",IF(COUNTIF(F221:L221,"+I")&gt;0,"+I",IF(COUNTIF(F221:L221,"+II")&gt;0,"+II",IF(COUNTIF(F221:L221,"+III")&gt;0,"+III",IF(COUNTIF(F221:L221,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E221" s="23" t="str">
-        <f>IF(COUNTIF(F221:L221,"-III")&gt;0,"-III",IF(COUNTIF(F221:L221,"-II")&gt;0,"-II",IF(COUNTIF(F221:L221,"-I")&gt;0,"-I",IF(COUNTIF(F221:L221,"+0")&gt;0,"+0",IF(COUNTIF(F221:L221,"+I")&gt;0,"+I",IF(COUNTIF(F221:L221,"+II")&gt;0,"+II",IF(COUNTIF(F221:L221,"+III")&gt;0,"+III",IF(COUNTIF(F221:L221,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F221" s="9" t="str">
@@ -11964,11 +11964,11 @@
         <v>6.6109999999999998</v>
       </c>
       <c r="D222" s="23" t="str">
-        <f>IF(COUNTIF(F222:L222,"D")&gt;0,"D",IF(COUNTIF(F222:L222,"-III")&gt;0,"-III",IF(COUNTIF(F222:L222,"-II")&gt;0,"-II",IF(COUNTIF(F222:L222,"-I")&gt;0,"-I",IF(COUNTIF(F222:L222,"+0")&gt;0,"+0",IF(COUNTIF(F222:L222,"+I")&gt;0,"+I",IF(COUNTIF(F222:L222,"+II")&gt;0,"+II",IF(COUNTIF(F222:L222,"+III")&gt;0,"+III",IF(COUNTIF(F222:L222,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E222" s="23" t="str">
-        <f>IF(COUNTIF(F222:L222,"-III")&gt;0,"-III",IF(COUNTIF(F222:L222,"-II")&gt;0,"-II",IF(COUNTIF(F222:L222,"-I")&gt;0,"-I",IF(COUNTIF(F222:L222,"+0")&gt;0,"+0",IF(COUNTIF(F222:L222,"+I")&gt;0,"+I",IF(COUNTIF(F222:L222,"+II")&gt;0,"+II",IF(COUNTIF(F222:L222,"+III")&gt;0,"+III",IF(COUNTIF(F222:L222,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F222" s="9" t="str">
@@ -12008,11 +12008,11 @@
         <v>6.6379999999999999</v>
       </c>
       <c r="D223" s="23" t="str">
-        <f>IF(COUNTIF(F223:L223,"D")&gt;0,"D",IF(COUNTIF(F223:L223,"-III")&gt;0,"-III",IF(COUNTIF(F223:L223,"-II")&gt;0,"-II",IF(COUNTIF(F223:L223,"-I")&gt;0,"-I",IF(COUNTIF(F223:L223,"+0")&gt;0,"+0",IF(COUNTIF(F223:L223,"+I")&gt;0,"+I",IF(COUNTIF(F223:L223,"+II")&gt;0,"+II",IF(COUNTIF(F223:L223,"+III")&gt;0,"+III",IF(COUNTIF(F223:L223,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E223" s="23" t="str">
-        <f>IF(COUNTIF(F223:L223,"-III")&gt;0,"-III",IF(COUNTIF(F223:L223,"-II")&gt;0,"-II",IF(COUNTIF(F223:L223,"-I")&gt;0,"-I",IF(COUNTIF(F223:L223,"+0")&gt;0,"+0",IF(COUNTIF(F223:L223,"+I")&gt;0,"+I",IF(COUNTIF(F223:L223,"+II")&gt;0,"+II",IF(COUNTIF(F223:L223,"+III")&gt;0,"+III",IF(COUNTIF(F223:L223,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F223" s="9" t="str">
@@ -12052,11 +12052,11 @@
         <v>6.6710000000000003</v>
       </c>
       <c r="D224" s="23" t="str">
-        <f>IF(COUNTIF(F224:L224,"D")&gt;0,"D",IF(COUNTIF(F224:L224,"-III")&gt;0,"-III",IF(COUNTIF(F224:L224,"-II")&gt;0,"-II",IF(COUNTIF(F224:L224,"-I")&gt;0,"-I",IF(COUNTIF(F224:L224,"+0")&gt;0,"+0",IF(COUNTIF(F224:L224,"+I")&gt;0,"+I",IF(COUNTIF(F224:L224,"+II")&gt;0,"+II",IF(COUNTIF(F224:L224,"+III")&gt;0,"+III",IF(COUNTIF(F224:L224,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E224" s="23" t="str">
-        <f>IF(COUNTIF(F224:L224,"-III")&gt;0,"-III",IF(COUNTIF(F224:L224,"-II")&gt;0,"-II",IF(COUNTIF(F224:L224,"-I")&gt;0,"-I",IF(COUNTIF(F224:L224,"+0")&gt;0,"+0",IF(COUNTIF(F224:L224,"+I")&gt;0,"+I",IF(COUNTIF(F224:L224,"+II")&gt;0,"+II",IF(COUNTIF(F224:L224,"+III")&gt;0,"+III",IF(COUNTIF(F224:L224,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F224" s="9" t="str">
@@ -12096,11 +12096,11 @@
         <v>6.7069999999999999</v>
       </c>
       <c r="D225" s="23" t="str">
-        <f>IF(COUNTIF(F225:L225,"D")&gt;0,"D",IF(COUNTIF(F225:L225,"-III")&gt;0,"-III",IF(COUNTIF(F225:L225,"-II")&gt;0,"-II",IF(COUNTIF(F225:L225,"-I")&gt;0,"-I",IF(COUNTIF(F225:L225,"+0")&gt;0,"+0",IF(COUNTIF(F225:L225,"+I")&gt;0,"+I",IF(COUNTIF(F225:L225,"+II")&gt;0,"+II",IF(COUNTIF(F225:L225,"+III")&gt;0,"+III",IF(COUNTIF(F225:L225,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E225" s="23" t="str">
-        <f>IF(COUNTIF(F225:L225,"-III")&gt;0,"-III",IF(COUNTIF(F225:L225,"-II")&gt;0,"-II",IF(COUNTIF(F225:L225,"-I")&gt;0,"-I",IF(COUNTIF(F225:L225,"+0")&gt;0,"+0",IF(COUNTIF(F225:L225,"+I")&gt;0,"+I",IF(COUNTIF(F225:L225,"+II")&gt;0,"+II",IF(COUNTIF(F225:L225,"+III")&gt;0,"+III",IF(COUNTIF(F225:L225,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F225" s="9" t="str">
@@ -12140,11 +12140,11 @@
         <v>6.7370000000000001</v>
       </c>
       <c r="D226" s="23" t="str">
-        <f>IF(COUNTIF(F226:L226,"D")&gt;0,"D",IF(COUNTIF(F226:L226,"-III")&gt;0,"-III",IF(COUNTIF(F226:L226,"-II")&gt;0,"-II",IF(COUNTIF(F226:L226,"-I")&gt;0,"-I",IF(COUNTIF(F226:L226,"+0")&gt;0,"+0",IF(COUNTIF(F226:L226,"+I")&gt;0,"+I",IF(COUNTIF(F226:L226,"+II")&gt;0,"+II",IF(COUNTIF(F226:L226,"+III")&gt;0,"+III",IF(COUNTIF(F226:L226,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E226" s="23" t="str">
-        <f>IF(COUNTIF(F226:L226,"-III")&gt;0,"-III",IF(COUNTIF(F226:L226,"-II")&gt;0,"-II",IF(COUNTIF(F226:L226,"-I")&gt;0,"-I",IF(COUNTIF(F226:L226,"+0")&gt;0,"+0",IF(COUNTIF(F226:L226,"+I")&gt;0,"+I",IF(COUNTIF(F226:L226,"+II")&gt;0,"+II",IF(COUNTIF(F226:L226,"+III")&gt;0,"+III",IF(COUNTIF(F226:L226,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F226" s="9" t="str">
@@ -12184,11 +12184,11 @@
         <v>6.7629999999999999</v>
       </c>
       <c r="D227" s="23" t="str">
-        <f>IF(COUNTIF(F227:L227,"D")&gt;0,"D",IF(COUNTIF(F227:L227,"-III")&gt;0,"-III",IF(COUNTIF(F227:L227,"-II")&gt;0,"-II",IF(COUNTIF(F227:L227,"-I")&gt;0,"-I",IF(COUNTIF(F227:L227,"+0")&gt;0,"+0",IF(COUNTIF(F227:L227,"+I")&gt;0,"+I",IF(COUNTIF(F227:L227,"+II")&gt;0,"+II",IF(COUNTIF(F227:L227,"+III")&gt;0,"+III",IF(COUNTIF(F227:L227,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E227" s="23" t="str">
-        <f>IF(COUNTIF(F227:L227,"-III")&gt;0,"-III",IF(COUNTIF(F227:L227,"-II")&gt;0,"-II",IF(COUNTIF(F227:L227,"-I")&gt;0,"-I",IF(COUNTIF(F227:L227,"+0")&gt;0,"+0",IF(COUNTIF(F227:L227,"+I")&gt;0,"+I",IF(COUNTIF(F227:L227,"+II")&gt;0,"+II",IF(COUNTIF(F227:L227,"+III")&gt;0,"+III",IF(COUNTIF(F227:L227,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F227" s="9" t="str">
@@ -12228,11 +12228,11 @@
         <v>6.7729999999999997</v>
       </c>
       <c r="D228" s="23" t="str">
-        <f>IF(COUNTIF(F228:L228,"D")&gt;0,"D",IF(COUNTIF(F228:L228,"-III")&gt;0,"-III",IF(COUNTIF(F228:L228,"-II")&gt;0,"-II",IF(COUNTIF(F228:L228,"-I")&gt;0,"-I",IF(COUNTIF(F228:L228,"+0")&gt;0,"+0",IF(COUNTIF(F228:L228,"+I")&gt;0,"+I",IF(COUNTIF(F228:L228,"+II")&gt;0,"+II",IF(COUNTIF(F228:L228,"+III")&gt;0,"+III",IF(COUNTIF(F228:L228,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E228" s="23" t="str">
-        <f>IF(COUNTIF(F228:L228,"-III")&gt;0,"-III",IF(COUNTIF(F228:L228,"-II")&gt;0,"-II",IF(COUNTIF(F228:L228,"-I")&gt;0,"-I",IF(COUNTIF(F228:L228,"+0")&gt;0,"+0",IF(COUNTIF(F228:L228,"+I")&gt;0,"+I",IF(COUNTIF(F228:L228,"+II")&gt;0,"+II",IF(COUNTIF(F228:L228,"+III")&gt;0,"+III",IF(COUNTIF(F228:L228,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F228" s="9" t="str">
@@ -12272,11 +12272,11 @@
         <v>6.782</v>
       </c>
       <c r="D229" s="23" t="str">
-        <f>IF(COUNTIF(F229:L229,"D")&gt;0,"D",IF(COUNTIF(F229:L229,"-III")&gt;0,"-III",IF(COUNTIF(F229:L229,"-II")&gt;0,"-II",IF(COUNTIF(F229:L229,"-I")&gt;0,"-I",IF(COUNTIF(F229:L229,"+0")&gt;0,"+0",IF(COUNTIF(F229:L229,"+I")&gt;0,"+I",IF(COUNTIF(F229:L229,"+II")&gt;0,"+II",IF(COUNTIF(F229:L229,"+III")&gt;0,"+III",IF(COUNTIF(F229:L229,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E229" s="23" t="str">
-        <f>IF(COUNTIF(F229:L229,"-III")&gt;0,"-III",IF(COUNTIF(F229:L229,"-II")&gt;0,"-II",IF(COUNTIF(F229:L229,"-I")&gt;0,"-I",IF(COUNTIF(F229:L229,"+0")&gt;0,"+0",IF(COUNTIF(F229:L229,"+I")&gt;0,"+I",IF(COUNTIF(F229:L229,"+II")&gt;0,"+II",IF(COUNTIF(F229:L229,"+III")&gt;0,"+III",IF(COUNTIF(F229:L229,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F229" s="9" t="str">
@@ -12316,11 +12316,11 @@
         <v>6.8070000000000004</v>
       </c>
       <c r="D230" s="23" t="str">
-        <f>IF(COUNTIF(F230:L230,"D")&gt;0,"D",IF(COUNTIF(F230:L230,"-III")&gt;0,"-III",IF(COUNTIF(F230:L230,"-II")&gt;0,"-II",IF(COUNTIF(F230:L230,"-I")&gt;0,"-I",IF(COUNTIF(F230:L230,"+0")&gt;0,"+0",IF(COUNTIF(F230:L230,"+I")&gt;0,"+I",IF(COUNTIF(F230:L230,"+II")&gt;0,"+II",IF(COUNTIF(F230:L230,"+III")&gt;0,"+III",IF(COUNTIF(F230:L230,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E230" s="23" t="str">
-        <f>IF(COUNTIF(F230:L230,"-III")&gt;0,"-III",IF(COUNTIF(F230:L230,"-II")&gt;0,"-II",IF(COUNTIF(F230:L230,"-I")&gt;0,"-I",IF(COUNTIF(F230:L230,"+0")&gt;0,"+0",IF(COUNTIF(F230:L230,"+I")&gt;0,"+I",IF(COUNTIF(F230:L230,"+II")&gt;0,"+II",IF(COUNTIF(F230:L230,"+III")&gt;0,"+III",IF(COUNTIF(F230:L230,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F230" s="9" t="str">
@@ -12360,11 +12360,11 @@
         <v>6.81</v>
       </c>
       <c r="D231" s="23" t="str">
-        <f>IF(COUNTIF(F231:L231,"D")&gt;0,"D",IF(COUNTIF(F231:L231,"-III")&gt;0,"-III",IF(COUNTIF(F231:L231,"-II")&gt;0,"-II",IF(COUNTIF(F231:L231,"-I")&gt;0,"-I",IF(COUNTIF(F231:L231,"+0")&gt;0,"+0",IF(COUNTIF(F231:L231,"+I")&gt;0,"+I",IF(COUNTIF(F231:L231,"+II")&gt;0,"+II",IF(COUNTIF(F231:L231,"+III")&gt;0,"+III",IF(COUNTIF(F231:L231,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E231" s="23" t="str">
-        <f>IF(COUNTIF(F231:L231,"-III")&gt;0,"-III",IF(COUNTIF(F231:L231,"-II")&gt;0,"-II",IF(COUNTIF(F231:L231,"-I")&gt;0,"-I",IF(COUNTIF(F231:L231,"+0")&gt;0,"+0",IF(COUNTIF(F231:L231,"+I")&gt;0,"+I",IF(COUNTIF(F231:L231,"+II")&gt;0,"+II",IF(COUNTIF(F231:L231,"+III")&gt;0,"+III",IF(COUNTIF(F231:L231,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F231" s="9" t="str">
@@ -12404,11 +12404,11 @@
         <v>6.83</v>
       </c>
       <c r="D232" s="23" t="str">
-        <f>IF(COUNTIF(F232:L232,"D")&gt;0,"D",IF(COUNTIF(F232:L232,"-III")&gt;0,"-III",IF(COUNTIF(F232:L232,"-II")&gt;0,"-II",IF(COUNTIF(F232:L232,"-I")&gt;0,"-I",IF(COUNTIF(F232:L232,"+0")&gt;0,"+0",IF(COUNTIF(F232:L232,"+I")&gt;0,"+I",IF(COUNTIF(F232:L232,"+II")&gt;0,"+II",IF(COUNTIF(F232:L232,"+III")&gt;0,"+III",IF(COUNTIF(F232:L232,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E232" s="23" t="str">
-        <f>IF(COUNTIF(F232:L232,"-III")&gt;0,"-III",IF(COUNTIF(F232:L232,"-II")&gt;0,"-II",IF(COUNTIF(F232:L232,"-I")&gt;0,"-I",IF(COUNTIF(F232:L232,"+0")&gt;0,"+0",IF(COUNTIF(F232:L232,"+I")&gt;0,"+I",IF(COUNTIF(F232:L232,"+II")&gt;0,"+II",IF(COUNTIF(F232:L232,"+III")&gt;0,"+III",IF(COUNTIF(F232:L232,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+0</v>
       </c>
       <c r="F232" s="9" t="str">
@@ -12448,11 +12448,11 @@
         <v>6.8330000000000002</v>
       </c>
       <c r="D233" s="23" t="str">
-        <f>IF(COUNTIF(F233:L233,"D")&gt;0,"D",IF(COUNTIF(F233:L233,"-III")&gt;0,"-III",IF(COUNTIF(F233:L233,"-II")&gt;0,"-II",IF(COUNTIF(F233:L233,"-I")&gt;0,"-I",IF(COUNTIF(F233:L233,"+0")&gt;0,"+0",IF(COUNTIF(F233:L233,"+I")&gt;0,"+I",IF(COUNTIF(F233:L233,"+II")&gt;0,"+II",IF(COUNTIF(F233:L233,"+III")&gt;0,"+III",IF(COUNTIF(F233:L233,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E233" s="23" t="str">
-        <f>IF(COUNTIF(F233:L233,"-III")&gt;0,"-III",IF(COUNTIF(F233:L233,"-II")&gt;0,"-II",IF(COUNTIF(F233:L233,"-I")&gt;0,"-I",IF(COUNTIF(F233:L233,"+0")&gt;0,"+0",IF(COUNTIF(F233:L233,"+I")&gt;0,"+I",IF(COUNTIF(F233:L233,"+II")&gt;0,"+II",IF(COUNTIF(F233:L233,"+III")&gt;0,"+III",IF(COUNTIF(F233:L233,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+0</v>
       </c>
       <c r="F233" s="9" t="str">
@@ -12492,11 +12492,11 @@
         <v>6.8840000000000003</v>
       </c>
       <c r="D234" s="23" t="str">
-        <f>IF(COUNTIF(F234:L234,"D")&gt;0,"D",IF(COUNTIF(F234:L234,"-III")&gt;0,"-III",IF(COUNTIF(F234:L234,"-II")&gt;0,"-II",IF(COUNTIF(F234:L234,"-I")&gt;0,"-I",IF(COUNTIF(F234:L234,"+0")&gt;0,"+0",IF(COUNTIF(F234:L234,"+I")&gt;0,"+I",IF(COUNTIF(F234:L234,"+II")&gt;0,"+II",IF(COUNTIF(F234:L234,"+III")&gt;0,"+III",IF(COUNTIF(F234:L234,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E234" s="23" t="str">
-        <f>IF(COUNTIF(F234:L234,"-III")&gt;0,"-III",IF(COUNTIF(F234:L234,"-II")&gt;0,"-II",IF(COUNTIF(F234:L234,"-I")&gt;0,"-I",IF(COUNTIF(F234:L234,"+0")&gt;0,"+0",IF(COUNTIF(F234:L234,"+I")&gt;0,"+I",IF(COUNTIF(F234:L234,"+II")&gt;0,"+II",IF(COUNTIF(F234:L234,"+III")&gt;0,"+III",IF(COUNTIF(F234:L234,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+0</v>
       </c>
       <c r="F234" s="9" t="str">
@@ -12536,11 +12536,11 @@
         <v>6.9039999999999999</v>
       </c>
       <c r="D235" s="23" t="str">
-        <f>IF(COUNTIF(F235:L235,"D")&gt;0,"D",IF(COUNTIF(F235:L235,"-III")&gt;0,"-III",IF(COUNTIF(F235:L235,"-II")&gt;0,"-II",IF(COUNTIF(F235:L235,"-I")&gt;0,"-I",IF(COUNTIF(F235:L235,"+0")&gt;0,"+0",IF(COUNTIF(F235:L235,"+I")&gt;0,"+I",IF(COUNTIF(F235:L235,"+II")&gt;0,"+II",IF(COUNTIF(F235:L235,"+III")&gt;0,"+III",IF(COUNTIF(F235:L235,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E235" s="23" t="str">
-        <f>IF(COUNTIF(F235:L235,"-III")&gt;0,"-III",IF(COUNTIF(F235:L235,"-II")&gt;0,"-II",IF(COUNTIF(F235:L235,"-I")&gt;0,"-I",IF(COUNTIF(F235:L235,"+0")&gt;0,"+0",IF(COUNTIF(F235:L235,"+I")&gt;0,"+I",IF(COUNTIF(F235:L235,"+II")&gt;0,"+II",IF(COUNTIF(F235:L235,"+III")&gt;0,"+III",IF(COUNTIF(F235:L235,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F235" s="9" t="str">
@@ -12580,11 +12580,11 @@
         <v>6.9820000000000002</v>
       </c>
       <c r="D236" s="23" t="str">
-        <f>IF(COUNTIF(F236:L236,"D")&gt;0,"D",IF(COUNTIF(F236:L236,"-III")&gt;0,"-III",IF(COUNTIF(F236:L236,"-II")&gt;0,"-II",IF(COUNTIF(F236:L236,"-I")&gt;0,"-I",IF(COUNTIF(F236:L236,"+0")&gt;0,"+0",IF(COUNTIF(F236:L236,"+I")&gt;0,"+I",IF(COUNTIF(F236:L236,"+II")&gt;0,"+II",IF(COUNTIF(F236:L236,"+III")&gt;0,"+III",IF(COUNTIF(F236:L236,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E236" s="23" t="str">
-        <f>IF(COUNTIF(F236:L236,"-III")&gt;0,"-III",IF(COUNTIF(F236:L236,"-II")&gt;0,"-II",IF(COUNTIF(F236:L236,"-I")&gt;0,"-I",IF(COUNTIF(F236:L236,"+0")&gt;0,"+0",IF(COUNTIF(F236:L236,"+I")&gt;0,"+I",IF(COUNTIF(F236:L236,"+II")&gt;0,"+II",IF(COUNTIF(F236:L236,"+III")&gt;0,"+III",IF(COUNTIF(F236:L236,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F236" s="9" t="str">
@@ -12624,11 +12624,11 @@
         <v>6.9980000000000002</v>
       </c>
       <c r="D237" s="23" t="str">
-        <f>IF(COUNTIF(F237:L237,"D")&gt;0,"D",IF(COUNTIF(F237:L237,"-III")&gt;0,"-III",IF(COUNTIF(F237:L237,"-II")&gt;0,"-II",IF(COUNTIF(F237:L237,"-I")&gt;0,"-I",IF(COUNTIF(F237:L237,"+0")&gt;0,"+0",IF(COUNTIF(F237:L237,"+I")&gt;0,"+I",IF(COUNTIF(F237:L237,"+II")&gt;0,"+II",IF(COUNTIF(F237:L237,"+III")&gt;0,"+III",IF(COUNTIF(F237:L237,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E237" s="23" t="str">
-        <f>IF(COUNTIF(F237:L237,"-III")&gt;0,"-III",IF(COUNTIF(F237:L237,"-II")&gt;0,"-II",IF(COUNTIF(F237:L237,"-I")&gt;0,"-I",IF(COUNTIF(F237:L237,"+0")&gt;0,"+0",IF(COUNTIF(F237:L237,"+I")&gt;0,"+I",IF(COUNTIF(F237:L237,"+II")&gt;0,"+II",IF(COUNTIF(F237:L237,"+III")&gt;0,"+III",IF(COUNTIF(F237:L237,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F237" s="9" t="str">
@@ -12668,11 +12668,11 @@
         <v>7.0279999999999996</v>
       </c>
       <c r="D238" s="23" t="str">
-        <f>IF(COUNTIF(F238:L238,"D")&gt;0,"D",IF(COUNTIF(F238:L238,"-III")&gt;0,"-III",IF(COUNTIF(F238:L238,"-II")&gt;0,"-II",IF(COUNTIF(F238:L238,"-I")&gt;0,"-I",IF(COUNTIF(F238:L238,"+0")&gt;0,"+0",IF(COUNTIF(F238:L238,"+I")&gt;0,"+I",IF(COUNTIF(F238:L238,"+II")&gt;0,"+II",IF(COUNTIF(F238:L238,"+III")&gt;0,"+III",IF(COUNTIF(F238:L238,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E238" s="23" t="str">
-        <f>IF(COUNTIF(F238:L238,"-III")&gt;0,"-III",IF(COUNTIF(F238:L238,"-II")&gt;0,"-II",IF(COUNTIF(F238:L238,"-I")&gt;0,"-I",IF(COUNTIF(F238:L238,"+0")&gt;0,"+0",IF(COUNTIF(F238:L238,"+I")&gt;0,"+I",IF(COUNTIF(F238:L238,"+II")&gt;0,"+II",IF(COUNTIF(F238:L238,"+III")&gt;0,"+III",IF(COUNTIF(F238:L238,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F238" s="9" t="str">
@@ -12712,11 +12712,11 @@
         <v>7.1369999999999996</v>
       </c>
       <c r="D239" s="23" t="str">
-        <f>IF(COUNTIF(F239:L239,"D")&gt;0,"D",IF(COUNTIF(F239:L239,"-III")&gt;0,"-III",IF(COUNTIF(F239:L239,"-II")&gt;0,"-II",IF(COUNTIF(F239:L239,"-I")&gt;0,"-I",IF(COUNTIF(F239:L239,"+0")&gt;0,"+0",IF(COUNTIF(F239:L239,"+I")&gt;0,"+I",IF(COUNTIF(F239:L239,"+II")&gt;0,"+II",IF(COUNTIF(F239:L239,"+III")&gt;0,"+III",IF(COUNTIF(F239:L239,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E239" s="23" t="str">
-        <f>IF(COUNTIF(F239:L239,"-III")&gt;0,"-III",IF(COUNTIF(F239:L239,"-II")&gt;0,"-II",IF(COUNTIF(F239:L239,"-I")&gt;0,"-I",IF(COUNTIF(F239:L239,"+0")&gt;0,"+0",IF(COUNTIF(F239:L239,"+I")&gt;0,"+I",IF(COUNTIF(F239:L239,"+II")&gt;0,"+II",IF(COUNTIF(F239:L239,"+III")&gt;0,"+III",IF(COUNTIF(F239:L239,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F239" s="9" t="str">
@@ -12756,11 +12756,11 @@
         <v>7.1909999999999998</v>
       </c>
       <c r="D240" s="23" t="str">
-        <f>IF(COUNTIF(F240:L240,"D")&gt;0,"D",IF(COUNTIF(F240:L240,"-III")&gt;0,"-III",IF(COUNTIF(F240:L240,"-II")&gt;0,"-II",IF(COUNTIF(F240:L240,"-I")&gt;0,"-I",IF(COUNTIF(F240:L240,"+0")&gt;0,"+0",IF(COUNTIF(F240:L240,"+I")&gt;0,"+I",IF(COUNTIF(F240:L240,"+II")&gt;0,"+II",IF(COUNTIF(F240:L240,"+III")&gt;0,"+III",IF(COUNTIF(F240:L240,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E240" s="23" t="str">
-        <f>IF(COUNTIF(F240:L240,"-III")&gt;0,"-III",IF(COUNTIF(F240:L240,"-II")&gt;0,"-II",IF(COUNTIF(F240:L240,"-I")&gt;0,"-I",IF(COUNTIF(F240:L240,"+0")&gt;0,"+0",IF(COUNTIF(F240:L240,"+I")&gt;0,"+I",IF(COUNTIF(F240:L240,"+II")&gt;0,"+II",IF(COUNTIF(F240:L240,"+III")&gt;0,"+III",IF(COUNTIF(F240:L240,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F240" s="9" t="str">
@@ -12800,11 +12800,11 @@
         <v>7.1929999999999996</v>
       </c>
       <c r="D241" s="23" t="str">
-        <f>IF(COUNTIF(F241:L241,"D")&gt;0,"D",IF(COUNTIF(F241:L241,"-III")&gt;0,"-III",IF(COUNTIF(F241:L241,"-II")&gt;0,"-II",IF(COUNTIF(F241:L241,"-I")&gt;0,"-I",IF(COUNTIF(F241:L241,"+0")&gt;0,"+0",IF(COUNTIF(F241:L241,"+I")&gt;0,"+I",IF(COUNTIF(F241:L241,"+II")&gt;0,"+II",IF(COUNTIF(F241:L241,"+III")&gt;0,"+III",IF(COUNTIF(F241:L241,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E241" s="23" t="str">
-        <f>IF(COUNTIF(F241:L241,"-III")&gt;0,"-III",IF(COUNTIF(F241:L241,"-II")&gt;0,"-II",IF(COUNTIF(F241:L241,"-I")&gt;0,"-I",IF(COUNTIF(F241:L241,"+0")&gt;0,"+0",IF(COUNTIF(F241:L241,"+I")&gt;0,"+I",IF(COUNTIF(F241:L241,"+II")&gt;0,"+II",IF(COUNTIF(F241:L241,"+III")&gt;0,"+III",IF(COUNTIF(F241:L241,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F241" s="9" t="str">
@@ -12844,11 +12844,11 @@
         <v>7.2</v>
       </c>
       <c r="D242" s="23" t="str">
-        <f>IF(COUNTIF(F242:L242,"D")&gt;0,"D",IF(COUNTIF(F242:L242,"-III")&gt;0,"-III",IF(COUNTIF(F242:L242,"-II")&gt;0,"-II",IF(COUNTIF(F242:L242,"-I")&gt;0,"-I",IF(COUNTIF(F242:L242,"+0")&gt;0,"+0",IF(COUNTIF(F242:L242,"+I")&gt;0,"+I",IF(COUNTIF(F242:L242,"+II")&gt;0,"+II",IF(COUNTIF(F242:L242,"+III")&gt;0,"+III",IF(COUNTIF(F242:L242,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E242" s="23" t="str">
-        <f>IF(COUNTIF(F242:L242,"-III")&gt;0,"-III",IF(COUNTIF(F242:L242,"-II")&gt;0,"-II",IF(COUNTIF(F242:L242,"-I")&gt;0,"-I",IF(COUNTIF(F242:L242,"+0")&gt;0,"+0",IF(COUNTIF(F242:L242,"+I")&gt;0,"+I",IF(COUNTIF(F242:L242,"+II")&gt;0,"+II",IF(COUNTIF(F242:L242,"+III")&gt;0,"+III",IF(COUNTIF(F242:L242,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F242" s="9" t="str">
@@ -12888,11 +12888,11 @@
         <v>7.25</v>
       </c>
       <c r="D243" s="23" t="str">
-        <f>IF(COUNTIF(F243:L243,"D")&gt;0,"D",IF(COUNTIF(F243:L243,"-III")&gt;0,"-III",IF(COUNTIF(F243:L243,"-II")&gt;0,"-II",IF(COUNTIF(F243:L243,"-I")&gt;0,"-I",IF(COUNTIF(F243:L243,"+0")&gt;0,"+0",IF(COUNTIF(F243:L243,"+I")&gt;0,"+I",IF(COUNTIF(F243:L243,"+II")&gt;0,"+II",IF(COUNTIF(F243:L243,"+III")&gt;0,"+III",IF(COUNTIF(F243:L243,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E243" s="23" t="str">
-        <f>IF(COUNTIF(F243:L243,"-III")&gt;0,"-III",IF(COUNTIF(F243:L243,"-II")&gt;0,"-II",IF(COUNTIF(F243:L243,"-I")&gt;0,"-I",IF(COUNTIF(F243:L243,"+0")&gt;0,"+0",IF(COUNTIF(F243:L243,"+I")&gt;0,"+I",IF(COUNTIF(F243:L243,"+II")&gt;0,"+II",IF(COUNTIF(F243:L243,"+III")&gt;0,"+III",IF(COUNTIF(F243:L243,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F243" s="9" t="str">
@@ -12932,11 +12932,11 @@
         <v>7.3049999999999997</v>
       </c>
       <c r="D244" s="23" t="str">
-        <f>IF(COUNTIF(F244:L244,"D")&gt;0,"D",IF(COUNTIF(F244:L244,"-III")&gt;0,"-III",IF(COUNTIF(F244:L244,"-II")&gt;0,"-II",IF(COUNTIF(F244:L244,"-I")&gt;0,"-I",IF(COUNTIF(F244:L244,"+0")&gt;0,"+0",IF(COUNTIF(F244:L244,"+I")&gt;0,"+I",IF(COUNTIF(F244:L244,"+II")&gt;0,"+II",IF(COUNTIF(F244:L244,"+III")&gt;0,"+III",IF(COUNTIF(F244:L244,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E244" s="23" t="str">
-        <f>IF(COUNTIF(F244:L244,"-III")&gt;0,"-III",IF(COUNTIF(F244:L244,"-II")&gt;0,"-II",IF(COUNTIF(F244:L244,"-I")&gt;0,"-I",IF(COUNTIF(F244:L244,"+0")&gt;0,"+0",IF(COUNTIF(F244:L244,"+I")&gt;0,"+I",IF(COUNTIF(F244:L244,"+II")&gt;0,"+II",IF(COUNTIF(F244:L244,"+III")&gt;0,"+III",IF(COUNTIF(F244:L244,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F244" s="9" t="str">
@@ -12976,11 +12976,11 @@
         <v>7.3079999999999998</v>
       </c>
       <c r="D245" s="23" t="str">
-        <f>IF(COUNTIF(F245:L245,"D")&gt;0,"D",IF(COUNTIF(F245:L245,"-III")&gt;0,"-III",IF(COUNTIF(F245:L245,"-II")&gt;0,"-II",IF(COUNTIF(F245:L245,"-I")&gt;0,"-I",IF(COUNTIF(F245:L245,"+0")&gt;0,"+0",IF(COUNTIF(F245:L245,"+I")&gt;0,"+I",IF(COUNTIF(F245:L245,"+II")&gt;0,"+II",IF(COUNTIF(F245:L245,"+III")&gt;0,"+III",IF(COUNTIF(F245:L245,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E245" s="23" t="str">
-        <f>IF(COUNTIF(F245:L245,"-III")&gt;0,"-III",IF(COUNTIF(F245:L245,"-II")&gt;0,"-II",IF(COUNTIF(F245:L245,"-I")&gt;0,"-I",IF(COUNTIF(F245:L245,"+0")&gt;0,"+0",IF(COUNTIF(F245:L245,"+I")&gt;0,"+I",IF(COUNTIF(F245:L245,"+II")&gt;0,"+II",IF(COUNTIF(F245:L245,"+III")&gt;0,"+III",IF(COUNTIF(F245:L245,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F245" s="9" t="str">
@@ -13020,11 +13020,11 @@
         <v>7.31</v>
       </c>
       <c r="D246" s="23" t="str">
-        <f>IF(COUNTIF(F246:L246,"D")&gt;0,"D",IF(COUNTIF(F246:L246,"-III")&gt;0,"-III",IF(COUNTIF(F246:L246,"-II")&gt;0,"-II",IF(COUNTIF(F246:L246,"-I")&gt;0,"-I",IF(COUNTIF(F246:L246,"+0")&gt;0,"+0",IF(COUNTIF(F246:L246,"+I")&gt;0,"+I",IF(COUNTIF(F246:L246,"+II")&gt;0,"+II",IF(COUNTIF(F246:L246,"+III")&gt;0,"+III",IF(COUNTIF(F246:L246,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E246" s="23" t="str">
-        <f>IF(COUNTIF(F246:L246,"-III")&gt;0,"-III",IF(COUNTIF(F246:L246,"-II")&gt;0,"-II",IF(COUNTIF(F246:L246,"-I")&gt;0,"-I",IF(COUNTIF(F246:L246,"+0")&gt;0,"+0",IF(COUNTIF(F246:L246,"+I")&gt;0,"+I",IF(COUNTIF(F246:L246,"+II")&gt;0,"+II",IF(COUNTIF(F246:L246,"+III")&gt;0,"+III",IF(COUNTIF(F246:L246,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F246" s="9" t="str">
@@ -13064,11 +13064,11 @@
         <v>7.33</v>
       </c>
       <c r="D247" s="23" t="str">
-        <f>IF(COUNTIF(F247:L247,"D")&gt;0,"D",IF(COUNTIF(F247:L247,"-III")&gt;0,"-III",IF(COUNTIF(F247:L247,"-II")&gt;0,"-II",IF(COUNTIF(F247:L247,"-I")&gt;0,"-I",IF(COUNTIF(F247:L247,"+0")&gt;0,"+0",IF(COUNTIF(F247:L247,"+I")&gt;0,"+I",IF(COUNTIF(F247:L247,"+II")&gt;0,"+II",IF(COUNTIF(F247:L247,"+III")&gt;0,"+III",IF(COUNTIF(F247:L247,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E247" s="23" t="str">
-        <f>IF(COUNTIF(F247:L247,"-III")&gt;0,"-III",IF(COUNTIF(F247:L247,"-II")&gt;0,"-II",IF(COUNTIF(F247:L247,"-I")&gt;0,"-I",IF(COUNTIF(F247:L247,"+0")&gt;0,"+0",IF(COUNTIF(F247:L247,"+I")&gt;0,"+I",IF(COUNTIF(F247:L247,"+II")&gt;0,"+II",IF(COUNTIF(F247:L247,"+III")&gt;0,"+III",IF(COUNTIF(F247:L247,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F247" s="9" t="str">
@@ -13108,11 +13108,11 @@
         <v>7.3739999999999997</v>
       </c>
       <c r="D248" s="23" t="str">
-        <f>IF(COUNTIF(F248:L248,"D")&gt;0,"D",IF(COUNTIF(F248:L248,"-III")&gt;0,"-III",IF(COUNTIF(F248:L248,"-II")&gt;0,"-II",IF(COUNTIF(F248:L248,"-I")&gt;0,"-I",IF(COUNTIF(F248:L248,"+0")&gt;0,"+0",IF(COUNTIF(F248:L248,"+I")&gt;0,"+I",IF(COUNTIF(F248:L248,"+II")&gt;0,"+II",IF(COUNTIF(F248:L248,"+III")&gt;0,"+III",IF(COUNTIF(F248:L248,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E248" s="23" t="str">
-        <f>IF(COUNTIF(F248:L248,"-III")&gt;0,"-III",IF(COUNTIF(F248:L248,"-II")&gt;0,"-II",IF(COUNTIF(F248:L248,"-I")&gt;0,"-I",IF(COUNTIF(F248:L248,"+0")&gt;0,"+0",IF(COUNTIF(F248:L248,"+I")&gt;0,"+I",IF(COUNTIF(F248:L248,"+II")&gt;0,"+II",IF(COUNTIF(F248:L248,"+III")&gt;0,"+III",IF(COUNTIF(F248:L248,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F248" s="9" t="str">
@@ -13152,11 +13152,11 @@
         <v>7.3979999999999997</v>
       </c>
       <c r="D249" s="23" t="str">
-        <f>IF(COUNTIF(F249:L249,"D")&gt;0,"D",IF(COUNTIF(F249:L249,"-III")&gt;0,"-III",IF(COUNTIF(F249:L249,"-II")&gt;0,"-II",IF(COUNTIF(F249:L249,"-I")&gt;0,"-I",IF(COUNTIF(F249:L249,"+0")&gt;0,"+0",IF(COUNTIF(F249:L249,"+I")&gt;0,"+I",IF(COUNTIF(F249:L249,"+II")&gt;0,"+II",IF(COUNTIF(F249:L249,"+III")&gt;0,"+III",IF(COUNTIF(F249:L249,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E249" s="23" t="str">
-        <f>IF(COUNTIF(F249:L249,"-III")&gt;0,"-III",IF(COUNTIF(F249:L249,"-II")&gt;0,"-II",IF(COUNTIF(F249:L249,"-I")&gt;0,"-I",IF(COUNTIF(F249:L249,"+0")&gt;0,"+0",IF(COUNTIF(F249:L249,"+I")&gt;0,"+I",IF(COUNTIF(F249:L249,"+II")&gt;0,"+II",IF(COUNTIF(F249:L249,"+III")&gt;0,"+III",IF(COUNTIF(F249:L249,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F249" s="9" t="str">
@@ -13196,11 +13196,11 @@
         <v>7.407</v>
       </c>
       <c r="D250" s="23" t="str">
-        <f>IF(COUNTIF(F250:L250,"D")&gt;0,"D",IF(COUNTIF(F250:L250,"-III")&gt;0,"-III",IF(COUNTIF(F250:L250,"-II")&gt;0,"-II",IF(COUNTIF(F250:L250,"-I")&gt;0,"-I",IF(COUNTIF(F250:L250,"+0")&gt;0,"+0",IF(COUNTIF(F250:L250,"+I")&gt;0,"+I",IF(COUNTIF(F250:L250,"+II")&gt;0,"+II",IF(COUNTIF(F250:L250,"+III")&gt;0,"+III",IF(COUNTIF(F250:L250,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E250" s="23" t="str">
-        <f>IF(COUNTIF(F250:L250,"-III")&gt;0,"-III",IF(COUNTIF(F250:L250,"-II")&gt;0,"-II",IF(COUNTIF(F250:L250,"-I")&gt;0,"-I",IF(COUNTIF(F250:L250,"+0")&gt;0,"+0",IF(COUNTIF(F250:L250,"+I")&gt;0,"+I",IF(COUNTIF(F250:L250,"+II")&gt;0,"+II",IF(COUNTIF(F250:L250,"+III")&gt;0,"+III",IF(COUNTIF(F250:L250,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F250" s="9" t="str">
@@ -13240,11 +13240,11 @@
         <v>7.41</v>
       </c>
       <c r="D251" s="23" t="str">
-        <f>IF(COUNTIF(F251:L251,"D")&gt;0,"D",IF(COUNTIF(F251:L251,"-III")&gt;0,"-III",IF(COUNTIF(F251:L251,"-II")&gt;0,"-II",IF(COUNTIF(F251:L251,"-I")&gt;0,"-I",IF(COUNTIF(F251:L251,"+0")&gt;0,"+0",IF(COUNTIF(F251:L251,"+I")&gt;0,"+I",IF(COUNTIF(F251:L251,"+II")&gt;0,"+II",IF(COUNTIF(F251:L251,"+III")&gt;0,"+III",IF(COUNTIF(F251:L251,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E251" s="23" t="str">
-        <f>IF(COUNTIF(F251:L251,"-III")&gt;0,"-III",IF(COUNTIF(F251:L251,"-II")&gt;0,"-II",IF(COUNTIF(F251:L251,"-I")&gt;0,"-I",IF(COUNTIF(F251:L251,"+0")&gt;0,"+0",IF(COUNTIF(F251:L251,"+I")&gt;0,"+I",IF(COUNTIF(F251:L251,"+II")&gt;0,"+II",IF(COUNTIF(F251:L251,"+III")&gt;0,"+III",IF(COUNTIF(F251:L251,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F251" s="9" t="str">
@@ -13284,11 +13284,11 @@
         <v>7.4660000000000002</v>
       </c>
       <c r="D252" s="23" t="str">
-        <f>IF(COUNTIF(F252:L252,"D")&gt;0,"D",IF(COUNTIF(F252:L252,"-III")&gt;0,"-III",IF(COUNTIF(F252:L252,"-II")&gt;0,"-II",IF(COUNTIF(F252:L252,"-I")&gt;0,"-I",IF(COUNTIF(F252:L252,"+0")&gt;0,"+0",IF(COUNTIF(F252:L252,"+I")&gt;0,"+I",IF(COUNTIF(F252:L252,"+II")&gt;0,"+II",IF(COUNTIF(F252:L252,"+III")&gt;0,"+III",IF(COUNTIF(F252:L252,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E252" s="23" t="str">
-        <f>IF(COUNTIF(F252:L252,"-III")&gt;0,"-III",IF(COUNTIF(F252:L252,"-II")&gt;0,"-II",IF(COUNTIF(F252:L252,"-I")&gt;0,"-I",IF(COUNTIF(F252:L252,"+0")&gt;0,"+0",IF(COUNTIF(F252:L252,"+I")&gt;0,"+I",IF(COUNTIF(F252:L252,"+II")&gt;0,"+II",IF(COUNTIF(F252:L252,"+III")&gt;0,"+III",IF(COUNTIF(F252:L252,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F252" s="9" t="str">
@@ -13328,11 +13328,11 @@
         <v>7.4669999999999996</v>
       </c>
       <c r="D253" s="23" t="str">
-        <f>IF(COUNTIF(F253:L253,"D")&gt;0,"D",IF(COUNTIF(F253:L253,"-III")&gt;0,"-III",IF(COUNTIF(F253:L253,"-II")&gt;0,"-II",IF(COUNTIF(F253:L253,"-I")&gt;0,"-I",IF(COUNTIF(F253:L253,"+0")&gt;0,"+0",IF(COUNTIF(F253:L253,"+I")&gt;0,"+I",IF(COUNTIF(F253:L253,"+II")&gt;0,"+II",IF(COUNTIF(F253:L253,"+III")&gt;0,"+III",IF(COUNTIF(F253:L253,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E253" s="23" t="str">
-        <f>IF(COUNTIF(F253:L253,"-III")&gt;0,"-III",IF(COUNTIF(F253:L253,"-II")&gt;0,"-II",IF(COUNTIF(F253:L253,"-I")&gt;0,"-I",IF(COUNTIF(F253:L253,"+0")&gt;0,"+0",IF(COUNTIF(F253:L253,"+I")&gt;0,"+I",IF(COUNTIF(F253:L253,"+II")&gt;0,"+II",IF(COUNTIF(F253:L253,"+III")&gt;0,"+III",IF(COUNTIF(F253:L253,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F253" s="9" t="str">
@@ -13372,11 +13372,11 @@
         <v>7.5359999999999996</v>
       </c>
       <c r="D254" s="23" t="str">
-        <f>IF(COUNTIF(F254:L254,"D")&gt;0,"D",IF(COUNTIF(F254:L254,"-III")&gt;0,"-III",IF(COUNTIF(F254:L254,"-II")&gt;0,"-II",IF(COUNTIF(F254:L254,"-I")&gt;0,"-I",IF(COUNTIF(F254:L254,"+0")&gt;0,"+0",IF(COUNTIF(F254:L254,"+I")&gt;0,"+I",IF(COUNTIF(F254:L254,"+II")&gt;0,"+II",IF(COUNTIF(F254:L254,"+III")&gt;0,"+III",IF(COUNTIF(F254:L254,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E254" s="23" t="str">
-        <f>IF(COUNTIF(F254:L254,"-III")&gt;0,"-III",IF(COUNTIF(F254:L254,"-II")&gt;0,"-II",IF(COUNTIF(F254:L254,"-I")&gt;0,"-I",IF(COUNTIF(F254:L254,"+0")&gt;0,"+0",IF(COUNTIF(F254:L254,"+I")&gt;0,"+I",IF(COUNTIF(F254:L254,"+II")&gt;0,"+II",IF(COUNTIF(F254:L254,"+III")&gt;0,"+III",IF(COUNTIF(F254:L254,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F254" s="9" t="str">
@@ -13416,11 +13416,11 @@
         <v>7.5519999999999996</v>
       </c>
       <c r="D255" s="23" t="str">
-        <f>IF(COUNTIF(F255:L255,"D")&gt;0,"D",IF(COUNTIF(F255:L255,"-III")&gt;0,"-III",IF(COUNTIF(F255:L255,"-II")&gt;0,"-II",IF(COUNTIF(F255:L255,"-I")&gt;0,"-I",IF(COUNTIF(F255:L255,"+0")&gt;0,"+0",IF(COUNTIF(F255:L255,"+I")&gt;0,"+I",IF(COUNTIF(F255:L255,"+II")&gt;0,"+II",IF(COUNTIF(F255:L255,"+III")&gt;0,"+III",IF(COUNTIF(F255:L255,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E255" s="23" t="str">
-        <f>IF(COUNTIF(F255:L255,"-III")&gt;0,"-III",IF(COUNTIF(F255:L255,"-II")&gt;0,"-II",IF(COUNTIF(F255:L255,"-I")&gt;0,"-I",IF(COUNTIF(F255:L255,"+0")&gt;0,"+0",IF(COUNTIF(F255:L255,"+I")&gt;0,"+I",IF(COUNTIF(F255:L255,"+II")&gt;0,"+II",IF(COUNTIF(F255:L255,"+III")&gt;0,"+III",IF(COUNTIF(F255:L255,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F255" s="9" t="str">
@@ -13460,11 +13460,11 @@
         <v>7.5640000000000001</v>
       </c>
       <c r="D256" s="23" t="str">
-        <f>IF(COUNTIF(F256:L256,"D")&gt;0,"D",IF(COUNTIF(F256:L256,"-III")&gt;0,"-III",IF(COUNTIF(F256:L256,"-II")&gt;0,"-II",IF(COUNTIF(F256:L256,"-I")&gt;0,"-I",IF(COUNTIF(F256:L256,"+0")&gt;0,"+0",IF(COUNTIF(F256:L256,"+I")&gt;0,"+I",IF(COUNTIF(F256:L256,"+II")&gt;0,"+II",IF(COUNTIF(F256:L256,"+III")&gt;0,"+III",IF(COUNTIF(F256:L256,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E256" s="23" t="str">
-        <f>IF(COUNTIF(F256:L256,"-III")&gt;0,"-III",IF(COUNTIF(F256:L256,"-II")&gt;0,"-II",IF(COUNTIF(F256:L256,"-I")&gt;0,"-I",IF(COUNTIF(F256:L256,"+0")&gt;0,"+0",IF(COUNTIF(F256:L256,"+I")&gt;0,"+I",IF(COUNTIF(F256:L256,"+II")&gt;0,"+II",IF(COUNTIF(F256:L256,"+III")&gt;0,"+III",IF(COUNTIF(F256:L256,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F256" s="9" t="str">
@@ -13504,11 +13504,11 @@
         <v>7.5659999999999998</v>
       </c>
       <c r="D257" s="23" t="str">
-        <f>IF(COUNTIF(F257:L257,"D")&gt;0,"D",IF(COUNTIF(F257:L257,"-III")&gt;0,"-III",IF(COUNTIF(F257:L257,"-II")&gt;0,"-II",IF(COUNTIF(F257:L257,"-I")&gt;0,"-I",IF(COUNTIF(F257:L257,"+0")&gt;0,"+0",IF(COUNTIF(F257:L257,"+I")&gt;0,"+I",IF(COUNTIF(F257:L257,"+II")&gt;0,"+II",IF(COUNTIF(F257:L257,"+III")&gt;0,"+III",IF(COUNTIF(F257:L257,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E257" s="23" t="str">
-        <f>IF(COUNTIF(F257:L257,"-III")&gt;0,"-III",IF(COUNTIF(F257:L257,"-II")&gt;0,"-II",IF(COUNTIF(F257:L257,"-I")&gt;0,"-I",IF(COUNTIF(F257:L257,"+0")&gt;0,"+0",IF(COUNTIF(F257:L257,"+I")&gt;0,"+I",IF(COUNTIF(F257:L257,"+II")&gt;0,"+II",IF(COUNTIF(F257:L257,"+III")&gt;0,"+III",IF(COUNTIF(F257:L257,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F257" s="9" t="str">
@@ -13548,11 +13548,11 @@
         <v>7.5739999999999998</v>
       </c>
       <c r="D258" s="23" t="str">
-        <f>IF(COUNTIF(F258:L258,"D")&gt;0,"D",IF(COUNTIF(F258:L258,"-III")&gt;0,"-III",IF(COUNTIF(F258:L258,"-II")&gt;0,"-II",IF(COUNTIF(F258:L258,"-I")&gt;0,"-I",IF(COUNTIF(F258:L258,"+0")&gt;0,"+0",IF(COUNTIF(F258:L258,"+I")&gt;0,"+I",IF(COUNTIF(F258:L258,"+II")&gt;0,"+II",IF(COUNTIF(F258:L258,"+III")&gt;0,"+III",IF(COUNTIF(F258:L258,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="6"/>
         <v>D</v>
       </c>
       <c r="E258" s="23" t="str">
-        <f>IF(COUNTIF(F258:L258,"-III")&gt;0,"-III",IF(COUNTIF(F258:L258,"-II")&gt;0,"-II",IF(COUNTIF(F258:L258,"-I")&gt;0,"-I",IF(COUNTIF(F258:L258,"+0")&gt;0,"+0",IF(COUNTIF(F258:L258,"+I")&gt;0,"+I",IF(COUNTIF(F258:L258,"+II")&gt;0,"+II",IF(COUNTIF(F258:L258,"+III")&gt;0,"+III",IF(COUNTIF(F258:L258,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="7"/>
         <v>+I</v>
       </c>
       <c r="F258" s="9" t="str">
@@ -13592,11 +13592,11 @@
         <v>7.6029999999999998</v>
       </c>
       <c r="D259" s="23" t="str">
-        <f>IF(COUNTIF(F259:L259,"D")&gt;0,"D",IF(COUNTIF(F259:L259,"-III")&gt;0,"-III",IF(COUNTIF(F259:L259,"-II")&gt;0,"-II",IF(COUNTIF(F259:L259,"-I")&gt;0,"-I",IF(COUNTIF(F259:L259,"+0")&gt;0,"+0",IF(COUNTIF(F259:L259,"+I")&gt;0,"+I",IF(COUNTIF(F259:L259,"+II")&gt;0,"+II",IF(COUNTIF(F259:L259,"+III")&gt;0,"+III",IF(COUNTIF(F259:L259,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D259:D322" si="8">IF(COUNTIF(F259:L259,"D")&gt;0,"D",IF(COUNTIF(F259:L259,"-III")&gt;0,"-III",IF(COUNTIF(F259:L259,"-II")&gt;0,"-II",IF(COUNTIF(F259:L259,"-I")&gt;0,"-I",IF(COUNTIF(F259:L259,"+0")&gt;0,"+0",IF(COUNTIF(F259:L259,"+I")&gt;0,"+I",IF(COUNTIF(F259:L259,"+II")&gt;0,"+II",IF(COUNTIF(F259:L259,"+III")&gt;0,"+III",IF(COUNTIF(F259:L259,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E259" s="23" t="str">
-        <f>IF(COUNTIF(F259:L259,"-III")&gt;0,"-III",IF(COUNTIF(F259:L259,"-II")&gt;0,"-II",IF(COUNTIF(F259:L259,"-I")&gt;0,"-I",IF(COUNTIF(F259:L259,"+0")&gt;0,"+0",IF(COUNTIF(F259:L259,"+I")&gt;0,"+I",IF(COUNTIF(F259:L259,"+II")&gt;0,"+II",IF(COUNTIF(F259:L259,"+III")&gt;0,"+III",IF(COUNTIF(F259:L259,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E259:E322" si="9">IF(COUNTIF(F259:L259,"-III")&gt;0,"-III",IF(COUNTIF(F259:L259,"-II")&gt;0,"-II",IF(COUNTIF(F259:L259,"-I")&gt;0,"-I",IF(COUNTIF(F259:L259,"+0")&gt;0,"+0",IF(COUNTIF(F259:L259,"+I")&gt;0,"+I",IF(COUNTIF(F259:L259,"+II")&gt;0,"+II",IF(COUNTIF(F259:L259,"+III")&gt;0,"+III",IF(COUNTIF(F259:L259,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F259" s="9" t="str">
@@ -13636,11 +13636,11 @@
         <v>7.6310000000000002</v>
       </c>
       <c r="D260" s="23" t="str">
-        <f>IF(COUNTIF(F260:L260,"D")&gt;0,"D",IF(COUNTIF(F260:L260,"-III")&gt;0,"-III",IF(COUNTIF(F260:L260,"-II")&gt;0,"-II",IF(COUNTIF(F260:L260,"-I")&gt;0,"-I",IF(COUNTIF(F260:L260,"+0")&gt;0,"+0",IF(COUNTIF(F260:L260,"+I")&gt;0,"+I",IF(COUNTIF(F260:L260,"+II")&gt;0,"+II",IF(COUNTIF(F260:L260,"+III")&gt;0,"+III",IF(COUNTIF(F260:L260,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E260" s="23" t="str">
-        <f>IF(COUNTIF(F260:L260,"-III")&gt;0,"-III",IF(COUNTIF(F260:L260,"-II")&gt;0,"-II",IF(COUNTIF(F260:L260,"-I")&gt;0,"-I",IF(COUNTIF(F260:L260,"+0")&gt;0,"+0",IF(COUNTIF(F260:L260,"+I")&gt;0,"+I",IF(COUNTIF(F260:L260,"+II")&gt;0,"+II",IF(COUNTIF(F260:L260,"+III")&gt;0,"+III",IF(COUNTIF(F260:L260,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F260" s="9" t="str">
@@ -13680,11 +13680,11 @@
         <v>7.6559999999999997</v>
       </c>
       <c r="D261" s="23" t="str">
-        <f>IF(COUNTIF(F261:L261,"D")&gt;0,"D",IF(COUNTIF(F261:L261,"-III")&gt;0,"-III",IF(COUNTIF(F261:L261,"-II")&gt;0,"-II",IF(COUNTIF(F261:L261,"-I")&gt;0,"-I",IF(COUNTIF(F261:L261,"+0")&gt;0,"+0",IF(COUNTIF(F261:L261,"+I")&gt;0,"+I",IF(COUNTIF(F261:L261,"+II")&gt;0,"+II",IF(COUNTIF(F261:L261,"+III")&gt;0,"+III",IF(COUNTIF(F261:L261,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E261" s="23" t="str">
-        <f>IF(COUNTIF(F261:L261,"-III")&gt;0,"-III",IF(COUNTIF(F261:L261,"-II")&gt;0,"-II",IF(COUNTIF(F261:L261,"-I")&gt;0,"-I",IF(COUNTIF(F261:L261,"+0")&gt;0,"+0",IF(COUNTIF(F261:L261,"+I")&gt;0,"+I",IF(COUNTIF(F261:L261,"+II")&gt;0,"+II",IF(COUNTIF(F261:L261,"+III")&gt;0,"+III",IF(COUNTIF(F261:L261,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F261" s="9" t="str">
@@ -13724,11 +13724,11 @@
         <v>7.7130000000000001</v>
       </c>
       <c r="D262" s="23" t="str">
-        <f>IF(COUNTIF(F262:L262,"D")&gt;0,"D",IF(COUNTIF(F262:L262,"-III")&gt;0,"-III",IF(COUNTIF(F262:L262,"-II")&gt;0,"-II",IF(COUNTIF(F262:L262,"-I")&gt;0,"-I",IF(COUNTIF(F262:L262,"+0")&gt;0,"+0",IF(COUNTIF(F262:L262,"+I")&gt;0,"+I",IF(COUNTIF(F262:L262,"+II")&gt;0,"+II",IF(COUNTIF(F262:L262,"+III")&gt;0,"+III",IF(COUNTIF(F262:L262,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E262" s="23" t="str">
-        <f>IF(COUNTIF(F262:L262,"-III")&gt;0,"-III",IF(COUNTIF(F262:L262,"-II")&gt;0,"-II",IF(COUNTIF(F262:L262,"-I")&gt;0,"-I",IF(COUNTIF(F262:L262,"+0")&gt;0,"+0",IF(COUNTIF(F262:L262,"+I")&gt;0,"+I",IF(COUNTIF(F262:L262,"+II")&gt;0,"+II",IF(COUNTIF(F262:L262,"+III")&gt;0,"+III",IF(COUNTIF(F262:L262,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F262" s="9" t="str">
@@ -13768,11 +13768,11 @@
         <v>7.7160000000000002</v>
       </c>
       <c r="D263" s="23" t="str">
-        <f>IF(COUNTIF(F263:L263,"D")&gt;0,"D",IF(COUNTIF(F263:L263,"-III")&gt;0,"-III",IF(COUNTIF(F263:L263,"-II")&gt;0,"-II",IF(COUNTIF(F263:L263,"-I")&gt;0,"-I",IF(COUNTIF(F263:L263,"+0")&gt;0,"+0",IF(COUNTIF(F263:L263,"+I")&gt;0,"+I",IF(COUNTIF(F263:L263,"+II")&gt;0,"+II",IF(COUNTIF(F263:L263,"+III")&gt;0,"+III",IF(COUNTIF(F263:L263,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E263" s="23" t="str">
-        <f>IF(COUNTIF(F263:L263,"-III")&gt;0,"-III",IF(COUNTIF(F263:L263,"-II")&gt;0,"-II",IF(COUNTIF(F263:L263,"-I")&gt;0,"-I",IF(COUNTIF(F263:L263,"+0")&gt;0,"+0",IF(COUNTIF(F263:L263,"+I")&gt;0,"+I",IF(COUNTIF(F263:L263,"+II")&gt;0,"+II",IF(COUNTIF(F263:L263,"+III")&gt;0,"+III",IF(COUNTIF(F263:L263,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F263" s="9" t="str">
@@ -13812,11 +13812,11 @@
         <v>7.7240000000000002</v>
       </c>
       <c r="D264" s="23" t="str">
-        <f>IF(COUNTIF(F264:L264,"D")&gt;0,"D",IF(COUNTIF(F264:L264,"-III")&gt;0,"-III",IF(COUNTIF(F264:L264,"-II")&gt;0,"-II",IF(COUNTIF(F264:L264,"-I")&gt;0,"-I",IF(COUNTIF(F264:L264,"+0")&gt;0,"+0",IF(COUNTIF(F264:L264,"+I")&gt;0,"+I",IF(COUNTIF(F264:L264,"+II")&gt;0,"+II",IF(COUNTIF(F264:L264,"+III")&gt;0,"+III",IF(COUNTIF(F264:L264,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E264" s="23" t="str">
-        <f>IF(COUNTIF(F264:L264,"-III")&gt;0,"-III",IF(COUNTIF(F264:L264,"-II")&gt;0,"-II",IF(COUNTIF(F264:L264,"-I")&gt;0,"-I",IF(COUNTIF(F264:L264,"+0")&gt;0,"+0",IF(COUNTIF(F264:L264,"+I")&gt;0,"+I",IF(COUNTIF(F264:L264,"+II")&gt;0,"+II",IF(COUNTIF(F264:L264,"+III")&gt;0,"+III",IF(COUNTIF(F264:L264,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F264" s="9" t="str">
@@ -13856,11 +13856,11 @@
         <v>7.7290000000000001</v>
       </c>
       <c r="D265" s="23" t="str">
-        <f>IF(COUNTIF(F265:L265,"D")&gt;0,"D",IF(COUNTIF(F265:L265,"-III")&gt;0,"-III",IF(COUNTIF(F265:L265,"-II")&gt;0,"-II",IF(COUNTIF(F265:L265,"-I")&gt;0,"-I",IF(COUNTIF(F265:L265,"+0")&gt;0,"+0",IF(COUNTIF(F265:L265,"+I")&gt;0,"+I",IF(COUNTIF(F265:L265,"+II")&gt;0,"+II",IF(COUNTIF(F265:L265,"+III")&gt;0,"+III",IF(COUNTIF(F265:L265,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E265" s="23" t="str">
-        <f>IF(COUNTIF(F265:L265,"-III")&gt;0,"-III",IF(COUNTIF(F265:L265,"-II")&gt;0,"-II",IF(COUNTIF(F265:L265,"-I")&gt;0,"-I",IF(COUNTIF(F265:L265,"+0")&gt;0,"+0",IF(COUNTIF(F265:L265,"+I")&gt;0,"+I",IF(COUNTIF(F265:L265,"+II")&gt;0,"+II",IF(COUNTIF(F265:L265,"+III")&gt;0,"+III",IF(COUNTIF(F265:L265,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F265" s="9" t="str">
@@ -13900,11 +13900,11 @@
         <v>7.7610000000000001</v>
       </c>
       <c r="D266" s="23" t="str">
-        <f>IF(COUNTIF(F266:L266,"D")&gt;0,"D",IF(COUNTIF(F266:L266,"-III")&gt;0,"-III",IF(COUNTIF(F266:L266,"-II")&gt;0,"-II",IF(COUNTIF(F266:L266,"-I")&gt;0,"-I",IF(COUNTIF(F266:L266,"+0")&gt;0,"+0",IF(COUNTIF(F266:L266,"+I")&gt;0,"+I",IF(COUNTIF(F266:L266,"+II")&gt;0,"+II",IF(COUNTIF(F266:L266,"+III")&gt;0,"+III",IF(COUNTIF(F266:L266,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="E266" s="23" t="str">
-        <f>IF(COUNTIF(F266:L266,"-III")&gt;0,"-III",IF(COUNTIF(F266:L266,"-II")&gt;0,"-II",IF(COUNTIF(F266:L266,"-I")&gt;0,"-I",IF(COUNTIF(F266:L266,"+0")&gt;0,"+0",IF(COUNTIF(F266:L266,"+I")&gt;0,"+I",IF(COUNTIF(F266:L266,"+II")&gt;0,"+II",IF(COUNTIF(F266:L266,"+III")&gt;0,"+III",IF(COUNTIF(F266:L266,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F266" s="9" t="str">
@@ -13944,11 +13944,11 @@
         <v>7.7720000000000002</v>
       </c>
       <c r="D267" s="23" t="str">
-        <f>IF(COUNTIF(F267:L267,"D")&gt;0,"D",IF(COUNTIF(F267:L267,"-III")&gt;0,"-III",IF(COUNTIF(F267:L267,"-II")&gt;0,"-II",IF(COUNTIF(F267:L267,"-I")&gt;0,"-I",IF(COUNTIF(F267:L267,"+0")&gt;0,"+0",IF(COUNTIF(F267:L267,"+I")&gt;0,"+I",IF(COUNTIF(F267:L267,"+II")&gt;0,"+II",IF(COUNTIF(F267:L267,"+III")&gt;0,"+III",IF(COUNTIF(F267:L267,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E267" s="23" t="str">
-        <f>IF(COUNTIF(F267:L267,"-III")&gt;0,"-III",IF(COUNTIF(F267:L267,"-II")&gt;0,"-II",IF(COUNTIF(F267:L267,"-I")&gt;0,"-I",IF(COUNTIF(F267:L267,"+0")&gt;0,"+0",IF(COUNTIF(F267:L267,"+I")&gt;0,"+I",IF(COUNTIF(F267:L267,"+II")&gt;0,"+II",IF(COUNTIF(F267:L267,"+III")&gt;0,"+III",IF(COUNTIF(F267:L267,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F267" s="9" t="str">
@@ -13988,11 +13988,11 @@
         <v>7.7759999999999998</v>
       </c>
       <c r="D268" s="23" t="str">
-        <f>IF(COUNTIF(F268:L268,"D")&gt;0,"D",IF(COUNTIF(F268:L268,"-III")&gt;0,"-III",IF(COUNTIF(F268:L268,"-II")&gt;0,"-II",IF(COUNTIF(F268:L268,"-I")&gt;0,"-I",IF(COUNTIF(F268:L268,"+0")&gt;0,"+0",IF(COUNTIF(F268:L268,"+I")&gt;0,"+I",IF(COUNTIF(F268:L268,"+II")&gt;0,"+II",IF(COUNTIF(F268:L268,"+III")&gt;0,"+III",IF(COUNTIF(F268:L268,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E268" s="23" t="str">
-        <f>IF(COUNTIF(F268:L268,"-III")&gt;0,"-III",IF(COUNTIF(F268:L268,"-II")&gt;0,"-II",IF(COUNTIF(F268:L268,"-I")&gt;0,"-I",IF(COUNTIF(F268:L268,"+0")&gt;0,"+0",IF(COUNTIF(F268:L268,"+I")&gt;0,"+I",IF(COUNTIF(F268:L268,"+II")&gt;0,"+II",IF(COUNTIF(F268:L268,"+III")&gt;0,"+III",IF(COUNTIF(F268:L268,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F268" s="9" t="str">
@@ -14032,11 +14032,11 @@
         <v>7.7789999999999999</v>
       </c>
       <c r="D269" s="23" t="str">
-        <f>IF(COUNTIF(F269:L269,"D")&gt;0,"D",IF(COUNTIF(F269:L269,"-III")&gt;0,"-III",IF(COUNTIF(F269:L269,"-II")&gt;0,"-II",IF(COUNTIF(F269:L269,"-I")&gt;0,"-I",IF(COUNTIF(F269:L269,"+0")&gt;0,"+0",IF(COUNTIF(F269:L269,"+I")&gt;0,"+I",IF(COUNTIF(F269:L269,"+II")&gt;0,"+II",IF(COUNTIF(F269:L269,"+III")&gt;0,"+III",IF(COUNTIF(F269:L269,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E269" s="23" t="str">
-        <f>IF(COUNTIF(F269:L269,"-III")&gt;0,"-III",IF(COUNTIF(F269:L269,"-II")&gt;0,"-II",IF(COUNTIF(F269:L269,"-I")&gt;0,"-I",IF(COUNTIF(F269:L269,"+0")&gt;0,"+0",IF(COUNTIF(F269:L269,"+I")&gt;0,"+I",IF(COUNTIF(F269:L269,"+II")&gt;0,"+II",IF(COUNTIF(F269:L269,"+III")&gt;0,"+III",IF(COUNTIF(F269:L269,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F269" s="9" t="str">
@@ -14076,11 +14076,11 @@
         <v>7.7919999999999998</v>
       </c>
       <c r="D270" s="23" t="str">
-        <f>IF(COUNTIF(F270:L270,"D")&gt;0,"D",IF(COUNTIF(F270:L270,"-III")&gt;0,"-III",IF(COUNTIF(F270:L270,"-II")&gt;0,"-II",IF(COUNTIF(F270:L270,"-I")&gt;0,"-I",IF(COUNTIF(F270:L270,"+0")&gt;0,"+0",IF(COUNTIF(F270:L270,"+I")&gt;0,"+I",IF(COUNTIF(F270:L270,"+II")&gt;0,"+II",IF(COUNTIF(F270:L270,"+III")&gt;0,"+III",IF(COUNTIF(F270:L270,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E270" s="23" t="str">
-        <f>IF(COUNTIF(F270:L270,"-III")&gt;0,"-III",IF(COUNTIF(F270:L270,"-II")&gt;0,"-II",IF(COUNTIF(F270:L270,"-I")&gt;0,"-I",IF(COUNTIF(F270:L270,"+0")&gt;0,"+0",IF(COUNTIF(F270:L270,"+I")&gt;0,"+I",IF(COUNTIF(F270:L270,"+II")&gt;0,"+II",IF(COUNTIF(F270:L270,"+III")&gt;0,"+III",IF(COUNTIF(F270:L270,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F270" s="9" t="str">
@@ -14120,11 +14120,11 @@
         <v>7.8079999999999998</v>
       </c>
       <c r="D271" s="23" t="str">
-        <f>IF(COUNTIF(F271:L271,"D")&gt;0,"D",IF(COUNTIF(F271:L271,"-III")&gt;0,"-III",IF(COUNTIF(F271:L271,"-II")&gt;0,"-II",IF(COUNTIF(F271:L271,"-I")&gt;0,"-I",IF(COUNTIF(F271:L271,"+0")&gt;0,"+0",IF(COUNTIF(F271:L271,"+I")&gt;0,"+I",IF(COUNTIF(F271:L271,"+II")&gt;0,"+II",IF(COUNTIF(F271:L271,"+III")&gt;0,"+III",IF(COUNTIF(F271:L271,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E271" s="23" t="str">
-        <f>IF(COUNTIF(F271:L271,"-III")&gt;0,"-III",IF(COUNTIF(F271:L271,"-II")&gt;0,"-II",IF(COUNTIF(F271:L271,"-I")&gt;0,"-I",IF(COUNTIF(F271:L271,"+0")&gt;0,"+0",IF(COUNTIF(F271:L271,"+I")&gt;0,"+I",IF(COUNTIF(F271:L271,"+II")&gt;0,"+II",IF(COUNTIF(F271:L271,"+III")&gt;0,"+III",IF(COUNTIF(F271:L271,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F271" s="9" t="str">
@@ -14164,11 +14164,11 @@
         <v>7.8209999999999997</v>
       </c>
       <c r="D272" s="23" t="str">
-        <f>IF(COUNTIF(F272:L272,"D")&gt;0,"D",IF(COUNTIF(F272:L272,"-III")&gt;0,"-III",IF(COUNTIF(F272:L272,"-II")&gt;0,"-II",IF(COUNTIF(F272:L272,"-I")&gt;0,"-I",IF(COUNTIF(F272:L272,"+0")&gt;0,"+0",IF(COUNTIF(F272:L272,"+I")&gt;0,"+I",IF(COUNTIF(F272:L272,"+II")&gt;0,"+II",IF(COUNTIF(F272:L272,"+III")&gt;0,"+III",IF(COUNTIF(F272:L272,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E272" s="23" t="str">
-        <f>IF(COUNTIF(F272:L272,"-III")&gt;0,"-III",IF(COUNTIF(F272:L272,"-II")&gt;0,"-II",IF(COUNTIF(F272:L272,"-I")&gt;0,"-I",IF(COUNTIF(F272:L272,"+0")&gt;0,"+0",IF(COUNTIF(F272:L272,"+I")&gt;0,"+I",IF(COUNTIF(F272:L272,"+II")&gt;0,"+II",IF(COUNTIF(F272:L272,"+III")&gt;0,"+III",IF(COUNTIF(F272:L272,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F272" s="9" t="str">
@@ -14208,11 +14208,11 @@
         <v>7.8550000000000004</v>
       </c>
       <c r="D273" s="23" t="str">
-        <f>IF(COUNTIF(F273:L273,"D")&gt;0,"D",IF(COUNTIF(F273:L273,"-III")&gt;0,"-III",IF(COUNTIF(F273:L273,"-II")&gt;0,"-II",IF(COUNTIF(F273:L273,"-I")&gt;0,"-I",IF(COUNTIF(F273:L273,"+0")&gt;0,"+0",IF(COUNTIF(F273:L273,"+I")&gt;0,"+I",IF(COUNTIF(F273:L273,"+II")&gt;0,"+II",IF(COUNTIF(F273:L273,"+III")&gt;0,"+III",IF(COUNTIF(F273:L273,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E273" s="23" t="str">
-        <f>IF(COUNTIF(F273:L273,"-III")&gt;0,"-III",IF(COUNTIF(F273:L273,"-II")&gt;0,"-II",IF(COUNTIF(F273:L273,"-I")&gt;0,"-I",IF(COUNTIF(F273:L273,"+0")&gt;0,"+0",IF(COUNTIF(F273:L273,"+I")&gt;0,"+I",IF(COUNTIF(F273:L273,"+II")&gt;0,"+II",IF(COUNTIF(F273:L273,"+III")&gt;0,"+III",IF(COUNTIF(F273:L273,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F273" s="9" t="str">
@@ -14252,11 +14252,11 @@
         <v>7.9020000000000001</v>
       </c>
       <c r="D274" s="23" t="str">
-        <f>IF(COUNTIF(F274:L274,"D")&gt;0,"D",IF(COUNTIF(F274:L274,"-III")&gt;0,"-III",IF(COUNTIF(F274:L274,"-II")&gt;0,"-II",IF(COUNTIF(F274:L274,"-I")&gt;0,"-I",IF(COUNTIF(F274:L274,"+0")&gt;0,"+0",IF(COUNTIF(F274:L274,"+I")&gt;0,"+I",IF(COUNTIF(F274:L274,"+II")&gt;0,"+II",IF(COUNTIF(F274:L274,"+III")&gt;0,"+III",IF(COUNTIF(F274:L274,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E274" s="23" t="str">
-        <f>IF(COUNTIF(F274:L274,"-III")&gt;0,"-III",IF(COUNTIF(F274:L274,"-II")&gt;0,"-II",IF(COUNTIF(F274:L274,"-I")&gt;0,"-I",IF(COUNTIF(F274:L274,"+0")&gt;0,"+0",IF(COUNTIF(F274:L274,"+I")&gt;0,"+I",IF(COUNTIF(F274:L274,"+II")&gt;0,"+II",IF(COUNTIF(F274:L274,"+III")&gt;0,"+III",IF(COUNTIF(F274:L274,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F274" s="9" t="str">
@@ -14296,11 +14296,11 @@
         <v>8.0069999999999997</v>
       </c>
       <c r="D275" s="23" t="str">
-        <f>IF(COUNTIF(F275:L275,"D")&gt;0,"D",IF(COUNTIF(F275:L275,"-III")&gt;0,"-III",IF(COUNTIF(F275:L275,"-II")&gt;0,"-II",IF(COUNTIF(F275:L275,"-I")&gt;0,"-I",IF(COUNTIF(F275:L275,"+0")&gt;0,"+0",IF(COUNTIF(F275:L275,"+I")&gt;0,"+I",IF(COUNTIF(F275:L275,"+II")&gt;0,"+II",IF(COUNTIF(F275:L275,"+III")&gt;0,"+III",IF(COUNTIF(F275:L275,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E275" s="23" t="str">
-        <f>IF(COUNTIF(F275:L275,"-III")&gt;0,"-III",IF(COUNTIF(F275:L275,"-II")&gt;0,"-II",IF(COUNTIF(F275:L275,"-I")&gt;0,"-I",IF(COUNTIF(F275:L275,"+0")&gt;0,"+0",IF(COUNTIF(F275:L275,"+I")&gt;0,"+I",IF(COUNTIF(F275:L275,"+II")&gt;0,"+II",IF(COUNTIF(F275:L275,"+III")&gt;0,"+III",IF(COUNTIF(F275:L275,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F275" s="9" t="str">
@@ -14340,11 +14340,11 @@
         <v>8.01</v>
       </c>
       <c r="D276" s="23" t="str">
-        <f>IF(COUNTIF(F276:L276,"D")&gt;0,"D",IF(COUNTIF(F276:L276,"-III")&gt;0,"-III",IF(COUNTIF(F276:L276,"-II")&gt;0,"-II",IF(COUNTIF(F276:L276,"-I")&gt;0,"-I",IF(COUNTIF(F276:L276,"+0")&gt;0,"+0",IF(COUNTIF(F276:L276,"+I")&gt;0,"+I",IF(COUNTIF(F276:L276,"+II")&gt;0,"+II",IF(COUNTIF(F276:L276,"+III")&gt;0,"+III",IF(COUNTIF(F276:L276,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E276" s="23" t="str">
-        <f>IF(COUNTIF(F276:L276,"-III")&gt;0,"-III",IF(COUNTIF(F276:L276,"-II")&gt;0,"-II",IF(COUNTIF(F276:L276,"-I")&gt;0,"-I",IF(COUNTIF(F276:L276,"+0")&gt;0,"+0",IF(COUNTIF(F276:L276,"+I")&gt;0,"+I",IF(COUNTIF(F276:L276,"+II")&gt;0,"+II",IF(COUNTIF(F276:L276,"+III")&gt;0,"+III",IF(COUNTIF(F276:L276,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F276" s="9" t="str">
@@ -14384,11 +14384,11 @@
         <v>8.0310000000000006</v>
       </c>
       <c r="D277" s="23" t="str">
-        <f>IF(COUNTIF(F277:L277,"D")&gt;0,"D",IF(COUNTIF(F277:L277,"-III")&gt;0,"-III",IF(COUNTIF(F277:L277,"-II")&gt;0,"-II",IF(COUNTIF(F277:L277,"-I")&gt;0,"-I",IF(COUNTIF(F277:L277,"+0")&gt;0,"+0",IF(COUNTIF(F277:L277,"+I")&gt;0,"+I",IF(COUNTIF(F277:L277,"+II")&gt;0,"+II",IF(COUNTIF(F277:L277,"+III")&gt;0,"+III",IF(COUNTIF(F277:L277,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E277" s="23" t="str">
-        <f>IF(COUNTIF(F277:L277,"-III")&gt;0,"-III",IF(COUNTIF(F277:L277,"-II")&gt;0,"-II",IF(COUNTIF(F277:L277,"-I")&gt;0,"-I",IF(COUNTIF(F277:L277,"+0")&gt;0,"+0",IF(COUNTIF(F277:L277,"+I")&gt;0,"+I",IF(COUNTIF(F277:L277,"+II")&gt;0,"+II",IF(COUNTIF(F277:L277,"+III")&gt;0,"+III",IF(COUNTIF(F277:L277,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F277" s="9" t="str">
@@ -14428,11 +14428,11 @@
         <v>8.0380000000000003</v>
       </c>
       <c r="D278" s="23" t="str">
-        <f>IF(COUNTIF(F278:L278,"D")&gt;0,"D",IF(COUNTIF(F278:L278,"-III")&gt;0,"-III",IF(COUNTIF(F278:L278,"-II")&gt;0,"-II",IF(COUNTIF(F278:L278,"-I")&gt;0,"-I",IF(COUNTIF(F278:L278,"+0")&gt;0,"+0",IF(COUNTIF(F278:L278,"+I")&gt;0,"+I",IF(COUNTIF(F278:L278,"+II")&gt;0,"+II",IF(COUNTIF(F278:L278,"+III")&gt;0,"+III",IF(COUNTIF(F278:L278,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E278" s="23" t="str">
-        <f>IF(COUNTIF(F278:L278,"-III")&gt;0,"-III",IF(COUNTIF(F278:L278,"-II")&gt;0,"-II",IF(COUNTIF(F278:L278,"-I")&gt;0,"-I",IF(COUNTIF(F278:L278,"+0")&gt;0,"+0",IF(COUNTIF(F278:L278,"+I")&gt;0,"+I",IF(COUNTIF(F278:L278,"+II")&gt;0,"+II",IF(COUNTIF(F278:L278,"+III")&gt;0,"+III",IF(COUNTIF(F278:L278,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F278" s="9" t="str">
@@ -14472,11 +14472,11 @@
         <v>8.0519999999999996</v>
       </c>
       <c r="D279" s="23" t="str">
-        <f>IF(COUNTIF(F279:L279,"D")&gt;0,"D",IF(COUNTIF(F279:L279,"-III")&gt;0,"-III",IF(COUNTIF(F279:L279,"-II")&gt;0,"-II",IF(COUNTIF(F279:L279,"-I")&gt;0,"-I",IF(COUNTIF(F279:L279,"+0")&gt;0,"+0",IF(COUNTIF(F279:L279,"+I")&gt;0,"+I",IF(COUNTIF(F279:L279,"+II")&gt;0,"+II",IF(COUNTIF(F279:L279,"+III")&gt;0,"+III",IF(COUNTIF(F279:L279,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E279" s="23" t="str">
-        <f>IF(COUNTIF(F279:L279,"-III")&gt;0,"-III",IF(COUNTIF(F279:L279,"-II")&gt;0,"-II",IF(COUNTIF(F279:L279,"-I")&gt;0,"-I",IF(COUNTIF(F279:L279,"+0")&gt;0,"+0",IF(COUNTIF(F279:L279,"+I")&gt;0,"+I",IF(COUNTIF(F279:L279,"+II")&gt;0,"+II",IF(COUNTIF(F279:L279,"+III")&gt;0,"+III",IF(COUNTIF(F279:L279,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F279" s="9" t="str">
@@ -14516,11 +14516,11 @@
         <v>8.1050000000000004</v>
       </c>
       <c r="D280" s="23" t="str">
-        <f>IF(COUNTIF(F280:L280,"D")&gt;0,"D",IF(COUNTIF(F280:L280,"-III")&gt;0,"-III",IF(COUNTIF(F280:L280,"-II")&gt;0,"-II",IF(COUNTIF(F280:L280,"-I")&gt;0,"-I",IF(COUNTIF(F280:L280,"+0")&gt;0,"+0",IF(COUNTIF(F280:L280,"+I")&gt;0,"+I",IF(COUNTIF(F280:L280,"+II")&gt;0,"+II",IF(COUNTIF(F280:L280,"+III")&gt;0,"+III",IF(COUNTIF(F280:L280,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E280" s="23" t="str">
-        <f>IF(COUNTIF(F280:L280,"-III")&gt;0,"-III",IF(COUNTIF(F280:L280,"-II")&gt;0,"-II",IF(COUNTIF(F280:L280,"-I")&gt;0,"-I",IF(COUNTIF(F280:L280,"+0")&gt;0,"+0",IF(COUNTIF(F280:L280,"+I")&gt;0,"+I",IF(COUNTIF(F280:L280,"+II")&gt;0,"+II",IF(COUNTIF(F280:L280,"+III")&gt;0,"+III",IF(COUNTIF(F280:L280,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F280" s="9" t="str">
@@ -14560,11 +14560,11 @@
         <v>8.1240000000000006</v>
       </c>
       <c r="D281" s="23" t="str">
-        <f>IF(COUNTIF(F281:L281,"D")&gt;0,"D",IF(COUNTIF(F281:L281,"-III")&gt;0,"-III",IF(COUNTIF(F281:L281,"-II")&gt;0,"-II",IF(COUNTIF(F281:L281,"-I")&gt;0,"-I",IF(COUNTIF(F281:L281,"+0")&gt;0,"+0",IF(COUNTIF(F281:L281,"+I")&gt;0,"+I",IF(COUNTIF(F281:L281,"+II")&gt;0,"+II",IF(COUNTIF(F281:L281,"+III")&gt;0,"+III",IF(COUNTIF(F281:L281,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+I</v>
       </c>
       <c r="E281" s="23" t="str">
-        <f>IF(COUNTIF(F281:L281,"-III")&gt;0,"-III",IF(COUNTIF(F281:L281,"-II")&gt;0,"-II",IF(COUNTIF(F281:L281,"-I")&gt;0,"-I",IF(COUNTIF(F281:L281,"+0")&gt;0,"+0",IF(COUNTIF(F281:L281,"+I")&gt;0,"+I",IF(COUNTIF(F281:L281,"+II")&gt;0,"+II",IF(COUNTIF(F281:L281,"+III")&gt;0,"+III",IF(COUNTIF(F281:L281,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+I</v>
       </c>
       <c r="F281" s="9" t="str">
@@ -14604,11 +14604,11 @@
         <v>8.1479999999999997</v>
       </c>
       <c r="D282" s="23" t="str">
-        <f>IF(COUNTIF(F282:L282,"D")&gt;0,"D",IF(COUNTIF(F282:L282,"-III")&gt;0,"-III",IF(COUNTIF(F282:L282,"-II")&gt;0,"-II",IF(COUNTIF(F282:L282,"-I")&gt;0,"-I",IF(COUNTIF(F282:L282,"+0")&gt;0,"+0",IF(COUNTIF(F282:L282,"+I")&gt;0,"+I",IF(COUNTIF(F282:L282,"+II")&gt;0,"+II",IF(COUNTIF(F282:L282,"+III")&gt;0,"+III",IF(COUNTIF(F282:L282,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E282" s="23" t="str">
-        <f>IF(COUNTIF(F282:L282,"-III")&gt;0,"-III",IF(COUNTIF(F282:L282,"-II")&gt;0,"-II",IF(COUNTIF(F282:L282,"-I")&gt;0,"-I",IF(COUNTIF(F282:L282,"+0")&gt;0,"+0",IF(COUNTIF(F282:L282,"+I")&gt;0,"+I",IF(COUNTIF(F282:L282,"+II")&gt;0,"+II",IF(COUNTIF(F282:L282,"+III")&gt;0,"+III",IF(COUNTIF(F282:L282,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F282" s="9" t="str">
@@ -14648,11 +14648,11 @@
         <v>8.18</v>
       </c>
       <c r="D283" s="23" t="str">
-        <f>IF(COUNTIF(F283:L283,"D")&gt;0,"D",IF(COUNTIF(F283:L283,"-III")&gt;0,"-III",IF(COUNTIF(F283:L283,"-II")&gt;0,"-II",IF(COUNTIF(F283:L283,"-I")&gt;0,"-I",IF(COUNTIF(F283:L283,"+0")&gt;0,"+0",IF(COUNTIF(F283:L283,"+I")&gt;0,"+I",IF(COUNTIF(F283:L283,"+II")&gt;0,"+II",IF(COUNTIF(F283:L283,"+III")&gt;0,"+III",IF(COUNTIF(F283:L283,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E283" s="23" t="str">
-        <f>IF(COUNTIF(F283:L283,"-III")&gt;0,"-III",IF(COUNTIF(F283:L283,"-II")&gt;0,"-II",IF(COUNTIF(F283:L283,"-I")&gt;0,"-I",IF(COUNTIF(F283:L283,"+0")&gt;0,"+0",IF(COUNTIF(F283:L283,"+I")&gt;0,"+I",IF(COUNTIF(F283:L283,"+II")&gt;0,"+II",IF(COUNTIF(F283:L283,"+III")&gt;0,"+III",IF(COUNTIF(F283:L283,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F283" s="9" t="str">
@@ -14692,11 +14692,11 @@
         <v>8.1839999999999993</v>
       </c>
       <c r="D284" s="23" t="str">
-        <f>IF(COUNTIF(F284:L284,"D")&gt;0,"D",IF(COUNTIF(F284:L284,"-III")&gt;0,"-III",IF(COUNTIF(F284:L284,"-II")&gt;0,"-II",IF(COUNTIF(F284:L284,"-I")&gt;0,"-I",IF(COUNTIF(F284:L284,"+0")&gt;0,"+0",IF(COUNTIF(F284:L284,"+I")&gt;0,"+I",IF(COUNTIF(F284:L284,"+II")&gt;0,"+II",IF(COUNTIF(F284:L284,"+III")&gt;0,"+III",IF(COUNTIF(F284:L284,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E284" s="23" t="str">
-        <f>IF(COUNTIF(F284:L284,"-III")&gt;0,"-III",IF(COUNTIF(F284:L284,"-II")&gt;0,"-II",IF(COUNTIF(F284:L284,"-I")&gt;0,"-I",IF(COUNTIF(F284:L284,"+0")&gt;0,"+0",IF(COUNTIF(F284:L284,"+I")&gt;0,"+I",IF(COUNTIF(F284:L284,"+II")&gt;0,"+II",IF(COUNTIF(F284:L284,"+III")&gt;0,"+III",IF(COUNTIF(F284:L284,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F284" s="9" t="str">
@@ -14736,11 +14736,11 @@
         <v>8.1910000000000007</v>
       </c>
       <c r="D285" s="23" t="str">
-        <f>IF(COUNTIF(F285:L285,"D")&gt;0,"D",IF(COUNTIF(F285:L285,"-III")&gt;0,"-III",IF(COUNTIF(F285:L285,"-II")&gt;0,"-II",IF(COUNTIF(F285:L285,"-I")&gt;0,"-I",IF(COUNTIF(F285:L285,"+0")&gt;0,"+0",IF(COUNTIF(F285:L285,"+I")&gt;0,"+I",IF(COUNTIF(F285:L285,"+II")&gt;0,"+II",IF(COUNTIF(F285:L285,"+III")&gt;0,"+III",IF(COUNTIF(F285:L285,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E285" s="23" t="str">
-        <f>IF(COUNTIF(F285:L285,"-III")&gt;0,"-III",IF(COUNTIF(F285:L285,"-II")&gt;0,"-II",IF(COUNTIF(F285:L285,"-I")&gt;0,"-I",IF(COUNTIF(F285:L285,"+0")&gt;0,"+0",IF(COUNTIF(F285:L285,"+I")&gt;0,"+I",IF(COUNTIF(F285:L285,"+II")&gt;0,"+II",IF(COUNTIF(F285:L285,"+III")&gt;0,"+III",IF(COUNTIF(F285:L285,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F285" s="9" t="str">
@@ -14780,11 +14780,11 @@
         <v>8.2309999999999999</v>
       </c>
       <c r="D286" s="23" t="str">
-        <f>IF(COUNTIF(F286:L286,"D")&gt;0,"D",IF(COUNTIF(F286:L286,"-III")&gt;0,"-III",IF(COUNTIF(F286:L286,"-II")&gt;0,"-II",IF(COUNTIF(F286:L286,"-I")&gt;0,"-I",IF(COUNTIF(F286:L286,"+0")&gt;0,"+0",IF(COUNTIF(F286:L286,"+I")&gt;0,"+I",IF(COUNTIF(F286:L286,"+II")&gt;0,"+II",IF(COUNTIF(F286:L286,"+III")&gt;0,"+III",IF(COUNTIF(F286:L286,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E286" s="23" t="str">
-        <f>IF(COUNTIF(F286:L286,"-III")&gt;0,"-III",IF(COUNTIF(F286:L286,"-II")&gt;0,"-II",IF(COUNTIF(F286:L286,"-I")&gt;0,"-I",IF(COUNTIF(F286:L286,"+0")&gt;0,"+0",IF(COUNTIF(F286:L286,"+I")&gt;0,"+I",IF(COUNTIF(F286:L286,"+II")&gt;0,"+II",IF(COUNTIF(F286:L286,"+III")&gt;0,"+III",IF(COUNTIF(F286:L286,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F286" s="9" t="str">
@@ -14824,11 +14824,11 @@
         <v>8.2390000000000008</v>
       </c>
       <c r="D287" s="23" t="str">
-        <f>IF(COUNTIF(F287:L287,"D")&gt;0,"D",IF(COUNTIF(F287:L287,"-III")&gt;0,"-III",IF(COUNTIF(F287:L287,"-II")&gt;0,"-II",IF(COUNTIF(F287:L287,"-I")&gt;0,"-I",IF(COUNTIF(F287:L287,"+0")&gt;0,"+0",IF(COUNTIF(F287:L287,"+I")&gt;0,"+I",IF(COUNTIF(F287:L287,"+II")&gt;0,"+II",IF(COUNTIF(F287:L287,"+III")&gt;0,"+III",IF(COUNTIF(F287:L287,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E287" s="23" t="str">
-        <f>IF(COUNTIF(F287:L287,"-III")&gt;0,"-III",IF(COUNTIF(F287:L287,"-II")&gt;0,"-II",IF(COUNTIF(F287:L287,"-I")&gt;0,"-I",IF(COUNTIF(F287:L287,"+0")&gt;0,"+0",IF(COUNTIF(F287:L287,"+I")&gt;0,"+I",IF(COUNTIF(F287:L287,"+II")&gt;0,"+II",IF(COUNTIF(F287:L287,"+III")&gt;0,"+III",IF(COUNTIF(F287:L287,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F287" s="9" t="str">
@@ -14868,11 +14868,11 @@
         <v>8.2530000000000001</v>
       </c>
       <c r="D288" s="23" t="str">
-        <f>IF(COUNTIF(F288:L288,"D")&gt;0,"D",IF(COUNTIF(F288:L288,"-III")&gt;0,"-III",IF(COUNTIF(F288:L288,"-II")&gt;0,"-II",IF(COUNTIF(F288:L288,"-I")&gt;0,"-I",IF(COUNTIF(F288:L288,"+0")&gt;0,"+0",IF(COUNTIF(F288:L288,"+I")&gt;0,"+I",IF(COUNTIF(F288:L288,"+II")&gt;0,"+II",IF(COUNTIF(F288:L288,"+III")&gt;0,"+III",IF(COUNTIF(F288:L288,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E288" s="23" t="str">
-        <f>IF(COUNTIF(F288:L288,"-III")&gt;0,"-III",IF(COUNTIF(F288:L288,"-II")&gt;0,"-II",IF(COUNTIF(F288:L288,"-I")&gt;0,"-I",IF(COUNTIF(F288:L288,"+0")&gt;0,"+0",IF(COUNTIF(F288:L288,"+I")&gt;0,"+I",IF(COUNTIF(F288:L288,"+II")&gt;0,"+II",IF(COUNTIF(F288:L288,"+III")&gt;0,"+III",IF(COUNTIF(F288:L288,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F288" s="9" t="str">
@@ -14912,11 +14912,11 @@
         <v>8.34</v>
       </c>
       <c r="D289" s="23" t="str">
-        <f>IF(COUNTIF(F289:L289,"D")&gt;0,"D",IF(COUNTIF(F289:L289,"-III")&gt;0,"-III",IF(COUNTIF(F289:L289,"-II")&gt;0,"-II",IF(COUNTIF(F289:L289,"-I")&gt;0,"-I",IF(COUNTIF(F289:L289,"+0")&gt;0,"+0",IF(COUNTIF(F289:L289,"+I")&gt;0,"+I",IF(COUNTIF(F289:L289,"+II")&gt;0,"+II",IF(COUNTIF(F289:L289,"+III")&gt;0,"+III",IF(COUNTIF(F289:L289,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E289" s="23" t="str">
-        <f>IF(COUNTIF(F289:L289,"-III")&gt;0,"-III",IF(COUNTIF(F289:L289,"-II")&gt;0,"-II",IF(COUNTIF(F289:L289,"-I")&gt;0,"-I",IF(COUNTIF(F289:L289,"+0")&gt;0,"+0",IF(COUNTIF(F289:L289,"+I")&gt;0,"+I",IF(COUNTIF(F289:L289,"+II")&gt;0,"+II",IF(COUNTIF(F289:L289,"+III")&gt;0,"+III",IF(COUNTIF(F289:L289,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F289" s="9" t="str">
@@ -14956,11 +14956,11 @@
         <v>8.3780000000000001</v>
       </c>
       <c r="D290" s="23" t="str">
-        <f>IF(COUNTIF(F290:L290,"D")&gt;0,"D",IF(COUNTIF(F290:L290,"-III")&gt;0,"-III",IF(COUNTIF(F290:L290,"-II")&gt;0,"-II",IF(COUNTIF(F290:L290,"-I")&gt;0,"-I",IF(COUNTIF(F290:L290,"+0")&gt;0,"+0",IF(COUNTIF(F290:L290,"+I")&gt;0,"+I",IF(COUNTIF(F290:L290,"+II")&gt;0,"+II",IF(COUNTIF(F290:L290,"+III")&gt;0,"+III",IF(COUNTIF(F290:L290,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E290" s="23" t="str">
-        <f>IF(COUNTIF(F290:L290,"-III")&gt;0,"-III",IF(COUNTIF(F290:L290,"-II")&gt;0,"-II",IF(COUNTIF(F290:L290,"-I")&gt;0,"-I",IF(COUNTIF(F290:L290,"+0")&gt;0,"+0",IF(COUNTIF(F290:L290,"+I")&gt;0,"+I",IF(COUNTIF(F290:L290,"+II")&gt;0,"+II",IF(COUNTIF(F290:L290,"+III")&gt;0,"+III",IF(COUNTIF(F290:L290,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F290" s="9" t="str">
@@ -15000,11 +15000,11 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="D291" s="23" t="str">
-        <f>IF(COUNTIF(F291:L291,"D")&gt;0,"D",IF(COUNTIF(F291:L291,"-III")&gt;0,"-III",IF(COUNTIF(F291:L291,"-II")&gt;0,"-II",IF(COUNTIF(F291:L291,"-I")&gt;0,"-I",IF(COUNTIF(F291:L291,"+0")&gt;0,"+0",IF(COUNTIF(F291:L291,"+I")&gt;0,"+I",IF(COUNTIF(F291:L291,"+II")&gt;0,"+II",IF(COUNTIF(F291:L291,"+III")&gt;0,"+III",IF(COUNTIF(F291:L291,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E291" s="23" t="str">
-        <f>IF(COUNTIF(F291:L291,"-III")&gt;0,"-III",IF(COUNTIF(F291:L291,"-II")&gt;0,"-II",IF(COUNTIF(F291:L291,"-I")&gt;0,"-I",IF(COUNTIF(F291:L291,"+0")&gt;0,"+0",IF(COUNTIF(F291:L291,"+I")&gt;0,"+I",IF(COUNTIF(F291:L291,"+II")&gt;0,"+II",IF(COUNTIF(F291:L291,"+III")&gt;0,"+III",IF(COUNTIF(F291:L291,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F291" s="9" t="str">
@@ -15044,11 +15044,11 @@
         <v>8.42</v>
       </c>
       <c r="D292" s="23" t="str">
-        <f>IF(COUNTIF(F292:L292,"D")&gt;0,"D",IF(COUNTIF(F292:L292,"-III")&gt;0,"-III",IF(COUNTIF(F292:L292,"-II")&gt;0,"-II",IF(COUNTIF(F292:L292,"-I")&gt;0,"-I",IF(COUNTIF(F292:L292,"+0")&gt;0,"+0",IF(COUNTIF(F292:L292,"+I")&gt;0,"+I",IF(COUNTIF(F292:L292,"+II")&gt;0,"+II",IF(COUNTIF(F292:L292,"+III")&gt;0,"+III",IF(COUNTIF(F292:L292,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E292" s="23" t="str">
-        <f>IF(COUNTIF(F292:L292,"-III")&gt;0,"-III",IF(COUNTIF(F292:L292,"-II")&gt;0,"-II",IF(COUNTIF(F292:L292,"-I")&gt;0,"-I",IF(COUNTIF(F292:L292,"+0")&gt;0,"+0",IF(COUNTIF(F292:L292,"+I")&gt;0,"+I",IF(COUNTIF(F292:L292,"+II")&gt;0,"+II",IF(COUNTIF(F292:L292,"+III")&gt;0,"+III",IF(COUNTIF(F292:L292,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F292" s="9" t="str">
@@ -15088,11 +15088,11 @@
         <v>8.4459999999999997</v>
       </c>
       <c r="D293" s="23" t="str">
-        <f>IF(COUNTIF(F293:L293,"D")&gt;0,"D",IF(COUNTIF(F293:L293,"-III")&gt;0,"-III",IF(COUNTIF(F293:L293,"-II")&gt;0,"-II",IF(COUNTIF(F293:L293,"-I")&gt;0,"-I",IF(COUNTIF(F293:L293,"+0")&gt;0,"+0",IF(COUNTIF(F293:L293,"+I")&gt;0,"+I",IF(COUNTIF(F293:L293,"+II")&gt;0,"+II",IF(COUNTIF(F293:L293,"+III")&gt;0,"+III",IF(COUNTIF(F293:L293,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E293" s="23" t="str">
-        <f>IF(COUNTIF(F293:L293,"-III")&gt;0,"-III",IF(COUNTIF(F293:L293,"-II")&gt;0,"-II",IF(COUNTIF(F293:L293,"-I")&gt;0,"-I",IF(COUNTIF(F293:L293,"+0")&gt;0,"+0",IF(COUNTIF(F293:L293,"+I")&gt;0,"+I",IF(COUNTIF(F293:L293,"+II")&gt;0,"+II",IF(COUNTIF(F293:L293,"+III")&gt;0,"+III",IF(COUNTIF(F293:L293,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F293" s="9" t="str">
@@ -15132,11 +15132,11 @@
         <v>8.5440000000000005</v>
       </c>
       <c r="D294" s="23" t="str">
-        <f>IF(COUNTIF(F294:L294,"D")&gt;0,"D",IF(COUNTIF(F294:L294,"-III")&gt;0,"-III",IF(COUNTIF(F294:L294,"-II")&gt;0,"-II",IF(COUNTIF(F294:L294,"-I")&gt;0,"-I",IF(COUNTIF(F294:L294,"+0")&gt;0,"+0",IF(COUNTIF(F294:L294,"+I")&gt;0,"+I",IF(COUNTIF(F294:L294,"+II")&gt;0,"+II",IF(COUNTIF(F294:L294,"+III")&gt;0,"+III",IF(COUNTIF(F294:L294,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E294" s="23" t="str">
-        <f>IF(COUNTIF(F294:L294,"-III")&gt;0,"-III",IF(COUNTIF(F294:L294,"-II")&gt;0,"-II",IF(COUNTIF(F294:L294,"-I")&gt;0,"-I",IF(COUNTIF(F294:L294,"+0")&gt;0,"+0",IF(COUNTIF(F294:L294,"+I")&gt;0,"+I",IF(COUNTIF(F294:L294,"+II")&gt;0,"+II",IF(COUNTIF(F294:L294,"+III")&gt;0,"+III",IF(COUNTIF(F294:L294,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F294" s="9" t="str">
@@ -15176,11 +15176,11 @@
         <v>8.5459999999999994</v>
       </c>
       <c r="D295" s="23" t="str">
-        <f>IF(COUNTIF(F295:L295,"D")&gt;0,"D",IF(COUNTIF(F295:L295,"-III")&gt;0,"-III",IF(COUNTIF(F295:L295,"-II")&gt;0,"-II",IF(COUNTIF(F295:L295,"-I")&gt;0,"-I",IF(COUNTIF(F295:L295,"+0")&gt;0,"+0",IF(COUNTIF(F295:L295,"+I")&gt;0,"+I",IF(COUNTIF(F295:L295,"+II")&gt;0,"+II",IF(COUNTIF(F295:L295,"+III")&gt;0,"+III",IF(COUNTIF(F295:L295,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E295" s="23" t="str">
-        <f>IF(COUNTIF(F295:L295,"-III")&gt;0,"-III",IF(COUNTIF(F295:L295,"-II")&gt;0,"-II",IF(COUNTIF(F295:L295,"-I")&gt;0,"-I",IF(COUNTIF(F295:L295,"+0")&gt;0,"+0",IF(COUNTIF(F295:L295,"+I")&gt;0,"+I",IF(COUNTIF(F295:L295,"+II")&gt;0,"+II",IF(COUNTIF(F295:L295,"+III")&gt;0,"+III",IF(COUNTIF(F295:L295,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F295" s="9" t="str">
@@ -15220,11 +15220,11 @@
         <v>8.577</v>
       </c>
       <c r="D296" s="23" t="str">
-        <f>IF(COUNTIF(F296:L296,"D")&gt;0,"D",IF(COUNTIF(F296:L296,"-III")&gt;0,"-III",IF(COUNTIF(F296:L296,"-II")&gt;0,"-II",IF(COUNTIF(F296:L296,"-I")&gt;0,"-I",IF(COUNTIF(F296:L296,"+0")&gt;0,"+0",IF(COUNTIF(F296:L296,"+I")&gt;0,"+I",IF(COUNTIF(F296:L296,"+II")&gt;0,"+II",IF(COUNTIF(F296:L296,"+III")&gt;0,"+III",IF(COUNTIF(F296:L296,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E296" s="23" t="str">
-        <f>IF(COUNTIF(F296:L296,"-III")&gt;0,"-III",IF(COUNTIF(F296:L296,"-II")&gt;0,"-II",IF(COUNTIF(F296:L296,"-I")&gt;0,"-I",IF(COUNTIF(F296:L296,"+0")&gt;0,"+0",IF(COUNTIF(F296:L296,"+I")&gt;0,"+I",IF(COUNTIF(F296:L296,"+II")&gt;0,"+II",IF(COUNTIF(F296:L296,"+III")&gt;0,"+III",IF(COUNTIF(F296:L296,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F296" s="9" t="str">
@@ -15264,11 +15264,11 @@
         <v>8.6</v>
       </c>
       <c r="D297" s="23" t="str">
-        <f>IF(COUNTIF(F297:L297,"D")&gt;0,"D",IF(COUNTIF(F297:L297,"-III")&gt;0,"-III",IF(COUNTIF(F297:L297,"-II")&gt;0,"-II",IF(COUNTIF(F297:L297,"-I")&gt;0,"-I",IF(COUNTIF(F297:L297,"+0")&gt;0,"+0",IF(COUNTIF(F297:L297,"+I")&gt;0,"+I",IF(COUNTIF(F297:L297,"+II")&gt;0,"+II",IF(COUNTIF(F297:L297,"+III")&gt;0,"+III",IF(COUNTIF(F297:L297,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E297" s="23" t="str">
-        <f>IF(COUNTIF(F297:L297,"-III")&gt;0,"-III",IF(COUNTIF(F297:L297,"-II")&gt;0,"-II",IF(COUNTIF(F297:L297,"-I")&gt;0,"-I",IF(COUNTIF(F297:L297,"+0")&gt;0,"+0",IF(COUNTIF(F297:L297,"+I")&gt;0,"+I",IF(COUNTIF(F297:L297,"+II")&gt;0,"+II",IF(COUNTIF(F297:L297,"+III")&gt;0,"+III",IF(COUNTIF(F297:L297,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F297" s="9" t="str">
@@ -15308,11 +15308,11 @@
         <v>8.6110000000000007</v>
       </c>
       <c r="D298" s="23" t="str">
-        <f>IF(COUNTIF(F298:L298,"D")&gt;0,"D",IF(COUNTIF(F298:L298,"-III")&gt;0,"-III",IF(COUNTIF(F298:L298,"-II")&gt;0,"-II",IF(COUNTIF(F298:L298,"-I")&gt;0,"-I",IF(COUNTIF(F298:L298,"+0")&gt;0,"+0",IF(COUNTIF(F298:L298,"+I")&gt;0,"+I",IF(COUNTIF(F298:L298,"+II")&gt;0,"+II",IF(COUNTIF(F298:L298,"+III")&gt;0,"+III",IF(COUNTIF(F298:L298,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E298" s="23" t="str">
-        <f>IF(COUNTIF(F298:L298,"-III")&gt;0,"-III",IF(COUNTIF(F298:L298,"-II")&gt;0,"-II",IF(COUNTIF(F298:L298,"-I")&gt;0,"-I",IF(COUNTIF(F298:L298,"+0")&gt;0,"+0",IF(COUNTIF(F298:L298,"+I")&gt;0,"+I",IF(COUNTIF(F298:L298,"+II")&gt;0,"+II",IF(COUNTIF(F298:L298,"+III")&gt;0,"+III",IF(COUNTIF(F298:L298,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F298" s="9" t="str">
@@ -15352,11 +15352,11 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="D299" s="23" t="str">
-        <f>IF(COUNTIF(F299:L299,"D")&gt;0,"D",IF(COUNTIF(F299:L299,"-III")&gt;0,"-III",IF(COUNTIF(F299:L299,"-II")&gt;0,"-II",IF(COUNTIF(F299:L299,"-I")&gt;0,"-I",IF(COUNTIF(F299:L299,"+0")&gt;0,"+0",IF(COUNTIF(F299:L299,"+I")&gt;0,"+I",IF(COUNTIF(F299:L299,"+II")&gt;0,"+II",IF(COUNTIF(F299:L299,"+III")&gt;0,"+III",IF(COUNTIF(F299:L299,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E299" s="23" t="str">
-        <f>IF(COUNTIF(F299:L299,"-III")&gt;0,"-III",IF(COUNTIF(F299:L299,"-II")&gt;0,"-II",IF(COUNTIF(F299:L299,"-I")&gt;0,"-I",IF(COUNTIF(F299:L299,"+0")&gt;0,"+0",IF(COUNTIF(F299:L299,"+I")&gt;0,"+I",IF(COUNTIF(F299:L299,"+II")&gt;0,"+II",IF(COUNTIF(F299:L299,"+III")&gt;0,"+III",IF(COUNTIF(F299:L299,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F299" s="9" t="str">
@@ -15396,11 +15396,11 @@
         <v>8.6270000000000007</v>
       </c>
       <c r="D300" s="23" t="str">
-        <f>IF(COUNTIF(F300:L300,"D")&gt;0,"D",IF(COUNTIF(F300:L300,"-III")&gt;0,"-III",IF(COUNTIF(F300:L300,"-II")&gt;0,"-II",IF(COUNTIF(F300:L300,"-I")&gt;0,"-I",IF(COUNTIF(F300:L300,"+0")&gt;0,"+0",IF(COUNTIF(F300:L300,"+I")&gt;0,"+I",IF(COUNTIF(F300:L300,"+II")&gt;0,"+II",IF(COUNTIF(F300:L300,"+III")&gt;0,"+III",IF(COUNTIF(F300:L300,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E300" s="23" t="str">
-        <f>IF(COUNTIF(F300:L300,"-III")&gt;0,"-III",IF(COUNTIF(F300:L300,"-II")&gt;0,"-II",IF(COUNTIF(F300:L300,"-I")&gt;0,"-I",IF(COUNTIF(F300:L300,"+0")&gt;0,"+0",IF(COUNTIF(F300:L300,"+I")&gt;0,"+I",IF(COUNTIF(F300:L300,"+II")&gt;0,"+II",IF(COUNTIF(F300:L300,"+III")&gt;0,"+III",IF(COUNTIF(F300:L300,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F300" s="9" t="str">
@@ -15440,11 +15440,11 @@
         <v>8.6720000000000006</v>
       </c>
       <c r="D301" s="23" t="str">
-        <f>IF(COUNTIF(F301:L301,"D")&gt;0,"D",IF(COUNTIF(F301:L301,"-III")&gt;0,"-III",IF(COUNTIF(F301:L301,"-II")&gt;0,"-II",IF(COUNTIF(F301:L301,"-I")&gt;0,"-I",IF(COUNTIF(F301:L301,"+0")&gt;0,"+0",IF(COUNTIF(F301:L301,"+I")&gt;0,"+I",IF(COUNTIF(F301:L301,"+II")&gt;0,"+II",IF(COUNTIF(F301:L301,"+III")&gt;0,"+III",IF(COUNTIF(F301:L301,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E301" s="23" t="str">
-        <f>IF(COUNTIF(F301:L301,"-III")&gt;0,"-III",IF(COUNTIF(F301:L301,"-II")&gt;0,"-II",IF(COUNTIF(F301:L301,"-I")&gt;0,"-I",IF(COUNTIF(F301:L301,"+0")&gt;0,"+0",IF(COUNTIF(F301:L301,"+I")&gt;0,"+I",IF(COUNTIF(F301:L301,"+II")&gt;0,"+II",IF(COUNTIF(F301:L301,"+III")&gt;0,"+III",IF(COUNTIF(F301:L301,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F301" s="9" t="str">
@@ -15484,11 +15484,11 @@
         <v>8.6859999999999999</v>
       </c>
       <c r="D302" s="23" t="str">
-        <f>IF(COUNTIF(F302:L302,"D")&gt;0,"D",IF(COUNTIF(F302:L302,"-III")&gt;0,"-III",IF(COUNTIF(F302:L302,"-II")&gt;0,"-II",IF(COUNTIF(F302:L302,"-I")&gt;0,"-I",IF(COUNTIF(F302:L302,"+0")&gt;0,"+0",IF(COUNTIF(F302:L302,"+I")&gt;0,"+I",IF(COUNTIF(F302:L302,"+II")&gt;0,"+II",IF(COUNTIF(F302:L302,"+III")&gt;0,"+III",IF(COUNTIF(F302:L302,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E302" s="23" t="str">
-        <f>IF(COUNTIF(F302:L302,"-III")&gt;0,"-III",IF(COUNTIF(F302:L302,"-II")&gt;0,"-II",IF(COUNTIF(F302:L302,"-I")&gt;0,"-I",IF(COUNTIF(F302:L302,"+0")&gt;0,"+0",IF(COUNTIF(F302:L302,"+I")&gt;0,"+I",IF(COUNTIF(F302:L302,"+II")&gt;0,"+II",IF(COUNTIF(F302:L302,"+III")&gt;0,"+III",IF(COUNTIF(F302:L302,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F302" s="9" t="str">
@@ -15528,11 +15528,11 @@
         <v>8.7170000000000005</v>
       </c>
       <c r="D303" s="23" t="str">
-        <f>IF(COUNTIF(F303:L303,"D")&gt;0,"D",IF(COUNTIF(F303:L303,"-III")&gt;0,"-III",IF(COUNTIF(F303:L303,"-II")&gt;0,"-II",IF(COUNTIF(F303:L303,"-I")&gt;0,"-I",IF(COUNTIF(F303:L303,"+0")&gt;0,"+0",IF(COUNTIF(F303:L303,"+I")&gt;0,"+I",IF(COUNTIF(F303:L303,"+II")&gt;0,"+II",IF(COUNTIF(F303:L303,"+III")&gt;0,"+III",IF(COUNTIF(F303:L303,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E303" s="23" t="str">
-        <f>IF(COUNTIF(F303:L303,"-III")&gt;0,"-III",IF(COUNTIF(F303:L303,"-II")&gt;0,"-II",IF(COUNTIF(F303:L303,"-I")&gt;0,"-I",IF(COUNTIF(F303:L303,"+0")&gt;0,"+0",IF(COUNTIF(F303:L303,"+I")&gt;0,"+I",IF(COUNTIF(F303:L303,"+II")&gt;0,"+II",IF(COUNTIF(F303:L303,"+III")&gt;0,"+III",IF(COUNTIF(F303:L303,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F303" s="9" t="str">
@@ -15572,11 +15572,11 @@
         <v>8.75</v>
       </c>
       <c r="D304" s="23" t="str">
-        <f>IF(COUNTIF(F304:L304,"D")&gt;0,"D",IF(COUNTIF(F304:L304,"-III")&gt;0,"-III",IF(COUNTIF(F304:L304,"-II")&gt;0,"-II",IF(COUNTIF(F304:L304,"-I")&gt;0,"-I",IF(COUNTIF(F304:L304,"+0")&gt;0,"+0",IF(COUNTIF(F304:L304,"+I")&gt;0,"+I",IF(COUNTIF(F304:L304,"+II")&gt;0,"+II",IF(COUNTIF(F304:L304,"+III")&gt;0,"+III",IF(COUNTIF(F304:L304,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E304" s="23" t="str">
-        <f>IF(COUNTIF(F304:L304,"-III")&gt;0,"-III",IF(COUNTIF(F304:L304,"-II")&gt;0,"-II",IF(COUNTIF(F304:L304,"-I")&gt;0,"-I",IF(COUNTIF(F304:L304,"+0")&gt;0,"+0",IF(COUNTIF(F304:L304,"+I")&gt;0,"+I",IF(COUNTIF(F304:L304,"+II")&gt;0,"+II",IF(COUNTIF(F304:L304,"+III")&gt;0,"+III",IF(COUNTIF(F304:L304,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F304" s="9" t="str">
@@ -15616,11 +15616,11 @@
         <v>8.7579999999999991</v>
       </c>
       <c r="D305" s="23" t="str">
-        <f>IF(COUNTIF(F305:L305,"D")&gt;0,"D",IF(COUNTIF(F305:L305,"-III")&gt;0,"-III",IF(COUNTIF(F305:L305,"-II")&gt;0,"-II",IF(COUNTIF(F305:L305,"-I")&gt;0,"-I",IF(COUNTIF(F305:L305,"+0")&gt;0,"+0",IF(COUNTIF(F305:L305,"+I")&gt;0,"+I",IF(COUNTIF(F305:L305,"+II")&gt;0,"+II",IF(COUNTIF(F305:L305,"+III")&gt;0,"+III",IF(COUNTIF(F305:L305,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E305" s="23" t="str">
-        <f>IF(COUNTIF(F305:L305,"-III")&gt;0,"-III",IF(COUNTIF(F305:L305,"-II")&gt;0,"-II",IF(COUNTIF(F305:L305,"-I")&gt;0,"-I",IF(COUNTIF(F305:L305,"+0")&gt;0,"+0",IF(COUNTIF(F305:L305,"+I")&gt;0,"+I",IF(COUNTIF(F305:L305,"+II")&gt;0,"+II",IF(COUNTIF(F305:L305,"+III")&gt;0,"+III",IF(COUNTIF(F305:L305,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F305" s="9" t="str">
@@ -15660,11 +15660,11 @@
         <v>8.7669999999999995</v>
       </c>
       <c r="D306" s="23" t="str">
-        <f>IF(COUNTIF(F306:L306,"D")&gt;0,"D",IF(COUNTIF(F306:L306,"-III")&gt;0,"-III",IF(COUNTIF(F306:L306,"-II")&gt;0,"-II",IF(COUNTIF(F306:L306,"-I")&gt;0,"-I",IF(COUNTIF(F306:L306,"+0")&gt;0,"+0",IF(COUNTIF(F306:L306,"+I")&gt;0,"+I",IF(COUNTIF(F306:L306,"+II")&gt;0,"+II",IF(COUNTIF(F306:L306,"+III")&gt;0,"+III",IF(COUNTIF(F306:L306,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E306" s="23" t="str">
-        <f>IF(COUNTIF(F306:L306,"-III")&gt;0,"-III",IF(COUNTIF(F306:L306,"-II")&gt;0,"-II",IF(COUNTIF(F306:L306,"-I")&gt;0,"-I",IF(COUNTIF(F306:L306,"+0")&gt;0,"+0",IF(COUNTIF(F306:L306,"+I")&gt;0,"+I",IF(COUNTIF(F306:L306,"+II")&gt;0,"+II",IF(COUNTIF(F306:L306,"+III")&gt;0,"+III",IF(COUNTIF(F306:L306,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F306" s="9" t="str">
@@ -15704,11 +15704,11 @@
         <v>8.8079999999999998</v>
       </c>
       <c r="D307" s="23" t="str">
-        <f>IF(COUNTIF(F307:L307,"D")&gt;0,"D",IF(COUNTIF(F307:L307,"-III")&gt;0,"-III",IF(COUNTIF(F307:L307,"-II")&gt;0,"-II",IF(COUNTIF(F307:L307,"-I")&gt;0,"-I",IF(COUNTIF(F307:L307,"+0")&gt;0,"+0",IF(COUNTIF(F307:L307,"+I")&gt;0,"+I",IF(COUNTIF(F307:L307,"+II")&gt;0,"+II",IF(COUNTIF(F307:L307,"+III")&gt;0,"+III",IF(COUNTIF(F307:L307,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E307" s="23" t="str">
-        <f>IF(COUNTIF(F307:L307,"-III")&gt;0,"-III",IF(COUNTIF(F307:L307,"-II")&gt;0,"-II",IF(COUNTIF(F307:L307,"-I")&gt;0,"-I",IF(COUNTIF(F307:L307,"+0")&gt;0,"+0",IF(COUNTIF(F307:L307,"+I")&gt;0,"+I",IF(COUNTIF(F307:L307,"+II")&gt;0,"+II",IF(COUNTIF(F307:L307,"+III")&gt;0,"+III",IF(COUNTIF(F307:L307,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F307" s="9" t="str">
@@ -15748,11 +15748,11 @@
         <v>8.8260000000000005</v>
       </c>
       <c r="D308" s="23" t="str">
-        <f>IF(COUNTIF(F308:L308,"D")&gt;0,"D",IF(COUNTIF(F308:L308,"-III")&gt;0,"-III",IF(COUNTIF(F308:L308,"-II")&gt;0,"-II",IF(COUNTIF(F308:L308,"-I")&gt;0,"-I",IF(COUNTIF(F308:L308,"+0")&gt;0,"+0",IF(COUNTIF(F308:L308,"+I")&gt;0,"+I",IF(COUNTIF(F308:L308,"+II")&gt;0,"+II",IF(COUNTIF(F308:L308,"+III")&gt;0,"+III",IF(COUNTIF(F308:L308,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E308" s="23" t="str">
-        <f>IF(COUNTIF(F308:L308,"-III")&gt;0,"-III",IF(COUNTIF(F308:L308,"-II")&gt;0,"-II",IF(COUNTIF(F308:L308,"-I")&gt;0,"-I",IF(COUNTIF(F308:L308,"+0")&gt;0,"+0",IF(COUNTIF(F308:L308,"+I")&gt;0,"+I",IF(COUNTIF(F308:L308,"+II")&gt;0,"+II",IF(COUNTIF(F308:L308,"+III")&gt;0,"+III",IF(COUNTIF(F308:L308,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F308" s="9" t="str">
@@ -15792,11 +15792,11 @@
         <v>8.8330000000000002</v>
       </c>
       <c r="D309" s="23" t="str">
-        <f>IF(COUNTIF(F309:L309,"D")&gt;0,"D",IF(COUNTIF(F309:L309,"-III")&gt;0,"-III",IF(COUNTIF(F309:L309,"-II")&gt;0,"-II",IF(COUNTIF(F309:L309,"-I")&gt;0,"-I",IF(COUNTIF(F309:L309,"+0")&gt;0,"+0",IF(COUNTIF(F309:L309,"+I")&gt;0,"+I",IF(COUNTIF(F309:L309,"+II")&gt;0,"+II",IF(COUNTIF(F309:L309,"+III")&gt;0,"+III",IF(COUNTIF(F309:L309,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E309" s="23" t="str">
-        <f>IF(COUNTIF(F309:L309,"-III")&gt;0,"-III",IF(COUNTIF(F309:L309,"-II")&gt;0,"-II",IF(COUNTIF(F309:L309,"-I")&gt;0,"-I",IF(COUNTIF(F309:L309,"+0")&gt;0,"+0",IF(COUNTIF(F309:L309,"+I")&gt;0,"+I",IF(COUNTIF(F309:L309,"+II")&gt;0,"+II",IF(COUNTIF(F309:L309,"+III")&gt;0,"+III",IF(COUNTIF(F309:L309,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F309" s="9" t="str">
@@ -15836,11 +15836,11 @@
         <v>8.9589999999999996</v>
       </c>
       <c r="D310" s="23" t="str">
-        <f>IF(COUNTIF(F310:L310,"D")&gt;0,"D",IF(COUNTIF(F310:L310,"-III")&gt;0,"-III",IF(COUNTIF(F310:L310,"-II")&gt;0,"-II",IF(COUNTIF(F310:L310,"-I")&gt;0,"-I",IF(COUNTIF(F310:L310,"+0")&gt;0,"+0",IF(COUNTIF(F310:L310,"+I")&gt;0,"+I",IF(COUNTIF(F310:L310,"+II")&gt;0,"+II",IF(COUNTIF(F310:L310,"+III")&gt;0,"+III",IF(COUNTIF(F310:L310,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E310" s="23" t="str">
-        <f>IF(COUNTIF(F310:L310,"-III")&gt;0,"-III",IF(COUNTIF(F310:L310,"-II")&gt;0,"-II",IF(COUNTIF(F310:L310,"-I")&gt;0,"-I",IF(COUNTIF(F310:L310,"+0")&gt;0,"+0",IF(COUNTIF(F310:L310,"+I")&gt;0,"+I",IF(COUNTIF(F310:L310,"+II")&gt;0,"+II",IF(COUNTIF(F310:L310,"+III")&gt;0,"+III",IF(COUNTIF(F310:L310,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F310" s="9" t="str">
@@ -15880,11 +15880,11 @@
         <v>8.9969999999999999</v>
       </c>
       <c r="D311" s="23" t="str">
-        <f>IF(COUNTIF(F311:L311,"D")&gt;0,"D",IF(COUNTIF(F311:L311,"-III")&gt;0,"-III",IF(COUNTIF(F311:L311,"-II")&gt;0,"-II",IF(COUNTIF(F311:L311,"-I")&gt;0,"-I",IF(COUNTIF(F311:L311,"+0")&gt;0,"+0",IF(COUNTIF(F311:L311,"+I")&gt;0,"+I",IF(COUNTIF(F311:L311,"+II")&gt;0,"+II",IF(COUNTIF(F311:L311,"+III")&gt;0,"+III",IF(COUNTIF(F311:L311,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E311" s="23" t="str">
-        <f>IF(COUNTIF(F311:L311,"-III")&gt;0,"-III",IF(COUNTIF(F311:L311,"-II")&gt;0,"-II",IF(COUNTIF(F311:L311,"-I")&gt;0,"-I",IF(COUNTIF(F311:L311,"+0")&gt;0,"+0",IF(COUNTIF(F311:L311,"+I")&gt;0,"+I",IF(COUNTIF(F311:L311,"+II")&gt;0,"+II",IF(COUNTIF(F311:L311,"+III")&gt;0,"+III",IF(COUNTIF(F311:L311,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F311" s="9" t="str">
@@ -15924,11 +15924,11 @@
         <v>9.06</v>
       </c>
       <c r="D312" s="23" t="str">
-        <f>IF(COUNTIF(F312:L312,"D")&gt;0,"D",IF(COUNTIF(F312:L312,"-III")&gt;0,"-III",IF(COUNTIF(F312:L312,"-II")&gt;0,"-II",IF(COUNTIF(F312:L312,"-I")&gt;0,"-I",IF(COUNTIF(F312:L312,"+0")&gt;0,"+0",IF(COUNTIF(F312:L312,"+I")&gt;0,"+I",IF(COUNTIF(F312:L312,"+II")&gt;0,"+II",IF(COUNTIF(F312:L312,"+III")&gt;0,"+III",IF(COUNTIF(F312:L312,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E312" s="23" t="str">
-        <f>IF(COUNTIF(F312:L312,"-III")&gt;0,"-III",IF(COUNTIF(F312:L312,"-II")&gt;0,"-II",IF(COUNTIF(F312:L312,"-I")&gt;0,"-I",IF(COUNTIF(F312:L312,"+0")&gt;0,"+0",IF(COUNTIF(F312:L312,"+I")&gt;0,"+I",IF(COUNTIF(F312:L312,"+II")&gt;0,"+II",IF(COUNTIF(F312:L312,"+III")&gt;0,"+III",IF(COUNTIF(F312:L312,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F312" s="9" t="str">
@@ -15968,11 +15968,11 @@
         <v>9.0619999999999994</v>
       </c>
       <c r="D313" s="23" t="str">
-        <f>IF(COUNTIF(F313:L313,"D")&gt;0,"D",IF(COUNTIF(F313:L313,"-III")&gt;0,"-III",IF(COUNTIF(F313:L313,"-II")&gt;0,"-II",IF(COUNTIF(F313:L313,"-I")&gt;0,"-I",IF(COUNTIF(F313:L313,"+0")&gt;0,"+0",IF(COUNTIF(F313:L313,"+I")&gt;0,"+I",IF(COUNTIF(F313:L313,"+II")&gt;0,"+II",IF(COUNTIF(F313:L313,"+III")&gt;0,"+III",IF(COUNTIF(F313:L313,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E313" s="23" t="str">
-        <f>IF(COUNTIF(F313:L313,"-III")&gt;0,"-III",IF(COUNTIF(F313:L313,"-II")&gt;0,"-II",IF(COUNTIF(F313:L313,"-I")&gt;0,"-I",IF(COUNTIF(F313:L313,"+0")&gt;0,"+0",IF(COUNTIF(F313:L313,"+I")&gt;0,"+I",IF(COUNTIF(F313:L313,"+II")&gt;0,"+II",IF(COUNTIF(F313:L313,"+III")&gt;0,"+III",IF(COUNTIF(F313:L313,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F313" s="9" t="str">
@@ -16012,11 +16012,11 @@
         <v>9.1259999999999994</v>
       </c>
       <c r="D314" s="23" t="str">
-        <f>IF(COUNTIF(F314:L314,"D")&gt;0,"D",IF(COUNTIF(F314:L314,"-III")&gt;0,"-III",IF(COUNTIF(F314:L314,"-II")&gt;0,"-II",IF(COUNTIF(F314:L314,"-I")&gt;0,"-I",IF(COUNTIF(F314:L314,"+0")&gt;0,"+0",IF(COUNTIF(F314:L314,"+I")&gt;0,"+I",IF(COUNTIF(F314:L314,"+II")&gt;0,"+II",IF(COUNTIF(F314:L314,"+III")&gt;0,"+III",IF(COUNTIF(F314:L314,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+III</v>
       </c>
       <c r="E314" s="23" t="str">
-        <f>IF(COUNTIF(F314:L314,"-III")&gt;0,"-III",IF(COUNTIF(F314:L314,"-II")&gt;0,"-II",IF(COUNTIF(F314:L314,"-I")&gt;0,"-I",IF(COUNTIF(F314:L314,"+0")&gt;0,"+0",IF(COUNTIF(F314:L314,"+I")&gt;0,"+I",IF(COUNTIF(F314:L314,"+II")&gt;0,"+II",IF(COUNTIF(F314:L314,"+III")&gt;0,"+III",IF(COUNTIF(F314:L314,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+III</v>
       </c>
       <c r="F314" s="9" t="str">
@@ -16056,11 +16056,11 @@
         <v>9.1419999999999995</v>
       </c>
       <c r="D315" s="23" t="str">
-        <f>IF(COUNTIF(F315:L315,"D")&gt;0,"D",IF(COUNTIF(F315:L315,"-III")&gt;0,"-III",IF(COUNTIF(F315:L315,"-II")&gt;0,"-II",IF(COUNTIF(F315:L315,"-I")&gt;0,"-I",IF(COUNTIF(F315:L315,"+0")&gt;0,"+0",IF(COUNTIF(F315:L315,"+I")&gt;0,"+I",IF(COUNTIF(F315:L315,"+II")&gt;0,"+II",IF(COUNTIF(F315:L315,"+III")&gt;0,"+III",IF(COUNTIF(F315:L315,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E315" s="23" t="str">
-        <f>IF(COUNTIF(F315:L315,"-III")&gt;0,"-III",IF(COUNTIF(F315:L315,"-II")&gt;0,"-II",IF(COUNTIF(F315:L315,"-I")&gt;0,"-I",IF(COUNTIF(F315:L315,"+0")&gt;0,"+0",IF(COUNTIF(F315:L315,"+I")&gt;0,"+I",IF(COUNTIF(F315:L315,"+II")&gt;0,"+II",IF(COUNTIF(F315:L315,"+III")&gt;0,"+III",IF(COUNTIF(F315:L315,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F315" s="9" t="str">
@@ -16100,11 +16100,11 @@
         <v>9.1489999999999991</v>
       </c>
       <c r="D316" s="23" t="str">
-        <f>IF(COUNTIF(F316:L316,"D")&gt;0,"D",IF(COUNTIF(F316:L316,"-III")&gt;0,"-III",IF(COUNTIF(F316:L316,"-II")&gt;0,"-II",IF(COUNTIF(F316:L316,"-I")&gt;0,"-I",IF(COUNTIF(F316:L316,"+0")&gt;0,"+0",IF(COUNTIF(F316:L316,"+I")&gt;0,"+I",IF(COUNTIF(F316:L316,"+II")&gt;0,"+II",IF(COUNTIF(F316:L316,"+III")&gt;0,"+III",IF(COUNTIF(F316:L316,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E316" s="23" t="str">
-        <f>IF(COUNTIF(F316:L316,"-III")&gt;0,"-III",IF(COUNTIF(F316:L316,"-II")&gt;0,"-II",IF(COUNTIF(F316:L316,"-I")&gt;0,"-I",IF(COUNTIF(F316:L316,"+0")&gt;0,"+0",IF(COUNTIF(F316:L316,"+I")&gt;0,"+I",IF(COUNTIF(F316:L316,"+II")&gt;0,"+II",IF(COUNTIF(F316:L316,"+III")&gt;0,"+III",IF(COUNTIF(F316:L316,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F316" s="9" t="str">
@@ -16144,11 +16144,11 @@
         <v>9.18</v>
       </c>
       <c r="D317" s="23" t="str">
-        <f>IF(COUNTIF(F317:L317,"D")&gt;0,"D",IF(COUNTIF(F317:L317,"-III")&gt;0,"-III",IF(COUNTIF(F317:L317,"-II")&gt;0,"-II",IF(COUNTIF(F317:L317,"-I")&gt;0,"-I",IF(COUNTIF(F317:L317,"+0")&gt;0,"+0",IF(COUNTIF(F317:L317,"+I")&gt;0,"+I",IF(COUNTIF(F317:L317,"+II")&gt;0,"+II",IF(COUNTIF(F317:L317,"+III")&gt;0,"+III",IF(COUNTIF(F317:L317,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E317" s="23" t="str">
-        <f>IF(COUNTIF(F317:L317,"-III")&gt;0,"-III",IF(COUNTIF(F317:L317,"-II")&gt;0,"-II",IF(COUNTIF(F317:L317,"-I")&gt;0,"-I",IF(COUNTIF(F317:L317,"+0")&gt;0,"+0",IF(COUNTIF(F317:L317,"+I")&gt;0,"+I",IF(COUNTIF(F317:L317,"+II")&gt;0,"+II",IF(COUNTIF(F317:L317,"+III")&gt;0,"+III",IF(COUNTIF(F317:L317,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F317" s="9" t="str">
@@ -16188,11 +16188,11 @@
         <v>9.1839999999999993</v>
       </c>
       <c r="D318" s="23" t="str">
-        <f>IF(COUNTIF(F318:L318,"D")&gt;0,"D",IF(COUNTIF(F318:L318,"-III")&gt;0,"-III",IF(COUNTIF(F318:L318,"-II")&gt;0,"-II",IF(COUNTIF(F318:L318,"-I")&gt;0,"-I",IF(COUNTIF(F318:L318,"+0")&gt;0,"+0",IF(COUNTIF(F318:L318,"+I")&gt;0,"+I",IF(COUNTIF(F318:L318,"+II")&gt;0,"+II",IF(COUNTIF(F318:L318,"+III")&gt;0,"+III",IF(COUNTIF(F318:L318,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E318" s="23" t="str">
-        <f>IF(COUNTIF(F318:L318,"-III")&gt;0,"-III",IF(COUNTIF(F318:L318,"-II")&gt;0,"-II",IF(COUNTIF(F318:L318,"-I")&gt;0,"-I",IF(COUNTIF(F318:L318,"+0")&gt;0,"+0",IF(COUNTIF(F318:L318,"+I")&gt;0,"+I",IF(COUNTIF(F318:L318,"+II")&gt;0,"+II",IF(COUNTIF(F318:L318,"+III")&gt;0,"+III",IF(COUNTIF(F318:L318,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F318" s="9" t="str">
@@ -16232,11 +16232,11 @@
         <v>9.1989999999999998</v>
       </c>
       <c r="D319" s="23" t="str">
-        <f>IF(COUNTIF(F319:L319,"D")&gt;0,"D",IF(COUNTIF(F319:L319,"-III")&gt;0,"-III",IF(COUNTIF(F319:L319,"-II")&gt;0,"-II",IF(COUNTIF(F319:L319,"-I")&gt;0,"-I",IF(COUNTIF(F319:L319,"+0")&gt;0,"+0",IF(COUNTIF(F319:L319,"+I")&gt;0,"+I",IF(COUNTIF(F319:L319,"+II")&gt;0,"+II",IF(COUNTIF(F319:L319,"+III")&gt;0,"+III",IF(COUNTIF(F319:L319,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E319" s="23" t="str">
-        <f>IF(COUNTIF(F319:L319,"-III")&gt;0,"-III",IF(COUNTIF(F319:L319,"-II")&gt;0,"-II",IF(COUNTIF(F319:L319,"-I")&gt;0,"-I",IF(COUNTIF(F319:L319,"+0")&gt;0,"+0",IF(COUNTIF(F319:L319,"+I")&gt;0,"+I",IF(COUNTIF(F319:L319,"+II")&gt;0,"+II",IF(COUNTIF(F319:L319,"+III")&gt;0,"+III",IF(COUNTIF(F319:L319,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F319" s="9" t="str">
@@ -16276,11 +16276,11 @@
         <v>9.2059999999999995</v>
       </c>
       <c r="D320" s="23" t="str">
-        <f>IF(COUNTIF(F320:L320,"D")&gt;0,"D",IF(COUNTIF(F320:L320,"-III")&gt;0,"-III",IF(COUNTIF(F320:L320,"-II")&gt;0,"-II",IF(COUNTIF(F320:L320,"-I")&gt;0,"-I",IF(COUNTIF(F320:L320,"+0")&gt;0,"+0",IF(COUNTIF(F320:L320,"+I")&gt;0,"+I",IF(COUNTIF(F320:L320,"+II")&gt;0,"+II",IF(COUNTIF(F320:L320,"+III")&gt;0,"+III",IF(COUNTIF(F320:L320,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E320" s="23" t="str">
-        <f>IF(COUNTIF(F320:L320,"-III")&gt;0,"-III",IF(COUNTIF(F320:L320,"-II")&gt;0,"-II",IF(COUNTIF(F320:L320,"-I")&gt;0,"-I",IF(COUNTIF(F320:L320,"+0")&gt;0,"+0",IF(COUNTIF(F320:L320,"+I")&gt;0,"+I",IF(COUNTIF(F320:L320,"+II")&gt;0,"+II",IF(COUNTIF(F320:L320,"+III")&gt;0,"+III",IF(COUNTIF(F320:L320,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F320" s="9" t="str">
@@ -16320,11 +16320,11 @@
         <v>9.2080000000000002</v>
       </c>
       <c r="D321" s="23" t="str">
-        <f>IF(COUNTIF(F321:L321,"D")&gt;0,"D",IF(COUNTIF(F321:L321,"-III")&gt;0,"-III",IF(COUNTIF(F321:L321,"-II")&gt;0,"-II",IF(COUNTIF(F321:L321,"-I")&gt;0,"-I",IF(COUNTIF(F321:L321,"+0")&gt;0,"+0",IF(COUNTIF(F321:L321,"+I")&gt;0,"+I",IF(COUNTIF(F321:L321,"+II")&gt;0,"+II",IF(COUNTIF(F321:L321,"+III")&gt;0,"+III",IF(COUNTIF(F321:L321,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E321" s="23" t="str">
-        <f>IF(COUNTIF(F321:L321,"-III")&gt;0,"-III",IF(COUNTIF(F321:L321,"-II")&gt;0,"-II",IF(COUNTIF(F321:L321,"-I")&gt;0,"-I",IF(COUNTIF(F321:L321,"+0")&gt;0,"+0",IF(COUNTIF(F321:L321,"+I")&gt;0,"+I",IF(COUNTIF(F321:L321,"+II")&gt;0,"+II",IF(COUNTIF(F321:L321,"+III")&gt;0,"+III",IF(COUNTIF(F321:L321,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F321" s="9" t="str">
@@ -16364,11 +16364,11 @@
         <v>9.2739999999999991</v>
       </c>
       <c r="D322" s="23" t="str">
-        <f>IF(COUNTIF(F322:L322,"D")&gt;0,"D",IF(COUNTIF(F322:L322,"-III")&gt;0,"-III",IF(COUNTIF(F322:L322,"-II")&gt;0,"-II",IF(COUNTIF(F322:L322,"-I")&gt;0,"-I",IF(COUNTIF(F322:L322,"+0")&gt;0,"+0",IF(COUNTIF(F322:L322,"+I")&gt;0,"+I",IF(COUNTIF(F322:L322,"+II")&gt;0,"+II",IF(COUNTIF(F322:L322,"+III")&gt;0,"+III",IF(COUNTIF(F322:L322,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="8"/>
         <v>+II</v>
       </c>
       <c r="E322" s="23" t="str">
-        <f>IF(COUNTIF(F322:L322,"-III")&gt;0,"-III",IF(COUNTIF(F322:L322,"-II")&gt;0,"-II",IF(COUNTIF(F322:L322,"-I")&gt;0,"-I",IF(COUNTIF(F322:L322,"+0")&gt;0,"+0",IF(COUNTIF(F322:L322,"+I")&gt;0,"+I",IF(COUNTIF(F322:L322,"+II")&gt;0,"+II",IF(COUNTIF(F322:L322,"+III")&gt;0,"+III",IF(COUNTIF(F322:L322,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="9"/>
         <v>+II</v>
       </c>
       <c r="F322" s="9" t="str">
@@ -16408,11 +16408,11 @@
         <v>9.2959999999999994</v>
       </c>
       <c r="D323" s="23" t="str">
-        <f>IF(COUNTIF(F323:L323,"D")&gt;0,"D",IF(COUNTIF(F323:L323,"-III")&gt;0,"-III",IF(COUNTIF(F323:L323,"-II")&gt;0,"-II",IF(COUNTIF(F323:L323,"-I")&gt;0,"-I",IF(COUNTIF(F323:L323,"+0")&gt;0,"+0",IF(COUNTIF(F323:L323,"+I")&gt;0,"+I",IF(COUNTIF(F323:L323,"+II")&gt;0,"+II",IF(COUNTIF(F323:L323,"+III")&gt;0,"+III",IF(COUNTIF(F323:L323,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D323:D386" si="10">IF(COUNTIF(F323:L323,"D")&gt;0,"D",IF(COUNTIF(F323:L323,"-III")&gt;0,"-III",IF(COUNTIF(F323:L323,"-II")&gt;0,"-II",IF(COUNTIF(F323:L323,"-I")&gt;0,"-I",IF(COUNTIF(F323:L323,"+0")&gt;0,"+0",IF(COUNTIF(F323:L323,"+I")&gt;0,"+I",IF(COUNTIF(F323:L323,"+II")&gt;0,"+II",IF(COUNTIF(F323:L323,"+III")&gt;0,"+III",IF(COUNTIF(F323:L323,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E323" s="23" t="str">
-        <f>IF(COUNTIF(F323:L323,"-III")&gt;0,"-III",IF(COUNTIF(F323:L323,"-II")&gt;0,"-II",IF(COUNTIF(F323:L323,"-I")&gt;0,"-I",IF(COUNTIF(F323:L323,"+0")&gt;0,"+0",IF(COUNTIF(F323:L323,"+I")&gt;0,"+I",IF(COUNTIF(F323:L323,"+II")&gt;0,"+II",IF(COUNTIF(F323:L323,"+III")&gt;0,"+III",IF(COUNTIF(F323:L323,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E323:E386" si="11">IF(COUNTIF(F323:L323,"-III")&gt;0,"-III",IF(COUNTIF(F323:L323,"-II")&gt;0,"-II",IF(COUNTIF(F323:L323,"-I")&gt;0,"-I",IF(COUNTIF(F323:L323,"+0")&gt;0,"+0",IF(COUNTIF(F323:L323,"+I")&gt;0,"+I",IF(COUNTIF(F323:L323,"+II")&gt;0,"+II",IF(COUNTIF(F323:L323,"+III")&gt;0,"+III",IF(COUNTIF(F323:L323,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F323" s="9" t="str">
@@ -16452,11 +16452,11 @@
         <v>9.3320000000000007</v>
       </c>
       <c r="D324" s="23" t="str">
-        <f>IF(COUNTIF(F324:L324,"D")&gt;0,"D",IF(COUNTIF(F324:L324,"-III")&gt;0,"-III",IF(COUNTIF(F324:L324,"-II")&gt;0,"-II",IF(COUNTIF(F324:L324,"-I")&gt;0,"-I",IF(COUNTIF(F324:L324,"+0")&gt;0,"+0",IF(COUNTIF(F324:L324,"+I")&gt;0,"+I",IF(COUNTIF(F324:L324,"+II")&gt;0,"+II",IF(COUNTIF(F324:L324,"+III")&gt;0,"+III",IF(COUNTIF(F324:L324,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E324" s="23" t="str">
-        <f>IF(COUNTIF(F324:L324,"-III")&gt;0,"-III",IF(COUNTIF(F324:L324,"-II")&gt;0,"-II",IF(COUNTIF(F324:L324,"-I")&gt;0,"-I",IF(COUNTIF(F324:L324,"+0")&gt;0,"+0",IF(COUNTIF(F324:L324,"+I")&gt;0,"+I",IF(COUNTIF(F324:L324,"+II")&gt;0,"+II",IF(COUNTIF(F324:L324,"+III")&gt;0,"+III",IF(COUNTIF(F324:L324,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F324" s="9" t="str">
@@ -16496,11 +16496,11 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="D325" s="23" t="str">
-        <f>IF(COUNTIF(F325:L325,"D")&gt;0,"D",IF(COUNTIF(F325:L325,"-III")&gt;0,"-III",IF(COUNTIF(F325:L325,"-II")&gt;0,"-II",IF(COUNTIF(F325:L325,"-I")&gt;0,"-I",IF(COUNTIF(F325:L325,"+0")&gt;0,"+0",IF(COUNTIF(F325:L325,"+I")&gt;0,"+I",IF(COUNTIF(F325:L325,"+II")&gt;0,"+II",IF(COUNTIF(F325:L325,"+III")&gt;0,"+III",IF(COUNTIF(F325:L325,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E325" s="23" t="str">
-        <f>IF(COUNTIF(F325:L325,"-III")&gt;0,"-III",IF(COUNTIF(F325:L325,"-II")&gt;0,"-II",IF(COUNTIF(F325:L325,"-I")&gt;0,"-I",IF(COUNTIF(F325:L325,"+0")&gt;0,"+0",IF(COUNTIF(F325:L325,"+I")&gt;0,"+I",IF(COUNTIF(F325:L325,"+II")&gt;0,"+II",IF(COUNTIF(F325:L325,"+III")&gt;0,"+III",IF(COUNTIF(F325:L325,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F325" s="9" t="str">
@@ -16540,11 +16540,11 @@
         <v>9.375</v>
       </c>
       <c r="D326" s="23" t="str">
-        <f>IF(COUNTIF(F326:L326,"D")&gt;0,"D",IF(COUNTIF(F326:L326,"-III")&gt;0,"-III",IF(COUNTIF(F326:L326,"-II")&gt;0,"-II",IF(COUNTIF(F326:L326,"-I")&gt;0,"-I",IF(COUNTIF(F326:L326,"+0")&gt;0,"+0",IF(COUNTIF(F326:L326,"+I")&gt;0,"+I",IF(COUNTIF(F326:L326,"+II")&gt;0,"+II",IF(COUNTIF(F326:L326,"+III")&gt;0,"+III",IF(COUNTIF(F326:L326,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E326" s="23" t="str">
-        <f>IF(COUNTIF(F326:L326,"-III")&gt;0,"-III",IF(COUNTIF(F326:L326,"-II")&gt;0,"-II",IF(COUNTIF(F326:L326,"-I")&gt;0,"-I",IF(COUNTIF(F326:L326,"+0")&gt;0,"+0",IF(COUNTIF(F326:L326,"+I")&gt;0,"+I",IF(COUNTIF(F326:L326,"+II")&gt;0,"+II",IF(COUNTIF(F326:L326,"+III")&gt;0,"+III",IF(COUNTIF(F326:L326,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F326" s="9" t="str">
@@ -16584,11 +16584,11 @@
         <v>9.4169999999999998</v>
       </c>
       <c r="D327" s="23" t="str">
-        <f>IF(COUNTIF(F327:L327,"D")&gt;0,"D",IF(COUNTIF(F327:L327,"-III")&gt;0,"-III",IF(COUNTIF(F327:L327,"-II")&gt;0,"-II",IF(COUNTIF(F327:L327,"-I")&gt;0,"-I",IF(COUNTIF(F327:L327,"+0")&gt;0,"+0",IF(COUNTIF(F327:L327,"+I")&gt;0,"+I",IF(COUNTIF(F327:L327,"+II")&gt;0,"+II",IF(COUNTIF(F327:L327,"+III")&gt;0,"+III",IF(COUNTIF(F327:L327,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E327" s="23" t="str">
-        <f>IF(COUNTIF(F327:L327,"-III")&gt;0,"-III",IF(COUNTIF(F327:L327,"-II")&gt;0,"-II",IF(COUNTIF(F327:L327,"-I")&gt;0,"-I",IF(COUNTIF(F327:L327,"+0")&gt;0,"+0",IF(COUNTIF(F327:L327,"+I")&gt;0,"+I",IF(COUNTIF(F327:L327,"+II")&gt;0,"+II",IF(COUNTIF(F327:L327,"+III")&gt;0,"+III",IF(COUNTIF(F327:L327,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F327" s="9" t="str">
@@ -16628,11 +16628,11 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="D328" s="23" t="str">
-        <f>IF(COUNTIF(F328:L328,"D")&gt;0,"D",IF(COUNTIF(F328:L328,"-III")&gt;0,"-III",IF(COUNTIF(F328:L328,"-II")&gt;0,"-II",IF(COUNTIF(F328:L328,"-I")&gt;0,"-I",IF(COUNTIF(F328:L328,"+0")&gt;0,"+0",IF(COUNTIF(F328:L328,"+I")&gt;0,"+I",IF(COUNTIF(F328:L328,"+II")&gt;0,"+II",IF(COUNTIF(F328:L328,"+III")&gt;0,"+III",IF(COUNTIF(F328:L328,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E328" s="23" t="str">
-        <f>IF(COUNTIF(F328:L328,"-III")&gt;0,"-III",IF(COUNTIF(F328:L328,"-II")&gt;0,"-II",IF(COUNTIF(F328:L328,"-I")&gt;0,"-I",IF(COUNTIF(F328:L328,"+0")&gt;0,"+0",IF(COUNTIF(F328:L328,"+I")&gt;0,"+I",IF(COUNTIF(F328:L328,"+II")&gt;0,"+II",IF(COUNTIF(F328:L328,"+III")&gt;0,"+III",IF(COUNTIF(F328:L328,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F328" s="9" t="str">
@@ -16672,11 +16672,11 @@
         <v>9.5559999999999992</v>
       </c>
       <c r="D329" s="23" t="str">
-        <f>IF(COUNTIF(F329:L329,"D")&gt;0,"D",IF(COUNTIF(F329:L329,"-III")&gt;0,"-III",IF(COUNTIF(F329:L329,"-II")&gt;0,"-II",IF(COUNTIF(F329:L329,"-I")&gt;0,"-I",IF(COUNTIF(F329:L329,"+0")&gt;0,"+0",IF(COUNTIF(F329:L329,"+I")&gt;0,"+I",IF(COUNTIF(F329:L329,"+II")&gt;0,"+II",IF(COUNTIF(F329:L329,"+III")&gt;0,"+III",IF(COUNTIF(F329:L329,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E329" s="23" t="str">
-        <f>IF(COUNTIF(F329:L329,"-III")&gt;0,"-III",IF(COUNTIF(F329:L329,"-II")&gt;0,"-II",IF(COUNTIF(F329:L329,"-I")&gt;0,"-I",IF(COUNTIF(F329:L329,"+0")&gt;0,"+0",IF(COUNTIF(F329:L329,"+I")&gt;0,"+I",IF(COUNTIF(F329:L329,"+II")&gt;0,"+II",IF(COUNTIF(F329:L329,"+III")&gt;0,"+III",IF(COUNTIF(F329:L329,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F329" s="9" t="str">
@@ -16716,11 +16716,11 @@
         <v>9.5649999999999995</v>
       </c>
       <c r="D330" s="23" t="str">
-        <f>IF(COUNTIF(F330:L330,"D")&gt;0,"D",IF(COUNTIF(F330:L330,"-III")&gt;0,"-III",IF(COUNTIF(F330:L330,"-II")&gt;0,"-II",IF(COUNTIF(F330:L330,"-I")&gt;0,"-I",IF(COUNTIF(F330:L330,"+0")&gt;0,"+0",IF(COUNTIF(F330:L330,"+I")&gt;0,"+I",IF(COUNTIF(F330:L330,"+II")&gt;0,"+II",IF(COUNTIF(F330:L330,"+III")&gt;0,"+III",IF(COUNTIF(F330:L330,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E330" s="23" t="str">
-        <f>IF(COUNTIF(F330:L330,"-III")&gt;0,"-III",IF(COUNTIF(F330:L330,"-II")&gt;0,"-II",IF(COUNTIF(F330:L330,"-I")&gt;0,"-I",IF(COUNTIF(F330:L330,"+0")&gt;0,"+0",IF(COUNTIF(F330:L330,"+I")&gt;0,"+I",IF(COUNTIF(F330:L330,"+II")&gt;0,"+II",IF(COUNTIF(F330:L330,"+III")&gt;0,"+III",IF(COUNTIF(F330:L330,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F330" s="9" t="str">
@@ -16760,11 +16760,11 @@
         <v>9.5969999999999995</v>
       </c>
       <c r="D331" s="23" t="str">
-        <f>IF(COUNTIF(F331:L331,"D")&gt;0,"D",IF(COUNTIF(F331:L331,"-III")&gt;0,"-III",IF(COUNTIF(F331:L331,"-II")&gt;0,"-II",IF(COUNTIF(F331:L331,"-I")&gt;0,"-I",IF(COUNTIF(F331:L331,"+0")&gt;0,"+0",IF(COUNTIF(F331:L331,"+I")&gt;0,"+I",IF(COUNTIF(F331:L331,"+II")&gt;0,"+II",IF(COUNTIF(F331:L331,"+III")&gt;0,"+III",IF(COUNTIF(F331:L331,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E331" s="23" t="str">
-        <f>IF(COUNTIF(F331:L331,"-III")&gt;0,"-III",IF(COUNTIF(F331:L331,"-II")&gt;0,"-II",IF(COUNTIF(F331:L331,"-I")&gt;0,"-I",IF(COUNTIF(F331:L331,"+0")&gt;0,"+0",IF(COUNTIF(F331:L331,"+I")&gt;0,"+I",IF(COUNTIF(F331:L331,"+II")&gt;0,"+II",IF(COUNTIF(F331:L331,"+III")&gt;0,"+III",IF(COUNTIF(F331:L331,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F331" s="9" t="str">
@@ -16804,11 +16804,11 @@
         <v>9.6750000000000007</v>
       </c>
       <c r="D332" s="23" t="str">
-        <f>IF(COUNTIF(F332:L332,"D")&gt;0,"D",IF(COUNTIF(F332:L332,"-III")&gt;0,"-III",IF(COUNTIF(F332:L332,"-II")&gt;0,"-II",IF(COUNTIF(F332:L332,"-I")&gt;0,"-I",IF(COUNTIF(F332:L332,"+0")&gt;0,"+0",IF(COUNTIF(F332:L332,"+I")&gt;0,"+I",IF(COUNTIF(F332:L332,"+II")&gt;0,"+II",IF(COUNTIF(F332:L332,"+III")&gt;0,"+III",IF(COUNTIF(F332:L332,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E332" s="23" t="str">
-        <f>IF(COUNTIF(F332:L332,"-III")&gt;0,"-III",IF(COUNTIF(F332:L332,"-II")&gt;0,"-II",IF(COUNTIF(F332:L332,"-I")&gt;0,"-I",IF(COUNTIF(F332:L332,"+0")&gt;0,"+0",IF(COUNTIF(F332:L332,"+I")&gt;0,"+I",IF(COUNTIF(F332:L332,"+II")&gt;0,"+II",IF(COUNTIF(F332:L332,"+III")&gt;0,"+III",IF(COUNTIF(F332:L332,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F332" s="9" t="str">
@@ -16848,11 +16848,11 @@
         <v>9.7059999999999995</v>
       </c>
       <c r="D333" s="23" t="str">
-        <f>IF(COUNTIF(F333:L333,"D")&gt;0,"D",IF(COUNTIF(F333:L333,"-III")&gt;0,"-III",IF(COUNTIF(F333:L333,"-II")&gt;0,"-II",IF(COUNTIF(F333:L333,"-I")&gt;0,"-I",IF(COUNTIF(F333:L333,"+0")&gt;0,"+0",IF(COUNTIF(F333:L333,"+I")&gt;0,"+I",IF(COUNTIF(F333:L333,"+II")&gt;0,"+II",IF(COUNTIF(F333:L333,"+III")&gt;0,"+III",IF(COUNTIF(F333:L333,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E333" s="23" t="str">
-        <f>IF(COUNTIF(F333:L333,"-III")&gt;0,"-III",IF(COUNTIF(F333:L333,"-II")&gt;0,"-II",IF(COUNTIF(F333:L333,"-I")&gt;0,"-I",IF(COUNTIF(F333:L333,"+0")&gt;0,"+0",IF(COUNTIF(F333:L333,"+I")&gt;0,"+I",IF(COUNTIF(F333:L333,"+II")&gt;0,"+II",IF(COUNTIF(F333:L333,"+III")&gt;0,"+III",IF(COUNTIF(F333:L333,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F333" s="9" t="str">
@@ -16892,11 +16892,11 @@
         <v>9.7260000000000009</v>
       </c>
       <c r="D334" s="23" t="str">
-        <f>IF(COUNTIF(F334:L334,"D")&gt;0,"D",IF(COUNTIF(F334:L334,"-III")&gt;0,"-III",IF(COUNTIF(F334:L334,"-II")&gt;0,"-II",IF(COUNTIF(F334:L334,"-I")&gt;0,"-I",IF(COUNTIF(F334:L334,"+0")&gt;0,"+0",IF(COUNTIF(F334:L334,"+I")&gt;0,"+I",IF(COUNTIF(F334:L334,"+II")&gt;0,"+II",IF(COUNTIF(F334:L334,"+III")&gt;0,"+III",IF(COUNTIF(F334:L334,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E334" s="23" t="str">
-        <f>IF(COUNTIF(F334:L334,"-III")&gt;0,"-III",IF(COUNTIF(F334:L334,"-II")&gt;0,"-II",IF(COUNTIF(F334:L334,"-I")&gt;0,"-I",IF(COUNTIF(F334:L334,"+0")&gt;0,"+0",IF(COUNTIF(F334:L334,"+I")&gt;0,"+I",IF(COUNTIF(F334:L334,"+II")&gt;0,"+II",IF(COUNTIF(F334:L334,"+III")&gt;0,"+III",IF(COUNTIF(F334:L334,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F334" s="9" t="str">
@@ -16936,11 +16936,11 @@
         <v>9.7729999999999997</v>
       </c>
       <c r="D335" s="23" t="str">
-        <f>IF(COUNTIF(F335:L335,"D")&gt;0,"D",IF(COUNTIF(F335:L335,"-III")&gt;0,"-III",IF(COUNTIF(F335:L335,"-II")&gt;0,"-II",IF(COUNTIF(F335:L335,"-I")&gt;0,"-I",IF(COUNTIF(F335:L335,"+0")&gt;0,"+0",IF(COUNTIF(F335:L335,"+I")&gt;0,"+I",IF(COUNTIF(F335:L335,"+II")&gt;0,"+II",IF(COUNTIF(F335:L335,"+III")&gt;0,"+III",IF(COUNTIF(F335:L335,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E335" s="23" t="str">
-        <f>IF(COUNTIF(F335:L335,"-III")&gt;0,"-III",IF(COUNTIF(F335:L335,"-II")&gt;0,"-II",IF(COUNTIF(F335:L335,"-I")&gt;0,"-I",IF(COUNTIF(F335:L335,"+0")&gt;0,"+0",IF(COUNTIF(F335:L335,"+I")&gt;0,"+I",IF(COUNTIF(F335:L335,"+II")&gt;0,"+II",IF(COUNTIF(F335:L335,"+III")&gt;0,"+III",IF(COUNTIF(F335:L335,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F335" s="9" t="str">
@@ -16980,11 +16980,11 @@
         <v>9.81</v>
       </c>
       <c r="D336" s="23" t="str">
-        <f>IF(COUNTIF(F336:L336,"D")&gt;0,"D",IF(COUNTIF(F336:L336,"-III")&gt;0,"-III",IF(COUNTIF(F336:L336,"-II")&gt;0,"-II",IF(COUNTIF(F336:L336,"-I")&gt;0,"-I",IF(COUNTIF(F336:L336,"+0")&gt;0,"+0",IF(COUNTIF(F336:L336,"+I")&gt;0,"+I",IF(COUNTIF(F336:L336,"+II")&gt;0,"+II",IF(COUNTIF(F336:L336,"+III")&gt;0,"+III",IF(COUNTIF(F336:L336,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E336" s="23" t="str">
-        <f>IF(COUNTIF(F336:L336,"-III")&gt;0,"-III",IF(COUNTIF(F336:L336,"-II")&gt;0,"-II",IF(COUNTIF(F336:L336,"-I")&gt;0,"-I",IF(COUNTIF(F336:L336,"+0")&gt;0,"+0",IF(COUNTIF(F336:L336,"+I")&gt;0,"+I",IF(COUNTIF(F336:L336,"+II")&gt;0,"+II",IF(COUNTIF(F336:L336,"+III")&gt;0,"+III",IF(COUNTIF(F336:L336,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F336" s="9" t="str">
@@ -17024,11 +17024,11 @@
         <v>9.9</v>
       </c>
       <c r="D337" s="23" t="str">
-        <f>IF(COUNTIF(F337:L337,"D")&gt;0,"D",IF(COUNTIF(F337:L337,"-III")&gt;0,"-III",IF(COUNTIF(F337:L337,"-II")&gt;0,"-II",IF(COUNTIF(F337:L337,"-I")&gt;0,"-I",IF(COUNTIF(F337:L337,"+0")&gt;0,"+0",IF(COUNTIF(F337:L337,"+I")&gt;0,"+I",IF(COUNTIF(F337:L337,"+II")&gt;0,"+II",IF(COUNTIF(F337:L337,"+III")&gt;0,"+III",IF(COUNTIF(F337:L337,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E337" s="23" t="str">
-        <f>IF(COUNTIF(F337:L337,"-III")&gt;0,"-III",IF(COUNTIF(F337:L337,"-II")&gt;0,"-II",IF(COUNTIF(F337:L337,"-I")&gt;0,"-I",IF(COUNTIF(F337:L337,"+0")&gt;0,"+0",IF(COUNTIF(F337:L337,"+I")&gt;0,"+I",IF(COUNTIF(F337:L337,"+II")&gt;0,"+II",IF(COUNTIF(F337:L337,"+III")&gt;0,"+III",IF(COUNTIF(F337:L337,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F337" s="9" t="str">
@@ -17068,11 +17068,11 @@
         <v>9.9030000000000005</v>
       </c>
       <c r="D338" s="23" t="str">
-        <f>IF(COUNTIF(F338:L338,"D")&gt;0,"D",IF(COUNTIF(F338:L338,"-III")&gt;0,"-III",IF(COUNTIF(F338:L338,"-II")&gt;0,"-II",IF(COUNTIF(F338:L338,"-I")&gt;0,"-I",IF(COUNTIF(F338:L338,"+0")&gt;0,"+0",IF(COUNTIF(F338:L338,"+I")&gt;0,"+I",IF(COUNTIF(F338:L338,"+II")&gt;0,"+II",IF(COUNTIF(F338:L338,"+III")&gt;0,"+III",IF(COUNTIF(F338:L338,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+III</v>
       </c>
       <c r="E338" s="23" t="str">
-        <f>IF(COUNTIF(F338:L338,"-III")&gt;0,"-III",IF(COUNTIF(F338:L338,"-II")&gt;0,"-II",IF(COUNTIF(F338:L338,"-I")&gt;0,"-I",IF(COUNTIF(F338:L338,"+0")&gt;0,"+0",IF(COUNTIF(F338:L338,"+I")&gt;0,"+I",IF(COUNTIF(F338:L338,"+II")&gt;0,"+II",IF(COUNTIF(F338:L338,"+III")&gt;0,"+III",IF(COUNTIF(F338:L338,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F338" s="9" t="str">
@@ -17112,11 +17112,11 @@
         <v>9.9489999999999998</v>
       </c>
       <c r="D339" s="23" t="str">
-        <f>IF(COUNTIF(F339:L339,"D")&gt;0,"D",IF(COUNTIF(F339:L339,"-III")&gt;0,"-III",IF(COUNTIF(F339:L339,"-II")&gt;0,"-II",IF(COUNTIF(F339:L339,"-I")&gt;0,"-I",IF(COUNTIF(F339:L339,"+0")&gt;0,"+0",IF(COUNTIF(F339:L339,"+I")&gt;0,"+I",IF(COUNTIF(F339:L339,"+II")&gt;0,"+II",IF(COUNTIF(F339:L339,"+III")&gt;0,"+III",IF(COUNTIF(F339:L339,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E339" s="23" t="str">
-        <f>IF(COUNTIF(F339:L339,"-III")&gt;0,"-III",IF(COUNTIF(F339:L339,"-II")&gt;0,"-II",IF(COUNTIF(F339:L339,"-I")&gt;0,"-I",IF(COUNTIF(F339:L339,"+0")&gt;0,"+0",IF(COUNTIF(F339:L339,"+I")&gt;0,"+I",IF(COUNTIF(F339:L339,"+II")&gt;0,"+II",IF(COUNTIF(F339:L339,"+III")&gt;0,"+III",IF(COUNTIF(F339:L339,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F339" s="9" t="str">
@@ -17156,11 +17156,11 @@
         <v>9.9670000000000005</v>
       </c>
       <c r="D340" s="23" t="str">
-        <f>IF(COUNTIF(F340:L340,"D")&gt;0,"D",IF(COUNTIF(F340:L340,"-III")&gt;0,"-III",IF(COUNTIF(F340:L340,"-II")&gt;0,"-II",IF(COUNTIF(F340:L340,"-I")&gt;0,"-I",IF(COUNTIF(F340:L340,"+0")&gt;0,"+0",IF(COUNTIF(F340:L340,"+I")&gt;0,"+I",IF(COUNTIF(F340:L340,"+II")&gt;0,"+II",IF(COUNTIF(F340:L340,"+III")&gt;0,"+III",IF(COUNTIF(F340:L340,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E340" s="23" t="str">
-        <f>IF(COUNTIF(F340:L340,"-III")&gt;0,"-III",IF(COUNTIF(F340:L340,"-II")&gt;0,"-II",IF(COUNTIF(F340:L340,"-I")&gt;0,"-I",IF(COUNTIF(F340:L340,"+0")&gt;0,"+0",IF(COUNTIF(F340:L340,"+I")&gt;0,"+I",IF(COUNTIF(F340:L340,"+II")&gt;0,"+II",IF(COUNTIF(F340:L340,"+III")&gt;0,"+III",IF(COUNTIF(F340:L340,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F340" s="9" t="str">
@@ -17200,11 +17200,11 @@
         <v>9.9819999999999993</v>
       </c>
       <c r="D341" s="23" t="str">
-        <f>IF(COUNTIF(F341:L341,"D")&gt;0,"D",IF(COUNTIF(F341:L341,"-III")&gt;0,"-III",IF(COUNTIF(F341:L341,"-II")&gt;0,"-II",IF(COUNTIF(F341:L341,"-I")&gt;0,"-I",IF(COUNTIF(F341:L341,"+0")&gt;0,"+0",IF(COUNTIF(F341:L341,"+I")&gt;0,"+I",IF(COUNTIF(F341:L341,"+II")&gt;0,"+II",IF(COUNTIF(F341:L341,"+III")&gt;0,"+III",IF(COUNTIF(F341:L341,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E341" s="23" t="str">
-        <f>IF(COUNTIF(F341:L341,"-III")&gt;0,"-III",IF(COUNTIF(F341:L341,"-II")&gt;0,"-II",IF(COUNTIF(F341:L341,"-I")&gt;0,"-I",IF(COUNTIF(F341:L341,"+0")&gt;0,"+0",IF(COUNTIF(F341:L341,"+I")&gt;0,"+I",IF(COUNTIF(F341:L341,"+II")&gt;0,"+II",IF(COUNTIF(F341:L341,"+III")&gt;0,"+III",IF(COUNTIF(F341:L341,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F341" s="9" t="str">
@@ -17244,11 +17244,11 @@
         <v>9.984</v>
       </c>
       <c r="D342" s="23" t="str">
-        <f>IF(COUNTIF(F342:L342,"D")&gt;0,"D",IF(COUNTIF(F342:L342,"-III")&gt;0,"-III",IF(COUNTIF(F342:L342,"-II")&gt;0,"-II",IF(COUNTIF(F342:L342,"-I")&gt;0,"-I",IF(COUNTIF(F342:L342,"+0")&gt;0,"+0",IF(COUNTIF(F342:L342,"+I")&gt;0,"+I",IF(COUNTIF(F342:L342,"+II")&gt;0,"+II",IF(COUNTIF(F342:L342,"+III")&gt;0,"+III",IF(COUNTIF(F342:L342,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E342" s="23" t="str">
-        <f>IF(COUNTIF(F342:L342,"-III")&gt;0,"-III",IF(COUNTIF(F342:L342,"-II")&gt;0,"-II",IF(COUNTIF(F342:L342,"-I")&gt;0,"-I",IF(COUNTIF(F342:L342,"+0")&gt;0,"+0",IF(COUNTIF(F342:L342,"+I")&gt;0,"+I",IF(COUNTIF(F342:L342,"+II")&gt;0,"+II",IF(COUNTIF(F342:L342,"+III")&gt;0,"+III",IF(COUNTIF(F342:L342,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F342" s="9" t="str">
@@ -17288,11 +17288,11 @@
         <v>10</v>
       </c>
       <c r="D343" s="23" t="str">
-        <f>IF(COUNTIF(F343:L343,"D")&gt;0,"D",IF(COUNTIF(F343:L343,"-III")&gt;0,"-III",IF(COUNTIF(F343:L343,"-II")&gt;0,"-II",IF(COUNTIF(F343:L343,"-I")&gt;0,"-I",IF(COUNTIF(F343:L343,"+0")&gt;0,"+0",IF(COUNTIF(F343:L343,"+I")&gt;0,"+I",IF(COUNTIF(F343:L343,"+II")&gt;0,"+II",IF(COUNTIF(F343:L343,"+III")&gt;0,"+III",IF(COUNTIF(F343:L343,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E343" s="23" t="str">
-        <f>IF(COUNTIF(F343:L343,"-III")&gt;0,"-III",IF(COUNTIF(F343:L343,"-II")&gt;0,"-II",IF(COUNTIF(F343:L343,"-I")&gt;0,"-I",IF(COUNTIF(F343:L343,"+0")&gt;0,"+0",IF(COUNTIF(F343:L343,"+I")&gt;0,"+I",IF(COUNTIF(F343:L343,"+II")&gt;0,"+II",IF(COUNTIF(F343:L343,"+III")&gt;0,"+III",IF(COUNTIF(F343:L343,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F343" s="9" t="str">
@@ -17332,11 +17332,11 @@
         <v>10.021000000000001</v>
       </c>
       <c r="D344" s="23" t="str">
-        <f>IF(COUNTIF(F344:L344,"D")&gt;0,"D",IF(COUNTIF(F344:L344,"-III")&gt;0,"-III",IF(COUNTIF(F344:L344,"-II")&gt;0,"-II",IF(COUNTIF(F344:L344,"-I")&gt;0,"-I",IF(COUNTIF(F344:L344,"+0")&gt;0,"+0",IF(COUNTIF(F344:L344,"+I")&gt;0,"+I",IF(COUNTIF(F344:L344,"+II")&gt;0,"+II",IF(COUNTIF(F344:L344,"+III")&gt;0,"+III",IF(COUNTIF(F344:L344,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E344" s="23" t="str">
-        <f>IF(COUNTIF(F344:L344,"-III")&gt;0,"-III",IF(COUNTIF(F344:L344,"-II")&gt;0,"-II",IF(COUNTIF(F344:L344,"-I")&gt;0,"-I",IF(COUNTIF(F344:L344,"+0")&gt;0,"+0",IF(COUNTIF(F344:L344,"+I")&gt;0,"+I",IF(COUNTIF(F344:L344,"+II")&gt;0,"+II",IF(COUNTIF(F344:L344,"+III")&gt;0,"+III",IF(COUNTIF(F344:L344,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F344" s="9" t="str">
@@ -17376,11 +17376,11 @@
         <v>10.029</v>
       </c>
       <c r="D345" s="23" t="str">
-        <f>IF(COUNTIF(F345:L345,"D")&gt;0,"D",IF(COUNTIF(F345:L345,"-III")&gt;0,"-III",IF(COUNTIF(F345:L345,"-II")&gt;0,"-II",IF(COUNTIF(F345:L345,"-I")&gt;0,"-I",IF(COUNTIF(F345:L345,"+0")&gt;0,"+0",IF(COUNTIF(F345:L345,"+I")&gt;0,"+I",IF(COUNTIF(F345:L345,"+II")&gt;0,"+II",IF(COUNTIF(F345:L345,"+III")&gt;0,"+III",IF(COUNTIF(F345:L345,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E345" s="23" t="str">
-        <f>IF(COUNTIF(F345:L345,"-III")&gt;0,"-III",IF(COUNTIF(F345:L345,"-II")&gt;0,"-II",IF(COUNTIF(F345:L345,"-I")&gt;0,"-I",IF(COUNTIF(F345:L345,"+0")&gt;0,"+0",IF(COUNTIF(F345:L345,"+I")&gt;0,"+I",IF(COUNTIF(F345:L345,"+II")&gt;0,"+II",IF(COUNTIF(F345:L345,"+III")&gt;0,"+III",IF(COUNTIF(F345:L345,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F345" s="9" t="str">
@@ -17420,11 +17420,11 @@
         <v>10.039</v>
       </c>
       <c r="D346" s="23" t="str">
-        <f>IF(COUNTIF(F346:L346,"D")&gt;0,"D",IF(COUNTIF(F346:L346,"-III")&gt;0,"-III",IF(COUNTIF(F346:L346,"-II")&gt;0,"-II",IF(COUNTIF(F346:L346,"-I")&gt;0,"-I",IF(COUNTIF(F346:L346,"+0")&gt;0,"+0",IF(COUNTIF(F346:L346,"+I")&gt;0,"+I",IF(COUNTIF(F346:L346,"+II")&gt;0,"+II",IF(COUNTIF(F346:L346,"+III")&gt;0,"+III",IF(COUNTIF(F346:L346,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E346" s="23" t="str">
-        <f>IF(COUNTIF(F346:L346,"-III")&gt;0,"-III",IF(COUNTIF(F346:L346,"-II")&gt;0,"-II",IF(COUNTIF(F346:L346,"-I")&gt;0,"-I",IF(COUNTIF(F346:L346,"+0")&gt;0,"+0",IF(COUNTIF(F346:L346,"+I")&gt;0,"+I",IF(COUNTIF(F346:L346,"+II")&gt;0,"+II",IF(COUNTIF(F346:L346,"+III")&gt;0,"+III",IF(COUNTIF(F346:L346,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F346" s="9" t="str">
@@ -17464,11 +17464,11 @@
         <v>10.157999999999999</v>
       </c>
       <c r="D347" s="23" t="str">
-        <f>IF(COUNTIF(F347:L347,"D")&gt;0,"D",IF(COUNTIF(F347:L347,"-III")&gt;0,"-III",IF(COUNTIF(F347:L347,"-II")&gt;0,"-II",IF(COUNTIF(F347:L347,"-I")&gt;0,"-I",IF(COUNTIF(F347:L347,"+0")&gt;0,"+0",IF(COUNTIF(F347:L347,"+I")&gt;0,"+I",IF(COUNTIF(F347:L347,"+II")&gt;0,"+II",IF(COUNTIF(F347:L347,"+III")&gt;0,"+III",IF(COUNTIF(F347:L347,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E347" s="23" t="str">
-        <f>IF(COUNTIF(F347:L347,"-III")&gt;0,"-III",IF(COUNTIF(F347:L347,"-II")&gt;0,"-II",IF(COUNTIF(F347:L347,"-I")&gt;0,"-I",IF(COUNTIF(F347:L347,"+0")&gt;0,"+0",IF(COUNTIF(F347:L347,"+I")&gt;0,"+I",IF(COUNTIF(F347:L347,"+II")&gt;0,"+II",IF(COUNTIF(F347:L347,"+III")&gt;0,"+III",IF(COUNTIF(F347:L347,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F347" s="9" t="str">
@@ -17508,11 +17508,11 @@
         <v>10.16846</v>
       </c>
       <c r="D348" s="23" t="str">
-        <f>IF(COUNTIF(F348:L348,"D")&gt;0,"D",IF(COUNTIF(F348:L348,"-III")&gt;0,"-III",IF(COUNTIF(F348:L348,"-II")&gt;0,"-II",IF(COUNTIF(F348:L348,"-I")&gt;0,"-I",IF(COUNTIF(F348:L348,"+0")&gt;0,"+0",IF(COUNTIF(F348:L348,"+I")&gt;0,"+I",IF(COUNTIF(F348:L348,"+II")&gt;0,"+II",IF(COUNTIF(F348:L348,"+III")&gt;0,"+III",IF(COUNTIF(F348:L348,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E348" s="23" t="str">
-        <f>IF(COUNTIF(F348:L348,"-III")&gt;0,"-III",IF(COUNTIF(F348:L348,"-II")&gt;0,"-II",IF(COUNTIF(F348:L348,"-I")&gt;0,"-I",IF(COUNTIF(F348:L348,"+0")&gt;0,"+0",IF(COUNTIF(F348:L348,"+I")&gt;0,"+I",IF(COUNTIF(F348:L348,"+II")&gt;0,"+II",IF(COUNTIF(F348:L348,"+III")&gt;0,"+III",IF(COUNTIF(F348:L348,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F348" s="9" t="str">
@@ -17552,11 +17552,11 @@
         <v>10.173</v>
       </c>
       <c r="D349" s="23" t="str">
-        <f>IF(COUNTIF(F349:L349,"D")&gt;0,"D",IF(COUNTIF(F349:L349,"-III")&gt;0,"-III",IF(COUNTIF(F349:L349,"-II")&gt;0,"-II",IF(COUNTIF(F349:L349,"-I")&gt;0,"-I",IF(COUNTIF(F349:L349,"+0")&gt;0,"+0",IF(COUNTIF(F349:L349,"+I")&gt;0,"+I",IF(COUNTIF(F349:L349,"+II")&gt;0,"+II",IF(COUNTIF(F349:L349,"+III")&gt;0,"+III",IF(COUNTIF(F349:L349,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E349" s="23" t="str">
-        <f>IF(COUNTIF(F349:L349,"-III")&gt;0,"-III",IF(COUNTIF(F349:L349,"-II")&gt;0,"-II",IF(COUNTIF(F349:L349,"-I")&gt;0,"-I",IF(COUNTIF(F349:L349,"+0")&gt;0,"+0",IF(COUNTIF(F349:L349,"+I")&gt;0,"+I",IF(COUNTIF(F349:L349,"+II")&gt;0,"+II",IF(COUNTIF(F349:L349,"+III")&gt;0,"+III",IF(COUNTIF(F349:L349,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F349" s="9" t="str">
@@ -17596,11 +17596,11 @@
         <v>10.234</v>
       </c>
       <c r="D350" s="23" t="str">
-        <f>IF(COUNTIF(F350:L350,"D")&gt;0,"D",IF(COUNTIF(F350:L350,"-III")&gt;0,"-III",IF(COUNTIF(F350:L350,"-II")&gt;0,"-II",IF(COUNTIF(F350:L350,"-I")&gt;0,"-I",IF(COUNTIF(F350:L350,"+0")&gt;0,"+0",IF(COUNTIF(F350:L350,"+I")&gt;0,"+I",IF(COUNTIF(F350:L350,"+II")&gt;0,"+II",IF(COUNTIF(F350:L350,"+III")&gt;0,"+III",IF(COUNTIF(F350:L350,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E350" s="23" t="str">
-        <f>IF(COUNTIF(F350:L350,"-III")&gt;0,"-III",IF(COUNTIF(F350:L350,"-II")&gt;0,"-II",IF(COUNTIF(F350:L350,"-I")&gt;0,"-I",IF(COUNTIF(F350:L350,"+0")&gt;0,"+0",IF(COUNTIF(F350:L350,"+I")&gt;0,"+I",IF(COUNTIF(F350:L350,"+II")&gt;0,"+II",IF(COUNTIF(F350:L350,"+III")&gt;0,"+III",IF(COUNTIF(F350:L350,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F350" s="9" t="str">
@@ -17640,11 +17640,11 @@
         <v>10.242000000000001</v>
       </c>
       <c r="D351" s="23" t="str">
-        <f>IF(COUNTIF(F351:L351,"D")&gt;0,"D",IF(COUNTIF(F351:L351,"-III")&gt;0,"-III",IF(COUNTIF(F351:L351,"-II")&gt;0,"-II",IF(COUNTIF(F351:L351,"-I")&gt;0,"-I",IF(COUNTIF(F351:L351,"+0")&gt;0,"+0",IF(COUNTIF(F351:L351,"+I")&gt;0,"+I",IF(COUNTIF(F351:L351,"+II")&gt;0,"+II",IF(COUNTIF(F351:L351,"+III")&gt;0,"+III",IF(COUNTIF(F351:L351,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E351" s="23" t="str">
-        <f>IF(COUNTIF(F351:L351,"-III")&gt;0,"-III",IF(COUNTIF(F351:L351,"-II")&gt;0,"-II",IF(COUNTIF(F351:L351,"-I")&gt;0,"-I",IF(COUNTIF(F351:L351,"+0")&gt;0,"+0",IF(COUNTIF(F351:L351,"+I")&gt;0,"+I",IF(COUNTIF(F351:L351,"+II")&gt;0,"+II",IF(COUNTIF(F351:L351,"+III")&gt;0,"+III",IF(COUNTIF(F351:L351,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F351" s="9" t="str">
@@ -17684,11 +17684,11 @@
         <v>10.262</v>
       </c>
       <c r="D352" s="23" t="str">
-        <f>IF(COUNTIF(F352:L352,"D")&gt;0,"D",IF(COUNTIF(F352:L352,"-III")&gt;0,"-III",IF(COUNTIF(F352:L352,"-II")&gt;0,"-II",IF(COUNTIF(F352:L352,"-I")&gt;0,"-I",IF(COUNTIF(F352:L352,"+0")&gt;0,"+0",IF(COUNTIF(F352:L352,"+I")&gt;0,"+I",IF(COUNTIF(F352:L352,"+II")&gt;0,"+II",IF(COUNTIF(F352:L352,"+III")&gt;0,"+III",IF(COUNTIF(F352:L352,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E352" s="23" t="str">
-        <f>IF(COUNTIF(F352:L352,"-III")&gt;0,"-III",IF(COUNTIF(F352:L352,"-II")&gt;0,"-II",IF(COUNTIF(F352:L352,"-I")&gt;0,"-I",IF(COUNTIF(F352:L352,"+0")&gt;0,"+0",IF(COUNTIF(F352:L352,"+I")&gt;0,"+I",IF(COUNTIF(F352:L352,"+II")&gt;0,"+II",IF(COUNTIF(F352:L352,"+III")&gt;0,"+III",IF(COUNTIF(F352:L352,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F352" s="9" t="str">
@@ -17728,11 +17728,11 @@
         <v>10.2684</v>
       </c>
       <c r="D353" s="23" t="str">
-        <f>IF(COUNTIF(F353:L353,"D")&gt;0,"D",IF(COUNTIF(F353:L353,"-III")&gt;0,"-III",IF(COUNTIF(F353:L353,"-II")&gt;0,"-II",IF(COUNTIF(F353:L353,"-I")&gt;0,"-I",IF(COUNTIF(F353:L353,"+0")&gt;0,"+0",IF(COUNTIF(F353:L353,"+I")&gt;0,"+I",IF(COUNTIF(F353:L353,"+II")&gt;0,"+II",IF(COUNTIF(F353:L353,"+III")&gt;0,"+III",IF(COUNTIF(F353:L353,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E353" s="23" t="str">
-        <f>IF(COUNTIF(F353:L353,"-III")&gt;0,"-III",IF(COUNTIF(F353:L353,"-II")&gt;0,"-II",IF(COUNTIF(F353:L353,"-I")&gt;0,"-I",IF(COUNTIF(F353:L353,"+0")&gt;0,"+0",IF(COUNTIF(F353:L353,"+I")&gt;0,"+I",IF(COUNTIF(F353:L353,"+II")&gt;0,"+II",IF(COUNTIF(F353:L353,"+III")&gt;0,"+III",IF(COUNTIF(F353:L353,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F353" s="9" t="str">
@@ -17772,11 +17772,11 @@
         <v>10.29</v>
       </c>
       <c r="D354" s="23" t="str">
-        <f>IF(COUNTIF(F354:L354,"D")&gt;0,"D",IF(COUNTIF(F354:L354,"-III")&gt;0,"-III",IF(COUNTIF(F354:L354,"-II")&gt;0,"-II",IF(COUNTIF(F354:L354,"-I")&gt;0,"-I",IF(COUNTIF(F354:L354,"+0")&gt;0,"+0",IF(COUNTIF(F354:L354,"+I")&gt;0,"+I",IF(COUNTIF(F354:L354,"+II")&gt;0,"+II",IF(COUNTIF(F354:L354,"+III")&gt;0,"+III",IF(COUNTIF(F354:L354,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E354" s="23" t="str">
-        <f>IF(COUNTIF(F354:L354,"-III")&gt;0,"-III",IF(COUNTIF(F354:L354,"-II")&gt;0,"-II",IF(COUNTIF(F354:L354,"-I")&gt;0,"-I",IF(COUNTIF(F354:L354,"+0")&gt;0,"+0",IF(COUNTIF(F354:L354,"+I")&gt;0,"+I",IF(COUNTIF(F354:L354,"+II")&gt;0,"+II",IF(COUNTIF(F354:L354,"+III")&gt;0,"+III",IF(COUNTIF(F354:L354,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F354" s="9" t="str">
@@ -17816,11 +17816,11 @@
         <v>10.436</v>
       </c>
       <c r="D355" s="23" t="str">
-        <f>IF(COUNTIF(F355:L355,"D")&gt;0,"D",IF(COUNTIF(F355:L355,"-III")&gt;0,"-III",IF(COUNTIF(F355:L355,"-II")&gt;0,"-II",IF(COUNTIF(F355:L355,"-I")&gt;0,"-I",IF(COUNTIF(F355:L355,"+0")&gt;0,"+0",IF(COUNTIF(F355:L355,"+I")&gt;0,"+I",IF(COUNTIF(F355:L355,"+II")&gt;0,"+II",IF(COUNTIF(F355:L355,"+III")&gt;0,"+III",IF(COUNTIF(F355:L355,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E355" s="23" t="str">
-        <f>IF(COUNTIF(F355:L355,"-III")&gt;0,"-III",IF(COUNTIF(F355:L355,"-II")&gt;0,"-II",IF(COUNTIF(F355:L355,"-I")&gt;0,"-I",IF(COUNTIF(F355:L355,"+0")&gt;0,"+0",IF(COUNTIF(F355:L355,"+I")&gt;0,"+I",IF(COUNTIF(F355:L355,"+II")&gt;0,"+II",IF(COUNTIF(F355:L355,"+III")&gt;0,"+III",IF(COUNTIF(F355:L355,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F355" s="9" t="str">
@@ -17860,11 +17860,11 @@
         <v>10.502000000000001</v>
       </c>
       <c r="D356" s="23" t="str">
-        <f>IF(COUNTIF(F356:L356,"D")&gt;0,"D",IF(COUNTIF(F356:L356,"-III")&gt;0,"-III",IF(COUNTIF(F356:L356,"-II")&gt;0,"-II",IF(COUNTIF(F356:L356,"-I")&gt;0,"-I",IF(COUNTIF(F356:L356,"+0")&gt;0,"+0",IF(COUNTIF(F356:L356,"+I")&gt;0,"+I",IF(COUNTIF(F356:L356,"+II")&gt;0,"+II",IF(COUNTIF(F356:L356,"+III")&gt;0,"+III",IF(COUNTIF(F356:L356,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E356" s="23" t="str">
-        <f>IF(COUNTIF(F356:L356,"-III")&gt;0,"-III",IF(COUNTIF(F356:L356,"-II")&gt;0,"-II",IF(COUNTIF(F356:L356,"-I")&gt;0,"-I",IF(COUNTIF(F356:L356,"+0")&gt;0,"+0",IF(COUNTIF(F356:L356,"+I")&gt;0,"+I",IF(COUNTIF(F356:L356,"+II")&gt;0,"+II",IF(COUNTIF(F356:L356,"+III")&gt;0,"+III",IF(COUNTIF(F356:L356,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F356" s="9" t="str">
@@ -17904,11 +17904,11 @@
         <v>10.548999999999999</v>
       </c>
       <c r="D357" s="23" t="str">
-        <f>IF(COUNTIF(F357:L357,"D")&gt;0,"D",IF(COUNTIF(F357:L357,"-III")&gt;0,"-III",IF(COUNTIF(F357:L357,"-II")&gt;0,"-II",IF(COUNTIF(F357:L357,"-I")&gt;0,"-I",IF(COUNTIF(F357:L357,"+0")&gt;0,"+0",IF(COUNTIF(F357:L357,"+I")&gt;0,"+I",IF(COUNTIF(F357:L357,"+II")&gt;0,"+II",IF(COUNTIF(F357:L357,"+III")&gt;0,"+III",IF(COUNTIF(F357:L357,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E357" s="23" t="str">
-        <f>IF(COUNTIF(F357:L357,"-III")&gt;0,"-III",IF(COUNTIF(F357:L357,"-II")&gt;0,"-II",IF(COUNTIF(F357:L357,"-I")&gt;0,"-I",IF(COUNTIF(F357:L357,"+0")&gt;0,"+0",IF(COUNTIF(F357:L357,"+I")&gt;0,"+I",IF(COUNTIF(F357:L357,"+II")&gt;0,"+II",IF(COUNTIF(F357:L357,"+III")&gt;0,"+III",IF(COUNTIF(F357:L357,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F357" s="9" t="str">
@@ -17948,11 +17948,11 @@
         <v>10.569000000000001</v>
       </c>
       <c r="D358" s="23" t="str">
-        <f>IF(COUNTIF(F358:L358,"D")&gt;0,"D",IF(COUNTIF(F358:L358,"-III")&gt;0,"-III",IF(COUNTIF(F358:L358,"-II")&gt;0,"-II",IF(COUNTIF(F358:L358,"-I")&gt;0,"-I",IF(COUNTIF(F358:L358,"+0")&gt;0,"+0",IF(COUNTIF(F358:L358,"+I")&gt;0,"+I",IF(COUNTIF(F358:L358,"+II")&gt;0,"+II",IF(COUNTIF(F358:L358,"+III")&gt;0,"+III",IF(COUNTIF(F358:L358,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E358" s="23" t="str">
-        <f>IF(COUNTIF(F358:L358,"-III")&gt;0,"-III",IF(COUNTIF(F358:L358,"-II")&gt;0,"-II",IF(COUNTIF(F358:L358,"-I")&gt;0,"-I",IF(COUNTIF(F358:L358,"+0")&gt;0,"+0",IF(COUNTIF(F358:L358,"+I")&gt;0,"+I",IF(COUNTIF(F358:L358,"+II")&gt;0,"+II",IF(COUNTIF(F358:L358,"+III")&gt;0,"+III",IF(COUNTIF(F358:L358,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F358" s="9" t="str">
@@ -17992,11 +17992,11 @@
         <v>10.677</v>
       </c>
       <c r="D359" s="23" t="str">
-        <f>IF(COUNTIF(F359:L359,"D")&gt;0,"D",IF(COUNTIF(F359:L359,"-III")&gt;0,"-III",IF(COUNTIF(F359:L359,"-II")&gt;0,"-II",IF(COUNTIF(F359:L359,"-I")&gt;0,"-I",IF(COUNTIF(F359:L359,"+0")&gt;0,"+0",IF(COUNTIF(F359:L359,"+I")&gt;0,"+I",IF(COUNTIF(F359:L359,"+II")&gt;0,"+II",IF(COUNTIF(F359:L359,"+III")&gt;0,"+III",IF(COUNTIF(F359:L359,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E359" s="23" t="str">
-        <f>IF(COUNTIF(F359:L359,"-III")&gt;0,"-III",IF(COUNTIF(F359:L359,"-II")&gt;0,"-II",IF(COUNTIF(F359:L359,"-I")&gt;0,"-I",IF(COUNTIF(F359:L359,"+0")&gt;0,"+0",IF(COUNTIF(F359:L359,"+I")&gt;0,"+I",IF(COUNTIF(F359:L359,"+II")&gt;0,"+II",IF(COUNTIF(F359:L359,"+III")&gt;0,"+III",IF(COUNTIF(F359:L359,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F359" s="9" t="str">
@@ -18036,11 +18036,11 @@
         <v>10.683999999999999</v>
       </c>
       <c r="D360" s="23" t="str">
-        <f>IF(COUNTIF(F360:L360,"D")&gt;0,"D",IF(COUNTIF(F360:L360,"-III")&gt;0,"-III",IF(COUNTIF(F360:L360,"-II")&gt;0,"-II",IF(COUNTIF(F360:L360,"-I")&gt;0,"-I",IF(COUNTIF(F360:L360,"+0")&gt;0,"+0",IF(COUNTIF(F360:L360,"+I")&gt;0,"+I",IF(COUNTIF(F360:L360,"+II")&gt;0,"+II",IF(COUNTIF(F360:L360,"+III")&gt;0,"+III",IF(COUNTIF(F360:L360,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E360" s="23" t="str">
-        <f>IF(COUNTIF(F360:L360,"-III")&gt;0,"-III",IF(COUNTIF(F360:L360,"-II")&gt;0,"-II",IF(COUNTIF(F360:L360,"-I")&gt;0,"-I",IF(COUNTIF(F360:L360,"+0")&gt;0,"+0",IF(COUNTIF(F360:L360,"+I")&gt;0,"+I",IF(COUNTIF(F360:L360,"+II")&gt;0,"+II",IF(COUNTIF(F360:L360,"+III")&gt;0,"+III",IF(COUNTIF(F360:L360,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F360" s="9" t="str">
@@ -18080,11 +18080,11 @@
         <v>10.696999999999999</v>
       </c>
       <c r="D361" s="23" t="str">
-        <f>IF(COUNTIF(F361:L361,"D")&gt;0,"D",IF(COUNTIF(F361:L361,"-III")&gt;0,"-III",IF(COUNTIF(F361:L361,"-II")&gt;0,"-II",IF(COUNTIF(F361:L361,"-I")&gt;0,"-I",IF(COUNTIF(F361:L361,"+0")&gt;0,"+0",IF(COUNTIF(F361:L361,"+I")&gt;0,"+I",IF(COUNTIF(F361:L361,"+II")&gt;0,"+II",IF(COUNTIF(F361:L361,"+III")&gt;0,"+III",IF(COUNTIF(F361:L361,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E361" s="23" t="str">
-        <f>IF(COUNTIF(F361:L361,"-III")&gt;0,"-III",IF(COUNTIF(F361:L361,"-II")&gt;0,"-II",IF(COUNTIF(F361:L361,"-I")&gt;0,"-I",IF(COUNTIF(F361:L361,"+0")&gt;0,"+0",IF(COUNTIF(F361:L361,"+I")&gt;0,"+I",IF(COUNTIF(F361:L361,"+II")&gt;0,"+II",IF(COUNTIF(F361:L361,"+III")&gt;0,"+III",IF(COUNTIF(F361:L361,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+III</v>
       </c>
       <c r="F361" s="9" t="str">
@@ -18124,11 +18124,11 @@
         <v>10.699</v>
       </c>
       <c r="D362" s="23" t="str">
-        <f>IF(COUNTIF(F362:L362,"D")&gt;0,"D",IF(COUNTIF(F362:L362,"-III")&gt;0,"-III",IF(COUNTIF(F362:L362,"-II")&gt;0,"-II",IF(COUNTIF(F362:L362,"-I")&gt;0,"-I",IF(COUNTIF(F362:L362,"+0")&gt;0,"+0",IF(COUNTIF(F362:L362,"+I")&gt;0,"+I",IF(COUNTIF(F362:L362,"+II")&gt;0,"+II",IF(COUNTIF(F362:L362,"+III")&gt;0,"+III",IF(COUNTIF(F362:L362,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E362" s="23" t="str">
-        <f>IF(COUNTIF(F362:L362,"-III")&gt;0,"-III",IF(COUNTIF(F362:L362,"-II")&gt;0,"-II",IF(COUNTIF(F362:L362,"-I")&gt;0,"-I",IF(COUNTIF(F362:L362,"+0")&gt;0,"+0",IF(COUNTIF(F362:L362,"+I")&gt;0,"+I",IF(COUNTIF(F362:L362,"+II")&gt;0,"+II",IF(COUNTIF(F362:L362,"+III")&gt;0,"+III",IF(COUNTIF(F362:L362,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F362" s="9" t="str">
@@ -18168,11 +18168,11 @@
         <v>10.747999999999999</v>
       </c>
       <c r="D363" s="23" t="str">
-        <f>IF(COUNTIF(F363:L363,"D")&gt;0,"D",IF(COUNTIF(F363:L363,"-III")&gt;0,"-III",IF(COUNTIF(F363:L363,"-II")&gt;0,"-II",IF(COUNTIF(F363:L363,"-I")&gt;0,"-I",IF(COUNTIF(F363:L363,"+0")&gt;0,"+0",IF(COUNTIF(F363:L363,"+I")&gt;0,"+I",IF(COUNTIF(F363:L363,"+II")&gt;0,"+II",IF(COUNTIF(F363:L363,"+III")&gt;0,"+III",IF(COUNTIF(F363:L363,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E363" s="23" t="str">
-        <f>IF(COUNTIF(F363:L363,"-III")&gt;0,"-III",IF(COUNTIF(F363:L363,"-II")&gt;0,"-II",IF(COUNTIF(F363:L363,"-I")&gt;0,"-I",IF(COUNTIF(F363:L363,"+0")&gt;0,"+0",IF(COUNTIF(F363:L363,"+I")&gt;0,"+I",IF(COUNTIF(F363:L363,"+II")&gt;0,"+II",IF(COUNTIF(F363:L363,"+III")&gt;0,"+III",IF(COUNTIF(F363:L363,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F363" s="9" t="str">
@@ -18212,11 +18212,11 @@
         <v>10.801</v>
       </c>
       <c r="D364" s="23" t="str">
-        <f>IF(COUNTIF(F364:L364,"D")&gt;0,"D",IF(COUNTIF(F364:L364,"-III")&gt;0,"-III",IF(COUNTIF(F364:L364,"-II")&gt;0,"-II",IF(COUNTIF(F364:L364,"-I")&gt;0,"-I",IF(COUNTIF(F364:L364,"+0")&gt;0,"+0",IF(COUNTIF(F364:L364,"+I")&gt;0,"+I",IF(COUNTIF(F364:L364,"+II")&gt;0,"+II",IF(COUNTIF(F364:L364,"+III")&gt;0,"+III",IF(COUNTIF(F364:L364,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E364" s="23" t="str">
-        <f>IF(COUNTIF(F364:L364,"-III")&gt;0,"-III",IF(COUNTIF(F364:L364,"-II")&gt;0,"-II",IF(COUNTIF(F364:L364,"-I")&gt;0,"-I",IF(COUNTIF(F364:L364,"+0")&gt;0,"+0",IF(COUNTIF(F364:L364,"+I")&gt;0,"+I",IF(COUNTIF(F364:L364,"+II")&gt;0,"+II",IF(COUNTIF(F364:L364,"+III")&gt;0,"+III",IF(COUNTIF(F364:L364,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F364" s="9" t="str">
@@ -18256,11 +18256,11 @@
         <v>10.81</v>
       </c>
       <c r="D365" s="23" t="str">
-        <f>IF(COUNTIF(F365:L365,"D")&gt;0,"D",IF(COUNTIF(F365:L365,"-III")&gt;0,"-III",IF(COUNTIF(F365:L365,"-II")&gt;0,"-II",IF(COUNTIF(F365:L365,"-I")&gt;0,"-I",IF(COUNTIF(F365:L365,"+0")&gt;0,"+0",IF(COUNTIF(F365:L365,"+I")&gt;0,"+I",IF(COUNTIF(F365:L365,"+II")&gt;0,"+II",IF(COUNTIF(F365:L365,"+III")&gt;0,"+III",IF(COUNTIF(F365:L365,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E365" s="23" t="str">
-        <f>IF(COUNTIF(F365:L365,"-III")&gt;0,"-III",IF(COUNTIF(F365:L365,"-II")&gt;0,"-II",IF(COUNTIF(F365:L365,"-I")&gt;0,"-I",IF(COUNTIF(F365:L365,"+0")&gt;0,"+0",IF(COUNTIF(F365:L365,"+I")&gt;0,"+I",IF(COUNTIF(F365:L365,"+II")&gt;0,"+II",IF(COUNTIF(F365:L365,"+III")&gt;0,"+III",IF(COUNTIF(F365:L365,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F365" s="9" t="str">
@@ -18300,11 +18300,11 @@
         <v>10.83</v>
       </c>
       <c r="D366" s="23" t="str">
-        <f>IF(COUNTIF(F366:L366,"D")&gt;0,"D",IF(COUNTIF(F366:L366,"-III")&gt;0,"-III",IF(COUNTIF(F366:L366,"-II")&gt;0,"-II",IF(COUNTIF(F366:L366,"-I")&gt;0,"-I",IF(COUNTIF(F366:L366,"+0")&gt;0,"+0",IF(COUNTIF(F366:L366,"+I")&gt;0,"+I",IF(COUNTIF(F366:L366,"+II")&gt;0,"+II",IF(COUNTIF(F366:L366,"+III")&gt;0,"+III",IF(COUNTIF(F366:L366,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E366" s="23" t="str">
-        <f>IF(COUNTIF(F366:L366,"-III")&gt;0,"-III",IF(COUNTIF(F366:L366,"-II")&gt;0,"-II",IF(COUNTIF(F366:L366,"-I")&gt;0,"-I",IF(COUNTIF(F366:L366,"+0")&gt;0,"+0",IF(COUNTIF(F366:L366,"+I")&gt;0,"+I",IF(COUNTIF(F366:L366,"+II")&gt;0,"+II",IF(COUNTIF(F366:L366,"+III")&gt;0,"+III",IF(COUNTIF(F366:L366,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F366" s="9" t="str">
@@ -18344,11 +18344,11 @@
         <v>10.88</v>
       </c>
       <c r="D367" s="23" t="str">
-        <f>IF(COUNTIF(F367:L367,"D")&gt;0,"D",IF(COUNTIF(F367:L367,"-III")&gt;0,"-III",IF(COUNTIF(F367:L367,"-II")&gt;0,"-II",IF(COUNTIF(F367:L367,"-I")&gt;0,"-I",IF(COUNTIF(F367:L367,"+0")&gt;0,"+0",IF(COUNTIF(F367:L367,"+I")&gt;0,"+I",IF(COUNTIF(F367:L367,"+II")&gt;0,"+II",IF(COUNTIF(F367:L367,"+III")&gt;0,"+III",IF(COUNTIF(F367:L367,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E367" s="23" t="str">
-        <f>IF(COUNTIF(F367:L367,"-III")&gt;0,"-III",IF(COUNTIF(F367:L367,"-II")&gt;0,"-II",IF(COUNTIF(F367:L367,"-I")&gt;0,"-I",IF(COUNTIF(F367:L367,"+0")&gt;0,"+0",IF(COUNTIF(F367:L367,"+I")&gt;0,"+I",IF(COUNTIF(F367:L367,"+II")&gt;0,"+II",IF(COUNTIF(F367:L367,"+III")&gt;0,"+III",IF(COUNTIF(F367:L367,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F367" s="9" t="str">
@@ -18388,11 +18388,11 @@
         <v>10.885999999999999</v>
       </c>
       <c r="D368" s="23" t="str">
-        <f>IF(COUNTIF(F368:L368,"D")&gt;0,"D",IF(COUNTIF(F368:L368,"-III")&gt;0,"-III",IF(COUNTIF(F368:L368,"-II")&gt;0,"-II",IF(COUNTIF(F368:L368,"-I")&gt;0,"-I",IF(COUNTIF(F368:L368,"+0")&gt;0,"+0",IF(COUNTIF(F368:L368,"+I")&gt;0,"+I",IF(COUNTIF(F368:L368,"+II")&gt;0,"+II",IF(COUNTIF(F368:L368,"+III")&gt;0,"+III",IF(COUNTIF(F368:L368,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E368" s="23" t="str">
-        <f>IF(COUNTIF(F368:L368,"-III")&gt;0,"-III",IF(COUNTIF(F368:L368,"-II")&gt;0,"-II",IF(COUNTIF(F368:L368,"-I")&gt;0,"-I",IF(COUNTIF(F368:L368,"+0")&gt;0,"+0",IF(COUNTIF(F368:L368,"+I")&gt;0,"+I",IF(COUNTIF(F368:L368,"+II")&gt;0,"+II",IF(COUNTIF(F368:L368,"+III")&gt;0,"+III",IF(COUNTIF(F368:L368,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F368" s="9" t="str">
@@ -18432,11 +18432,11 @@
         <v>10.888</v>
       </c>
       <c r="D369" s="23" t="str">
-        <f>IF(COUNTIF(F369:L369,"D")&gt;0,"D",IF(COUNTIF(F369:L369,"-III")&gt;0,"-III",IF(COUNTIF(F369:L369,"-II")&gt;0,"-II",IF(COUNTIF(F369:L369,"-I")&gt;0,"-I",IF(COUNTIF(F369:L369,"+0")&gt;0,"+0",IF(COUNTIF(F369:L369,"+I")&gt;0,"+I",IF(COUNTIF(F369:L369,"+II")&gt;0,"+II",IF(COUNTIF(F369:L369,"+III")&gt;0,"+III",IF(COUNTIF(F369:L369,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E369" s="23" t="str">
-        <f>IF(COUNTIF(F369:L369,"-III")&gt;0,"-III",IF(COUNTIF(F369:L369,"-II")&gt;0,"-II",IF(COUNTIF(F369:L369,"-I")&gt;0,"-I",IF(COUNTIF(F369:L369,"+0")&gt;0,"+0",IF(COUNTIF(F369:L369,"+I")&gt;0,"+I",IF(COUNTIF(F369:L369,"+II")&gt;0,"+II",IF(COUNTIF(F369:L369,"+III")&gt;0,"+III",IF(COUNTIF(F369:L369,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F369" s="9" t="str">
@@ -18476,11 +18476,11 @@
         <v>10.891999999999999</v>
       </c>
       <c r="D370" s="23" t="str">
-        <f>IF(COUNTIF(F370:L370,"D")&gt;0,"D",IF(COUNTIF(F370:L370,"-III")&gt;0,"-III",IF(COUNTIF(F370:L370,"-II")&gt;0,"-II",IF(COUNTIF(F370:L370,"-I")&gt;0,"-I",IF(COUNTIF(F370:L370,"+0")&gt;0,"+0",IF(COUNTIF(F370:L370,"+I")&gt;0,"+I",IF(COUNTIF(F370:L370,"+II")&gt;0,"+II",IF(COUNTIF(F370:L370,"+III")&gt;0,"+III",IF(COUNTIF(F370:L370,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E370" s="23" t="str">
-        <f>IF(COUNTIF(F370:L370,"-III")&gt;0,"-III",IF(COUNTIF(F370:L370,"-II")&gt;0,"-II",IF(COUNTIF(F370:L370,"-I")&gt;0,"-I",IF(COUNTIF(F370:L370,"+0")&gt;0,"+0",IF(COUNTIF(F370:L370,"+I")&gt;0,"+I",IF(COUNTIF(F370:L370,"+II")&gt;0,"+II",IF(COUNTIF(F370:L370,"+III")&gt;0,"+III",IF(COUNTIF(F370:L370,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F370" s="9" t="str">
@@ -18520,11 +18520,11 @@
         <v>10.901</v>
       </c>
       <c r="D371" s="23" t="str">
-        <f>IF(COUNTIF(F371:L371,"D")&gt;0,"D",IF(COUNTIF(F371:L371,"-III")&gt;0,"-III",IF(COUNTIF(F371:L371,"-II")&gt;0,"-II",IF(COUNTIF(F371:L371,"-I")&gt;0,"-I",IF(COUNTIF(F371:L371,"+0")&gt;0,"+0",IF(COUNTIF(F371:L371,"+I")&gt;0,"+I",IF(COUNTIF(F371:L371,"+II")&gt;0,"+II",IF(COUNTIF(F371:L371,"+III")&gt;0,"+III",IF(COUNTIF(F371:L371,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E371" s="23" t="str">
-        <f>IF(COUNTIF(F371:L371,"-III")&gt;0,"-III",IF(COUNTIF(F371:L371,"-II")&gt;0,"-II",IF(COUNTIF(F371:L371,"-I")&gt;0,"-I",IF(COUNTIF(F371:L371,"+0")&gt;0,"+0",IF(COUNTIF(F371:L371,"+I")&gt;0,"+I",IF(COUNTIF(F371:L371,"+II")&gt;0,"+II",IF(COUNTIF(F371:L371,"+III")&gt;0,"+III",IF(COUNTIF(F371:L371,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F371" s="9" t="str">
@@ -18564,11 +18564,11 @@
         <v>10.907999999999999</v>
       </c>
       <c r="D372" s="23" t="str">
-        <f>IF(COUNTIF(F372:L372,"D")&gt;0,"D",IF(COUNTIF(F372:L372,"-III")&gt;0,"-III",IF(COUNTIF(F372:L372,"-II")&gt;0,"-II",IF(COUNTIF(F372:L372,"-I")&gt;0,"-I",IF(COUNTIF(F372:L372,"+0")&gt;0,"+0",IF(COUNTIF(F372:L372,"+I")&gt;0,"+I",IF(COUNTIF(F372:L372,"+II")&gt;0,"+II",IF(COUNTIF(F372:L372,"+III")&gt;0,"+III",IF(COUNTIF(F372:L372,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E372" s="23" t="str">
-        <f>IF(COUNTIF(F372:L372,"-III")&gt;0,"-III",IF(COUNTIF(F372:L372,"-II")&gt;0,"-II",IF(COUNTIF(F372:L372,"-I")&gt;0,"-I",IF(COUNTIF(F372:L372,"+0")&gt;0,"+0",IF(COUNTIF(F372:L372,"+I")&gt;0,"+I",IF(COUNTIF(F372:L372,"+II")&gt;0,"+II",IF(COUNTIF(F372:L372,"+III")&gt;0,"+III",IF(COUNTIF(F372:L372,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F372" s="9" t="str">
@@ -18608,11 +18608,11 @@
         <v>10.923</v>
       </c>
       <c r="D373" s="23" t="str">
-        <f>IF(COUNTIF(F373:L373,"D")&gt;0,"D",IF(COUNTIF(F373:L373,"-III")&gt;0,"-III",IF(COUNTIF(F373:L373,"-II")&gt;0,"-II",IF(COUNTIF(F373:L373,"-I")&gt;0,"-I",IF(COUNTIF(F373:L373,"+0")&gt;0,"+0",IF(COUNTIF(F373:L373,"+I")&gt;0,"+I",IF(COUNTIF(F373:L373,"+II")&gt;0,"+II",IF(COUNTIF(F373:L373,"+III")&gt;0,"+III",IF(COUNTIF(F373:L373,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E373" s="23" t="str">
-        <f>IF(COUNTIF(F373:L373,"-III")&gt;0,"-III",IF(COUNTIF(F373:L373,"-II")&gt;0,"-II",IF(COUNTIF(F373:L373,"-I")&gt;0,"-I",IF(COUNTIF(F373:L373,"+0")&gt;0,"+0",IF(COUNTIF(F373:L373,"+I")&gt;0,"+I",IF(COUNTIF(F373:L373,"+II")&gt;0,"+II",IF(COUNTIF(F373:L373,"+III")&gt;0,"+III",IF(COUNTIF(F373:L373,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F373" s="9" t="str">
@@ -18652,11 +18652,11 @@
         <v>11.047000000000001</v>
       </c>
       <c r="D374" s="23" t="str">
-        <f>IF(COUNTIF(F374:L374,"D")&gt;0,"D",IF(COUNTIF(F374:L374,"-III")&gt;0,"-III",IF(COUNTIF(F374:L374,"-II")&gt;0,"-II",IF(COUNTIF(F374:L374,"-I")&gt;0,"-I",IF(COUNTIF(F374:L374,"+0")&gt;0,"+0",IF(COUNTIF(F374:L374,"+I")&gt;0,"+I",IF(COUNTIF(F374:L374,"+II")&gt;0,"+II",IF(COUNTIF(F374:L374,"+III")&gt;0,"+III",IF(COUNTIF(F374:L374,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E374" s="23" t="str">
-        <f>IF(COUNTIF(F374:L374,"-III")&gt;0,"-III",IF(COUNTIF(F374:L374,"-II")&gt;0,"-II",IF(COUNTIF(F374:L374,"-I")&gt;0,"-I",IF(COUNTIF(F374:L374,"+0")&gt;0,"+0",IF(COUNTIF(F374:L374,"+I")&gt;0,"+I",IF(COUNTIF(F374:L374,"+II")&gt;0,"+II",IF(COUNTIF(F374:L374,"+III")&gt;0,"+III",IF(COUNTIF(F374:L374,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F374" s="9" t="str">
@@ -18696,11 +18696,11 @@
         <v>11.069000000000001</v>
       </c>
       <c r="D375" s="23" t="str">
-        <f>IF(COUNTIF(F375:L375,"D")&gt;0,"D",IF(COUNTIF(F375:L375,"-III")&gt;0,"-III",IF(COUNTIF(F375:L375,"-II")&gt;0,"-II",IF(COUNTIF(F375:L375,"-I")&gt;0,"-I",IF(COUNTIF(F375:L375,"+0")&gt;0,"+0",IF(COUNTIF(F375:L375,"+I")&gt;0,"+I",IF(COUNTIF(F375:L375,"+II")&gt;0,"+II",IF(COUNTIF(F375:L375,"+III")&gt;0,"+III",IF(COUNTIF(F375:L375,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E375" s="23" t="str">
-        <f>IF(COUNTIF(F375:L375,"-III")&gt;0,"-III",IF(COUNTIF(F375:L375,"-II")&gt;0,"-II",IF(COUNTIF(F375:L375,"-I")&gt;0,"-I",IF(COUNTIF(F375:L375,"+0")&gt;0,"+0",IF(COUNTIF(F375:L375,"+I")&gt;0,"+I",IF(COUNTIF(F375:L375,"+II")&gt;0,"+II",IF(COUNTIF(F375:L375,"+III")&gt;0,"+III",IF(COUNTIF(F375:L375,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F375" s="9" t="str">
@@ -18740,11 +18740,11 @@
         <v>11.089</v>
       </c>
       <c r="D376" s="23" t="str">
-        <f>IF(COUNTIF(F376:L376,"D")&gt;0,"D",IF(COUNTIF(F376:L376,"-III")&gt;0,"-III",IF(COUNTIF(F376:L376,"-II")&gt;0,"-II",IF(COUNTIF(F376:L376,"-I")&gt;0,"-I",IF(COUNTIF(F376:L376,"+0")&gt;0,"+0",IF(COUNTIF(F376:L376,"+I")&gt;0,"+I",IF(COUNTIF(F376:L376,"+II")&gt;0,"+II",IF(COUNTIF(F376:L376,"+III")&gt;0,"+III",IF(COUNTIF(F376:L376,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E376" s="23" t="str">
-        <f>IF(COUNTIF(F376:L376,"-III")&gt;0,"-III",IF(COUNTIF(F376:L376,"-II")&gt;0,"-II",IF(COUNTIF(F376:L376,"-I")&gt;0,"-I",IF(COUNTIF(F376:L376,"+0")&gt;0,"+0",IF(COUNTIF(F376:L376,"+I")&gt;0,"+I",IF(COUNTIF(F376:L376,"+II")&gt;0,"+II",IF(COUNTIF(F376:L376,"+III")&gt;0,"+III",IF(COUNTIF(F376:L376,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F376" s="9" t="str">
@@ -18784,11 +18784,11 @@
         <v>11.173999999999999</v>
       </c>
       <c r="D377" s="23" t="str">
-        <f>IF(COUNTIF(F377:L377,"D")&gt;0,"D",IF(COUNTIF(F377:L377,"-III")&gt;0,"-III",IF(COUNTIF(F377:L377,"-II")&gt;0,"-II",IF(COUNTIF(F377:L377,"-I")&gt;0,"-I",IF(COUNTIF(F377:L377,"+0")&gt;0,"+0",IF(COUNTIF(F377:L377,"+I")&gt;0,"+I",IF(COUNTIF(F377:L377,"+II")&gt;0,"+II",IF(COUNTIF(F377:L377,"+III")&gt;0,"+III",IF(COUNTIF(F377:L377,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E377" s="23" t="str">
-        <f>IF(COUNTIF(F377:L377,"-III")&gt;0,"-III",IF(COUNTIF(F377:L377,"-II")&gt;0,"-II",IF(COUNTIF(F377:L377,"-I")&gt;0,"-I",IF(COUNTIF(F377:L377,"+0")&gt;0,"+0",IF(COUNTIF(F377:L377,"+I")&gt;0,"+I",IF(COUNTIF(F377:L377,"+II")&gt;0,"+II",IF(COUNTIF(F377:L377,"+III")&gt;0,"+III",IF(COUNTIF(F377:L377,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F377" s="9" t="str">
@@ -18828,11 +18828,11 @@
         <v>11.19</v>
       </c>
       <c r="D378" s="23" t="str">
-        <f>IF(COUNTIF(F378:L378,"D")&gt;0,"D",IF(COUNTIF(F378:L378,"-III")&gt;0,"-III",IF(COUNTIF(F378:L378,"-II")&gt;0,"-II",IF(COUNTIF(F378:L378,"-I")&gt;0,"-I",IF(COUNTIF(F378:L378,"+0")&gt;0,"+0",IF(COUNTIF(F378:L378,"+I")&gt;0,"+I",IF(COUNTIF(F378:L378,"+II")&gt;0,"+II",IF(COUNTIF(F378:L378,"+III")&gt;0,"+III",IF(COUNTIF(F378:L378,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E378" s="23" t="str">
-        <f>IF(COUNTIF(F378:L378,"-III")&gt;0,"-III",IF(COUNTIF(F378:L378,"-II")&gt;0,"-II",IF(COUNTIF(F378:L378,"-I")&gt;0,"-I",IF(COUNTIF(F378:L378,"+0")&gt;0,"+0",IF(COUNTIF(F378:L378,"+I")&gt;0,"+I",IF(COUNTIF(F378:L378,"+II")&gt;0,"+II",IF(COUNTIF(F378:L378,"+III")&gt;0,"+III",IF(COUNTIF(F378:L378,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F378" s="9" t="str">
@@ -18872,11 +18872,11 @@
         <v>11.221</v>
       </c>
       <c r="D379" s="23" t="str">
-        <f>IF(COUNTIF(F379:L379,"D")&gt;0,"D",IF(COUNTIF(F379:L379,"-III")&gt;0,"-III",IF(COUNTIF(F379:L379,"-II")&gt;0,"-II",IF(COUNTIF(F379:L379,"-I")&gt;0,"-I",IF(COUNTIF(F379:L379,"+0")&gt;0,"+0",IF(COUNTIF(F379:L379,"+I")&gt;0,"+I",IF(COUNTIF(F379:L379,"+II")&gt;0,"+II",IF(COUNTIF(F379:L379,"+III")&gt;0,"+III",IF(COUNTIF(F379:L379,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E379" s="23" t="str">
-        <f>IF(COUNTIF(F379:L379,"-III")&gt;0,"-III",IF(COUNTIF(F379:L379,"-II")&gt;0,"-II",IF(COUNTIF(F379:L379,"-I")&gt;0,"-I",IF(COUNTIF(F379:L379,"+0")&gt;0,"+0",IF(COUNTIF(F379:L379,"+I")&gt;0,"+I",IF(COUNTIF(F379:L379,"+II")&gt;0,"+II",IF(COUNTIF(F379:L379,"+III")&gt;0,"+III",IF(COUNTIF(F379:L379,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F379" s="9" t="str">
@@ -18916,11 +18916,11 @@
         <v>11.24</v>
       </c>
       <c r="D380" s="23" t="str">
-        <f>IF(COUNTIF(F380:L380,"D")&gt;0,"D",IF(COUNTIF(F380:L380,"-III")&gt;0,"-III",IF(COUNTIF(F380:L380,"-II")&gt;0,"-II",IF(COUNTIF(F380:L380,"-I")&gt;0,"-I",IF(COUNTIF(F380:L380,"+0")&gt;0,"+0",IF(COUNTIF(F380:L380,"+I")&gt;0,"+I",IF(COUNTIF(F380:L380,"+II")&gt;0,"+II",IF(COUNTIF(F380:L380,"+III")&gt;0,"+III",IF(COUNTIF(F380:L380,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E380" s="23" t="str">
-        <f>IF(COUNTIF(F380:L380,"-III")&gt;0,"-III",IF(COUNTIF(F380:L380,"-II")&gt;0,"-II",IF(COUNTIF(F380:L380,"-I")&gt;0,"-I",IF(COUNTIF(F380:L380,"+0")&gt;0,"+0",IF(COUNTIF(F380:L380,"+I")&gt;0,"+I",IF(COUNTIF(F380:L380,"+II")&gt;0,"+II",IF(COUNTIF(F380:L380,"+III")&gt;0,"+III",IF(COUNTIF(F380:L380,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F380" s="9" t="str">
@@ -18960,11 +18960,11 @@
         <v>11.262</v>
       </c>
       <c r="D381" s="23" t="str">
-        <f>IF(COUNTIF(F381:L381,"D")&gt;0,"D",IF(COUNTIF(F381:L381,"-III")&gt;0,"-III",IF(COUNTIF(F381:L381,"-II")&gt;0,"-II",IF(COUNTIF(F381:L381,"-I")&gt;0,"-I",IF(COUNTIF(F381:L381,"+0")&gt;0,"+0",IF(COUNTIF(F381:L381,"+I")&gt;0,"+I",IF(COUNTIF(F381:L381,"+II")&gt;0,"+II",IF(COUNTIF(F381:L381,"+III")&gt;0,"+III",IF(COUNTIF(F381:L381,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E381" s="23" t="str">
-        <f>IF(COUNTIF(F381:L381,"-III")&gt;0,"-III",IF(COUNTIF(F381:L381,"-II")&gt;0,"-II",IF(COUNTIF(F381:L381,"-I")&gt;0,"-I",IF(COUNTIF(F381:L381,"+0")&gt;0,"+0",IF(COUNTIF(F381:L381,"+I")&gt;0,"+I",IF(COUNTIF(F381:L381,"+II")&gt;0,"+II",IF(COUNTIF(F381:L381,"+III")&gt;0,"+III",IF(COUNTIF(F381:L381,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F381" s="9" t="str">
@@ -19004,11 +19004,11 @@
         <v>11.368</v>
       </c>
       <c r="D382" s="23" t="str">
-        <f>IF(COUNTIF(F382:L382,"D")&gt;0,"D",IF(COUNTIF(F382:L382,"-III")&gt;0,"-III",IF(COUNTIF(F382:L382,"-II")&gt;0,"-II",IF(COUNTIF(F382:L382,"-I")&gt;0,"-I",IF(COUNTIF(F382:L382,"+0")&gt;0,"+0",IF(COUNTIF(F382:L382,"+I")&gt;0,"+I",IF(COUNTIF(F382:L382,"+II")&gt;0,"+II",IF(COUNTIF(F382:L382,"+III")&gt;0,"+III",IF(COUNTIF(F382:L382,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E382" s="23" t="str">
-        <f>IF(COUNTIF(F382:L382,"-III")&gt;0,"-III",IF(COUNTIF(F382:L382,"-II")&gt;0,"-II",IF(COUNTIF(F382:L382,"-I")&gt;0,"-I",IF(COUNTIF(F382:L382,"+0")&gt;0,"+0",IF(COUNTIF(F382:L382,"+I")&gt;0,"+I",IF(COUNTIF(F382:L382,"+II")&gt;0,"+II",IF(COUNTIF(F382:L382,"+III")&gt;0,"+III",IF(COUNTIF(F382:L382,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F382" s="9" t="str">
@@ -19048,11 +19048,11 @@
         <v>11.448</v>
       </c>
       <c r="D383" s="23" t="str">
-        <f>IF(COUNTIF(F383:L383,"D")&gt;0,"D",IF(COUNTIF(F383:L383,"-III")&gt;0,"-III",IF(COUNTIF(F383:L383,"-II")&gt;0,"-II",IF(COUNTIF(F383:L383,"-I")&gt;0,"-I",IF(COUNTIF(F383:L383,"+0")&gt;0,"+0",IF(COUNTIF(F383:L383,"+I")&gt;0,"+I",IF(COUNTIF(F383:L383,"+II")&gt;0,"+II",IF(COUNTIF(F383:L383,"+III")&gt;0,"+III",IF(COUNTIF(F383:L383,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>D</v>
       </c>
       <c r="E383" s="23" t="str">
-        <f>IF(COUNTIF(F383:L383,"-III")&gt;0,"-III",IF(COUNTIF(F383:L383,"-II")&gt;0,"-II",IF(COUNTIF(F383:L383,"-I")&gt;0,"-I",IF(COUNTIF(F383:L383,"+0")&gt;0,"+0",IF(COUNTIF(F383:L383,"+I")&gt;0,"+I",IF(COUNTIF(F383:L383,"+II")&gt;0,"+II",IF(COUNTIF(F383:L383,"+III")&gt;0,"+III",IF(COUNTIF(F383:L383,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F383" s="9" t="str">
@@ -19092,11 +19092,11 @@
         <v>11.455</v>
       </c>
       <c r="D384" s="23" t="str">
-        <f>IF(COUNTIF(F384:L384,"D")&gt;0,"D",IF(COUNTIF(F384:L384,"-III")&gt;0,"-III",IF(COUNTIF(F384:L384,"-II")&gt;0,"-II",IF(COUNTIF(F384:L384,"-I")&gt;0,"-I",IF(COUNTIF(F384:L384,"+0")&gt;0,"+0",IF(COUNTIF(F384:L384,"+I")&gt;0,"+I",IF(COUNTIF(F384:L384,"+II")&gt;0,"+II",IF(COUNTIF(F384:L384,"+III")&gt;0,"+III",IF(COUNTIF(F384:L384,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+I</v>
       </c>
       <c r="E384" s="23" t="str">
-        <f>IF(COUNTIF(F384:L384,"-III")&gt;0,"-III",IF(COUNTIF(F384:L384,"-II")&gt;0,"-II",IF(COUNTIF(F384:L384,"-I")&gt;0,"-I",IF(COUNTIF(F384:L384,"+0")&gt;0,"+0",IF(COUNTIF(F384:L384,"+I")&gt;0,"+I",IF(COUNTIF(F384:L384,"+II")&gt;0,"+II",IF(COUNTIF(F384:L384,"+III")&gt;0,"+III",IF(COUNTIF(F384:L384,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F384" s="9" t="str">
@@ -19136,11 +19136,11 @@
         <v>11.468999999999999</v>
       </c>
       <c r="D385" s="23" t="str">
-        <f>IF(COUNTIF(F385:L385,"D")&gt;0,"D",IF(COUNTIF(F385:L385,"-III")&gt;0,"-III",IF(COUNTIF(F385:L385,"-II")&gt;0,"-II",IF(COUNTIF(F385:L385,"-I")&gt;0,"-I",IF(COUNTIF(F385:L385,"+0")&gt;0,"+0",IF(COUNTIF(F385:L385,"+I")&gt;0,"+I",IF(COUNTIF(F385:L385,"+II")&gt;0,"+II",IF(COUNTIF(F385:L385,"+III")&gt;0,"+III",IF(COUNTIF(F385:L385,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+I</v>
       </c>
       <c r="E385" s="23" t="str">
-        <f>IF(COUNTIF(F385:L385,"-III")&gt;0,"-III",IF(COUNTIF(F385:L385,"-II")&gt;0,"-II",IF(COUNTIF(F385:L385,"-I")&gt;0,"-I",IF(COUNTIF(F385:L385,"+0")&gt;0,"+0",IF(COUNTIF(F385:L385,"+I")&gt;0,"+I",IF(COUNTIF(F385:L385,"+II")&gt;0,"+II",IF(COUNTIF(F385:L385,"+III")&gt;0,"+III",IF(COUNTIF(F385:L385,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F385" s="9" t="str">
@@ -19180,11 +19180,11 @@
         <v>11.478999999999999</v>
       </c>
       <c r="D386" s="23" t="str">
-        <f>IF(COUNTIF(F386:L386,"D")&gt;0,"D",IF(COUNTIF(F386:L386,"-III")&gt;0,"-III",IF(COUNTIF(F386:L386,"-II")&gt;0,"-II",IF(COUNTIF(F386:L386,"-I")&gt;0,"-I",IF(COUNTIF(F386:L386,"+0")&gt;0,"+0",IF(COUNTIF(F386:L386,"+I")&gt;0,"+I",IF(COUNTIF(F386:L386,"+II")&gt;0,"+II",IF(COUNTIF(F386:L386,"+III")&gt;0,"+III",IF(COUNTIF(F386:L386,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="10"/>
         <v>+I</v>
       </c>
       <c r="E386" s="23" t="str">
-        <f>IF(COUNTIF(F386:L386,"-III")&gt;0,"-III",IF(COUNTIF(F386:L386,"-II")&gt;0,"-II",IF(COUNTIF(F386:L386,"-I")&gt;0,"-I",IF(COUNTIF(F386:L386,"+0")&gt;0,"+0",IF(COUNTIF(F386:L386,"+I")&gt;0,"+I",IF(COUNTIF(F386:L386,"+II")&gt;0,"+II",IF(COUNTIF(F386:L386,"+III")&gt;0,"+III",IF(COUNTIF(F386:L386,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="11"/>
         <v>+I</v>
       </c>
       <c r="F386" s="9" t="str">
@@ -19224,11 +19224,11 @@
         <v>11.51</v>
       </c>
       <c r="D387" s="23" t="str">
-        <f>IF(COUNTIF(F387:L387,"D")&gt;0,"D",IF(COUNTIF(F387:L387,"-III")&gt;0,"-III",IF(COUNTIF(F387:L387,"-II")&gt;0,"-II",IF(COUNTIF(F387:L387,"-I")&gt;0,"-I",IF(COUNTIF(F387:L387,"+0")&gt;0,"+0",IF(COUNTIF(F387:L387,"+I")&gt;0,"+I",IF(COUNTIF(F387:L387,"+II")&gt;0,"+II",IF(COUNTIF(F387:L387,"+III")&gt;0,"+III",IF(COUNTIF(F387:L387,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D387:D450" si="12">IF(COUNTIF(F387:L387,"D")&gt;0,"D",IF(COUNTIF(F387:L387,"-III")&gt;0,"-III",IF(COUNTIF(F387:L387,"-II")&gt;0,"-II",IF(COUNTIF(F387:L387,"-I")&gt;0,"-I",IF(COUNTIF(F387:L387,"+0")&gt;0,"+0",IF(COUNTIF(F387:L387,"+I")&gt;0,"+I",IF(COUNTIF(F387:L387,"+II")&gt;0,"+II",IF(COUNTIF(F387:L387,"+III")&gt;0,"+III",IF(COUNTIF(F387:L387,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E387" s="23" t="str">
-        <f>IF(COUNTIF(F387:L387,"-III")&gt;0,"-III",IF(COUNTIF(F387:L387,"-II")&gt;0,"-II",IF(COUNTIF(F387:L387,"-I")&gt;0,"-I",IF(COUNTIF(F387:L387,"+0")&gt;0,"+0",IF(COUNTIF(F387:L387,"+I")&gt;0,"+I",IF(COUNTIF(F387:L387,"+II")&gt;0,"+II",IF(COUNTIF(F387:L387,"+III")&gt;0,"+III",IF(COUNTIF(F387:L387,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E387:E450" si="13">IF(COUNTIF(F387:L387,"-III")&gt;0,"-III",IF(COUNTIF(F387:L387,"-II")&gt;0,"-II",IF(COUNTIF(F387:L387,"-I")&gt;0,"-I",IF(COUNTIF(F387:L387,"+0")&gt;0,"+0",IF(COUNTIF(F387:L387,"+I")&gt;0,"+I",IF(COUNTIF(F387:L387,"+II")&gt;0,"+II",IF(COUNTIF(F387:L387,"+III")&gt;0,"+III",IF(COUNTIF(F387:L387,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F387" s="9" t="str">
@@ -19268,11 +19268,11 @@
         <v>11.523999999999999</v>
       </c>
       <c r="D388" s="23" t="str">
-        <f>IF(COUNTIF(F388:L388,"D")&gt;0,"D",IF(COUNTIF(F388:L388,"-III")&gt;0,"-III",IF(COUNTIF(F388:L388,"-II")&gt;0,"-II",IF(COUNTIF(F388:L388,"-I")&gt;0,"-I",IF(COUNTIF(F388:L388,"+0")&gt;0,"+0",IF(COUNTIF(F388:L388,"+I")&gt;0,"+I",IF(COUNTIF(F388:L388,"+II")&gt;0,"+II",IF(COUNTIF(F388:L388,"+III")&gt;0,"+III",IF(COUNTIF(F388:L388,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E388" s="23" t="str">
-        <f>IF(COUNTIF(F388:L388,"-III")&gt;0,"-III",IF(COUNTIF(F388:L388,"-II")&gt;0,"-II",IF(COUNTIF(F388:L388,"-I")&gt;0,"-I",IF(COUNTIF(F388:L388,"+0")&gt;0,"+0",IF(COUNTIF(F388:L388,"+I")&gt;0,"+I",IF(COUNTIF(F388:L388,"+II")&gt;0,"+II",IF(COUNTIF(F388:L388,"+III")&gt;0,"+III",IF(COUNTIF(F388:L388,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F388" s="9" t="str">
@@ -19312,11 +19312,11 @@
         <v>11.529</v>
       </c>
       <c r="D389" s="23" t="str">
-        <f>IF(COUNTIF(F389:L389,"D")&gt;0,"D",IF(COUNTIF(F389:L389,"-III")&gt;0,"-III",IF(COUNTIF(F389:L389,"-II")&gt;0,"-II",IF(COUNTIF(F389:L389,"-I")&gt;0,"-I",IF(COUNTIF(F389:L389,"+0")&gt;0,"+0",IF(COUNTIF(F389:L389,"+I")&gt;0,"+I",IF(COUNTIF(F389:L389,"+II")&gt;0,"+II",IF(COUNTIF(F389:L389,"+III")&gt;0,"+III",IF(COUNTIF(F389:L389,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E389" s="23" t="str">
-        <f>IF(COUNTIF(F389:L389,"-III")&gt;0,"-III",IF(COUNTIF(F389:L389,"-II")&gt;0,"-II",IF(COUNTIF(F389:L389,"-I")&gt;0,"-I",IF(COUNTIF(F389:L389,"+0")&gt;0,"+0",IF(COUNTIF(F389:L389,"+I")&gt;0,"+I",IF(COUNTIF(F389:L389,"+II")&gt;0,"+II",IF(COUNTIF(F389:L389,"+III")&gt;0,"+III",IF(COUNTIF(F389:L389,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F389" s="9" t="str">
@@ -19356,11 +19356,11 @@
         <v>11.545999999999999</v>
       </c>
       <c r="D390" s="23" t="str">
-        <f>IF(COUNTIF(F390:L390,"D")&gt;0,"D",IF(COUNTIF(F390:L390,"-III")&gt;0,"-III",IF(COUNTIF(F390:L390,"-II")&gt;0,"-II",IF(COUNTIF(F390:L390,"-I")&gt;0,"-I",IF(COUNTIF(F390:L390,"+0")&gt;0,"+0",IF(COUNTIF(F390:L390,"+I")&gt;0,"+I",IF(COUNTIF(F390:L390,"+II")&gt;0,"+II",IF(COUNTIF(F390:L390,"+III")&gt;0,"+III",IF(COUNTIF(F390:L390,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E390" s="23" t="str">
-        <f>IF(COUNTIF(F390:L390,"-III")&gt;0,"-III",IF(COUNTIF(F390:L390,"-II")&gt;0,"-II",IF(COUNTIF(F390:L390,"-I")&gt;0,"-I",IF(COUNTIF(F390:L390,"+0")&gt;0,"+0",IF(COUNTIF(F390:L390,"+I")&gt;0,"+I",IF(COUNTIF(F390:L390,"+II")&gt;0,"+II",IF(COUNTIF(F390:L390,"+III")&gt;0,"+III",IF(COUNTIF(F390:L390,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F390" s="9" t="str">
@@ -19400,11 +19400,11 @@
         <v>11.56</v>
       </c>
       <c r="D391" s="23" t="str">
-        <f>IF(COUNTIF(F391:L391,"D")&gt;0,"D",IF(COUNTIF(F391:L391,"-III")&gt;0,"-III",IF(COUNTIF(F391:L391,"-II")&gt;0,"-II",IF(COUNTIF(F391:L391,"-I")&gt;0,"-I",IF(COUNTIF(F391:L391,"+0")&gt;0,"+0",IF(COUNTIF(F391:L391,"+I")&gt;0,"+I",IF(COUNTIF(F391:L391,"+II")&gt;0,"+II",IF(COUNTIF(F391:L391,"+III")&gt;0,"+III",IF(COUNTIF(F391:L391,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E391" s="23" t="str">
-        <f>IF(COUNTIF(F391:L391,"-III")&gt;0,"-III",IF(COUNTIF(F391:L391,"-II")&gt;0,"-II",IF(COUNTIF(F391:L391,"-I")&gt;0,"-I",IF(COUNTIF(F391:L391,"+0")&gt;0,"+0",IF(COUNTIF(F391:L391,"+I")&gt;0,"+I",IF(COUNTIF(F391:L391,"+II")&gt;0,"+II",IF(COUNTIF(F391:L391,"+III")&gt;0,"+III",IF(COUNTIF(F391:L391,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F391" s="9" t="str">
@@ -19444,11 +19444,11 @@
         <v>11.608000000000001</v>
       </c>
       <c r="D392" s="23" t="str">
-        <f>IF(COUNTIF(F392:L392,"D")&gt;0,"D",IF(COUNTIF(F392:L392,"-III")&gt;0,"-III",IF(COUNTIF(F392:L392,"-II")&gt;0,"-II",IF(COUNTIF(F392:L392,"-I")&gt;0,"-I",IF(COUNTIF(F392:L392,"+0")&gt;0,"+0",IF(COUNTIF(F392:L392,"+I")&gt;0,"+I",IF(COUNTIF(F392:L392,"+II")&gt;0,"+II",IF(COUNTIF(F392:L392,"+III")&gt;0,"+III",IF(COUNTIF(F392:L392,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E392" s="23" t="str">
-        <f>IF(COUNTIF(F392:L392,"-III")&gt;0,"-III",IF(COUNTIF(F392:L392,"-II")&gt;0,"-II",IF(COUNTIF(F392:L392,"-I")&gt;0,"-I",IF(COUNTIF(F392:L392,"+0")&gt;0,"+0",IF(COUNTIF(F392:L392,"+I")&gt;0,"+I",IF(COUNTIF(F392:L392,"+II")&gt;0,"+II",IF(COUNTIF(F392:L392,"+III")&gt;0,"+III",IF(COUNTIF(F392:L392,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F392" s="9" t="str">
@@ -19488,11 +19488,11 @@
         <v>11.612</v>
       </c>
       <c r="D393" s="23" t="str">
-        <f>IF(COUNTIF(F393:L393,"D")&gt;0,"D",IF(COUNTIF(F393:L393,"-III")&gt;0,"-III",IF(COUNTIF(F393:L393,"-II")&gt;0,"-II",IF(COUNTIF(F393:L393,"-I")&gt;0,"-I",IF(COUNTIF(F393:L393,"+0")&gt;0,"+0",IF(COUNTIF(F393:L393,"+I")&gt;0,"+I",IF(COUNTIF(F393:L393,"+II")&gt;0,"+II",IF(COUNTIF(F393:L393,"+III")&gt;0,"+III",IF(COUNTIF(F393:L393,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E393" s="23" t="str">
-        <f>IF(COUNTIF(F393:L393,"-III")&gt;0,"-III",IF(COUNTIF(F393:L393,"-II")&gt;0,"-II",IF(COUNTIF(F393:L393,"-I")&gt;0,"-I",IF(COUNTIF(F393:L393,"+0")&gt;0,"+0",IF(COUNTIF(F393:L393,"+I")&gt;0,"+I",IF(COUNTIF(F393:L393,"+II")&gt;0,"+II",IF(COUNTIF(F393:L393,"+III")&gt;0,"+III",IF(COUNTIF(F393:L393,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F393" s="9" t="str">
@@ -19532,11 +19532,11 @@
         <v>11.666</v>
       </c>
       <c r="D394" s="23" t="str">
-        <f>IF(COUNTIF(F394:L394,"D")&gt;0,"D",IF(COUNTIF(F394:L394,"-III")&gt;0,"-III",IF(COUNTIF(F394:L394,"-II")&gt;0,"-II",IF(COUNTIF(F394:L394,"-I")&gt;0,"-I",IF(COUNTIF(F394:L394,"+0")&gt;0,"+0",IF(COUNTIF(F394:L394,"+I")&gt;0,"+I",IF(COUNTIF(F394:L394,"+II")&gt;0,"+II",IF(COUNTIF(F394:L394,"+III")&gt;0,"+III",IF(COUNTIF(F394:L394,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E394" s="23" t="str">
-        <f>IF(COUNTIF(F394:L394,"-III")&gt;0,"-III",IF(COUNTIF(F394:L394,"-II")&gt;0,"-II",IF(COUNTIF(F394:L394,"-I")&gt;0,"-I",IF(COUNTIF(F394:L394,"+0")&gt;0,"+0",IF(COUNTIF(F394:L394,"+I")&gt;0,"+I",IF(COUNTIF(F394:L394,"+II")&gt;0,"+II",IF(COUNTIF(F394:L394,"+III")&gt;0,"+III",IF(COUNTIF(F394:L394,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F394" s="9" t="str">
@@ -19576,11 +19576,11 @@
         <v>11.667</v>
       </c>
       <c r="D395" s="23" t="str">
-        <f>IF(COUNTIF(F395:L395,"D")&gt;0,"D",IF(COUNTIF(F395:L395,"-III")&gt;0,"-III",IF(COUNTIF(F395:L395,"-II")&gt;0,"-II",IF(COUNTIF(F395:L395,"-I")&gt;0,"-I",IF(COUNTIF(F395:L395,"+0")&gt;0,"+0",IF(COUNTIF(F395:L395,"+I")&gt;0,"+I",IF(COUNTIF(F395:L395,"+II")&gt;0,"+II",IF(COUNTIF(F395:L395,"+III")&gt;0,"+III",IF(COUNTIF(F395:L395,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E395" s="23" t="str">
-        <f>IF(COUNTIF(F395:L395,"-III")&gt;0,"-III",IF(COUNTIF(F395:L395,"-II")&gt;0,"-II",IF(COUNTIF(F395:L395,"-I")&gt;0,"-I",IF(COUNTIF(F395:L395,"+0")&gt;0,"+0",IF(COUNTIF(F395:L395,"+I")&gt;0,"+I",IF(COUNTIF(F395:L395,"+II")&gt;0,"+II",IF(COUNTIF(F395:L395,"+III")&gt;0,"+III",IF(COUNTIF(F395:L395,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F395" s="9" t="str">
@@ -19620,11 +19620,11 @@
         <v>11.705</v>
       </c>
       <c r="D396" s="23" t="str">
-        <f>IF(COUNTIF(F396:L396,"D")&gt;0,"D",IF(COUNTIF(F396:L396,"-III")&gt;0,"-III",IF(COUNTIF(F396:L396,"-II")&gt;0,"-II",IF(COUNTIF(F396:L396,"-I")&gt;0,"-I",IF(COUNTIF(F396:L396,"+0")&gt;0,"+0",IF(COUNTIF(F396:L396,"+I")&gt;0,"+I",IF(COUNTIF(F396:L396,"+II")&gt;0,"+II",IF(COUNTIF(F396:L396,"+III")&gt;0,"+III",IF(COUNTIF(F396:L396,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E396" s="23" t="str">
-        <f>IF(COUNTIF(F396:L396,"-III")&gt;0,"-III",IF(COUNTIF(F396:L396,"-II")&gt;0,"-II",IF(COUNTIF(F396:L396,"-I")&gt;0,"-I",IF(COUNTIF(F396:L396,"+0")&gt;0,"+0",IF(COUNTIF(F396:L396,"+I")&gt;0,"+I",IF(COUNTIF(F396:L396,"+II")&gt;0,"+II",IF(COUNTIF(F396:L396,"+III")&gt;0,"+III",IF(COUNTIF(F396:L396,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F396" s="9" t="str">
@@ -19664,11 +19664,11 @@
         <v>11.731999999999999</v>
       </c>
       <c r="D397" s="23" t="str">
-        <f>IF(COUNTIF(F397:L397,"D")&gt;0,"D",IF(COUNTIF(F397:L397,"-III")&gt;0,"-III",IF(COUNTIF(F397:L397,"-II")&gt;0,"-II",IF(COUNTIF(F397:L397,"-I")&gt;0,"-I",IF(COUNTIF(F397:L397,"+0")&gt;0,"+0",IF(COUNTIF(F397:L397,"+I")&gt;0,"+I",IF(COUNTIF(F397:L397,"+II")&gt;0,"+II",IF(COUNTIF(F397:L397,"+III")&gt;0,"+III",IF(COUNTIF(F397:L397,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E397" s="23" t="str">
-        <f>IF(COUNTIF(F397:L397,"-III")&gt;0,"-III",IF(COUNTIF(F397:L397,"-II")&gt;0,"-II",IF(COUNTIF(F397:L397,"-I")&gt;0,"-I",IF(COUNTIF(F397:L397,"+0")&gt;0,"+0",IF(COUNTIF(F397:L397,"+I")&gt;0,"+I",IF(COUNTIF(F397:L397,"+II")&gt;0,"+II",IF(COUNTIF(F397:L397,"+III")&gt;0,"+III",IF(COUNTIF(F397:L397,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F397" s="9" t="str">
@@ -19708,11 +19708,11 @@
         <v>11.786</v>
       </c>
       <c r="D398" s="23" t="str">
-        <f>IF(COUNTIF(F398:L398,"D")&gt;0,"D",IF(COUNTIF(F398:L398,"-III")&gt;0,"-III",IF(COUNTIF(F398:L398,"-II")&gt;0,"-II",IF(COUNTIF(F398:L398,"-I")&gt;0,"-I",IF(COUNTIF(F398:L398,"+0")&gt;0,"+0",IF(COUNTIF(F398:L398,"+I")&gt;0,"+I",IF(COUNTIF(F398:L398,"+II")&gt;0,"+II",IF(COUNTIF(F398:L398,"+III")&gt;0,"+III",IF(COUNTIF(F398:L398,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E398" s="23" t="str">
-        <f>IF(COUNTIF(F398:L398,"-III")&gt;0,"-III",IF(COUNTIF(F398:L398,"-II")&gt;0,"-II",IF(COUNTIF(F398:L398,"-I")&gt;0,"-I",IF(COUNTIF(F398:L398,"+0")&gt;0,"+0",IF(COUNTIF(F398:L398,"+I")&gt;0,"+I",IF(COUNTIF(F398:L398,"+II")&gt;0,"+II",IF(COUNTIF(F398:L398,"+III")&gt;0,"+III",IF(COUNTIF(F398:L398,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F398" s="9" t="str">
@@ -19752,11 +19752,11 @@
         <v>11.814</v>
       </c>
       <c r="D399" s="23" t="str">
-        <f>IF(COUNTIF(F399:L399,"D")&gt;0,"D",IF(COUNTIF(F399:L399,"-III")&gt;0,"-III",IF(COUNTIF(F399:L399,"-II")&gt;0,"-II",IF(COUNTIF(F399:L399,"-I")&gt;0,"-I",IF(COUNTIF(F399:L399,"+0")&gt;0,"+0",IF(COUNTIF(F399:L399,"+I")&gt;0,"+I",IF(COUNTIF(F399:L399,"+II")&gt;0,"+II",IF(COUNTIF(F399:L399,"+III")&gt;0,"+III",IF(COUNTIF(F399:L399,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E399" s="23" t="str">
-        <f>IF(COUNTIF(F399:L399,"-III")&gt;0,"-III",IF(COUNTIF(F399:L399,"-II")&gt;0,"-II",IF(COUNTIF(F399:L399,"-I")&gt;0,"-I",IF(COUNTIF(F399:L399,"+0")&gt;0,"+0",IF(COUNTIF(F399:L399,"+I")&gt;0,"+I",IF(COUNTIF(F399:L399,"+II")&gt;0,"+II",IF(COUNTIF(F399:L399,"+III")&gt;0,"+III",IF(COUNTIF(F399:L399,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F399" s="9" t="str">
@@ -19796,11 +19796,11 @@
         <v>11.815</v>
       </c>
       <c r="D400" s="23" t="str">
-        <f>IF(COUNTIF(F400:L400,"D")&gt;0,"D",IF(COUNTIF(F400:L400,"-III")&gt;0,"-III",IF(COUNTIF(F400:L400,"-II")&gt;0,"-II",IF(COUNTIF(F400:L400,"-I")&gt;0,"-I",IF(COUNTIF(F400:L400,"+0")&gt;0,"+0",IF(COUNTIF(F400:L400,"+I")&gt;0,"+I",IF(COUNTIF(F400:L400,"+II")&gt;0,"+II",IF(COUNTIF(F400:L400,"+III")&gt;0,"+III",IF(COUNTIF(F400:L400,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E400" s="23" t="str">
-        <f>IF(COUNTIF(F400:L400,"-III")&gt;0,"-III",IF(COUNTIF(F400:L400,"-II")&gt;0,"-II",IF(COUNTIF(F400:L400,"-I")&gt;0,"-I",IF(COUNTIF(F400:L400,"+0")&gt;0,"+0",IF(COUNTIF(F400:L400,"+I")&gt;0,"+I",IF(COUNTIF(F400:L400,"+II")&gt;0,"+II",IF(COUNTIF(F400:L400,"+III")&gt;0,"+III",IF(COUNTIF(F400:L400,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F400" s="9" t="str">
@@ -19840,11 +19840,11 @@
         <v>11.827</v>
       </c>
       <c r="D401" s="23" t="str">
-        <f>IF(COUNTIF(F401:L401,"D")&gt;0,"D",IF(COUNTIF(F401:L401,"-III")&gt;0,"-III",IF(COUNTIF(F401:L401,"-II")&gt;0,"-II",IF(COUNTIF(F401:L401,"-I")&gt;0,"-I",IF(COUNTIF(F401:L401,"+0")&gt;0,"+0",IF(COUNTIF(F401:L401,"+I")&gt;0,"+I",IF(COUNTIF(F401:L401,"+II")&gt;0,"+II",IF(COUNTIF(F401:L401,"+III")&gt;0,"+III",IF(COUNTIF(F401:L401,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E401" s="23" t="str">
-        <f>IF(COUNTIF(F401:L401,"-III")&gt;0,"-III",IF(COUNTIF(F401:L401,"-II")&gt;0,"-II",IF(COUNTIF(F401:L401,"-I")&gt;0,"-I",IF(COUNTIF(F401:L401,"+0")&gt;0,"+0",IF(COUNTIF(F401:L401,"+I")&gt;0,"+I",IF(COUNTIF(F401:L401,"+II")&gt;0,"+II",IF(COUNTIF(F401:L401,"+III")&gt;0,"+III",IF(COUNTIF(F401:L401,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F401" s="9" t="str">
@@ -19884,11 +19884,11 @@
         <v>11.872999999999999</v>
       </c>
       <c r="D402" s="23" t="str">
-        <f>IF(COUNTIF(F402:L402,"D")&gt;0,"D",IF(COUNTIF(F402:L402,"-III")&gt;0,"-III",IF(COUNTIF(F402:L402,"-II")&gt;0,"-II",IF(COUNTIF(F402:L402,"-I")&gt;0,"-I",IF(COUNTIF(F402:L402,"+0")&gt;0,"+0",IF(COUNTIF(F402:L402,"+I")&gt;0,"+I",IF(COUNTIF(F402:L402,"+II")&gt;0,"+II",IF(COUNTIF(F402:L402,"+III")&gt;0,"+III",IF(COUNTIF(F402:L402,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E402" s="23" t="str">
-        <f>IF(COUNTIF(F402:L402,"-III")&gt;0,"-III",IF(COUNTIF(F402:L402,"-II")&gt;0,"-II",IF(COUNTIF(F402:L402,"-I")&gt;0,"-I",IF(COUNTIF(F402:L402,"+0")&gt;0,"+0",IF(COUNTIF(F402:L402,"+I")&gt;0,"+I",IF(COUNTIF(F402:L402,"+II")&gt;0,"+II",IF(COUNTIF(F402:L402,"+III")&gt;0,"+III",IF(COUNTIF(F402:L402,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F402" s="9" t="str">
@@ -19928,11 +19928,11 @@
         <v>11.964</v>
       </c>
       <c r="D403" s="23" t="str">
-        <f>IF(COUNTIF(F403:L403,"D")&gt;0,"D",IF(COUNTIF(F403:L403,"-III")&gt;0,"-III",IF(COUNTIF(F403:L403,"-II")&gt;0,"-II",IF(COUNTIF(F403:L403,"-I")&gt;0,"-I",IF(COUNTIF(F403:L403,"+0")&gt;0,"+0",IF(COUNTIF(F403:L403,"+I")&gt;0,"+I",IF(COUNTIF(F403:L403,"+II")&gt;0,"+II",IF(COUNTIF(F403:L403,"+III")&gt;0,"+III",IF(COUNTIF(F403:L403,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E403" s="23" t="str">
-        <f>IF(COUNTIF(F403:L403,"-III")&gt;0,"-III",IF(COUNTIF(F403:L403,"-II")&gt;0,"-II",IF(COUNTIF(F403:L403,"-I")&gt;0,"-I",IF(COUNTIF(F403:L403,"+0")&gt;0,"+0",IF(COUNTIF(F403:L403,"+I")&gt;0,"+I",IF(COUNTIF(F403:L403,"+II")&gt;0,"+II",IF(COUNTIF(F403:L403,"+III")&gt;0,"+III",IF(COUNTIF(F403:L403,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F403" s="9" t="str">
@@ -19972,11 +19972,11 @@
         <v>11.971</v>
       </c>
       <c r="D404" s="23" t="str">
-        <f>IF(COUNTIF(F404:L404,"D")&gt;0,"D",IF(COUNTIF(F404:L404,"-III")&gt;0,"-III",IF(COUNTIF(F404:L404,"-II")&gt;0,"-II",IF(COUNTIF(F404:L404,"-I")&gt;0,"-I",IF(COUNTIF(F404:L404,"+0")&gt;0,"+0",IF(COUNTIF(F404:L404,"+I")&gt;0,"+I",IF(COUNTIF(F404:L404,"+II")&gt;0,"+II",IF(COUNTIF(F404:L404,"+III")&gt;0,"+III",IF(COUNTIF(F404:L404,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E404" s="23" t="str">
-        <f>IF(COUNTIF(F404:L404,"-III")&gt;0,"-III",IF(COUNTIF(F404:L404,"-II")&gt;0,"-II",IF(COUNTIF(F404:L404,"-I")&gt;0,"-I",IF(COUNTIF(F404:L404,"+0")&gt;0,"+0",IF(COUNTIF(F404:L404,"+I")&gt;0,"+I",IF(COUNTIF(F404:L404,"+II")&gt;0,"+II",IF(COUNTIF(F404:L404,"+III")&gt;0,"+III",IF(COUNTIF(F404:L404,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F404" s="9" t="str">
@@ -20016,11 +20016,11 @@
         <v>11.987</v>
       </c>
       <c r="D405" s="23" t="str">
-        <f>IF(COUNTIF(F405:L405,"D")&gt;0,"D",IF(COUNTIF(F405:L405,"-III")&gt;0,"-III",IF(COUNTIF(F405:L405,"-II")&gt;0,"-II",IF(COUNTIF(F405:L405,"-I")&gt;0,"-I",IF(COUNTIF(F405:L405,"+0")&gt;0,"+0",IF(COUNTIF(F405:L405,"+I")&gt;0,"+I",IF(COUNTIF(F405:L405,"+II")&gt;0,"+II",IF(COUNTIF(F405:L405,"+III")&gt;0,"+III",IF(COUNTIF(F405:L405,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E405" s="23" t="str">
-        <f>IF(COUNTIF(F405:L405,"-III")&gt;0,"-III",IF(COUNTIF(F405:L405,"-II")&gt;0,"-II",IF(COUNTIF(F405:L405,"-I")&gt;0,"-I",IF(COUNTIF(F405:L405,"+0")&gt;0,"+0",IF(COUNTIF(F405:L405,"+I")&gt;0,"+I",IF(COUNTIF(F405:L405,"+II")&gt;0,"+II",IF(COUNTIF(F405:L405,"+III")&gt;0,"+III",IF(COUNTIF(F405:L405,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F405" s="9" t="str">
@@ -20060,11 +20060,11 @@
         <v>11.99</v>
       </c>
       <c r="D406" s="23" t="str">
-        <f>IF(COUNTIF(F406:L406,"D")&gt;0,"D",IF(COUNTIF(F406:L406,"-III")&gt;0,"-III",IF(COUNTIF(F406:L406,"-II")&gt;0,"-II",IF(COUNTIF(F406:L406,"-I")&gt;0,"-I",IF(COUNTIF(F406:L406,"+0")&gt;0,"+0",IF(COUNTIF(F406:L406,"+I")&gt;0,"+I",IF(COUNTIF(F406:L406,"+II")&gt;0,"+II",IF(COUNTIF(F406:L406,"+III")&gt;0,"+III",IF(COUNTIF(F406:L406,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E406" s="23" t="str">
-        <f>IF(COUNTIF(F406:L406,"-III")&gt;0,"-III",IF(COUNTIF(F406:L406,"-II")&gt;0,"-II",IF(COUNTIF(F406:L406,"-I")&gt;0,"-I",IF(COUNTIF(F406:L406,"+0")&gt;0,"+0",IF(COUNTIF(F406:L406,"+I")&gt;0,"+I",IF(COUNTIF(F406:L406,"+II")&gt;0,"+II",IF(COUNTIF(F406:L406,"+III")&gt;0,"+III",IF(COUNTIF(F406:L406,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F406" s="9" t="str">
@@ -20104,11 +20104,11 @@
         <v>12.003</v>
       </c>
       <c r="D407" s="23" t="str">
-        <f>IF(COUNTIF(F407:L407,"D")&gt;0,"D",IF(COUNTIF(F407:L407,"-III")&gt;0,"-III",IF(COUNTIF(F407:L407,"-II")&gt;0,"-II",IF(COUNTIF(F407:L407,"-I")&gt;0,"-I",IF(COUNTIF(F407:L407,"+0")&gt;0,"+0",IF(COUNTIF(F407:L407,"+I")&gt;0,"+I",IF(COUNTIF(F407:L407,"+II")&gt;0,"+II",IF(COUNTIF(F407:L407,"+III")&gt;0,"+III",IF(COUNTIF(F407:L407,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E407" s="23" t="str">
-        <f>IF(COUNTIF(F407:L407,"-III")&gt;0,"-III",IF(COUNTIF(F407:L407,"-II")&gt;0,"-II",IF(COUNTIF(F407:L407,"-I")&gt;0,"-I",IF(COUNTIF(F407:L407,"+0")&gt;0,"+0",IF(COUNTIF(F407:L407,"+I")&gt;0,"+I",IF(COUNTIF(F407:L407,"+II")&gt;0,"+II",IF(COUNTIF(F407:L407,"+III")&gt;0,"+III",IF(COUNTIF(F407:L407,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F407" s="9" t="str">
@@ -20148,11 +20148,11 @@
         <v>12.009</v>
       </c>
       <c r="D408" s="23" t="str">
-        <f>IF(COUNTIF(F408:L408,"D")&gt;0,"D",IF(COUNTIF(F408:L408,"-III")&gt;0,"-III",IF(COUNTIF(F408:L408,"-II")&gt;0,"-II",IF(COUNTIF(F408:L408,"-I")&gt;0,"-I",IF(COUNTIF(F408:L408,"+0")&gt;0,"+0",IF(COUNTIF(F408:L408,"+I")&gt;0,"+I",IF(COUNTIF(F408:L408,"+II")&gt;0,"+II",IF(COUNTIF(F408:L408,"+III")&gt;0,"+III",IF(COUNTIF(F408:L408,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E408" s="23" t="str">
-        <f>IF(COUNTIF(F408:L408,"-III")&gt;0,"-III",IF(COUNTIF(F408:L408,"-II")&gt;0,"-II",IF(COUNTIF(F408:L408,"-I")&gt;0,"-I",IF(COUNTIF(F408:L408,"+0")&gt;0,"+0",IF(COUNTIF(F408:L408,"+I")&gt;0,"+I",IF(COUNTIF(F408:L408,"+II")&gt;0,"+II",IF(COUNTIF(F408:L408,"+III")&gt;0,"+III",IF(COUNTIF(F408:L408,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F408" s="9" t="str">
@@ -20192,11 +20192,11 @@
         <v>12.04</v>
       </c>
       <c r="D409" s="23" t="str">
-        <f>IF(COUNTIF(F409:L409,"D")&gt;0,"D",IF(COUNTIF(F409:L409,"-III")&gt;0,"-III",IF(COUNTIF(F409:L409,"-II")&gt;0,"-II",IF(COUNTIF(F409:L409,"-I")&gt;0,"-I",IF(COUNTIF(F409:L409,"+0")&gt;0,"+0",IF(COUNTIF(F409:L409,"+I")&gt;0,"+I",IF(COUNTIF(F409:L409,"+II")&gt;0,"+II",IF(COUNTIF(F409:L409,"+III")&gt;0,"+III",IF(COUNTIF(F409:L409,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E409" s="23" t="str">
-        <f>IF(COUNTIF(F409:L409,"-III")&gt;0,"-III",IF(COUNTIF(F409:L409,"-II")&gt;0,"-II",IF(COUNTIF(F409:L409,"-I")&gt;0,"-I",IF(COUNTIF(F409:L409,"+0")&gt;0,"+0",IF(COUNTIF(F409:L409,"+I")&gt;0,"+I",IF(COUNTIF(F409:L409,"+II")&gt;0,"+II",IF(COUNTIF(F409:L409,"+III")&gt;0,"+III",IF(COUNTIF(F409:L409,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F409" s="9" t="str">
@@ -20236,11 +20236,11 @@
         <v>12.054</v>
       </c>
       <c r="D410" s="23" t="str">
-        <f>IF(COUNTIF(F410:L410,"D")&gt;0,"D",IF(COUNTIF(F410:L410,"-III")&gt;0,"-III",IF(COUNTIF(F410:L410,"-II")&gt;0,"-II",IF(COUNTIF(F410:L410,"-I")&gt;0,"-I",IF(COUNTIF(F410:L410,"+0")&gt;0,"+0",IF(COUNTIF(F410:L410,"+I")&gt;0,"+I",IF(COUNTIF(F410:L410,"+II")&gt;0,"+II",IF(COUNTIF(F410:L410,"+III")&gt;0,"+III",IF(COUNTIF(F410:L410,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E410" s="23" t="str">
-        <f>IF(COUNTIF(F410:L410,"-III")&gt;0,"-III",IF(COUNTIF(F410:L410,"-II")&gt;0,"-II",IF(COUNTIF(F410:L410,"-I")&gt;0,"-I",IF(COUNTIF(F410:L410,"+0")&gt;0,"+0",IF(COUNTIF(F410:L410,"+I")&gt;0,"+I",IF(COUNTIF(F410:L410,"+II")&gt;0,"+II",IF(COUNTIF(F410:L410,"+III")&gt;0,"+III",IF(COUNTIF(F410:L410,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F410" s="9" t="str">
@@ -20280,11 +20280,11 @@
         <v>12.095000000000001</v>
       </c>
       <c r="D411" s="23" t="str">
-        <f>IF(COUNTIF(F411:L411,"D")&gt;0,"D",IF(COUNTIF(F411:L411,"-III")&gt;0,"-III",IF(COUNTIF(F411:L411,"-II")&gt;0,"-II",IF(COUNTIF(F411:L411,"-I")&gt;0,"-I",IF(COUNTIF(F411:L411,"+0")&gt;0,"+0",IF(COUNTIF(F411:L411,"+I")&gt;0,"+I",IF(COUNTIF(F411:L411,"+II")&gt;0,"+II",IF(COUNTIF(F411:L411,"+III")&gt;0,"+III",IF(COUNTIF(F411:L411,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E411" s="23" t="str">
-        <f>IF(COUNTIF(F411:L411,"-III")&gt;0,"-III",IF(COUNTIF(F411:L411,"-II")&gt;0,"-II",IF(COUNTIF(F411:L411,"-I")&gt;0,"-I",IF(COUNTIF(F411:L411,"+0")&gt;0,"+0",IF(COUNTIF(F411:L411,"+I")&gt;0,"+I",IF(COUNTIF(F411:L411,"+II")&gt;0,"+II",IF(COUNTIF(F411:L411,"+III")&gt;0,"+III",IF(COUNTIF(F411:L411,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F411" s="9" t="str">
@@ -20324,11 +20324,11 @@
         <v>12.135999999999999</v>
       </c>
       <c r="D412" s="23" t="str">
-        <f>IF(COUNTIF(F412:L412,"D")&gt;0,"D",IF(COUNTIF(F412:L412,"-III")&gt;0,"-III",IF(COUNTIF(F412:L412,"-II")&gt;0,"-II",IF(COUNTIF(F412:L412,"-I")&gt;0,"-I",IF(COUNTIF(F412:L412,"+0")&gt;0,"+0",IF(COUNTIF(F412:L412,"+I")&gt;0,"+I",IF(COUNTIF(F412:L412,"+II")&gt;0,"+II",IF(COUNTIF(F412:L412,"+III")&gt;0,"+III",IF(COUNTIF(F412:L412,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E412" s="23" t="str">
-        <f>IF(COUNTIF(F412:L412,"-III")&gt;0,"-III",IF(COUNTIF(F412:L412,"-II")&gt;0,"-II",IF(COUNTIF(F412:L412,"-I")&gt;0,"-I",IF(COUNTIF(F412:L412,"+0")&gt;0,"+0",IF(COUNTIF(F412:L412,"+I")&gt;0,"+I",IF(COUNTIF(F412:L412,"+II")&gt;0,"+II",IF(COUNTIF(F412:L412,"+III")&gt;0,"+III",IF(COUNTIF(F412:L412,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F412" s="9" t="str">
@@ -20368,11 +20368,11 @@
         <v>12.212999999999999</v>
       </c>
       <c r="D413" s="23" t="str">
-        <f>IF(COUNTIF(F413:L413,"D")&gt;0,"D",IF(COUNTIF(F413:L413,"-III")&gt;0,"-III",IF(COUNTIF(F413:L413,"-II")&gt;0,"-II",IF(COUNTIF(F413:L413,"-I")&gt;0,"-I",IF(COUNTIF(F413:L413,"+0")&gt;0,"+0",IF(COUNTIF(F413:L413,"+I")&gt;0,"+I",IF(COUNTIF(F413:L413,"+II")&gt;0,"+II",IF(COUNTIF(F413:L413,"+III")&gt;0,"+III",IF(COUNTIF(F413:L413,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E413" s="23" t="str">
-        <f>IF(COUNTIF(F413:L413,"-III")&gt;0,"-III",IF(COUNTIF(F413:L413,"-II")&gt;0,"-II",IF(COUNTIF(F413:L413,"-I")&gt;0,"-I",IF(COUNTIF(F413:L413,"+0")&gt;0,"+0",IF(COUNTIF(F413:L413,"+I")&gt;0,"+I",IF(COUNTIF(F413:L413,"+II")&gt;0,"+II",IF(COUNTIF(F413:L413,"+III")&gt;0,"+III",IF(COUNTIF(F413:L413,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F413" s="9" t="str">
@@ -20412,11 +20412,11 @@
         <v>12.222</v>
       </c>
       <c r="D414" s="23" t="str">
-        <f>IF(COUNTIF(F414:L414,"D")&gt;0,"D",IF(COUNTIF(F414:L414,"-III")&gt;0,"-III",IF(COUNTIF(F414:L414,"-II")&gt;0,"-II",IF(COUNTIF(F414:L414,"-I")&gt;0,"-I",IF(COUNTIF(F414:L414,"+0")&gt;0,"+0",IF(COUNTIF(F414:L414,"+I")&gt;0,"+I",IF(COUNTIF(F414:L414,"+II")&gt;0,"+II",IF(COUNTIF(F414:L414,"+III")&gt;0,"+III",IF(COUNTIF(F414:L414,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E414" s="23" t="str">
-        <f>IF(COUNTIF(F414:L414,"-III")&gt;0,"-III",IF(COUNTIF(F414:L414,"-II")&gt;0,"-II",IF(COUNTIF(F414:L414,"-I")&gt;0,"-I",IF(COUNTIF(F414:L414,"+0")&gt;0,"+0",IF(COUNTIF(F414:L414,"+I")&gt;0,"+I",IF(COUNTIF(F414:L414,"+II")&gt;0,"+II",IF(COUNTIF(F414:L414,"+III")&gt;0,"+III",IF(COUNTIF(F414:L414,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F414" s="9" t="str">
@@ -20456,11 +20456,11 @@
         <v>12.314</v>
       </c>
       <c r="D415" s="23" t="str">
-        <f>IF(COUNTIF(F415:L415,"D")&gt;0,"D",IF(COUNTIF(F415:L415,"-III")&gt;0,"-III",IF(COUNTIF(F415:L415,"-II")&gt;0,"-II",IF(COUNTIF(F415:L415,"-I")&gt;0,"-I",IF(COUNTIF(F415:L415,"+0")&gt;0,"+0",IF(COUNTIF(F415:L415,"+I")&gt;0,"+I",IF(COUNTIF(F415:L415,"+II")&gt;0,"+II",IF(COUNTIF(F415:L415,"+III")&gt;0,"+III",IF(COUNTIF(F415:L415,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E415" s="23" t="str">
-        <f>IF(COUNTIF(F415:L415,"-III")&gt;0,"-III",IF(COUNTIF(F415:L415,"-II")&gt;0,"-II",IF(COUNTIF(F415:L415,"-I")&gt;0,"-I",IF(COUNTIF(F415:L415,"+0")&gt;0,"+0",IF(COUNTIF(F415:L415,"+I")&gt;0,"+I",IF(COUNTIF(F415:L415,"+II")&gt;0,"+II",IF(COUNTIF(F415:L415,"+III")&gt;0,"+III",IF(COUNTIF(F415:L415,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F415" s="9" t="str">
@@ -20500,11 +20500,11 @@
         <v>12.347</v>
       </c>
       <c r="D416" s="23" t="str">
-        <f>IF(COUNTIF(F416:L416,"D")&gt;0,"D",IF(COUNTIF(F416:L416,"-III")&gt;0,"-III",IF(COUNTIF(F416:L416,"-II")&gt;0,"-II",IF(COUNTIF(F416:L416,"-I")&gt;0,"-I",IF(COUNTIF(F416:L416,"+0")&gt;0,"+0",IF(COUNTIF(F416:L416,"+I")&gt;0,"+I",IF(COUNTIF(F416:L416,"+II")&gt;0,"+II",IF(COUNTIF(F416:L416,"+III")&gt;0,"+III",IF(COUNTIF(F416:L416,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E416" s="23" t="str">
-        <f>IF(COUNTIF(F416:L416,"-III")&gt;0,"-III",IF(COUNTIF(F416:L416,"-II")&gt;0,"-II",IF(COUNTIF(F416:L416,"-I")&gt;0,"-I",IF(COUNTIF(F416:L416,"+0")&gt;0,"+0",IF(COUNTIF(F416:L416,"+I")&gt;0,"+I",IF(COUNTIF(F416:L416,"+II")&gt;0,"+II",IF(COUNTIF(F416:L416,"+III")&gt;0,"+III",IF(COUNTIF(F416:L416,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F416" s="9" t="str">
@@ -20544,11 +20544,11 @@
         <v>12.356999999999999</v>
       </c>
       <c r="D417" s="23" t="str">
-        <f>IF(COUNTIF(F417:L417,"D")&gt;0,"D",IF(COUNTIF(F417:L417,"-III")&gt;0,"-III",IF(COUNTIF(F417:L417,"-II")&gt;0,"-II",IF(COUNTIF(F417:L417,"-I")&gt;0,"-I",IF(COUNTIF(F417:L417,"+0")&gt;0,"+0",IF(COUNTIF(F417:L417,"+I")&gt;0,"+I",IF(COUNTIF(F417:L417,"+II")&gt;0,"+II",IF(COUNTIF(F417:L417,"+III")&gt;0,"+III",IF(COUNTIF(F417:L417,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E417" s="23" t="str">
-        <f>IF(COUNTIF(F417:L417,"-III")&gt;0,"-III",IF(COUNTIF(F417:L417,"-II")&gt;0,"-II",IF(COUNTIF(F417:L417,"-I")&gt;0,"-I",IF(COUNTIF(F417:L417,"+0")&gt;0,"+0",IF(COUNTIF(F417:L417,"+I")&gt;0,"+I",IF(COUNTIF(F417:L417,"+II")&gt;0,"+II",IF(COUNTIF(F417:L417,"+III")&gt;0,"+III",IF(COUNTIF(F417:L417,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F417" s="9" t="str">
@@ -20588,11 +20588,11 @@
         <v>12.363</v>
       </c>
       <c r="D418" s="23" t="str">
-        <f>IF(COUNTIF(F418:L418,"D")&gt;0,"D",IF(COUNTIF(F418:L418,"-III")&gt;0,"-III",IF(COUNTIF(F418:L418,"-II")&gt;0,"-II",IF(COUNTIF(F418:L418,"-I")&gt;0,"-I",IF(COUNTIF(F418:L418,"+0")&gt;0,"+0",IF(COUNTIF(F418:L418,"+I")&gt;0,"+I",IF(COUNTIF(F418:L418,"+II")&gt;0,"+II",IF(COUNTIF(F418:L418,"+III")&gt;0,"+III",IF(COUNTIF(F418:L418,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E418" s="23" t="str">
-        <f>IF(COUNTIF(F418:L418,"-III")&gt;0,"-III",IF(COUNTIF(F418:L418,"-II")&gt;0,"-II",IF(COUNTIF(F418:L418,"-I")&gt;0,"-I",IF(COUNTIF(F418:L418,"+0")&gt;0,"+0",IF(COUNTIF(F418:L418,"+I")&gt;0,"+I",IF(COUNTIF(F418:L418,"+II")&gt;0,"+II",IF(COUNTIF(F418:L418,"+III")&gt;0,"+III",IF(COUNTIF(F418:L418,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F418" s="9" t="str">
@@ -20632,11 +20632,11 @@
         <v>12.43</v>
       </c>
       <c r="D419" s="23" t="str">
-        <f>IF(COUNTIF(F419:L419,"D")&gt;0,"D",IF(COUNTIF(F419:L419,"-III")&gt;0,"-III",IF(COUNTIF(F419:L419,"-II")&gt;0,"-II",IF(COUNTIF(F419:L419,"-I")&gt;0,"-I",IF(COUNTIF(F419:L419,"+0")&gt;0,"+0",IF(COUNTIF(F419:L419,"+I")&gt;0,"+I",IF(COUNTIF(F419:L419,"+II")&gt;0,"+II",IF(COUNTIF(F419:L419,"+III")&gt;0,"+III",IF(COUNTIF(F419:L419,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E419" s="23" t="str">
-        <f>IF(COUNTIF(F419:L419,"-III")&gt;0,"-III",IF(COUNTIF(F419:L419,"-II")&gt;0,"-II",IF(COUNTIF(F419:L419,"-I")&gt;0,"-I",IF(COUNTIF(F419:L419,"+0")&gt;0,"+0",IF(COUNTIF(F419:L419,"+I")&gt;0,"+I",IF(COUNTIF(F419:L419,"+II")&gt;0,"+II",IF(COUNTIF(F419:L419,"+III")&gt;0,"+III",IF(COUNTIF(F419:L419,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F419" s="9" t="str">
@@ -20676,11 +20676,11 @@
         <v>12.452999999999999</v>
       </c>
       <c r="D420" s="23" t="str">
-        <f>IF(COUNTIF(F420:L420,"D")&gt;0,"D",IF(COUNTIF(F420:L420,"-III")&gt;0,"-III",IF(COUNTIF(F420:L420,"-II")&gt;0,"-II",IF(COUNTIF(F420:L420,"-I")&gt;0,"-I",IF(COUNTIF(F420:L420,"+0")&gt;0,"+0",IF(COUNTIF(F420:L420,"+I")&gt;0,"+I",IF(COUNTIF(F420:L420,"+II")&gt;0,"+II",IF(COUNTIF(F420:L420,"+III")&gt;0,"+III",IF(COUNTIF(F420:L420,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E420" s="23" t="str">
-        <f>IF(COUNTIF(F420:L420,"-III")&gt;0,"-III",IF(COUNTIF(F420:L420,"-II")&gt;0,"-II",IF(COUNTIF(F420:L420,"-I")&gt;0,"-I",IF(COUNTIF(F420:L420,"+0")&gt;0,"+0",IF(COUNTIF(F420:L420,"+I")&gt;0,"+I",IF(COUNTIF(F420:L420,"+II")&gt;0,"+II",IF(COUNTIF(F420:L420,"+III")&gt;0,"+III",IF(COUNTIF(F420:L420,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F420" s="9" t="str">
@@ -20720,11 +20720,11 @@
         <v>12.476000000000001</v>
       </c>
       <c r="D421" s="23" t="str">
-        <f>IF(COUNTIF(F421:L421,"D")&gt;0,"D",IF(COUNTIF(F421:L421,"-III")&gt;0,"-III",IF(COUNTIF(F421:L421,"-II")&gt;0,"-II",IF(COUNTIF(F421:L421,"-I")&gt;0,"-I",IF(COUNTIF(F421:L421,"+0")&gt;0,"+0",IF(COUNTIF(F421:L421,"+I")&gt;0,"+I",IF(COUNTIF(F421:L421,"+II")&gt;0,"+II",IF(COUNTIF(F421:L421,"+III")&gt;0,"+III",IF(COUNTIF(F421:L421,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E421" s="23" t="str">
-        <f>IF(COUNTIF(F421:L421,"-III")&gt;0,"-III",IF(COUNTIF(F421:L421,"-II")&gt;0,"-II",IF(COUNTIF(F421:L421,"-I")&gt;0,"-I",IF(COUNTIF(F421:L421,"+0")&gt;0,"+0",IF(COUNTIF(F421:L421,"+I")&gt;0,"+I",IF(COUNTIF(F421:L421,"+II")&gt;0,"+II",IF(COUNTIF(F421:L421,"+III")&gt;0,"+III",IF(COUNTIF(F421:L421,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F421" s="9" t="str">
@@ -20764,11 +20764,11 @@
         <v>12.510999999999999</v>
       </c>
       <c r="D422" s="23" t="str">
-        <f>IF(COUNTIF(F422:L422,"D")&gt;0,"D",IF(COUNTIF(F422:L422,"-III")&gt;0,"-III",IF(COUNTIF(F422:L422,"-II")&gt;0,"-II",IF(COUNTIF(F422:L422,"-I")&gt;0,"-I",IF(COUNTIF(F422:L422,"+0")&gt;0,"+0",IF(COUNTIF(F422:L422,"+I")&gt;0,"+I",IF(COUNTIF(F422:L422,"+II")&gt;0,"+II",IF(COUNTIF(F422:L422,"+III")&gt;0,"+III",IF(COUNTIF(F422:L422,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E422" s="23" t="str">
-        <f>IF(COUNTIF(F422:L422,"-III")&gt;0,"-III",IF(COUNTIF(F422:L422,"-II")&gt;0,"-II",IF(COUNTIF(F422:L422,"-I")&gt;0,"-I",IF(COUNTIF(F422:L422,"+0")&gt;0,"+0",IF(COUNTIF(F422:L422,"+I")&gt;0,"+I",IF(COUNTIF(F422:L422,"+II")&gt;0,"+II",IF(COUNTIF(F422:L422,"+III")&gt;0,"+III",IF(COUNTIF(F422:L422,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F422" s="9" t="str">
@@ -20808,11 +20808,11 @@
         <v>12.528</v>
       </c>
       <c r="D423" s="23" t="str">
-        <f>IF(COUNTIF(F423:L423,"D")&gt;0,"D",IF(COUNTIF(F423:L423,"-III")&gt;0,"-III",IF(COUNTIF(F423:L423,"-II")&gt;0,"-II",IF(COUNTIF(F423:L423,"-I")&gt;0,"-I",IF(COUNTIF(F423:L423,"+0")&gt;0,"+0",IF(COUNTIF(F423:L423,"+I")&gt;0,"+I",IF(COUNTIF(F423:L423,"+II")&gt;0,"+II",IF(COUNTIF(F423:L423,"+III")&gt;0,"+III",IF(COUNTIF(F423:L423,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E423" s="23" t="str">
-        <f>IF(COUNTIF(F423:L423,"-III")&gt;0,"-III",IF(COUNTIF(F423:L423,"-II")&gt;0,"-II",IF(COUNTIF(F423:L423,"-I")&gt;0,"-I",IF(COUNTIF(F423:L423,"+0")&gt;0,"+0",IF(COUNTIF(F423:L423,"+I")&gt;0,"+I",IF(COUNTIF(F423:L423,"+II")&gt;0,"+II",IF(COUNTIF(F423:L423,"+III")&gt;0,"+III",IF(COUNTIF(F423:L423,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F423" s="9" t="str">
@@ -20852,11 +20852,11 @@
         <v>12.625999999999999</v>
       </c>
       <c r="D424" s="23" t="str">
-        <f>IF(COUNTIF(F424:L424,"D")&gt;0,"D",IF(COUNTIF(F424:L424,"-III")&gt;0,"-III",IF(COUNTIF(F424:L424,"-II")&gt;0,"-II",IF(COUNTIF(F424:L424,"-I")&gt;0,"-I",IF(COUNTIF(F424:L424,"+0")&gt;0,"+0",IF(COUNTIF(F424:L424,"+I")&gt;0,"+I",IF(COUNTIF(F424:L424,"+II")&gt;0,"+II",IF(COUNTIF(F424:L424,"+III")&gt;0,"+III",IF(COUNTIF(F424:L424,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E424" s="23" t="str">
-        <f>IF(COUNTIF(F424:L424,"-III")&gt;0,"-III",IF(COUNTIF(F424:L424,"-II")&gt;0,"-II",IF(COUNTIF(F424:L424,"-I")&gt;0,"-I",IF(COUNTIF(F424:L424,"+0")&gt;0,"+0",IF(COUNTIF(F424:L424,"+I")&gt;0,"+I",IF(COUNTIF(F424:L424,"+II")&gt;0,"+II",IF(COUNTIF(F424:L424,"+III")&gt;0,"+III",IF(COUNTIF(F424:L424,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F424" s="9" t="str">
@@ -20896,11 +20896,11 @@
         <v>12.717000000000001</v>
       </c>
       <c r="D425" s="23" t="str">
-        <f>IF(COUNTIF(F425:L425,"D")&gt;0,"D",IF(COUNTIF(F425:L425,"-III")&gt;0,"-III",IF(COUNTIF(F425:L425,"-II")&gt;0,"-II",IF(COUNTIF(F425:L425,"-I")&gt;0,"-I",IF(COUNTIF(F425:L425,"+0")&gt;0,"+0",IF(COUNTIF(F425:L425,"+I")&gt;0,"+I",IF(COUNTIF(F425:L425,"+II")&gt;0,"+II",IF(COUNTIF(F425:L425,"+III")&gt;0,"+III",IF(COUNTIF(F425:L425,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E425" s="23" t="str">
-        <f>IF(COUNTIF(F425:L425,"-III")&gt;0,"-III",IF(COUNTIF(F425:L425,"-II")&gt;0,"-II",IF(COUNTIF(F425:L425,"-I")&gt;0,"-I",IF(COUNTIF(F425:L425,"+0")&gt;0,"+0",IF(COUNTIF(F425:L425,"+I")&gt;0,"+I",IF(COUNTIF(F425:L425,"+II")&gt;0,"+II",IF(COUNTIF(F425:L425,"+III")&gt;0,"+III",IF(COUNTIF(F425:L425,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F425" s="9" t="str">
@@ -20940,11 +20940,11 @@
         <v>12.738</v>
       </c>
       <c r="D426" s="23" t="str">
-        <f>IF(COUNTIF(F426:L426,"D")&gt;0,"D",IF(COUNTIF(F426:L426,"-III")&gt;0,"-III",IF(COUNTIF(F426:L426,"-II")&gt;0,"-II",IF(COUNTIF(F426:L426,"-I")&gt;0,"-I",IF(COUNTIF(F426:L426,"+0")&gt;0,"+0",IF(COUNTIF(F426:L426,"+I")&gt;0,"+I",IF(COUNTIF(F426:L426,"+II")&gt;0,"+II",IF(COUNTIF(F426:L426,"+III")&gt;0,"+III",IF(COUNTIF(F426:L426,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E426" s="23" t="str">
-        <f>IF(COUNTIF(F426:L426,"-III")&gt;0,"-III",IF(COUNTIF(F426:L426,"-II")&gt;0,"-II",IF(COUNTIF(F426:L426,"-I")&gt;0,"-I",IF(COUNTIF(F426:L426,"+0")&gt;0,"+0",IF(COUNTIF(F426:L426,"+I")&gt;0,"+I",IF(COUNTIF(F426:L426,"+II")&gt;0,"+II",IF(COUNTIF(F426:L426,"+III")&gt;0,"+III",IF(COUNTIF(F426:L426,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F426" s="9" t="str">
@@ -20984,11 +20984,11 @@
         <v>12.768000000000001</v>
       </c>
       <c r="D427" s="23" t="str">
-        <f>IF(COUNTIF(F427:L427,"D")&gt;0,"D",IF(COUNTIF(F427:L427,"-III")&gt;0,"-III",IF(COUNTIF(F427:L427,"-II")&gt;0,"-II",IF(COUNTIF(F427:L427,"-I")&gt;0,"-I",IF(COUNTIF(F427:L427,"+0")&gt;0,"+0",IF(COUNTIF(F427:L427,"+I")&gt;0,"+I",IF(COUNTIF(F427:L427,"+II")&gt;0,"+II",IF(COUNTIF(F427:L427,"+III")&gt;0,"+III",IF(COUNTIF(F427:L427,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E427" s="23" t="str">
-        <f>IF(COUNTIF(F427:L427,"-III")&gt;0,"-III",IF(COUNTIF(F427:L427,"-II")&gt;0,"-II",IF(COUNTIF(F427:L427,"-I")&gt;0,"-I",IF(COUNTIF(F427:L427,"+0")&gt;0,"+0",IF(COUNTIF(F427:L427,"+I")&gt;0,"+I",IF(COUNTIF(F427:L427,"+II")&gt;0,"+II",IF(COUNTIF(F427:L427,"+III")&gt;0,"+III",IF(COUNTIF(F427:L427,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F427" s="9" t="str">
@@ -21028,11 +21028,11 @@
         <v>12.808</v>
       </c>
       <c r="D428" s="23" t="str">
-        <f>IF(COUNTIF(F428:L428,"D")&gt;0,"D",IF(COUNTIF(F428:L428,"-III")&gt;0,"-III",IF(COUNTIF(F428:L428,"-II")&gt;0,"-II",IF(COUNTIF(F428:L428,"-I")&gt;0,"-I",IF(COUNTIF(F428:L428,"+0")&gt;0,"+0",IF(COUNTIF(F428:L428,"+I")&gt;0,"+I",IF(COUNTIF(F428:L428,"+II")&gt;0,"+II",IF(COUNTIF(F428:L428,"+III")&gt;0,"+III",IF(COUNTIF(F428:L428,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+II</v>
       </c>
       <c r="E428" s="23" t="str">
-        <f>IF(COUNTIF(F428:L428,"-III")&gt;0,"-III",IF(COUNTIF(F428:L428,"-II")&gt;0,"-II",IF(COUNTIF(F428:L428,"-I")&gt;0,"-I",IF(COUNTIF(F428:L428,"+0")&gt;0,"+0",IF(COUNTIF(F428:L428,"+I")&gt;0,"+I",IF(COUNTIF(F428:L428,"+II")&gt;0,"+II",IF(COUNTIF(F428:L428,"+III")&gt;0,"+III",IF(COUNTIF(F428:L428,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+II</v>
       </c>
       <c r="F428" s="9" t="str">
@@ -21072,11 +21072,11 @@
         <v>12.863</v>
       </c>
       <c r="D429" s="23" t="str">
-        <f>IF(COUNTIF(F429:L429,"D")&gt;0,"D",IF(COUNTIF(F429:L429,"-III")&gt;0,"-III",IF(COUNTIF(F429:L429,"-II")&gt;0,"-II",IF(COUNTIF(F429:L429,"-I")&gt;0,"-I",IF(COUNTIF(F429:L429,"+0")&gt;0,"+0",IF(COUNTIF(F429:L429,"+I")&gt;0,"+I",IF(COUNTIF(F429:L429,"+II")&gt;0,"+II",IF(COUNTIF(F429:L429,"+III")&gt;0,"+III",IF(COUNTIF(F429:L429,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E429" s="23" t="str">
-        <f>IF(COUNTIF(F429:L429,"-III")&gt;0,"-III",IF(COUNTIF(F429:L429,"-II")&gt;0,"-II",IF(COUNTIF(F429:L429,"-I")&gt;0,"-I",IF(COUNTIF(F429:L429,"+0")&gt;0,"+0",IF(COUNTIF(F429:L429,"+I")&gt;0,"+I",IF(COUNTIF(F429:L429,"+II")&gt;0,"+II",IF(COUNTIF(F429:L429,"+III")&gt;0,"+III",IF(COUNTIF(F429:L429,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F429" s="9" t="str">
@@ -21116,11 +21116,11 @@
         <v>12.936</v>
       </c>
       <c r="D430" s="23" t="str">
-        <f>IF(COUNTIF(F430:L430,"D")&gt;0,"D",IF(COUNTIF(F430:L430,"-III")&gt;0,"-III",IF(COUNTIF(F430:L430,"-II")&gt;0,"-II",IF(COUNTIF(F430:L430,"-I")&gt;0,"-I",IF(COUNTIF(F430:L430,"+0")&gt;0,"+0",IF(COUNTIF(F430:L430,"+I")&gt;0,"+I",IF(COUNTIF(F430:L430,"+II")&gt;0,"+II",IF(COUNTIF(F430:L430,"+III")&gt;0,"+III",IF(COUNTIF(F430:L430,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E430" s="23" t="str">
-        <f>IF(COUNTIF(F430:L430,"-III")&gt;0,"-III",IF(COUNTIF(F430:L430,"-II")&gt;0,"-II",IF(COUNTIF(F430:L430,"-I")&gt;0,"-I",IF(COUNTIF(F430:L430,"+0")&gt;0,"+0",IF(COUNTIF(F430:L430,"+I")&gt;0,"+I",IF(COUNTIF(F430:L430,"+II")&gt;0,"+II",IF(COUNTIF(F430:L430,"+III")&gt;0,"+III",IF(COUNTIF(F430:L430,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F430" s="9" t="str">
@@ -21160,11 +21160,11 @@
         <v>12.973000000000001</v>
       </c>
       <c r="D431" s="23" t="str">
-        <f>IF(COUNTIF(F431:L431,"D")&gt;0,"D",IF(COUNTIF(F431:L431,"-III")&gt;0,"-III",IF(COUNTIF(F431:L431,"-II")&gt;0,"-II",IF(COUNTIF(F431:L431,"-I")&gt;0,"-I",IF(COUNTIF(F431:L431,"+0")&gt;0,"+0",IF(COUNTIF(F431:L431,"+I")&gt;0,"+I",IF(COUNTIF(F431:L431,"+II")&gt;0,"+II",IF(COUNTIF(F431:L431,"+III")&gt;0,"+III",IF(COUNTIF(F431:L431,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E431" s="23" t="str">
-        <f>IF(COUNTIF(F431:L431,"-III")&gt;0,"-III",IF(COUNTIF(F431:L431,"-II")&gt;0,"-II",IF(COUNTIF(F431:L431,"-I")&gt;0,"-I",IF(COUNTIF(F431:L431,"+0")&gt;0,"+0",IF(COUNTIF(F431:L431,"+I")&gt;0,"+I",IF(COUNTIF(F431:L431,"+II")&gt;0,"+II",IF(COUNTIF(F431:L431,"+III")&gt;0,"+III",IF(COUNTIF(F431:L431,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F431" s="9" t="str">
@@ -21204,11 +21204,11 @@
         <v>13.015000000000001</v>
       </c>
       <c r="D432" s="23" t="str">
-        <f>IF(COUNTIF(F432:L432,"D")&gt;0,"D",IF(COUNTIF(F432:L432,"-III")&gt;0,"-III",IF(COUNTIF(F432:L432,"-II")&gt;0,"-II",IF(COUNTIF(F432:L432,"-I")&gt;0,"-I",IF(COUNTIF(F432:L432,"+0")&gt;0,"+0",IF(COUNTIF(F432:L432,"+I")&gt;0,"+I",IF(COUNTIF(F432:L432,"+II")&gt;0,"+II",IF(COUNTIF(F432:L432,"+III")&gt;0,"+III",IF(COUNTIF(F432:L432,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E432" s="23" t="str">
-        <f>IF(COUNTIF(F432:L432,"-III")&gt;0,"-III",IF(COUNTIF(F432:L432,"-II")&gt;0,"-II",IF(COUNTIF(F432:L432,"-I")&gt;0,"-I",IF(COUNTIF(F432:L432,"+0")&gt;0,"+0",IF(COUNTIF(F432:L432,"+I")&gt;0,"+I",IF(COUNTIF(F432:L432,"+II")&gt;0,"+II",IF(COUNTIF(F432:L432,"+III")&gt;0,"+III",IF(COUNTIF(F432:L432,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F432" s="9" t="str">
@@ -21248,11 +21248,11 @@
         <v>13.052</v>
       </c>
       <c r="D433" s="23" t="str">
-        <f>IF(COUNTIF(F433:L433,"D")&gt;0,"D",IF(COUNTIF(F433:L433,"-III")&gt;0,"-III",IF(COUNTIF(F433:L433,"-II")&gt;0,"-II",IF(COUNTIF(F433:L433,"-I")&gt;0,"-I",IF(COUNTIF(F433:L433,"+0")&gt;0,"+0",IF(COUNTIF(F433:L433,"+I")&gt;0,"+I",IF(COUNTIF(F433:L433,"+II")&gt;0,"+II",IF(COUNTIF(F433:L433,"+III")&gt;0,"+III",IF(COUNTIF(F433:L433,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E433" s="23" t="str">
-        <f>IF(COUNTIF(F433:L433,"-III")&gt;0,"-III",IF(COUNTIF(F433:L433,"-II")&gt;0,"-II",IF(COUNTIF(F433:L433,"-I")&gt;0,"-I",IF(COUNTIF(F433:L433,"+0")&gt;0,"+0",IF(COUNTIF(F433:L433,"+I")&gt;0,"+I",IF(COUNTIF(F433:L433,"+II")&gt;0,"+II",IF(COUNTIF(F433:L433,"+III")&gt;0,"+III",IF(COUNTIF(F433:L433,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F433" s="9" t="str">
@@ -21292,11 +21292,11 @@
         <v>13.054</v>
       </c>
       <c r="D434" s="23" t="str">
-        <f>IF(COUNTIF(F434:L434,"D")&gt;0,"D",IF(COUNTIF(F434:L434,"-III")&gt;0,"-III",IF(COUNTIF(F434:L434,"-II")&gt;0,"-II",IF(COUNTIF(F434:L434,"-I")&gt;0,"-I",IF(COUNTIF(F434:L434,"+0")&gt;0,"+0",IF(COUNTIF(F434:L434,"+I")&gt;0,"+I",IF(COUNTIF(F434:L434,"+II")&gt;0,"+II",IF(COUNTIF(F434:L434,"+III")&gt;0,"+III",IF(COUNTIF(F434:L434,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E434" s="23" t="str">
-        <f>IF(COUNTIF(F434:L434,"-III")&gt;0,"-III",IF(COUNTIF(F434:L434,"-II")&gt;0,"-II",IF(COUNTIF(F434:L434,"-I")&gt;0,"-I",IF(COUNTIF(F434:L434,"+0")&gt;0,"+0",IF(COUNTIF(F434:L434,"+I")&gt;0,"+I",IF(COUNTIF(F434:L434,"+II")&gt;0,"+II",IF(COUNTIF(F434:L434,"+III")&gt;0,"+III",IF(COUNTIF(F434:L434,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F434" s="9" t="str">
@@ -21336,11 +21336,11 @@
         <v>13.074999999999999</v>
       </c>
       <c r="D435" s="23" t="str">
-        <f>IF(COUNTIF(F435:L435,"D")&gt;0,"D",IF(COUNTIF(F435:L435,"-III")&gt;0,"-III",IF(COUNTIF(F435:L435,"-II")&gt;0,"-II",IF(COUNTIF(F435:L435,"-I")&gt;0,"-I",IF(COUNTIF(F435:L435,"+0")&gt;0,"+0",IF(COUNTIF(F435:L435,"+I")&gt;0,"+I",IF(COUNTIF(F435:L435,"+II")&gt;0,"+II",IF(COUNTIF(F435:L435,"+III")&gt;0,"+III",IF(COUNTIF(F435:L435,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E435" s="23" t="str">
-        <f>IF(COUNTIF(F435:L435,"-III")&gt;0,"-III",IF(COUNTIF(F435:L435,"-II")&gt;0,"-II",IF(COUNTIF(F435:L435,"-I")&gt;0,"-I",IF(COUNTIF(F435:L435,"+0")&gt;0,"+0",IF(COUNTIF(F435:L435,"+I")&gt;0,"+I",IF(COUNTIF(F435:L435,"+II")&gt;0,"+II",IF(COUNTIF(F435:L435,"+III")&gt;0,"+III",IF(COUNTIF(F435:L435,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F435" s="9" t="str">
@@ -21380,11 +21380,11 @@
         <v>13.092000000000001</v>
       </c>
       <c r="D436" s="23" t="str">
-        <f>IF(COUNTIF(F436:L436,"D")&gt;0,"D",IF(COUNTIF(F436:L436,"-III")&gt;0,"-III",IF(COUNTIF(F436:L436,"-II")&gt;0,"-II",IF(COUNTIF(F436:L436,"-I")&gt;0,"-I",IF(COUNTIF(F436:L436,"+0")&gt;0,"+0",IF(COUNTIF(F436:L436,"+I")&gt;0,"+I",IF(COUNTIF(F436:L436,"+II")&gt;0,"+II",IF(COUNTIF(F436:L436,"+III")&gt;0,"+III",IF(COUNTIF(F436:L436,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E436" s="23" t="str">
-        <f>IF(COUNTIF(F436:L436,"-III")&gt;0,"-III",IF(COUNTIF(F436:L436,"-II")&gt;0,"-II",IF(COUNTIF(F436:L436,"-I")&gt;0,"-I",IF(COUNTIF(F436:L436,"+0")&gt;0,"+0",IF(COUNTIF(F436:L436,"+I")&gt;0,"+I",IF(COUNTIF(F436:L436,"+II")&gt;0,"+II",IF(COUNTIF(F436:L436,"+III")&gt;0,"+III",IF(COUNTIF(F436:L436,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F436" s="9" t="str">
@@ -21424,11 +21424,11 @@
         <v>13.122</v>
       </c>
       <c r="D437" s="23" t="str">
-        <f>IF(COUNTIF(F437:L437,"D")&gt;0,"D",IF(COUNTIF(F437:L437,"-III")&gt;0,"-III",IF(COUNTIF(F437:L437,"-II")&gt;0,"-II",IF(COUNTIF(F437:L437,"-I")&gt;0,"-I",IF(COUNTIF(F437:L437,"+0")&gt;0,"+0",IF(COUNTIF(F437:L437,"+I")&gt;0,"+I",IF(COUNTIF(F437:L437,"+II")&gt;0,"+II",IF(COUNTIF(F437:L437,"+III")&gt;0,"+III",IF(COUNTIF(F437:L437,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E437" s="23" t="str">
-        <f>IF(COUNTIF(F437:L437,"-III")&gt;0,"-III",IF(COUNTIF(F437:L437,"-II")&gt;0,"-II",IF(COUNTIF(F437:L437,"-I")&gt;0,"-I",IF(COUNTIF(F437:L437,"+0")&gt;0,"+0",IF(COUNTIF(F437:L437,"+I")&gt;0,"+I",IF(COUNTIF(F437:L437,"+II")&gt;0,"+II",IF(COUNTIF(F437:L437,"+III")&gt;0,"+III",IF(COUNTIF(F437:L437,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F437" s="9" t="str">
@@ -21468,11 +21468,11 @@
         <v>13.244999999999999</v>
       </c>
       <c r="D438" s="23" t="str">
-        <f>IF(COUNTIF(F438:L438,"D")&gt;0,"D",IF(COUNTIF(F438:L438,"-III")&gt;0,"-III",IF(COUNTIF(F438:L438,"-II")&gt;0,"-II",IF(COUNTIF(F438:L438,"-I")&gt;0,"-I",IF(COUNTIF(F438:L438,"+0")&gt;0,"+0",IF(COUNTIF(F438:L438,"+I")&gt;0,"+I",IF(COUNTIF(F438:L438,"+II")&gt;0,"+II",IF(COUNTIF(F438:L438,"+III")&gt;0,"+III",IF(COUNTIF(F438:L438,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E438" s="23" t="str">
-        <f>IF(COUNTIF(F438:L438,"-III")&gt;0,"-III",IF(COUNTIF(F438:L438,"-II")&gt;0,"-II",IF(COUNTIF(F438:L438,"-I")&gt;0,"-I",IF(COUNTIF(F438:L438,"+0")&gt;0,"+0",IF(COUNTIF(F438:L438,"+I")&gt;0,"+I",IF(COUNTIF(F438:L438,"+II")&gt;0,"+II",IF(COUNTIF(F438:L438,"+III")&gt;0,"+III",IF(COUNTIF(F438:L438,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F438" s="9" t="str">
@@ -21512,11 +21512,11 @@
         <v>13.266999999999999</v>
       </c>
       <c r="D439" s="23" t="str">
-        <f>IF(COUNTIF(F439:L439,"D")&gt;0,"D",IF(COUNTIF(F439:L439,"-III")&gt;0,"-III",IF(COUNTIF(F439:L439,"-II")&gt;0,"-II",IF(COUNTIF(F439:L439,"-I")&gt;0,"-I",IF(COUNTIF(F439:L439,"+0")&gt;0,"+0",IF(COUNTIF(F439:L439,"+I")&gt;0,"+I",IF(COUNTIF(F439:L439,"+II")&gt;0,"+II",IF(COUNTIF(F439:L439,"+III")&gt;0,"+III",IF(COUNTIF(F439:L439,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E439" s="23" t="str">
-        <f>IF(COUNTIF(F439:L439,"-III")&gt;0,"-III",IF(COUNTIF(F439:L439,"-II")&gt;0,"-II",IF(COUNTIF(F439:L439,"-I")&gt;0,"-I",IF(COUNTIF(F439:L439,"+0")&gt;0,"+0",IF(COUNTIF(F439:L439,"+I")&gt;0,"+I",IF(COUNTIF(F439:L439,"+II")&gt;0,"+II",IF(COUNTIF(F439:L439,"+III")&gt;0,"+III",IF(COUNTIF(F439:L439,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F439" s="9" t="str">
@@ -21556,11 +21556,11 @@
         <v>13.298999999999999</v>
       </c>
       <c r="D440" s="23" t="str">
-        <f>IF(COUNTIF(F440:L440,"D")&gt;0,"D",IF(COUNTIF(F440:L440,"-III")&gt;0,"-III",IF(COUNTIF(F440:L440,"-II")&gt;0,"-II",IF(COUNTIF(F440:L440,"-I")&gt;0,"-I",IF(COUNTIF(F440:L440,"+0")&gt;0,"+0",IF(COUNTIF(F440:L440,"+I")&gt;0,"+I",IF(COUNTIF(F440:L440,"+II")&gt;0,"+II",IF(COUNTIF(F440:L440,"+III")&gt;0,"+III",IF(COUNTIF(F440:L440,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E440" s="23" t="str">
-        <f>IF(COUNTIF(F440:L440,"-III")&gt;0,"-III",IF(COUNTIF(F440:L440,"-II")&gt;0,"-II",IF(COUNTIF(F440:L440,"-I")&gt;0,"-I",IF(COUNTIF(F440:L440,"+0")&gt;0,"+0",IF(COUNTIF(F440:L440,"+I")&gt;0,"+I",IF(COUNTIF(F440:L440,"+II")&gt;0,"+II",IF(COUNTIF(F440:L440,"+III")&gt;0,"+III",IF(COUNTIF(F440:L440,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F440" s="9" t="str">
@@ -21600,11 +21600,11 @@
         <v>13.352</v>
       </c>
       <c r="D441" s="23" t="str">
-        <f>IF(COUNTIF(F441:L441,"D")&gt;0,"D",IF(COUNTIF(F441:L441,"-III")&gt;0,"-III",IF(COUNTIF(F441:L441,"-II")&gt;0,"-II",IF(COUNTIF(F441:L441,"-I")&gt;0,"-I",IF(COUNTIF(F441:L441,"+0")&gt;0,"+0",IF(COUNTIF(F441:L441,"+I")&gt;0,"+I",IF(COUNTIF(F441:L441,"+II")&gt;0,"+II",IF(COUNTIF(F441:L441,"+III")&gt;0,"+III",IF(COUNTIF(F441:L441,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E441" s="23" t="str">
-        <f>IF(COUNTIF(F441:L441,"-III")&gt;0,"-III",IF(COUNTIF(F441:L441,"-II")&gt;0,"-II",IF(COUNTIF(F441:L441,"-I")&gt;0,"-I",IF(COUNTIF(F441:L441,"+0")&gt;0,"+0",IF(COUNTIF(F441:L441,"+I")&gt;0,"+I",IF(COUNTIF(F441:L441,"+II")&gt;0,"+II",IF(COUNTIF(F441:L441,"+III")&gt;0,"+III",IF(COUNTIF(F441:L441,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F441" s="9" t="str">
@@ -21644,11 +21644,11 @@
         <v>13.414999999999999</v>
       </c>
       <c r="D442" s="23" t="str">
-        <f>IF(COUNTIF(F442:L442,"D")&gt;0,"D",IF(COUNTIF(F442:L442,"-III")&gt;0,"-III",IF(COUNTIF(F442:L442,"-II")&gt;0,"-II",IF(COUNTIF(F442:L442,"-I")&gt;0,"-I",IF(COUNTIF(F442:L442,"+0")&gt;0,"+0",IF(COUNTIF(F442:L442,"+I")&gt;0,"+I",IF(COUNTIF(F442:L442,"+II")&gt;0,"+II",IF(COUNTIF(F442:L442,"+III")&gt;0,"+III",IF(COUNTIF(F442:L442,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E442" s="23" t="str">
-        <f>IF(COUNTIF(F442:L442,"-III")&gt;0,"-III",IF(COUNTIF(F442:L442,"-II")&gt;0,"-II",IF(COUNTIF(F442:L442,"-I")&gt;0,"-I",IF(COUNTIF(F442:L442,"+0")&gt;0,"+0",IF(COUNTIF(F442:L442,"+I")&gt;0,"+I",IF(COUNTIF(F442:L442,"+II")&gt;0,"+II",IF(COUNTIF(F442:L442,"+III")&gt;0,"+III",IF(COUNTIF(F442:L442,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F442" s="9" t="str">
@@ -21688,11 +21688,11 @@
         <v>13.461</v>
       </c>
       <c r="D443" s="23" t="str">
-        <f>IF(COUNTIF(F443:L443,"D")&gt;0,"D",IF(COUNTIF(F443:L443,"-III")&gt;0,"-III",IF(COUNTIF(F443:L443,"-II")&gt;0,"-II",IF(COUNTIF(F443:L443,"-I")&gt;0,"-I",IF(COUNTIF(F443:L443,"+0")&gt;0,"+0",IF(COUNTIF(F443:L443,"+I")&gt;0,"+I",IF(COUNTIF(F443:L443,"+II")&gt;0,"+II",IF(COUNTIF(F443:L443,"+III")&gt;0,"+III",IF(COUNTIF(F443:L443,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E443" s="23" t="str">
-        <f>IF(COUNTIF(F443:L443,"-III")&gt;0,"-III",IF(COUNTIF(F443:L443,"-II")&gt;0,"-II",IF(COUNTIF(F443:L443,"-I")&gt;0,"-I",IF(COUNTIF(F443:L443,"+0")&gt;0,"+0",IF(COUNTIF(F443:L443,"+I")&gt;0,"+I",IF(COUNTIF(F443:L443,"+II")&gt;0,"+II",IF(COUNTIF(F443:L443,"+III")&gt;0,"+III",IF(COUNTIF(F443:L443,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F443" s="9" t="str">
@@ -21732,11 +21732,11 @@
         <v>13.471</v>
       </c>
       <c r="D444" s="23" t="str">
-        <f>IF(COUNTIF(F444:L444,"D")&gt;0,"D",IF(COUNTIF(F444:L444,"-III")&gt;0,"-III",IF(COUNTIF(F444:L444,"-II")&gt;0,"-II",IF(COUNTIF(F444:L444,"-I")&gt;0,"-I",IF(COUNTIF(F444:L444,"+0")&gt;0,"+0",IF(COUNTIF(F444:L444,"+I")&gt;0,"+I",IF(COUNTIF(F444:L444,"+II")&gt;0,"+II",IF(COUNTIF(F444:L444,"+III")&gt;0,"+III",IF(COUNTIF(F444:L444,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E444" s="23" t="str">
-        <f>IF(COUNTIF(F444:L444,"-III")&gt;0,"-III",IF(COUNTIF(F444:L444,"-II")&gt;0,"-II",IF(COUNTIF(F444:L444,"-I")&gt;0,"-I",IF(COUNTIF(F444:L444,"+0")&gt;0,"+0",IF(COUNTIF(F444:L444,"+I")&gt;0,"+I",IF(COUNTIF(F444:L444,"+II")&gt;0,"+II",IF(COUNTIF(F444:L444,"+III")&gt;0,"+III",IF(COUNTIF(F444:L444,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F444" s="9" t="str">
@@ -21776,11 +21776,11 @@
         <v>13.500999999999999</v>
       </c>
       <c r="D445" s="23" t="str">
-        <f>IF(COUNTIF(F445:L445,"D")&gt;0,"D",IF(COUNTIF(F445:L445,"-III")&gt;0,"-III",IF(COUNTIF(F445:L445,"-II")&gt;0,"-II",IF(COUNTIF(F445:L445,"-I")&gt;0,"-I",IF(COUNTIF(F445:L445,"+0")&gt;0,"+0",IF(COUNTIF(F445:L445,"+I")&gt;0,"+I",IF(COUNTIF(F445:L445,"+II")&gt;0,"+II",IF(COUNTIF(F445:L445,"+III")&gt;0,"+III",IF(COUNTIF(F445:L445,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>+I</v>
       </c>
       <c r="E445" s="23" t="str">
-        <f>IF(COUNTIF(F445:L445,"-III")&gt;0,"-III",IF(COUNTIF(F445:L445,"-II")&gt;0,"-II",IF(COUNTIF(F445:L445,"-I")&gt;0,"-I",IF(COUNTIF(F445:L445,"+0")&gt;0,"+0",IF(COUNTIF(F445:L445,"+I")&gt;0,"+I",IF(COUNTIF(F445:L445,"+II")&gt;0,"+II",IF(COUNTIF(F445:L445,"+III")&gt;0,"+III",IF(COUNTIF(F445:L445,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F445" s="9" t="str">
@@ -21820,11 +21820,11 @@
         <v>13.547000000000001</v>
       </c>
       <c r="D446" s="23" t="str">
-        <f>IF(COUNTIF(F446:L446,"D")&gt;0,"D",IF(COUNTIF(F446:L446,"-III")&gt;0,"-III",IF(COUNTIF(F446:L446,"-II")&gt;0,"-II",IF(COUNTIF(F446:L446,"-I")&gt;0,"-I",IF(COUNTIF(F446:L446,"+0")&gt;0,"+0",IF(COUNTIF(F446:L446,"+I")&gt;0,"+I",IF(COUNTIF(F446:L446,"+II")&gt;0,"+II",IF(COUNTIF(F446:L446,"+III")&gt;0,"+III",IF(COUNTIF(F446:L446,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
       <c r="E446" s="23" t="str">
-        <f>IF(COUNTIF(F446:L446,"-III")&gt;0,"-III",IF(COUNTIF(F446:L446,"-II")&gt;0,"-II",IF(COUNTIF(F446:L446,"-I")&gt;0,"-I",IF(COUNTIF(F446:L446,"+0")&gt;0,"+0",IF(COUNTIF(F446:L446,"+I")&gt;0,"+I",IF(COUNTIF(F446:L446,"+II")&gt;0,"+II",IF(COUNTIF(F446:L446,"+III")&gt;0,"+III",IF(COUNTIF(F446:L446,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F446" s="9" t="str">
@@ -21864,11 +21864,11 @@
         <v>13.58</v>
       </c>
       <c r="D447" s="23" t="str">
-        <f>IF(COUNTIF(F447:L447,"D")&gt;0,"D",IF(COUNTIF(F447:L447,"-III")&gt;0,"-III",IF(COUNTIF(F447:L447,"-II")&gt;0,"-II",IF(COUNTIF(F447:L447,"-I")&gt;0,"-I",IF(COUNTIF(F447:L447,"+0")&gt;0,"+0",IF(COUNTIF(F447:L447,"+I")&gt;0,"+I",IF(COUNTIF(F447:L447,"+II")&gt;0,"+II",IF(COUNTIF(F447:L447,"+III")&gt;0,"+III",IF(COUNTIF(F447:L447,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
       <c r="E447" s="23" t="str">
-        <f>IF(COUNTIF(F447:L447,"-III")&gt;0,"-III",IF(COUNTIF(F447:L447,"-II")&gt;0,"-II",IF(COUNTIF(F447:L447,"-I")&gt;0,"-I",IF(COUNTIF(F447:L447,"+0")&gt;0,"+0",IF(COUNTIF(F447:L447,"+I")&gt;0,"+I",IF(COUNTIF(F447:L447,"+II")&gt;0,"+II",IF(COUNTIF(F447:L447,"+III")&gt;0,"+III",IF(COUNTIF(F447:L447,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F447" s="9" t="str">
@@ -21908,11 +21908,11 @@
         <v>13.606</v>
       </c>
       <c r="D448" s="23" t="str">
-        <f>IF(COUNTIF(F448:L448,"D")&gt;0,"D",IF(COUNTIF(F448:L448,"-III")&gt;0,"-III",IF(COUNTIF(F448:L448,"-II")&gt;0,"-II",IF(COUNTIF(F448:L448,"-I")&gt;0,"-I",IF(COUNTIF(F448:L448,"+0")&gt;0,"+0",IF(COUNTIF(F448:L448,"+I")&gt;0,"+I",IF(COUNTIF(F448:L448,"+II")&gt;0,"+II",IF(COUNTIF(F448:L448,"+III")&gt;0,"+III",IF(COUNTIF(F448:L448,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
       <c r="E448" s="23" t="str">
-        <f>IF(COUNTIF(F448:L448,"-III")&gt;0,"-III",IF(COUNTIF(F448:L448,"-II")&gt;0,"-II",IF(COUNTIF(F448:L448,"-I")&gt;0,"-I",IF(COUNTIF(F448:L448,"+0")&gt;0,"+0",IF(COUNTIF(F448:L448,"+I")&gt;0,"+I",IF(COUNTIF(F448:L448,"+II")&gt;0,"+II",IF(COUNTIF(F448:L448,"+III")&gt;0,"+III",IF(COUNTIF(F448:L448,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F448" s="9" t="str">
@@ -21952,11 +21952,11 @@
         <v>13.61</v>
       </c>
       <c r="D449" s="23" t="str">
-        <f>IF(COUNTIF(F449:L449,"D")&gt;0,"D",IF(COUNTIF(F449:L449,"-III")&gt;0,"-III",IF(COUNTIF(F449:L449,"-II")&gt;0,"-II",IF(COUNTIF(F449:L449,"-I")&gt;0,"-I",IF(COUNTIF(F449:L449,"+0")&gt;0,"+0",IF(COUNTIF(F449:L449,"+I")&gt;0,"+I",IF(COUNTIF(F449:L449,"+II")&gt;0,"+II",IF(COUNTIF(F449:L449,"+III")&gt;0,"+III",IF(COUNTIF(F449:L449,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
       <c r="E449" s="23" t="str">
-        <f>IF(COUNTIF(F449:L449,"-III")&gt;0,"-III",IF(COUNTIF(F449:L449,"-II")&gt;0,"-II",IF(COUNTIF(F449:L449,"-I")&gt;0,"-I",IF(COUNTIF(F449:L449,"+0")&gt;0,"+0",IF(COUNTIF(F449:L449,"+I")&gt;0,"+I",IF(COUNTIF(F449:L449,"+II")&gt;0,"+II",IF(COUNTIF(F449:L449,"+III")&gt;0,"+III",IF(COUNTIF(F449:L449,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F449" s="9" t="str">
@@ -21996,11 +21996,11 @@
         <v>13.65</v>
       </c>
       <c r="D450" s="23" t="str">
-        <f>IF(COUNTIF(F450:L450,"D")&gt;0,"D",IF(COUNTIF(F450:L450,"-III")&gt;0,"-III",IF(COUNTIF(F450:L450,"-II")&gt;0,"-II",IF(COUNTIF(F450:L450,"-I")&gt;0,"-I",IF(COUNTIF(F450:L450,"+0")&gt;0,"+0",IF(COUNTIF(F450:L450,"+I")&gt;0,"+I",IF(COUNTIF(F450:L450,"+II")&gt;0,"+II",IF(COUNTIF(F450:L450,"+III")&gt;0,"+III",IF(COUNTIF(F450:L450,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="12"/>
         <v>D</v>
       </c>
       <c r="E450" s="23" t="str">
-        <f>IF(COUNTIF(F450:L450,"-III")&gt;0,"-III",IF(COUNTIF(F450:L450,"-II")&gt;0,"-II",IF(COUNTIF(F450:L450,"-I")&gt;0,"-I",IF(COUNTIF(F450:L450,"+0")&gt;0,"+0",IF(COUNTIF(F450:L450,"+I")&gt;0,"+I",IF(COUNTIF(F450:L450,"+II")&gt;0,"+II",IF(COUNTIF(F450:L450,"+III")&gt;0,"+III",IF(COUNTIF(F450:L450,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="13"/>
         <v>+I</v>
       </c>
       <c r="F450" s="9" t="str">
@@ -22040,11 +22040,11 @@
         <v>13.653</v>
       </c>
       <c r="D451" s="23" t="str">
-        <f>IF(COUNTIF(F451:L451,"D")&gt;0,"D",IF(COUNTIF(F451:L451,"-III")&gt;0,"-III",IF(COUNTIF(F451:L451,"-II")&gt;0,"-II",IF(COUNTIF(F451:L451,"-I")&gt;0,"-I",IF(COUNTIF(F451:L451,"+0")&gt;0,"+0",IF(COUNTIF(F451:L451,"+I")&gt;0,"+I",IF(COUNTIF(F451:L451,"+II")&gt;0,"+II",IF(COUNTIF(F451:L451,"+III")&gt;0,"+III",IF(COUNTIF(F451:L451,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D451:D514" si="14">IF(COUNTIF(F451:L451,"D")&gt;0,"D",IF(COUNTIF(F451:L451,"-III")&gt;0,"-III",IF(COUNTIF(F451:L451,"-II")&gt;0,"-II",IF(COUNTIF(F451:L451,"-I")&gt;0,"-I",IF(COUNTIF(F451:L451,"+0")&gt;0,"+0",IF(COUNTIF(F451:L451,"+I")&gt;0,"+I",IF(COUNTIF(F451:L451,"+II")&gt;0,"+II",IF(COUNTIF(F451:L451,"+III")&gt;0,"+III",IF(COUNTIF(F451:L451,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E451" s="23" t="str">
-        <f>IF(COUNTIF(F451:L451,"-III")&gt;0,"-III",IF(COUNTIF(F451:L451,"-II")&gt;0,"-II",IF(COUNTIF(F451:L451,"-I")&gt;0,"-I",IF(COUNTIF(F451:L451,"+0")&gt;0,"+0",IF(COUNTIF(F451:L451,"+I")&gt;0,"+I",IF(COUNTIF(F451:L451,"+II")&gt;0,"+II",IF(COUNTIF(F451:L451,"+III")&gt;0,"+III",IF(COUNTIF(F451:L451,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E451:E514" si="15">IF(COUNTIF(F451:L451,"-III")&gt;0,"-III",IF(COUNTIF(F451:L451,"-II")&gt;0,"-II",IF(COUNTIF(F451:L451,"-I")&gt;0,"-I",IF(COUNTIF(F451:L451,"+0")&gt;0,"+0",IF(COUNTIF(F451:L451,"+I")&gt;0,"+I",IF(COUNTIF(F451:L451,"+II")&gt;0,"+II",IF(COUNTIF(F451:L451,"+III")&gt;0,"+III",IF(COUNTIF(F451:L451,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F451" s="9" t="str">
@@ -22084,11 +22084,11 @@
         <v>13.71</v>
       </c>
       <c r="D452" s="23" t="str">
-        <f>IF(COUNTIF(F452:L452,"D")&gt;0,"D",IF(COUNTIF(F452:L452,"-III")&gt;0,"-III",IF(COUNTIF(F452:L452,"-II")&gt;0,"-II",IF(COUNTIF(F452:L452,"-I")&gt;0,"-I",IF(COUNTIF(F452:L452,"+0")&gt;0,"+0",IF(COUNTIF(F452:L452,"+I")&gt;0,"+I",IF(COUNTIF(F452:L452,"+II")&gt;0,"+II",IF(COUNTIF(F452:L452,"+III")&gt;0,"+III",IF(COUNTIF(F452:L452,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E452" s="23" t="str">
-        <f>IF(COUNTIF(F452:L452,"-III")&gt;0,"-III",IF(COUNTIF(F452:L452,"-II")&gt;0,"-II",IF(COUNTIF(F452:L452,"-I")&gt;0,"-I",IF(COUNTIF(F452:L452,"+0")&gt;0,"+0",IF(COUNTIF(F452:L452,"+I")&gt;0,"+I",IF(COUNTIF(F452:L452,"+II")&gt;0,"+II",IF(COUNTIF(F452:L452,"+III")&gt;0,"+III",IF(COUNTIF(F452:L452,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F452" s="9" t="str">
@@ -22128,11 +22128,11 @@
         <v>13.868</v>
       </c>
       <c r="D453" s="23" t="str">
-        <f>IF(COUNTIF(F453:L453,"D")&gt;0,"D",IF(COUNTIF(F453:L453,"-III")&gt;0,"-III",IF(COUNTIF(F453:L453,"-II")&gt;0,"-II",IF(COUNTIF(F453:L453,"-I")&gt;0,"-I",IF(COUNTIF(F453:L453,"+0")&gt;0,"+0",IF(COUNTIF(F453:L453,"+I")&gt;0,"+I",IF(COUNTIF(F453:L453,"+II")&gt;0,"+II",IF(COUNTIF(F453:L453,"+III")&gt;0,"+III",IF(COUNTIF(F453:L453,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E453" s="23" t="str">
-        <f>IF(COUNTIF(F453:L453,"-III")&gt;0,"-III",IF(COUNTIF(F453:L453,"-II")&gt;0,"-II",IF(COUNTIF(F453:L453,"-I")&gt;0,"-I",IF(COUNTIF(F453:L453,"+0")&gt;0,"+0",IF(COUNTIF(F453:L453,"+I")&gt;0,"+I",IF(COUNTIF(F453:L453,"+II")&gt;0,"+II",IF(COUNTIF(F453:L453,"+III")&gt;0,"+III",IF(COUNTIF(F453:L453,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F453" s="9" t="str">
@@ -22172,11 +22172,11 @@
         <v>13.923999999999999</v>
       </c>
       <c r="D454" s="23" t="str">
-        <f>IF(COUNTIF(F454:L454,"D")&gt;0,"D",IF(COUNTIF(F454:L454,"-III")&gt;0,"-III",IF(COUNTIF(F454:L454,"-II")&gt;0,"-II",IF(COUNTIF(F454:L454,"-I")&gt;0,"-I",IF(COUNTIF(F454:L454,"+0")&gt;0,"+0",IF(COUNTIF(F454:L454,"+I")&gt;0,"+I",IF(COUNTIF(F454:L454,"+II")&gt;0,"+II",IF(COUNTIF(F454:L454,"+III")&gt;0,"+III",IF(COUNTIF(F454:L454,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E454" s="23" t="str">
-        <f>IF(COUNTIF(F454:L454,"-III")&gt;0,"-III",IF(COUNTIF(F454:L454,"-II")&gt;0,"-II",IF(COUNTIF(F454:L454,"-I")&gt;0,"-I",IF(COUNTIF(F454:L454,"+0")&gt;0,"+0",IF(COUNTIF(F454:L454,"+I")&gt;0,"+I",IF(COUNTIF(F454:L454,"+II")&gt;0,"+II",IF(COUNTIF(F454:L454,"+III")&gt;0,"+III",IF(COUNTIF(F454:L454,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F454" s="9" t="str">
@@ -22216,11 +22216,11 @@
         <v>13.964</v>
       </c>
       <c r="D455" s="23" t="str">
-        <f>IF(COUNTIF(F455:L455,"D")&gt;0,"D",IF(COUNTIF(F455:L455,"-III")&gt;0,"-III",IF(COUNTIF(F455:L455,"-II")&gt;0,"-II",IF(COUNTIF(F455:L455,"-I")&gt;0,"-I",IF(COUNTIF(F455:L455,"+0")&gt;0,"+0",IF(COUNTIF(F455:L455,"+I")&gt;0,"+I",IF(COUNTIF(F455:L455,"+II")&gt;0,"+II",IF(COUNTIF(F455:L455,"+III")&gt;0,"+III",IF(COUNTIF(F455:L455,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E455" s="23" t="str">
-        <f>IF(COUNTIF(F455:L455,"-III")&gt;0,"-III",IF(COUNTIF(F455:L455,"-II")&gt;0,"-II",IF(COUNTIF(F455:L455,"-I")&gt;0,"-I",IF(COUNTIF(F455:L455,"+0")&gt;0,"+0",IF(COUNTIF(F455:L455,"+I")&gt;0,"+I",IF(COUNTIF(F455:L455,"+II")&gt;0,"+II",IF(COUNTIF(F455:L455,"+III")&gt;0,"+III",IF(COUNTIF(F455:L455,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F455" s="9" t="str">
@@ -22260,11 +22260,11 @@
         <v>13.965</v>
       </c>
       <c r="D456" s="23" t="str">
-        <f>IF(COUNTIF(F456:L456,"D")&gt;0,"D",IF(COUNTIF(F456:L456,"-III")&gt;0,"-III",IF(COUNTIF(F456:L456,"-II")&gt;0,"-II",IF(COUNTIF(F456:L456,"-I")&gt;0,"-I",IF(COUNTIF(F456:L456,"+0")&gt;0,"+0",IF(COUNTIF(F456:L456,"+I")&gt;0,"+I",IF(COUNTIF(F456:L456,"+II")&gt;0,"+II",IF(COUNTIF(F456:L456,"+III")&gt;0,"+III",IF(COUNTIF(F456:L456,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E456" s="23" t="str">
-        <f>IF(COUNTIF(F456:L456,"-III")&gt;0,"-III",IF(COUNTIF(F456:L456,"-II")&gt;0,"-II",IF(COUNTIF(F456:L456,"-I")&gt;0,"-I",IF(COUNTIF(F456:L456,"+0")&gt;0,"+0",IF(COUNTIF(F456:L456,"+I")&gt;0,"+I",IF(COUNTIF(F456:L456,"+II")&gt;0,"+II",IF(COUNTIF(F456:L456,"+III")&gt;0,"+III",IF(COUNTIF(F456:L456,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F456" s="9" t="str">
@@ -22304,11 +22304,11 @@
         <v>13.975</v>
       </c>
       <c r="D457" s="23" t="str">
-        <f>IF(COUNTIF(F457:L457,"D")&gt;0,"D",IF(COUNTIF(F457:L457,"-III")&gt;0,"-III",IF(COUNTIF(F457:L457,"-II")&gt;0,"-II",IF(COUNTIF(F457:L457,"-I")&gt;0,"-I",IF(COUNTIF(F457:L457,"+0")&gt;0,"+0",IF(COUNTIF(F457:L457,"+I")&gt;0,"+I",IF(COUNTIF(F457:L457,"+II")&gt;0,"+II",IF(COUNTIF(F457:L457,"+III")&gt;0,"+III",IF(COUNTIF(F457:L457,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E457" s="23" t="str">
-        <f>IF(COUNTIF(F457:L457,"-III")&gt;0,"-III",IF(COUNTIF(F457:L457,"-II")&gt;0,"-II",IF(COUNTIF(F457:L457,"-I")&gt;0,"-I",IF(COUNTIF(F457:L457,"+0")&gt;0,"+0",IF(COUNTIF(F457:L457,"+I")&gt;0,"+I",IF(COUNTIF(F457:L457,"+II")&gt;0,"+II",IF(COUNTIF(F457:L457,"+III")&gt;0,"+III",IF(COUNTIF(F457:L457,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F457" s="9" t="str">
@@ -22348,11 +22348,11 @@
         <v>14.023999999999999</v>
       </c>
       <c r="D458" s="23" t="str">
-        <f>IF(COUNTIF(F458:L458,"D")&gt;0,"D",IF(COUNTIF(F458:L458,"-III")&gt;0,"-III",IF(COUNTIF(F458:L458,"-II")&gt;0,"-II",IF(COUNTIF(F458:L458,"-I")&gt;0,"-I",IF(COUNTIF(F458:L458,"+0")&gt;0,"+0",IF(COUNTIF(F458:L458,"+I")&gt;0,"+I",IF(COUNTIF(F458:L458,"+II")&gt;0,"+II",IF(COUNTIF(F458:L458,"+III")&gt;0,"+III",IF(COUNTIF(F458:L458,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E458" s="23" t="str">
-        <f>IF(COUNTIF(F458:L458,"-III")&gt;0,"-III",IF(COUNTIF(F458:L458,"-II")&gt;0,"-II",IF(COUNTIF(F458:L458,"-I")&gt;0,"-I",IF(COUNTIF(F458:L458,"+0")&gt;0,"+0",IF(COUNTIF(F458:L458,"+I")&gt;0,"+I",IF(COUNTIF(F458:L458,"+II")&gt;0,"+II",IF(COUNTIF(F458:L458,"+III")&gt;0,"+III",IF(COUNTIF(F458:L458,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F458" s="9" t="str">
@@ -22392,11 +22392,11 @@
         <v>14.047000000000001</v>
       </c>
       <c r="D459" s="23" t="str">
-        <f>IF(COUNTIF(F459:L459,"D")&gt;0,"D",IF(COUNTIF(F459:L459,"-III")&gt;0,"-III",IF(COUNTIF(F459:L459,"-II")&gt;0,"-II",IF(COUNTIF(F459:L459,"-I")&gt;0,"-I",IF(COUNTIF(F459:L459,"+0")&gt;0,"+0",IF(COUNTIF(F459:L459,"+I")&gt;0,"+I",IF(COUNTIF(F459:L459,"+II")&gt;0,"+II",IF(COUNTIF(F459:L459,"+III")&gt;0,"+III",IF(COUNTIF(F459:L459,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E459" s="23" t="str">
-        <f>IF(COUNTIF(F459:L459,"-III")&gt;0,"-III",IF(COUNTIF(F459:L459,"-II")&gt;0,"-II",IF(COUNTIF(F459:L459,"-I")&gt;0,"-I",IF(COUNTIF(F459:L459,"+0")&gt;0,"+0",IF(COUNTIF(F459:L459,"+I")&gt;0,"+I",IF(COUNTIF(F459:L459,"+II")&gt;0,"+II",IF(COUNTIF(F459:L459,"+III")&gt;0,"+III",IF(COUNTIF(F459:L459,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F459" s="9" t="str">
@@ -22436,11 +22436,11 @@
         <v>14.08</v>
       </c>
       <c r="D460" s="23" t="str">
-        <f>IF(COUNTIF(F460:L460,"D")&gt;0,"D",IF(COUNTIF(F460:L460,"-III")&gt;0,"-III",IF(COUNTIF(F460:L460,"-II")&gt;0,"-II",IF(COUNTIF(F460:L460,"-I")&gt;0,"-I",IF(COUNTIF(F460:L460,"+0")&gt;0,"+0",IF(COUNTIF(F460:L460,"+I")&gt;0,"+I",IF(COUNTIF(F460:L460,"+II")&gt;0,"+II",IF(COUNTIF(F460:L460,"+III")&gt;0,"+III",IF(COUNTIF(F460:L460,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E460" s="23" t="str">
-        <f>IF(COUNTIF(F460:L460,"-III")&gt;0,"-III",IF(COUNTIF(F460:L460,"-II")&gt;0,"-II",IF(COUNTIF(F460:L460,"-I")&gt;0,"-I",IF(COUNTIF(F460:L460,"+0")&gt;0,"+0",IF(COUNTIF(F460:L460,"+I")&gt;0,"+I",IF(COUNTIF(F460:L460,"+II")&gt;0,"+II",IF(COUNTIF(F460:L460,"+III")&gt;0,"+III",IF(COUNTIF(F460:L460,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F460" s="9" t="str">
@@ -22480,11 +22480,11 @@
         <v>14.132999999999999</v>
       </c>
       <c r="D461" s="23" t="str">
-        <f>IF(COUNTIF(F461:L461,"D")&gt;0,"D",IF(COUNTIF(F461:L461,"-III")&gt;0,"-III",IF(COUNTIF(F461:L461,"-II")&gt;0,"-II",IF(COUNTIF(F461:L461,"-I")&gt;0,"-I",IF(COUNTIF(F461:L461,"+0")&gt;0,"+0",IF(COUNTIF(F461:L461,"+I")&gt;0,"+I",IF(COUNTIF(F461:L461,"+II")&gt;0,"+II",IF(COUNTIF(F461:L461,"+III")&gt;0,"+III",IF(COUNTIF(F461:L461,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E461" s="23" t="str">
-        <f>IF(COUNTIF(F461:L461,"-III")&gt;0,"-III",IF(COUNTIF(F461:L461,"-II")&gt;0,"-II",IF(COUNTIF(F461:L461,"-I")&gt;0,"-I",IF(COUNTIF(F461:L461,"+0")&gt;0,"+0",IF(COUNTIF(F461:L461,"+I")&gt;0,"+I",IF(COUNTIF(F461:L461,"+II")&gt;0,"+II",IF(COUNTIF(F461:L461,"+III")&gt;0,"+III",IF(COUNTIF(F461:L461,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F461" s="9" t="str">
@@ -22524,11 +22524,11 @@
         <v>14.137</v>
       </c>
       <c r="D462" s="23" t="str">
-        <f>IF(COUNTIF(F462:L462,"D")&gt;0,"D",IF(COUNTIF(F462:L462,"-III")&gt;0,"-III",IF(COUNTIF(F462:L462,"-II")&gt;0,"-II",IF(COUNTIF(F462:L462,"-I")&gt;0,"-I",IF(COUNTIF(F462:L462,"+0")&gt;0,"+0",IF(COUNTIF(F462:L462,"+I")&gt;0,"+I",IF(COUNTIF(F462:L462,"+II")&gt;0,"+II",IF(COUNTIF(F462:L462,"+III")&gt;0,"+III",IF(COUNTIF(F462:L462,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E462" s="23" t="str">
-        <f>IF(COUNTIF(F462:L462,"-III")&gt;0,"-III",IF(COUNTIF(F462:L462,"-II")&gt;0,"-II",IF(COUNTIF(F462:L462,"-I")&gt;0,"-I",IF(COUNTIF(F462:L462,"+0")&gt;0,"+0",IF(COUNTIF(F462:L462,"+I")&gt;0,"+I",IF(COUNTIF(F462:L462,"+II")&gt;0,"+II",IF(COUNTIF(F462:L462,"+III")&gt;0,"+III",IF(COUNTIF(F462:L462,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F462" s="9" t="str">
@@ -22568,11 +22568,11 @@
         <v>14.223000000000001</v>
       </c>
       <c r="D463" s="23" t="str">
-        <f>IF(COUNTIF(F463:L463,"D")&gt;0,"D",IF(COUNTIF(F463:L463,"-III")&gt;0,"-III",IF(COUNTIF(F463:L463,"-II")&gt;0,"-II",IF(COUNTIF(F463:L463,"-I")&gt;0,"-I",IF(COUNTIF(F463:L463,"+0")&gt;0,"+0",IF(COUNTIF(F463:L463,"+I")&gt;0,"+I",IF(COUNTIF(F463:L463,"+II")&gt;0,"+II",IF(COUNTIF(F463:L463,"+III")&gt;0,"+III",IF(COUNTIF(F463:L463,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E463" s="23" t="str">
-        <f>IF(COUNTIF(F463:L463,"-III")&gt;0,"-III",IF(COUNTIF(F463:L463,"-II")&gt;0,"-II",IF(COUNTIF(F463:L463,"-I")&gt;0,"-I",IF(COUNTIF(F463:L463,"+0")&gt;0,"+0",IF(COUNTIF(F463:L463,"+I")&gt;0,"+I",IF(COUNTIF(F463:L463,"+II")&gt;0,"+II",IF(COUNTIF(F463:L463,"+III")&gt;0,"+III",IF(COUNTIF(F463:L463,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F463" s="9" t="str">
@@ -22612,11 +22612,11 @@
         <v>14.227</v>
       </c>
       <c r="D464" s="23" t="str">
-        <f>IF(COUNTIF(F464:L464,"D")&gt;0,"D",IF(COUNTIF(F464:L464,"-III")&gt;0,"-III",IF(COUNTIF(F464:L464,"-II")&gt;0,"-II",IF(COUNTIF(F464:L464,"-I")&gt;0,"-I",IF(COUNTIF(F464:L464,"+0")&gt;0,"+0",IF(COUNTIF(F464:L464,"+I")&gt;0,"+I",IF(COUNTIF(F464:L464,"+II")&gt;0,"+II",IF(COUNTIF(F464:L464,"+III")&gt;0,"+III",IF(COUNTIF(F464:L464,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E464" s="23" t="str">
-        <f>IF(COUNTIF(F464:L464,"-III")&gt;0,"-III",IF(COUNTIF(F464:L464,"-II")&gt;0,"-II",IF(COUNTIF(F464:L464,"-I")&gt;0,"-I",IF(COUNTIF(F464:L464,"+0")&gt;0,"+0",IF(COUNTIF(F464:L464,"+I")&gt;0,"+I",IF(COUNTIF(F464:L464,"+II")&gt;0,"+II",IF(COUNTIF(F464:L464,"+III")&gt;0,"+III",IF(COUNTIF(F464:L464,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F464" s="9" t="str">
@@ -22656,11 +22656,11 @@
         <v>14.231</v>
       </c>
       <c r="D465" s="23" t="str">
-        <f>IF(COUNTIF(F465:L465,"D")&gt;0,"D",IF(COUNTIF(F465:L465,"-III")&gt;0,"-III",IF(COUNTIF(F465:L465,"-II")&gt;0,"-II",IF(COUNTIF(F465:L465,"-I")&gt;0,"-I",IF(COUNTIF(F465:L465,"+0")&gt;0,"+0",IF(COUNTIF(F465:L465,"+I")&gt;0,"+I",IF(COUNTIF(F465:L465,"+II")&gt;0,"+II",IF(COUNTIF(F465:L465,"+III")&gt;0,"+III",IF(COUNTIF(F465:L465,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E465" s="23" t="str">
-        <f>IF(COUNTIF(F465:L465,"-III")&gt;0,"-III",IF(COUNTIF(F465:L465,"-II")&gt;0,"-II",IF(COUNTIF(F465:L465,"-I")&gt;0,"-I",IF(COUNTIF(F465:L465,"+0")&gt;0,"+0",IF(COUNTIF(F465:L465,"+I")&gt;0,"+I",IF(COUNTIF(F465:L465,"+II")&gt;0,"+II",IF(COUNTIF(F465:L465,"+III")&gt;0,"+III",IF(COUNTIF(F465:L465,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F465" s="9" t="str">
@@ -22700,11 +22700,11 @@
         <v>14.237</v>
       </c>
       <c r="D466" s="23" t="str">
-        <f>IF(COUNTIF(F466:L466,"D")&gt;0,"D",IF(COUNTIF(F466:L466,"-III")&gt;0,"-III",IF(COUNTIF(F466:L466,"-II")&gt;0,"-II",IF(COUNTIF(F466:L466,"-I")&gt;0,"-I",IF(COUNTIF(F466:L466,"+0")&gt;0,"+0",IF(COUNTIF(F466:L466,"+I")&gt;0,"+I",IF(COUNTIF(F466:L466,"+II")&gt;0,"+II",IF(COUNTIF(F466:L466,"+III")&gt;0,"+III",IF(COUNTIF(F466:L466,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E466" s="23" t="str">
-        <f>IF(COUNTIF(F466:L466,"-III")&gt;0,"-III",IF(COUNTIF(F466:L466,"-II")&gt;0,"-II",IF(COUNTIF(F466:L466,"-I")&gt;0,"-I",IF(COUNTIF(F466:L466,"+0")&gt;0,"+0",IF(COUNTIF(F466:L466,"+I")&gt;0,"+I",IF(COUNTIF(F466:L466,"+II")&gt;0,"+II",IF(COUNTIF(F466:L466,"+III")&gt;0,"+III",IF(COUNTIF(F466:L466,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F466" s="9" t="str">
@@ -22744,11 +22744,11 @@
         <v>14.238</v>
       </c>
       <c r="D467" s="23" t="str">
-        <f>IF(COUNTIF(F467:L467,"D")&gt;0,"D",IF(COUNTIF(F467:L467,"-III")&gt;0,"-III",IF(COUNTIF(F467:L467,"-II")&gt;0,"-II",IF(COUNTIF(F467:L467,"-I")&gt;0,"-I",IF(COUNTIF(F467:L467,"+0")&gt;0,"+0",IF(COUNTIF(F467:L467,"+I")&gt;0,"+I",IF(COUNTIF(F467:L467,"+II")&gt;0,"+II",IF(COUNTIF(F467:L467,"+III")&gt;0,"+III",IF(COUNTIF(F467:L467,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E467" s="23" t="str">
-        <f>IF(COUNTIF(F467:L467,"-III")&gt;0,"-III",IF(COUNTIF(F467:L467,"-II")&gt;0,"-II",IF(COUNTIF(F467:L467,"-I")&gt;0,"-I",IF(COUNTIF(F467:L467,"+0")&gt;0,"+0",IF(COUNTIF(F467:L467,"+I")&gt;0,"+I",IF(COUNTIF(F467:L467,"+II")&gt;0,"+II",IF(COUNTIF(F467:L467,"+III")&gt;0,"+III",IF(COUNTIF(F467:L467,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F467" s="9" t="str">
@@ -22788,11 +22788,11 @@
         <v>14.239000000000001</v>
       </c>
       <c r="D468" s="23" t="str">
-        <f>IF(COUNTIF(F468:L468,"D")&gt;0,"D",IF(COUNTIF(F468:L468,"-III")&gt;0,"-III",IF(COUNTIF(F468:L468,"-II")&gt;0,"-II",IF(COUNTIF(F468:L468,"-I")&gt;0,"-I",IF(COUNTIF(F468:L468,"+0")&gt;0,"+0",IF(COUNTIF(F468:L468,"+I")&gt;0,"+I",IF(COUNTIF(F468:L468,"+II")&gt;0,"+II",IF(COUNTIF(F468:L468,"+III")&gt;0,"+III",IF(COUNTIF(F468:L468,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E468" s="23" t="str">
-        <f>IF(COUNTIF(F468:L468,"-III")&gt;0,"-III",IF(COUNTIF(F468:L468,"-II")&gt;0,"-II",IF(COUNTIF(F468:L468,"-I")&gt;0,"-I",IF(COUNTIF(F468:L468,"+0")&gt;0,"+0",IF(COUNTIF(F468:L468,"+I")&gt;0,"+I",IF(COUNTIF(F468:L468,"+II")&gt;0,"+II",IF(COUNTIF(F468:L468,"+III")&gt;0,"+III",IF(COUNTIF(F468:L468,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F468" s="9" t="str">
@@ -22832,11 +22832,11 @@
         <v>14.269</v>
       </c>
       <c r="D469" s="23" t="str">
-        <f>IF(COUNTIF(F469:L469,"D")&gt;0,"D",IF(COUNTIF(F469:L469,"-III")&gt;0,"-III",IF(COUNTIF(F469:L469,"-II")&gt;0,"-II",IF(COUNTIF(F469:L469,"-I")&gt;0,"-I",IF(COUNTIF(F469:L469,"+0")&gt;0,"+0",IF(COUNTIF(F469:L469,"+I")&gt;0,"+I",IF(COUNTIF(F469:L469,"+II")&gt;0,"+II",IF(COUNTIF(F469:L469,"+III")&gt;0,"+III",IF(COUNTIF(F469:L469,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E469" s="23" t="str">
-        <f>IF(COUNTIF(F469:L469,"-III")&gt;0,"-III",IF(COUNTIF(F469:L469,"-II")&gt;0,"-II",IF(COUNTIF(F469:L469,"-I")&gt;0,"-I",IF(COUNTIF(F469:L469,"+0")&gt;0,"+0",IF(COUNTIF(F469:L469,"+I")&gt;0,"+I",IF(COUNTIF(F469:L469,"+II")&gt;0,"+II",IF(COUNTIF(F469:L469,"+III")&gt;0,"+III",IF(COUNTIF(F469:L469,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F469" s="9" t="str">
@@ -22876,11 +22876,11 @@
         <v>14.298999999999999</v>
       </c>
       <c r="D470" s="23" t="str">
-        <f>IF(COUNTIF(F470:L470,"D")&gt;0,"D",IF(COUNTIF(F470:L470,"-III")&gt;0,"-III",IF(COUNTIF(F470:L470,"-II")&gt;0,"-II",IF(COUNTIF(F470:L470,"-I")&gt;0,"-I",IF(COUNTIF(F470:L470,"+0")&gt;0,"+0",IF(COUNTIF(F470:L470,"+I")&gt;0,"+I",IF(COUNTIF(F470:L470,"+II")&gt;0,"+II",IF(COUNTIF(F470:L470,"+III")&gt;0,"+III",IF(COUNTIF(F470:L470,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E470" s="23" t="str">
-        <f>IF(COUNTIF(F470:L470,"-III")&gt;0,"-III",IF(COUNTIF(F470:L470,"-II")&gt;0,"-II",IF(COUNTIF(F470:L470,"-I")&gt;0,"-I",IF(COUNTIF(F470:L470,"+0")&gt;0,"+0",IF(COUNTIF(F470:L470,"+I")&gt;0,"+I",IF(COUNTIF(F470:L470,"+II")&gt;0,"+II",IF(COUNTIF(F470:L470,"+III")&gt;0,"+III",IF(COUNTIF(F470:L470,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F470" s="9" t="str">
@@ -22920,11 +22920,11 @@
         <v>14.369</v>
       </c>
       <c r="D471" s="23" t="str">
-        <f>IF(COUNTIF(F471:L471,"D")&gt;0,"D",IF(COUNTIF(F471:L471,"-III")&gt;0,"-III",IF(COUNTIF(F471:L471,"-II")&gt;0,"-II",IF(COUNTIF(F471:L471,"-I")&gt;0,"-I",IF(COUNTIF(F471:L471,"+0")&gt;0,"+0",IF(COUNTIF(F471:L471,"+I")&gt;0,"+I",IF(COUNTIF(F471:L471,"+II")&gt;0,"+II",IF(COUNTIF(F471:L471,"+III")&gt;0,"+III",IF(COUNTIF(F471:L471,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E471" s="23" t="str">
-        <f>IF(COUNTIF(F471:L471,"-III")&gt;0,"-III",IF(COUNTIF(F471:L471,"-II")&gt;0,"-II",IF(COUNTIF(F471:L471,"-I")&gt;0,"-I",IF(COUNTIF(F471:L471,"+0")&gt;0,"+0",IF(COUNTIF(F471:L471,"+I")&gt;0,"+I",IF(COUNTIF(F471:L471,"+II")&gt;0,"+II",IF(COUNTIF(F471:L471,"+III")&gt;0,"+III",IF(COUNTIF(F471:L471,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F471" s="9" t="str">
@@ -22964,11 +22964,11 @@
         <v>14.372</v>
       </c>
       <c r="D472" s="23" t="str">
-        <f>IF(COUNTIF(F472:L472,"D")&gt;0,"D",IF(COUNTIF(F472:L472,"-III")&gt;0,"-III",IF(COUNTIF(F472:L472,"-II")&gt;0,"-II",IF(COUNTIF(F472:L472,"-I")&gt;0,"-I",IF(COUNTIF(F472:L472,"+0")&gt;0,"+0",IF(COUNTIF(F472:L472,"+I")&gt;0,"+I",IF(COUNTIF(F472:L472,"+II")&gt;0,"+II",IF(COUNTIF(F472:L472,"+III")&gt;0,"+III",IF(COUNTIF(F472:L472,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E472" s="23" t="str">
-        <f>IF(COUNTIF(F472:L472,"-III")&gt;0,"-III",IF(COUNTIF(F472:L472,"-II")&gt;0,"-II",IF(COUNTIF(F472:L472,"-I")&gt;0,"-I",IF(COUNTIF(F472:L472,"+0")&gt;0,"+0",IF(COUNTIF(F472:L472,"+I")&gt;0,"+I",IF(COUNTIF(F472:L472,"+II")&gt;0,"+II",IF(COUNTIF(F472:L472,"+III")&gt;0,"+III",IF(COUNTIF(F472:L472,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F472" s="9" t="str">
@@ -23008,11 +23008,11 @@
         <v>14.391</v>
       </c>
       <c r="D473" s="23" t="str">
-        <f>IF(COUNTIF(F473:L473,"D")&gt;0,"D",IF(COUNTIF(F473:L473,"-III")&gt;0,"-III",IF(COUNTIF(F473:L473,"-II")&gt;0,"-II",IF(COUNTIF(F473:L473,"-I")&gt;0,"-I",IF(COUNTIF(F473:L473,"+0")&gt;0,"+0",IF(COUNTIF(F473:L473,"+I")&gt;0,"+I",IF(COUNTIF(F473:L473,"+II")&gt;0,"+II",IF(COUNTIF(F473:L473,"+III")&gt;0,"+III",IF(COUNTIF(F473:L473,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E473" s="23" t="str">
-        <f>IF(COUNTIF(F473:L473,"-III")&gt;0,"-III",IF(COUNTIF(F473:L473,"-II")&gt;0,"-II",IF(COUNTIF(F473:L473,"-I")&gt;0,"-I",IF(COUNTIF(F473:L473,"+0")&gt;0,"+0",IF(COUNTIF(F473:L473,"+I")&gt;0,"+I",IF(COUNTIF(F473:L473,"+II")&gt;0,"+II",IF(COUNTIF(F473:L473,"+III")&gt;0,"+III",IF(COUNTIF(F473:L473,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F473" s="9" t="str">
@@ -23052,11 +23052,11 @@
         <v>14.419</v>
       </c>
       <c r="D474" s="23" t="str">
-        <f>IF(COUNTIF(F474:L474,"D")&gt;0,"D",IF(COUNTIF(F474:L474,"-III")&gt;0,"-III",IF(COUNTIF(F474:L474,"-II")&gt;0,"-II",IF(COUNTIF(F474:L474,"-I")&gt;0,"-I",IF(COUNTIF(F474:L474,"+0")&gt;0,"+0",IF(COUNTIF(F474:L474,"+I")&gt;0,"+I",IF(COUNTIF(F474:L474,"+II")&gt;0,"+II",IF(COUNTIF(F474:L474,"+III")&gt;0,"+III",IF(COUNTIF(F474:L474,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E474" s="23" t="str">
-        <f>IF(COUNTIF(F474:L474,"-III")&gt;0,"-III",IF(COUNTIF(F474:L474,"-II")&gt;0,"-II",IF(COUNTIF(F474:L474,"-I")&gt;0,"-I",IF(COUNTIF(F474:L474,"+0")&gt;0,"+0",IF(COUNTIF(F474:L474,"+I")&gt;0,"+I",IF(COUNTIF(F474:L474,"+II")&gt;0,"+II",IF(COUNTIF(F474:L474,"+III")&gt;0,"+III",IF(COUNTIF(F474:L474,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F474" s="9" t="str">
@@ -23096,11 +23096,11 @@
         <v>14.448</v>
       </c>
       <c r="D475" s="23" t="str">
-        <f>IF(COUNTIF(F475:L475,"D")&gt;0,"D",IF(COUNTIF(F475:L475,"-III")&gt;0,"-III",IF(COUNTIF(F475:L475,"-II")&gt;0,"-II",IF(COUNTIF(F475:L475,"-I")&gt;0,"-I",IF(COUNTIF(F475:L475,"+0")&gt;0,"+0",IF(COUNTIF(F475:L475,"+I")&gt;0,"+I",IF(COUNTIF(F475:L475,"+II")&gt;0,"+II",IF(COUNTIF(F475:L475,"+III")&gt;0,"+III",IF(COUNTIF(F475:L475,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E475" s="23" t="str">
-        <f>IF(COUNTIF(F475:L475,"-III")&gt;0,"-III",IF(COUNTIF(F475:L475,"-II")&gt;0,"-II",IF(COUNTIF(F475:L475,"-I")&gt;0,"-I",IF(COUNTIF(F475:L475,"+0")&gt;0,"+0",IF(COUNTIF(F475:L475,"+I")&gt;0,"+I",IF(COUNTIF(F475:L475,"+II")&gt;0,"+II",IF(COUNTIF(F475:L475,"+III")&gt;0,"+III",IF(COUNTIF(F475:L475,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F475" s="9" t="str">
@@ -23140,11 +23140,11 @@
         <v>14.47</v>
       </c>
       <c r="D476" s="23" t="str">
-        <f>IF(COUNTIF(F476:L476,"D")&gt;0,"D",IF(COUNTIF(F476:L476,"-III")&gt;0,"-III",IF(COUNTIF(F476:L476,"-II")&gt;0,"-II",IF(COUNTIF(F476:L476,"-I")&gt;0,"-I",IF(COUNTIF(F476:L476,"+0")&gt;0,"+0",IF(COUNTIF(F476:L476,"+I")&gt;0,"+I",IF(COUNTIF(F476:L476,"+II")&gt;0,"+II",IF(COUNTIF(F476:L476,"+III")&gt;0,"+III",IF(COUNTIF(F476:L476,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E476" s="23" t="str">
-        <f>IF(COUNTIF(F476:L476,"-III")&gt;0,"-III",IF(COUNTIF(F476:L476,"-II")&gt;0,"-II",IF(COUNTIF(F476:L476,"-I")&gt;0,"-I",IF(COUNTIF(F476:L476,"+0")&gt;0,"+0",IF(COUNTIF(F476:L476,"+I")&gt;0,"+I",IF(COUNTIF(F476:L476,"+II")&gt;0,"+II",IF(COUNTIF(F476:L476,"+III")&gt;0,"+III",IF(COUNTIF(F476:L476,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F476" s="9" t="str">
@@ -23184,11 +23184,11 @@
         <v>14.528</v>
       </c>
       <c r="D477" s="23" t="str">
-        <f>IF(COUNTIF(F477:L477,"D")&gt;0,"D",IF(COUNTIF(F477:L477,"-III")&gt;0,"-III",IF(COUNTIF(F477:L477,"-II")&gt;0,"-II",IF(COUNTIF(F477:L477,"-I")&gt;0,"-I",IF(COUNTIF(F477:L477,"+0")&gt;0,"+0",IF(COUNTIF(F477:L477,"+I")&gt;0,"+I",IF(COUNTIF(F477:L477,"+II")&gt;0,"+II",IF(COUNTIF(F477:L477,"+III")&gt;0,"+III",IF(COUNTIF(F477:L477,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E477" s="23" t="str">
-        <f>IF(COUNTIF(F477:L477,"-III")&gt;0,"-III",IF(COUNTIF(F477:L477,"-II")&gt;0,"-II",IF(COUNTIF(F477:L477,"-I")&gt;0,"-I",IF(COUNTIF(F477:L477,"+0")&gt;0,"+0",IF(COUNTIF(F477:L477,"+I")&gt;0,"+I",IF(COUNTIF(F477:L477,"+II")&gt;0,"+II",IF(COUNTIF(F477:L477,"+III")&gt;0,"+III",IF(COUNTIF(F477:L477,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F477" s="9" t="str">
@@ -23228,11 +23228,11 @@
         <v>14.532999999999999</v>
       </c>
       <c r="D478" s="23" t="str">
-        <f>IF(COUNTIF(F478:L478,"D")&gt;0,"D",IF(COUNTIF(F478:L478,"-III")&gt;0,"-III",IF(COUNTIF(F478:L478,"-II")&gt;0,"-II",IF(COUNTIF(F478:L478,"-I")&gt;0,"-I",IF(COUNTIF(F478:L478,"+0")&gt;0,"+0",IF(COUNTIF(F478:L478,"+I")&gt;0,"+I",IF(COUNTIF(F478:L478,"+II")&gt;0,"+II",IF(COUNTIF(F478:L478,"+III")&gt;0,"+III",IF(COUNTIF(F478:L478,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E478" s="23" t="str">
-        <f>IF(COUNTIF(F478:L478,"-III")&gt;0,"-III",IF(COUNTIF(F478:L478,"-II")&gt;0,"-II",IF(COUNTIF(F478:L478,"-I")&gt;0,"-I",IF(COUNTIF(F478:L478,"+0")&gt;0,"+0",IF(COUNTIF(F478:L478,"+I")&gt;0,"+I",IF(COUNTIF(F478:L478,"+II")&gt;0,"+II",IF(COUNTIF(F478:L478,"+III")&gt;0,"+III",IF(COUNTIF(F478:L478,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F478" s="9" t="str">
@@ -23272,11 +23272,11 @@
         <v>14.54</v>
       </c>
       <c r="D479" s="23" t="str">
-        <f>IF(COUNTIF(F479:L479,"D")&gt;0,"D",IF(COUNTIF(F479:L479,"-III")&gt;0,"-III",IF(COUNTIF(F479:L479,"-II")&gt;0,"-II",IF(COUNTIF(F479:L479,"-I")&gt;0,"-I",IF(COUNTIF(F479:L479,"+0")&gt;0,"+0",IF(COUNTIF(F479:L479,"+I")&gt;0,"+I",IF(COUNTIF(F479:L479,"+II")&gt;0,"+II",IF(COUNTIF(F479:L479,"+III")&gt;0,"+III",IF(COUNTIF(F479:L479,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E479" s="23" t="str">
-        <f>IF(COUNTIF(F479:L479,"-III")&gt;0,"-III",IF(COUNTIF(F479:L479,"-II")&gt;0,"-II",IF(COUNTIF(F479:L479,"-I")&gt;0,"-I",IF(COUNTIF(F479:L479,"+0")&gt;0,"+0",IF(COUNTIF(F479:L479,"+I")&gt;0,"+I",IF(COUNTIF(F479:L479,"+II")&gt;0,"+II",IF(COUNTIF(F479:L479,"+III")&gt;0,"+III",IF(COUNTIF(F479:L479,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F479" s="9" t="str">
@@ -23316,11 +23316,11 @@
         <v>14.635999999999999</v>
       </c>
       <c r="D480" s="23" t="str">
-        <f>IF(COUNTIF(F480:L480,"D")&gt;0,"D",IF(COUNTIF(F480:L480,"-III")&gt;0,"-III",IF(COUNTIF(F480:L480,"-II")&gt;0,"-II",IF(COUNTIF(F480:L480,"-I")&gt;0,"-I",IF(COUNTIF(F480:L480,"+0")&gt;0,"+0",IF(COUNTIF(F480:L480,"+I")&gt;0,"+I",IF(COUNTIF(F480:L480,"+II")&gt;0,"+II",IF(COUNTIF(F480:L480,"+III")&gt;0,"+III",IF(COUNTIF(F480:L480,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E480" s="23" t="str">
-        <f>IF(COUNTIF(F480:L480,"-III")&gt;0,"-III",IF(COUNTIF(F480:L480,"-II")&gt;0,"-II",IF(COUNTIF(F480:L480,"-I")&gt;0,"-I",IF(COUNTIF(F480:L480,"+0")&gt;0,"+0",IF(COUNTIF(F480:L480,"+I")&gt;0,"+I",IF(COUNTIF(F480:L480,"+II")&gt;0,"+II",IF(COUNTIF(F480:L480,"+III")&gt;0,"+III",IF(COUNTIF(F480:L480,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F480" s="9" t="str">
@@ -23360,11 +23360,11 @@
         <v>14.677</v>
       </c>
       <c r="D481" s="23" t="str">
-        <f>IF(COUNTIF(F481:L481,"D")&gt;0,"D",IF(COUNTIF(F481:L481,"-III")&gt;0,"-III",IF(COUNTIF(F481:L481,"-II")&gt;0,"-II",IF(COUNTIF(F481:L481,"-I")&gt;0,"-I",IF(COUNTIF(F481:L481,"+0")&gt;0,"+0",IF(COUNTIF(F481:L481,"+I")&gt;0,"+I",IF(COUNTIF(F481:L481,"+II")&gt;0,"+II",IF(COUNTIF(F481:L481,"+III")&gt;0,"+III",IF(COUNTIF(F481:L481,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E481" s="23" t="str">
-        <f>IF(COUNTIF(F481:L481,"-III")&gt;0,"-III",IF(COUNTIF(F481:L481,"-II")&gt;0,"-II",IF(COUNTIF(F481:L481,"-I")&gt;0,"-I",IF(COUNTIF(F481:L481,"+0")&gt;0,"+0",IF(COUNTIF(F481:L481,"+I")&gt;0,"+I",IF(COUNTIF(F481:L481,"+II")&gt;0,"+II",IF(COUNTIF(F481:L481,"+III")&gt;0,"+III",IF(COUNTIF(F481:L481,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F481" s="9" t="str">
@@ -23404,11 +23404,11 @@
         <v>14.683</v>
       </c>
       <c r="D482" s="23" t="str">
-        <f>IF(COUNTIF(F482:L482,"D")&gt;0,"D",IF(COUNTIF(F482:L482,"-III")&gt;0,"-III",IF(COUNTIF(F482:L482,"-II")&gt;0,"-II",IF(COUNTIF(F482:L482,"-I")&gt;0,"-I",IF(COUNTIF(F482:L482,"+0")&gt;0,"+0",IF(COUNTIF(F482:L482,"+I")&gt;0,"+I",IF(COUNTIF(F482:L482,"+II")&gt;0,"+II",IF(COUNTIF(F482:L482,"+III")&gt;0,"+III",IF(COUNTIF(F482:L482,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E482" s="23" t="str">
-        <f>IF(COUNTIF(F482:L482,"-III")&gt;0,"-III",IF(COUNTIF(F482:L482,"-II")&gt;0,"-II",IF(COUNTIF(F482:L482,"-I")&gt;0,"-I",IF(COUNTIF(F482:L482,"+0")&gt;0,"+0",IF(COUNTIF(F482:L482,"+I")&gt;0,"+I",IF(COUNTIF(F482:L482,"+II")&gt;0,"+II",IF(COUNTIF(F482:L482,"+III")&gt;0,"+III",IF(COUNTIF(F482:L482,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F482" s="9" t="str">
@@ -23448,11 +23448,11 @@
         <v>14.704000000000001</v>
       </c>
       <c r="D483" s="23" t="str">
-        <f>IF(COUNTIF(F483:L483,"D")&gt;0,"D",IF(COUNTIF(F483:L483,"-III")&gt;0,"-III",IF(COUNTIF(F483:L483,"-II")&gt;0,"-II",IF(COUNTIF(F483:L483,"-I")&gt;0,"-I",IF(COUNTIF(F483:L483,"+0")&gt;0,"+0",IF(COUNTIF(F483:L483,"+I")&gt;0,"+I",IF(COUNTIF(F483:L483,"+II")&gt;0,"+II",IF(COUNTIF(F483:L483,"+III")&gt;0,"+III",IF(COUNTIF(F483:L483,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E483" s="23" t="str">
-        <f>IF(COUNTIF(F483:L483,"-III")&gt;0,"-III",IF(COUNTIF(F483:L483,"-II")&gt;0,"-II",IF(COUNTIF(F483:L483,"-I")&gt;0,"-I",IF(COUNTIF(F483:L483,"+0")&gt;0,"+0",IF(COUNTIF(F483:L483,"+I")&gt;0,"+I",IF(COUNTIF(F483:L483,"+II")&gt;0,"+II",IF(COUNTIF(F483:L483,"+III")&gt;0,"+III",IF(COUNTIF(F483:L483,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F483" s="9" t="str">
@@ -23492,11 +23492,11 @@
         <v>14.725</v>
       </c>
       <c r="D484" s="23" t="str">
-        <f>IF(COUNTIF(F484:L484,"D")&gt;0,"D",IF(COUNTIF(F484:L484,"-III")&gt;0,"-III",IF(COUNTIF(F484:L484,"-II")&gt;0,"-II",IF(COUNTIF(F484:L484,"-I")&gt;0,"-I",IF(COUNTIF(F484:L484,"+0")&gt;0,"+0",IF(COUNTIF(F484:L484,"+I")&gt;0,"+I",IF(COUNTIF(F484:L484,"+II")&gt;0,"+II",IF(COUNTIF(F484:L484,"+III")&gt;0,"+III",IF(COUNTIF(F484:L484,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E484" s="23" t="str">
-        <f>IF(COUNTIF(F484:L484,"-III")&gt;0,"-III",IF(COUNTIF(F484:L484,"-II")&gt;0,"-II",IF(COUNTIF(F484:L484,"-I")&gt;0,"-I",IF(COUNTIF(F484:L484,"+0")&gt;0,"+0",IF(COUNTIF(F484:L484,"+I")&gt;0,"+I",IF(COUNTIF(F484:L484,"+II")&gt;0,"+II",IF(COUNTIF(F484:L484,"+III")&gt;0,"+III",IF(COUNTIF(F484:L484,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F484" s="9" t="str">
@@ -23536,11 +23536,11 @@
         <v>14.753</v>
       </c>
       <c r="D485" s="23" t="str">
-        <f>IF(COUNTIF(F485:L485,"D")&gt;0,"D",IF(COUNTIF(F485:L485,"-III")&gt;0,"-III",IF(COUNTIF(F485:L485,"-II")&gt;0,"-II",IF(COUNTIF(F485:L485,"-I")&gt;0,"-I",IF(COUNTIF(F485:L485,"+0")&gt;0,"+0",IF(COUNTIF(F485:L485,"+I")&gt;0,"+I",IF(COUNTIF(F485:L485,"+II")&gt;0,"+II",IF(COUNTIF(F485:L485,"+III")&gt;0,"+III",IF(COUNTIF(F485:L485,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E485" s="23" t="str">
-        <f>IF(COUNTIF(F485:L485,"-III")&gt;0,"-III",IF(COUNTIF(F485:L485,"-II")&gt;0,"-II",IF(COUNTIF(F485:L485,"-I")&gt;0,"-I",IF(COUNTIF(F485:L485,"+0")&gt;0,"+0",IF(COUNTIF(F485:L485,"+I")&gt;0,"+I",IF(COUNTIF(F485:L485,"+II")&gt;0,"+II",IF(COUNTIF(F485:L485,"+III")&gt;0,"+III",IF(COUNTIF(F485:L485,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F485" s="9" t="str">
@@ -23580,11 +23580,11 @@
         <v>14.763999999999999</v>
       </c>
       <c r="D486" s="23" t="str">
-        <f>IF(COUNTIF(F486:L486,"D")&gt;0,"D",IF(COUNTIF(F486:L486,"-III")&gt;0,"-III",IF(COUNTIF(F486:L486,"-II")&gt;0,"-II",IF(COUNTIF(F486:L486,"-I")&gt;0,"-I",IF(COUNTIF(F486:L486,"+0")&gt;0,"+0",IF(COUNTIF(F486:L486,"+I")&gt;0,"+I",IF(COUNTIF(F486:L486,"+II")&gt;0,"+II",IF(COUNTIF(F486:L486,"+III")&gt;0,"+III",IF(COUNTIF(F486:L486,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+II</v>
       </c>
       <c r="E486" s="23" t="str">
-        <f>IF(COUNTIF(F486:L486,"-III")&gt;0,"-III",IF(COUNTIF(F486:L486,"-II")&gt;0,"-II",IF(COUNTIF(F486:L486,"-I")&gt;0,"-I",IF(COUNTIF(F486:L486,"+0")&gt;0,"+0",IF(COUNTIF(F486:L486,"+I")&gt;0,"+I",IF(COUNTIF(F486:L486,"+II")&gt;0,"+II",IF(COUNTIF(F486:L486,"+III")&gt;0,"+III",IF(COUNTIF(F486:L486,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+II</v>
       </c>
       <c r="F486" s="9" t="str">
@@ -23624,11 +23624,11 @@
         <v>14.771000000000001</v>
       </c>
       <c r="D487" s="23" t="str">
-        <f>IF(COUNTIF(F487:L487,"D")&gt;0,"D",IF(COUNTIF(F487:L487,"-III")&gt;0,"-III",IF(COUNTIF(F487:L487,"-II")&gt;0,"-II",IF(COUNTIF(F487:L487,"-I")&gt;0,"-I",IF(COUNTIF(F487:L487,"+0")&gt;0,"+0",IF(COUNTIF(F487:L487,"+I")&gt;0,"+I",IF(COUNTIF(F487:L487,"+II")&gt;0,"+II",IF(COUNTIF(F487:L487,"+III")&gt;0,"+III",IF(COUNTIF(F487:L487,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E487" s="23" t="str">
-        <f>IF(COUNTIF(F487:L487,"-III")&gt;0,"-III",IF(COUNTIF(F487:L487,"-II")&gt;0,"-II",IF(COUNTIF(F487:L487,"-I")&gt;0,"-I",IF(COUNTIF(F487:L487,"+0")&gt;0,"+0",IF(COUNTIF(F487:L487,"+I")&gt;0,"+I",IF(COUNTIF(F487:L487,"+II")&gt;0,"+II",IF(COUNTIF(F487:L487,"+III")&gt;0,"+III",IF(COUNTIF(F487:L487,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F487" s="9" t="str">
@@ -23668,11 +23668,11 @@
         <v>14.773</v>
       </c>
       <c r="D488" s="23" t="str">
-        <f>IF(COUNTIF(F488:L488,"D")&gt;0,"D",IF(COUNTIF(F488:L488,"-III")&gt;0,"-III",IF(COUNTIF(F488:L488,"-II")&gt;0,"-II",IF(COUNTIF(F488:L488,"-I")&gt;0,"-I",IF(COUNTIF(F488:L488,"+0")&gt;0,"+0",IF(COUNTIF(F488:L488,"+I")&gt;0,"+I",IF(COUNTIF(F488:L488,"+II")&gt;0,"+II",IF(COUNTIF(F488:L488,"+III")&gt;0,"+III",IF(COUNTIF(F488:L488,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E488" s="23" t="str">
-        <f>IF(COUNTIF(F488:L488,"-III")&gt;0,"-III",IF(COUNTIF(F488:L488,"-II")&gt;0,"-II",IF(COUNTIF(F488:L488,"-I")&gt;0,"-I",IF(COUNTIF(F488:L488,"+0")&gt;0,"+0",IF(COUNTIF(F488:L488,"+I")&gt;0,"+I",IF(COUNTIF(F488:L488,"+II")&gt;0,"+II",IF(COUNTIF(F488:L488,"+III")&gt;0,"+III",IF(COUNTIF(F488:L488,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F488" s="9" t="str">
@@ -23712,11 +23712,11 @@
         <v>14.808999999999999</v>
       </c>
       <c r="D489" s="23" t="str">
-        <f>IF(COUNTIF(F489:L489,"D")&gt;0,"D",IF(COUNTIF(F489:L489,"-III")&gt;0,"-III",IF(COUNTIF(F489:L489,"-II")&gt;0,"-II",IF(COUNTIF(F489:L489,"-I")&gt;0,"-I",IF(COUNTIF(F489:L489,"+0")&gt;0,"+0",IF(COUNTIF(F489:L489,"+I")&gt;0,"+I",IF(COUNTIF(F489:L489,"+II")&gt;0,"+II",IF(COUNTIF(F489:L489,"+III")&gt;0,"+III",IF(COUNTIF(F489:L489,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E489" s="23" t="str">
-        <f>IF(COUNTIF(F489:L489,"-III")&gt;0,"-III",IF(COUNTIF(F489:L489,"-II")&gt;0,"-II",IF(COUNTIF(F489:L489,"-I")&gt;0,"-I",IF(COUNTIF(F489:L489,"+0")&gt;0,"+0",IF(COUNTIF(F489:L489,"+I")&gt;0,"+I",IF(COUNTIF(F489:L489,"+II")&gt;0,"+II",IF(COUNTIF(F489:L489,"+III")&gt;0,"+III",IF(COUNTIF(F489:L489,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F489" s="9" t="str">
@@ -23756,11 +23756,11 @@
         <v>14.818</v>
       </c>
       <c r="D490" s="23" t="str">
-        <f>IF(COUNTIF(F490:L490,"D")&gt;0,"D",IF(COUNTIF(F490:L490,"-III")&gt;0,"-III",IF(COUNTIF(F490:L490,"-II")&gt;0,"-II",IF(COUNTIF(F490:L490,"-I")&gt;0,"-I",IF(COUNTIF(F490:L490,"+0")&gt;0,"+0",IF(COUNTIF(F490:L490,"+I")&gt;0,"+I",IF(COUNTIF(F490:L490,"+II")&gt;0,"+II",IF(COUNTIF(F490:L490,"+III")&gt;0,"+III",IF(COUNTIF(F490:L490,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E490" s="23" t="str">
-        <f>IF(COUNTIF(F490:L490,"-III")&gt;0,"-III",IF(COUNTIF(F490:L490,"-II")&gt;0,"-II",IF(COUNTIF(F490:L490,"-I")&gt;0,"-I",IF(COUNTIF(F490:L490,"+0")&gt;0,"+0",IF(COUNTIF(F490:L490,"+I")&gt;0,"+I",IF(COUNTIF(F490:L490,"+II")&gt;0,"+II",IF(COUNTIF(F490:L490,"+III")&gt;0,"+III",IF(COUNTIF(F490:L490,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F490" s="9" t="str">
@@ -23800,11 +23800,11 @@
         <v>14.872</v>
       </c>
       <c r="D491" s="23" t="str">
-        <f>IF(COUNTIF(F491:L491,"D")&gt;0,"D",IF(COUNTIF(F491:L491,"-III")&gt;0,"-III",IF(COUNTIF(F491:L491,"-II")&gt;0,"-II",IF(COUNTIF(F491:L491,"-I")&gt;0,"-I",IF(COUNTIF(F491:L491,"+0")&gt;0,"+0",IF(COUNTIF(F491:L491,"+I")&gt;0,"+I",IF(COUNTIF(F491:L491,"+II")&gt;0,"+II",IF(COUNTIF(F491:L491,"+III")&gt;0,"+III",IF(COUNTIF(F491:L491,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E491" s="23" t="str">
-        <f>IF(COUNTIF(F491:L491,"-III")&gt;0,"-III",IF(COUNTIF(F491:L491,"-II")&gt;0,"-II",IF(COUNTIF(F491:L491,"-I")&gt;0,"-I",IF(COUNTIF(F491:L491,"+0")&gt;0,"+0",IF(COUNTIF(F491:L491,"+I")&gt;0,"+I",IF(COUNTIF(F491:L491,"+II")&gt;0,"+II",IF(COUNTIF(F491:L491,"+III")&gt;0,"+III",IF(COUNTIF(F491:L491,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F491" s="9" t="str">
@@ -23844,11 +23844,11 @@
         <v>14.904</v>
       </c>
       <c r="D492" s="23" t="str">
-        <f>IF(COUNTIF(F492:L492,"D")&gt;0,"D",IF(COUNTIF(F492:L492,"-III")&gt;0,"-III",IF(COUNTIF(F492:L492,"-II")&gt;0,"-II",IF(COUNTIF(F492:L492,"-I")&gt;0,"-I",IF(COUNTIF(F492:L492,"+0")&gt;0,"+0",IF(COUNTIF(F492:L492,"+I")&gt;0,"+I",IF(COUNTIF(F492:L492,"+II")&gt;0,"+II",IF(COUNTIF(F492:L492,"+III")&gt;0,"+III",IF(COUNTIF(F492:L492,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E492" s="23" t="str">
-        <f>IF(COUNTIF(F492:L492,"-III")&gt;0,"-III",IF(COUNTIF(F492:L492,"-II")&gt;0,"-II",IF(COUNTIF(F492:L492,"-I")&gt;0,"-I",IF(COUNTIF(F492:L492,"+0")&gt;0,"+0",IF(COUNTIF(F492:L492,"+I")&gt;0,"+I",IF(COUNTIF(F492:L492,"+II")&gt;0,"+II",IF(COUNTIF(F492:L492,"+III")&gt;0,"+III",IF(COUNTIF(F492:L492,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F492" s="9" t="str">
@@ -23888,11 +23888,11 @@
         <v>14.938000000000001</v>
       </c>
       <c r="D493" s="23" t="str">
-        <f>IF(COUNTIF(F493:L493,"D")&gt;0,"D",IF(COUNTIF(F493:L493,"-III")&gt;0,"-III",IF(COUNTIF(F493:L493,"-II")&gt;0,"-II",IF(COUNTIF(F493:L493,"-I")&gt;0,"-I",IF(COUNTIF(F493:L493,"+0")&gt;0,"+0",IF(COUNTIF(F493:L493,"+I")&gt;0,"+I",IF(COUNTIF(F493:L493,"+II")&gt;0,"+II",IF(COUNTIF(F493:L493,"+III")&gt;0,"+III",IF(COUNTIF(F493:L493,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E493" s="23" t="str">
-        <f>IF(COUNTIF(F493:L493,"-III")&gt;0,"-III",IF(COUNTIF(F493:L493,"-II")&gt;0,"-II",IF(COUNTIF(F493:L493,"-I")&gt;0,"-I",IF(COUNTIF(F493:L493,"+0")&gt;0,"+0",IF(COUNTIF(F493:L493,"+I")&gt;0,"+I",IF(COUNTIF(F493:L493,"+II")&gt;0,"+II",IF(COUNTIF(F493:L493,"+III")&gt;0,"+III",IF(COUNTIF(F493:L493,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F493" s="9" t="str">
@@ -23932,11 +23932,11 @@
         <v>15.018000000000001</v>
       </c>
       <c r="D494" s="23" t="str">
-        <f>IF(COUNTIF(F494:L494,"D")&gt;0,"D",IF(COUNTIF(F494:L494,"-III")&gt;0,"-III",IF(COUNTIF(F494:L494,"-II")&gt;0,"-II",IF(COUNTIF(F494:L494,"-I")&gt;0,"-I",IF(COUNTIF(F494:L494,"+0")&gt;0,"+0",IF(COUNTIF(F494:L494,"+I")&gt;0,"+I",IF(COUNTIF(F494:L494,"+II")&gt;0,"+II",IF(COUNTIF(F494:L494,"+III")&gt;0,"+III",IF(COUNTIF(F494:L494,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E494" s="23" t="str">
-        <f>IF(COUNTIF(F494:L494,"-III")&gt;0,"-III",IF(COUNTIF(F494:L494,"-II")&gt;0,"-II",IF(COUNTIF(F494:L494,"-I")&gt;0,"-I",IF(COUNTIF(F494:L494,"+0")&gt;0,"+0",IF(COUNTIF(F494:L494,"+I")&gt;0,"+I",IF(COUNTIF(F494:L494,"+II")&gt;0,"+II",IF(COUNTIF(F494:L494,"+III")&gt;0,"+III",IF(COUNTIF(F494:L494,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F494" s="9" t="str">
@@ -23976,11 +23976,11 @@
         <v>15.023</v>
       </c>
       <c r="D495" s="23" t="str">
-        <f>IF(COUNTIF(F495:L495,"D")&gt;0,"D",IF(COUNTIF(F495:L495,"-III")&gt;0,"-III",IF(COUNTIF(F495:L495,"-II")&gt;0,"-II",IF(COUNTIF(F495:L495,"-I")&gt;0,"-I",IF(COUNTIF(F495:L495,"+0")&gt;0,"+0",IF(COUNTIF(F495:L495,"+I")&gt;0,"+I",IF(COUNTIF(F495:L495,"+II")&gt;0,"+II",IF(COUNTIF(F495:L495,"+III")&gt;0,"+III",IF(COUNTIF(F495:L495,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>+III</v>
       </c>
       <c r="E495" s="23" t="str">
-        <f>IF(COUNTIF(F495:L495,"-III")&gt;0,"-III",IF(COUNTIF(F495:L495,"-II")&gt;0,"-II",IF(COUNTIF(F495:L495,"-I")&gt;0,"-I",IF(COUNTIF(F495:L495,"+0")&gt;0,"+0",IF(COUNTIF(F495:L495,"+I")&gt;0,"+I",IF(COUNTIF(F495:L495,"+II")&gt;0,"+II",IF(COUNTIF(F495:L495,"+III")&gt;0,"+III",IF(COUNTIF(F495:L495,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+III</v>
       </c>
       <c r="F495" s="9" t="str">
@@ -24020,11 +24020,11 @@
         <v>15.061</v>
       </c>
       <c r="D496" s="23" t="str">
-        <f>IF(COUNTIF(F496:L496,"D")&gt;0,"D",IF(COUNTIF(F496:L496,"-III")&gt;0,"-III",IF(COUNTIF(F496:L496,"-II")&gt;0,"-II",IF(COUNTIF(F496:L496,"-I")&gt;0,"-I",IF(COUNTIF(F496:L496,"+0")&gt;0,"+0",IF(COUNTIF(F496:L496,"+I")&gt;0,"+I",IF(COUNTIF(F496:L496,"+II")&gt;0,"+II",IF(COUNTIF(F496:L496,"+III")&gt;0,"+III",IF(COUNTIF(F496:L496,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E496" s="23" t="str">
-        <f>IF(COUNTIF(F496:L496,"-III")&gt;0,"-III",IF(COUNTIF(F496:L496,"-II")&gt;0,"-II",IF(COUNTIF(F496:L496,"-I")&gt;0,"-I",IF(COUNTIF(F496:L496,"+0")&gt;0,"+0",IF(COUNTIF(F496:L496,"+I")&gt;0,"+I",IF(COUNTIF(F496:L496,"+II")&gt;0,"+II",IF(COUNTIF(F496:L496,"+III")&gt;0,"+III",IF(COUNTIF(F496:L496,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F496" s="9" t="str">
@@ -24064,11 +24064,11 @@
         <v>15.077999999999999</v>
       </c>
       <c r="D497" s="23" t="str">
-        <f>IF(COUNTIF(F497:L497,"D")&gt;0,"D",IF(COUNTIF(F497:L497,"-III")&gt;0,"-III",IF(COUNTIF(F497:L497,"-II")&gt;0,"-II",IF(COUNTIF(F497:L497,"-I")&gt;0,"-I",IF(COUNTIF(F497:L497,"+0")&gt;0,"+0",IF(COUNTIF(F497:L497,"+I")&gt;0,"+I",IF(COUNTIF(F497:L497,"+II")&gt;0,"+II",IF(COUNTIF(F497:L497,"+III")&gt;0,"+III",IF(COUNTIF(F497:L497,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E497" s="23" t="str">
-        <f>IF(COUNTIF(F497:L497,"-III")&gt;0,"-III",IF(COUNTIF(F497:L497,"-II")&gt;0,"-II",IF(COUNTIF(F497:L497,"-I")&gt;0,"-I",IF(COUNTIF(F497:L497,"+0")&gt;0,"+0",IF(COUNTIF(F497:L497,"+I")&gt;0,"+I",IF(COUNTIF(F497:L497,"+II")&gt;0,"+II",IF(COUNTIF(F497:L497,"+III")&gt;0,"+III",IF(COUNTIF(F497:L497,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F497" s="9" t="str">
@@ -24108,11 +24108,11 @@
         <v>15.082000000000001</v>
       </c>
       <c r="D498" s="23" t="str">
-        <f>IF(COUNTIF(F498:L498,"D")&gt;0,"D",IF(COUNTIF(F498:L498,"-III")&gt;0,"-III",IF(COUNTIF(F498:L498,"-II")&gt;0,"-II",IF(COUNTIF(F498:L498,"-I")&gt;0,"-I",IF(COUNTIF(F498:L498,"+0")&gt;0,"+0",IF(COUNTIF(F498:L498,"+I")&gt;0,"+I",IF(COUNTIF(F498:L498,"+II")&gt;0,"+II",IF(COUNTIF(F498:L498,"+III")&gt;0,"+III",IF(COUNTIF(F498:L498,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E498" s="23" t="str">
-        <f>IF(COUNTIF(F498:L498,"-III")&gt;0,"-III",IF(COUNTIF(F498:L498,"-II")&gt;0,"-II",IF(COUNTIF(F498:L498,"-I")&gt;0,"-I",IF(COUNTIF(F498:L498,"+0")&gt;0,"+0",IF(COUNTIF(F498:L498,"+I")&gt;0,"+I",IF(COUNTIF(F498:L498,"+II")&gt;0,"+II",IF(COUNTIF(F498:L498,"+III")&gt;0,"+III",IF(COUNTIF(F498:L498,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F498" s="9" t="str">
@@ -24152,11 +24152,11 @@
         <v>15.1</v>
       </c>
       <c r="D499" s="23" t="str">
-        <f>IF(COUNTIF(F499:L499,"D")&gt;0,"D",IF(COUNTIF(F499:L499,"-III")&gt;0,"-III",IF(COUNTIF(F499:L499,"-II")&gt;0,"-II",IF(COUNTIF(F499:L499,"-I")&gt;0,"-I",IF(COUNTIF(F499:L499,"+0")&gt;0,"+0",IF(COUNTIF(F499:L499,"+I")&gt;0,"+I",IF(COUNTIF(F499:L499,"+II")&gt;0,"+II",IF(COUNTIF(F499:L499,"+III")&gt;0,"+III",IF(COUNTIF(F499:L499,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E499" s="23" t="str">
-        <f>IF(COUNTIF(F499:L499,"-III")&gt;0,"-III",IF(COUNTIF(F499:L499,"-II")&gt;0,"-II",IF(COUNTIF(F499:L499,"-I")&gt;0,"-I",IF(COUNTIF(F499:L499,"+0")&gt;0,"+0",IF(COUNTIF(F499:L499,"+I")&gt;0,"+I",IF(COUNTIF(F499:L499,"+II")&gt;0,"+II",IF(COUNTIF(F499:L499,"+III")&gt;0,"+III",IF(COUNTIF(F499:L499,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F499" s="9" t="str">
@@ -24196,11 +24196,11 @@
         <v>15.114000000000001</v>
       </c>
       <c r="D500" s="23" t="str">
-        <f>IF(COUNTIF(F500:L500,"D")&gt;0,"D",IF(COUNTIF(F500:L500,"-III")&gt;0,"-III",IF(COUNTIF(F500:L500,"-II")&gt;0,"-II",IF(COUNTIF(F500:L500,"-I")&gt;0,"-I",IF(COUNTIF(F500:L500,"+0")&gt;0,"+0",IF(COUNTIF(F500:L500,"+I")&gt;0,"+I",IF(COUNTIF(F500:L500,"+II")&gt;0,"+II",IF(COUNTIF(F500:L500,"+III")&gt;0,"+III",IF(COUNTIF(F500:L500,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E500" s="23" t="str">
-        <f>IF(COUNTIF(F500:L500,"-III")&gt;0,"-III",IF(COUNTIF(F500:L500,"-II")&gt;0,"-II",IF(COUNTIF(F500:L500,"-I")&gt;0,"-I",IF(COUNTIF(F500:L500,"+0")&gt;0,"+0",IF(COUNTIF(F500:L500,"+I")&gt;0,"+I",IF(COUNTIF(F500:L500,"+II")&gt;0,"+II",IF(COUNTIF(F500:L500,"+III")&gt;0,"+III",IF(COUNTIF(F500:L500,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F500" s="9" t="str">
@@ -24240,11 +24240,11 @@
         <v>15.131</v>
       </c>
       <c r="D501" s="23" t="str">
-        <f>IF(COUNTIF(F501:L501,"D")&gt;0,"D",IF(COUNTIF(F501:L501,"-III")&gt;0,"-III",IF(COUNTIF(F501:L501,"-II")&gt;0,"-II",IF(COUNTIF(F501:L501,"-I")&gt;0,"-I",IF(COUNTIF(F501:L501,"+0")&gt;0,"+0",IF(COUNTIF(F501:L501,"+I")&gt;0,"+I",IF(COUNTIF(F501:L501,"+II")&gt;0,"+II",IF(COUNTIF(F501:L501,"+III")&gt;0,"+III",IF(COUNTIF(F501:L501,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E501" s="23" t="str">
-        <f>IF(COUNTIF(F501:L501,"-III")&gt;0,"-III",IF(COUNTIF(F501:L501,"-II")&gt;0,"-II",IF(COUNTIF(F501:L501,"-I")&gt;0,"-I",IF(COUNTIF(F501:L501,"+0")&gt;0,"+0",IF(COUNTIF(F501:L501,"+I")&gt;0,"+I",IF(COUNTIF(F501:L501,"+II")&gt;0,"+II",IF(COUNTIF(F501:L501,"+III")&gt;0,"+III",IF(COUNTIF(F501:L501,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F501" s="9" t="str">
@@ -24284,11 +24284,11 @@
         <v>15.166</v>
       </c>
       <c r="D502" s="23" t="str">
-        <f>IF(COUNTIF(F502:L502,"D")&gt;0,"D",IF(COUNTIF(F502:L502,"-III")&gt;0,"-III",IF(COUNTIF(F502:L502,"-II")&gt;0,"-II",IF(COUNTIF(F502:L502,"-I")&gt;0,"-I",IF(COUNTIF(F502:L502,"+0")&gt;0,"+0",IF(COUNTIF(F502:L502,"+I")&gt;0,"+I",IF(COUNTIF(F502:L502,"+II")&gt;0,"+II",IF(COUNTIF(F502:L502,"+III")&gt;0,"+III",IF(COUNTIF(F502:L502,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E502" s="23" t="str">
-        <f>IF(COUNTIF(F502:L502,"-III")&gt;0,"-III",IF(COUNTIF(F502:L502,"-II")&gt;0,"-II",IF(COUNTIF(F502:L502,"-I")&gt;0,"-I",IF(COUNTIF(F502:L502,"+0")&gt;0,"+0",IF(COUNTIF(F502:L502,"+I")&gt;0,"+I",IF(COUNTIF(F502:L502,"+II")&gt;0,"+II",IF(COUNTIF(F502:L502,"+III")&gt;0,"+III",IF(COUNTIF(F502:L502,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F502" s="9" t="str">
@@ -24328,11 +24328,11 @@
         <v>15.202999999999999</v>
       </c>
       <c r="D503" s="23" t="str">
-        <f>IF(COUNTIF(F503:L503,"D")&gt;0,"D",IF(COUNTIF(F503:L503,"-III")&gt;0,"-III",IF(COUNTIF(F503:L503,"-II")&gt;0,"-II",IF(COUNTIF(F503:L503,"-I")&gt;0,"-I",IF(COUNTIF(F503:L503,"+0")&gt;0,"+0",IF(COUNTIF(F503:L503,"+I")&gt;0,"+I",IF(COUNTIF(F503:L503,"+II")&gt;0,"+II",IF(COUNTIF(F503:L503,"+III")&gt;0,"+III",IF(COUNTIF(F503:L503,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E503" s="23" t="str">
-        <f>IF(COUNTIF(F503:L503,"-III")&gt;0,"-III",IF(COUNTIF(F503:L503,"-II")&gt;0,"-II",IF(COUNTIF(F503:L503,"-I")&gt;0,"-I",IF(COUNTIF(F503:L503,"+0")&gt;0,"+0",IF(COUNTIF(F503:L503,"+I")&gt;0,"+I",IF(COUNTIF(F503:L503,"+II")&gt;0,"+II",IF(COUNTIF(F503:L503,"+III")&gt;0,"+III",IF(COUNTIF(F503:L503,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F503" s="9" t="str">
@@ -24372,11 +24372,11 @@
         <v>15.247999999999999</v>
       </c>
       <c r="D504" s="23" t="str">
-        <f>IF(COUNTIF(F504:L504,"D")&gt;0,"D",IF(COUNTIF(F504:L504,"-III")&gt;0,"-III",IF(COUNTIF(F504:L504,"-II")&gt;0,"-II",IF(COUNTIF(F504:L504,"-I")&gt;0,"-I",IF(COUNTIF(F504:L504,"+0")&gt;0,"+0",IF(COUNTIF(F504:L504,"+I")&gt;0,"+I",IF(COUNTIF(F504:L504,"+II")&gt;0,"+II",IF(COUNTIF(F504:L504,"+III")&gt;0,"+III",IF(COUNTIF(F504:L504,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E504" s="23" t="str">
-        <f>IF(COUNTIF(F504:L504,"-III")&gt;0,"-III",IF(COUNTIF(F504:L504,"-II")&gt;0,"-II",IF(COUNTIF(F504:L504,"-I")&gt;0,"-I",IF(COUNTIF(F504:L504,"+0")&gt;0,"+0",IF(COUNTIF(F504:L504,"+I")&gt;0,"+I",IF(COUNTIF(F504:L504,"+II")&gt;0,"+II",IF(COUNTIF(F504:L504,"+III")&gt;0,"+III",IF(COUNTIF(F504:L504,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F504" s="9" t="str">
@@ -24416,11 +24416,11 @@
         <v>15.257</v>
       </c>
       <c r="D505" s="23" t="str">
-        <f>IF(COUNTIF(F505:L505,"D")&gt;0,"D",IF(COUNTIF(F505:L505,"-III")&gt;0,"-III",IF(COUNTIF(F505:L505,"-II")&gt;0,"-II",IF(COUNTIF(F505:L505,"-I")&gt;0,"-I",IF(COUNTIF(F505:L505,"+0")&gt;0,"+0",IF(COUNTIF(F505:L505,"+I")&gt;0,"+I",IF(COUNTIF(F505:L505,"+II")&gt;0,"+II",IF(COUNTIF(F505:L505,"+III")&gt;0,"+III",IF(COUNTIF(F505:L505,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E505" s="23" t="str">
-        <f>IF(COUNTIF(F505:L505,"-III")&gt;0,"-III",IF(COUNTIF(F505:L505,"-II")&gt;0,"-II",IF(COUNTIF(F505:L505,"-I")&gt;0,"-I",IF(COUNTIF(F505:L505,"+0")&gt;0,"+0",IF(COUNTIF(F505:L505,"+I")&gt;0,"+I",IF(COUNTIF(F505:L505,"+II")&gt;0,"+II",IF(COUNTIF(F505:L505,"+III")&gt;0,"+III",IF(COUNTIF(F505:L505,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F505" s="9" t="str">
@@ -24460,11 +24460,11 @@
         <v>15.292</v>
       </c>
       <c r="D506" s="23" t="str">
-        <f>IF(COUNTIF(F506:L506,"D")&gt;0,"D",IF(COUNTIF(F506:L506,"-III")&gt;0,"-III",IF(COUNTIF(F506:L506,"-II")&gt;0,"-II",IF(COUNTIF(F506:L506,"-I")&gt;0,"-I",IF(COUNTIF(F506:L506,"+0")&gt;0,"+0",IF(COUNTIF(F506:L506,"+I")&gt;0,"+I",IF(COUNTIF(F506:L506,"+II")&gt;0,"+II",IF(COUNTIF(F506:L506,"+III")&gt;0,"+III",IF(COUNTIF(F506:L506,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E506" s="23" t="str">
-        <f>IF(COUNTIF(F506:L506,"-III")&gt;0,"-III",IF(COUNTIF(F506:L506,"-II")&gt;0,"-II",IF(COUNTIF(F506:L506,"-I")&gt;0,"-I",IF(COUNTIF(F506:L506,"+0")&gt;0,"+0",IF(COUNTIF(F506:L506,"+I")&gt;0,"+I",IF(COUNTIF(F506:L506,"+II")&gt;0,"+II",IF(COUNTIF(F506:L506,"+III")&gt;0,"+III",IF(COUNTIF(F506:L506,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F506" s="9" t="str">
@@ -24504,11 +24504,11 @@
         <v>15.349</v>
       </c>
       <c r="D507" s="23" t="str">
-        <f>IF(COUNTIF(F507:L507,"D")&gt;0,"D",IF(COUNTIF(F507:L507,"-III")&gt;0,"-III",IF(COUNTIF(F507:L507,"-II")&gt;0,"-II",IF(COUNTIF(F507:L507,"-I")&gt;0,"-I",IF(COUNTIF(F507:L507,"+0")&gt;0,"+0",IF(COUNTIF(F507:L507,"+I")&gt;0,"+I",IF(COUNTIF(F507:L507,"+II")&gt;0,"+II",IF(COUNTIF(F507:L507,"+III")&gt;0,"+III",IF(COUNTIF(F507:L507,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E507" s="23" t="str">
-        <f>IF(COUNTIF(F507:L507,"-III")&gt;0,"-III",IF(COUNTIF(F507:L507,"-II")&gt;0,"-II",IF(COUNTIF(F507:L507,"-I")&gt;0,"-I",IF(COUNTIF(F507:L507,"+0")&gt;0,"+0",IF(COUNTIF(F507:L507,"+I")&gt;0,"+I",IF(COUNTIF(F507:L507,"+II")&gt;0,"+II",IF(COUNTIF(F507:L507,"+III")&gt;0,"+III",IF(COUNTIF(F507:L507,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F507" s="9" t="str">
@@ -24548,11 +24548,11 @@
         <v>15.356</v>
       </c>
       <c r="D508" s="23" t="str">
-        <f>IF(COUNTIF(F508:L508,"D")&gt;0,"D",IF(COUNTIF(F508:L508,"-III")&gt;0,"-III",IF(COUNTIF(F508:L508,"-II")&gt;0,"-II",IF(COUNTIF(F508:L508,"-I")&gt;0,"-I",IF(COUNTIF(F508:L508,"+0")&gt;0,"+0",IF(COUNTIF(F508:L508,"+I")&gt;0,"+I",IF(COUNTIF(F508:L508,"+II")&gt;0,"+II",IF(COUNTIF(F508:L508,"+III")&gt;0,"+III",IF(COUNTIF(F508:L508,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E508" s="23" t="str">
-        <f>IF(COUNTIF(F508:L508,"-III")&gt;0,"-III",IF(COUNTIF(F508:L508,"-II")&gt;0,"-II",IF(COUNTIF(F508:L508,"-I")&gt;0,"-I",IF(COUNTIF(F508:L508,"+0")&gt;0,"+0",IF(COUNTIF(F508:L508,"+I")&gt;0,"+I",IF(COUNTIF(F508:L508,"+II")&gt;0,"+II",IF(COUNTIF(F508:L508,"+III")&gt;0,"+III",IF(COUNTIF(F508:L508,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F508" s="9" t="str">
@@ -24592,11 +24592,11 @@
         <v>15.371</v>
       </c>
       <c r="D509" s="23" t="str">
-        <f>IF(COUNTIF(F509:L509,"D")&gt;0,"D",IF(COUNTIF(F509:L509,"-III")&gt;0,"-III",IF(COUNTIF(F509:L509,"-II")&gt;0,"-II",IF(COUNTIF(F509:L509,"-I")&gt;0,"-I",IF(COUNTIF(F509:L509,"+0")&gt;0,"+0",IF(COUNTIF(F509:L509,"+I")&gt;0,"+I",IF(COUNTIF(F509:L509,"+II")&gt;0,"+II",IF(COUNTIF(F509:L509,"+III")&gt;0,"+III",IF(COUNTIF(F509:L509,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E509" s="23" t="str">
-        <f>IF(COUNTIF(F509:L509,"-III")&gt;0,"-III",IF(COUNTIF(F509:L509,"-II")&gt;0,"-II",IF(COUNTIF(F509:L509,"-I")&gt;0,"-I",IF(COUNTIF(F509:L509,"+0")&gt;0,"+0",IF(COUNTIF(F509:L509,"+I")&gt;0,"+I",IF(COUNTIF(F509:L509,"+II")&gt;0,"+II",IF(COUNTIF(F509:L509,"+III")&gt;0,"+III",IF(COUNTIF(F509:L509,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F509" s="9" t="str">
@@ -24636,11 +24636,11 @@
         <v>15.374000000000001</v>
       </c>
       <c r="D510" s="23" t="str">
-        <f>IF(COUNTIF(F510:L510,"D")&gt;0,"D",IF(COUNTIF(F510:L510,"-III")&gt;0,"-III",IF(COUNTIF(F510:L510,"-II")&gt;0,"-II",IF(COUNTIF(F510:L510,"-I")&gt;0,"-I",IF(COUNTIF(F510:L510,"+0")&gt;0,"+0",IF(COUNTIF(F510:L510,"+I")&gt;0,"+I",IF(COUNTIF(F510:L510,"+II")&gt;0,"+II",IF(COUNTIF(F510:L510,"+III")&gt;0,"+III",IF(COUNTIF(F510:L510,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E510" s="23" t="str">
-        <f>IF(COUNTIF(F510:L510,"-III")&gt;0,"-III",IF(COUNTIF(F510:L510,"-II")&gt;0,"-II",IF(COUNTIF(F510:L510,"-I")&gt;0,"-I",IF(COUNTIF(F510:L510,"+0")&gt;0,"+0",IF(COUNTIF(F510:L510,"+I")&gt;0,"+I",IF(COUNTIF(F510:L510,"+II")&gt;0,"+II",IF(COUNTIF(F510:L510,"+III")&gt;0,"+III",IF(COUNTIF(F510:L510,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F510" s="9" t="str">
@@ -24680,11 +24680,11 @@
         <v>15.449</v>
       </c>
       <c r="D511" s="23" t="str">
-        <f>IF(COUNTIF(F511:L511,"D")&gt;0,"D",IF(COUNTIF(F511:L511,"-III")&gt;0,"-III",IF(COUNTIF(F511:L511,"-II")&gt;0,"-II",IF(COUNTIF(F511:L511,"-I")&gt;0,"-I",IF(COUNTIF(F511:L511,"+0")&gt;0,"+0",IF(COUNTIF(F511:L511,"+I")&gt;0,"+I",IF(COUNTIF(F511:L511,"+II")&gt;0,"+II",IF(COUNTIF(F511:L511,"+III")&gt;0,"+III",IF(COUNTIF(F511:L511,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E511" s="23" t="str">
-        <f>IF(COUNTIF(F511:L511,"-III")&gt;0,"-III",IF(COUNTIF(F511:L511,"-II")&gt;0,"-II",IF(COUNTIF(F511:L511,"-I")&gt;0,"-I",IF(COUNTIF(F511:L511,"+0")&gt;0,"+0",IF(COUNTIF(F511:L511,"+I")&gt;0,"+I",IF(COUNTIF(F511:L511,"+II")&gt;0,"+II",IF(COUNTIF(F511:L511,"+III")&gt;0,"+III",IF(COUNTIF(F511:L511,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F511" s="9" t="str">
@@ -24724,11 +24724,11 @@
         <v>15.451000000000001</v>
       </c>
       <c r="D512" s="23" t="str">
-        <f>IF(COUNTIF(F512:L512,"D")&gt;0,"D",IF(COUNTIF(F512:L512,"-III")&gt;0,"-III",IF(COUNTIF(F512:L512,"-II")&gt;0,"-II",IF(COUNTIF(F512:L512,"-I")&gt;0,"-I",IF(COUNTIF(F512:L512,"+0")&gt;0,"+0",IF(COUNTIF(F512:L512,"+I")&gt;0,"+I",IF(COUNTIF(F512:L512,"+II")&gt;0,"+II",IF(COUNTIF(F512:L512,"+III")&gt;0,"+III",IF(COUNTIF(F512:L512,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E512" s="23" t="str">
-        <f>IF(COUNTIF(F512:L512,"-III")&gt;0,"-III",IF(COUNTIF(F512:L512,"-II")&gt;0,"-II",IF(COUNTIF(F512:L512,"-I")&gt;0,"-I",IF(COUNTIF(F512:L512,"+0")&gt;0,"+0",IF(COUNTIF(F512:L512,"+I")&gt;0,"+I",IF(COUNTIF(F512:L512,"+II")&gt;0,"+II",IF(COUNTIF(F512:L512,"+III")&gt;0,"+III",IF(COUNTIF(F512:L512,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F512" s="9" t="str">
@@ -24768,11 +24768,11 @@
         <v>15.46</v>
       </c>
       <c r="D513" s="23" t="str">
-        <f>IF(COUNTIF(F513:L513,"D")&gt;0,"D",IF(COUNTIF(F513:L513,"-III")&gt;0,"-III",IF(COUNTIF(F513:L513,"-II")&gt;0,"-II",IF(COUNTIF(F513:L513,"-I")&gt;0,"-I",IF(COUNTIF(F513:L513,"+0")&gt;0,"+0",IF(COUNTIF(F513:L513,"+I")&gt;0,"+I",IF(COUNTIF(F513:L513,"+II")&gt;0,"+II",IF(COUNTIF(F513:L513,"+III")&gt;0,"+III",IF(COUNTIF(F513:L513,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E513" s="23" t="str">
-        <f>IF(COUNTIF(F513:L513,"-III")&gt;0,"-III",IF(COUNTIF(F513:L513,"-II")&gt;0,"-II",IF(COUNTIF(F513:L513,"-I")&gt;0,"-I",IF(COUNTIF(F513:L513,"+0")&gt;0,"+0",IF(COUNTIF(F513:L513,"+I")&gt;0,"+I",IF(COUNTIF(F513:L513,"+II")&gt;0,"+II",IF(COUNTIF(F513:L513,"+III")&gt;0,"+III",IF(COUNTIF(F513:L513,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F513" s="9" t="str">
@@ -24812,11 +24812,11 @@
         <v>15.472</v>
       </c>
       <c r="D514" s="23" t="str">
-        <f>IF(COUNTIF(F514:L514,"D")&gt;0,"D",IF(COUNTIF(F514:L514,"-III")&gt;0,"-III",IF(COUNTIF(F514:L514,"-II")&gt;0,"-II",IF(COUNTIF(F514:L514,"-I")&gt;0,"-I",IF(COUNTIF(F514:L514,"+0")&gt;0,"+0",IF(COUNTIF(F514:L514,"+I")&gt;0,"+I",IF(COUNTIF(F514:L514,"+II")&gt;0,"+II",IF(COUNTIF(F514:L514,"+III")&gt;0,"+III",IF(COUNTIF(F514:L514,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="14"/>
         <v>D</v>
       </c>
       <c r="E514" s="23" t="str">
-        <f>IF(COUNTIF(F514:L514,"-III")&gt;0,"-III",IF(COUNTIF(F514:L514,"-II")&gt;0,"-II",IF(COUNTIF(F514:L514,"-I")&gt;0,"-I",IF(COUNTIF(F514:L514,"+0")&gt;0,"+0",IF(COUNTIF(F514:L514,"+I")&gt;0,"+I",IF(COUNTIF(F514:L514,"+II")&gt;0,"+II",IF(COUNTIF(F514:L514,"+III")&gt;0,"+III",IF(COUNTIF(F514:L514,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="15"/>
         <v>+I</v>
       </c>
       <c r="F514" s="9" t="str">
@@ -24856,11 +24856,11 @@
         <v>15.476000000000001</v>
       </c>
       <c r="D515" s="23" t="str">
-        <f>IF(COUNTIF(F515:L515,"D")&gt;0,"D",IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D515:D523" si="16">IF(COUNTIF(F515:L515,"D")&gt;0,"D",IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E515" s="23" t="str">
-        <f>IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E515:E578" si="17">IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F515" s="9" t="str">
@@ -24900,11 +24900,11 @@
         <v>15.48</v>
       </c>
       <c r="D516" s="23" t="str">
-        <f>IF(COUNTIF(F516:L516,"D")&gt;0,"D",IF(COUNTIF(F516:L516,"-III")&gt;0,"-III",IF(COUNTIF(F516:L516,"-II")&gt;0,"-II",IF(COUNTIF(F516:L516,"-I")&gt;0,"-I",IF(COUNTIF(F516:L516,"+0")&gt;0,"+0",IF(COUNTIF(F516:L516,"+I")&gt;0,"+I",IF(COUNTIF(F516:L516,"+II")&gt;0,"+II",IF(COUNTIF(F516:L516,"+III")&gt;0,"+III",IF(COUNTIF(F516:L516,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>D</v>
       </c>
       <c r="E516" s="23" t="str">
-        <f>IF(COUNTIF(F516:L516,"-III")&gt;0,"-III",IF(COUNTIF(F516:L516,"-II")&gt;0,"-II",IF(COUNTIF(F516:L516,"-I")&gt;0,"-I",IF(COUNTIF(F516:L516,"+0")&gt;0,"+0",IF(COUNTIF(F516:L516,"+I")&gt;0,"+I",IF(COUNTIF(F516:L516,"+II")&gt;0,"+II",IF(COUNTIF(F516:L516,"+III")&gt;0,"+III",IF(COUNTIF(F516:L516,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+I</v>
       </c>
       <c r="F516" s="9" t="str">
@@ -24944,11 +24944,11 @@
         <v>15.539</v>
       </c>
       <c r="D517" s="23" t="str">
-        <f>IF(COUNTIF(F517:L517,"D")&gt;0,"D",IF(COUNTIF(F517:L517,"-III")&gt;0,"-III",IF(COUNTIF(F517:L517,"-II")&gt;0,"-II",IF(COUNTIF(F517:L517,"-I")&gt;0,"-I",IF(COUNTIF(F517:L517,"+0")&gt;0,"+0",IF(COUNTIF(F517:L517,"+I")&gt;0,"+I",IF(COUNTIF(F517:L517,"+II")&gt;0,"+II",IF(COUNTIF(F517:L517,"+III")&gt;0,"+III",IF(COUNTIF(F517:L517,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>D</v>
       </c>
       <c r="E517" s="23" t="str">
-        <f>IF(COUNTIF(F517:L517,"-III")&gt;0,"-III",IF(COUNTIF(F517:L517,"-II")&gt;0,"-II",IF(COUNTIF(F517:L517,"-I")&gt;0,"-I",IF(COUNTIF(F517:L517,"+0")&gt;0,"+0",IF(COUNTIF(F517:L517,"+I")&gt;0,"+I",IF(COUNTIF(F517:L517,"+II")&gt;0,"+II",IF(COUNTIF(F517:L517,"+III")&gt;0,"+III",IF(COUNTIF(F517:L517,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+I</v>
       </c>
       <c r="F517" s="9" t="str">
@@ -24988,11 +24988,11 @@
         <v>15.622999999999999</v>
       </c>
       <c r="D518" s="23" t="str">
-        <f>IF(COUNTIF(F518:L518,"D")&gt;0,"D",IF(COUNTIF(F518:L518,"-III")&gt;0,"-III",IF(COUNTIF(F518:L518,"-II")&gt;0,"-II",IF(COUNTIF(F518:L518,"-I")&gt;0,"-I",IF(COUNTIF(F518:L518,"+0")&gt;0,"+0",IF(COUNTIF(F518:L518,"+I")&gt;0,"+I",IF(COUNTIF(F518:L518,"+II")&gt;0,"+II",IF(COUNTIF(F518:L518,"+III")&gt;0,"+III",IF(COUNTIF(F518:L518,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>D</v>
       </c>
       <c r="E518" s="23" t="str">
-        <f>IF(COUNTIF(F518:L518,"-III")&gt;0,"-III",IF(COUNTIF(F518:L518,"-II")&gt;0,"-II",IF(COUNTIF(F518:L518,"-I")&gt;0,"-I",IF(COUNTIF(F518:L518,"+0")&gt;0,"+0",IF(COUNTIF(F518:L518,"+I")&gt;0,"+I",IF(COUNTIF(F518:L518,"+II")&gt;0,"+II",IF(COUNTIF(F518:L518,"+III")&gt;0,"+III",IF(COUNTIF(F518:L518,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+I</v>
       </c>
       <c r="F518" s="9" t="str">
@@ -25032,11 +25032,11 @@
         <v>15.699</v>
       </c>
       <c r="D519" s="23" t="str">
-        <f>IF(COUNTIF(F519:L519,"D")&gt;0,"D",IF(COUNTIF(F519:L519,"-III")&gt;0,"-III",IF(COUNTIF(F519:L519,"-II")&gt;0,"-II",IF(COUNTIF(F519:L519,"-I")&gt;0,"-I",IF(COUNTIF(F519:L519,"+0")&gt;0,"+0",IF(COUNTIF(F519:L519,"+I")&gt;0,"+I",IF(COUNTIF(F519:L519,"+II")&gt;0,"+II",IF(COUNTIF(F519:L519,"+III")&gt;0,"+III",IF(COUNTIF(F519:L519,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>D</v>
       </c>
       <c r="E519" s="23" t="str">
-        <f>IF(COUNTIF(F519:L519,"-III")&gt;0,"-III",IF(COUNTIF(F519:L519,"-II")&gt;0,"-II",IF(COUNTIF(F519:L519,"-I")&gt;0,"-I",IF(COUNTIF(F519:L519,"+0")&gt;0,"+0",IF(COUNTIF(F519:L519,"+I")&gt;0,"+I",IF(COUNTIF(F519:L519,"+II")&gt;0,"+II",IF(COUNTIF(F519:L519,"+III")&gt;0,"+III",IF(COUNTIF(F519:L519,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+I</v>
       </c>
       <c r="F519" s="9" t="str">
@@ -25076,11 +25076,11 @@
         <v>15.718999999999999</v>
       </c>
       <c r="D520" s="23" t="str">
-        <f>IF(COUNTIF(F520:L520,"D")&gt;0,"D",IF(COUNTIF(F520:L520,"-III")&gt;0,"-III",IF(COUNTIF(F520:L520,"-II")&gt;0,"-II",IF(COUNTIF(F520:L520,"-I")&gt;0,"-I",IF(COUNTIF(F520:L520,"+0")&gt;0,"+0",IF(COUNTIF(F520:L520,"+I")&gt;0,"+I",IF(COUNTIF(F520:L520,"+II")&gt;0,"+II",IF(COUNTIF(F520:L520,"+III")&gt;0,"+III",IF(COUNTIF(F520:L520,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>D</v>
       </c>
       <c r="E520" s="23" t="str">
-        <f>IF(COUNTIF(F520:L520,"-III")&gt;0,"-III",IF(COUNTIF(F520:L520,"-II")&gt;0,"-II",IF(COUNTIF(F520:L520,"-I")&gt;0,"-I",IF(COUNTIF(F520:L520,"+0")&gt;0,"+0",IF(COUNTIF(F520:L520,"+I")&gt;0,"+I",IF(COUNTIF(F520:L520,"+II")&gt;0,"+II",IF(COUNTIF(F520:L520,"+III")&gt;0,"+III",IF(COUNTIF(F520:L520,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+I</v>
       </c>
       <c r="F520" s="9" t="str">
@@ -25120,11 +25120,11 @@
         <v>15.731</v>
       </c>
       <c r="D521" s="23" t="str">
-        <f>IF(COUNTIF(F521:L521,"D")&gt;0,"D",IF(COUNTIF(F521:L521,"-III")&gt;0,"-III",IF(COUNTIF(F521:L521,"-II")&gt;0,"-II",IF(COUNTIF(F521:L521,"-I")&gt;0,"-I",IF(COUNTIF(F521:L521,"+0")&gt;0,"+0",IF(COUNTIF(F521:L521,"+I")&gt;0,"+I",IF(COUNTIF(F521:L521,"+II")&gt;0,"+II",IF(COUNTIF(F521:L521,"+III")&gt;0,"+III",IF(COUNTIF(F521:L521,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>+III</v>
       </c>
       <c r="E521" s="23" t="str">
-        <f>IF(COUNTIF(F521:L521,"-III")&gt;0,"-III",IF(COUNTIF(F521:L521,"-II")&gt;0,"-II",IF(COUNTIF(F521:L521,"-I")&gt;0,"-I",IF(COUNTIF(F521:L521,"+0")&gt;0,"+0",IF(COUNTIF(F521:L521,"+I")&gt;0,"+I",IF(COUNTIF(F521:L521,"+II")&gt;0,"+II",IF(COUNTIF(F521:L521,"+III")&gt;0,"+III",IF(COUNTIF(F521:L521,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+III</v>
       </c>
       <c r="F521" s="9" t="str">
@@ -25164,11 +25164,11 @@
         <v>15.9</v>
       </c>
       <c r="D522" s="23" t="str">
-        <f>IF(COUNTIF(F522:L522,"D")&gt;0,"D",IF(COUNTIF(F522:L522,"-III")&gt;0,"-III",IF(COUNTIF(F522:L522,"-II")&gt;0,"-II",IF(COUNTIF(F522:L522,"-I")&gt;0,"-I",IF(COUNTIF(F522:L522,"+0")&gt;0,"+0",IF(COUNTIF(F522:L522,"+I")&gt;0,"+I",IF(COUNTIF(F522:L522,"+II")&gt;0,"+II",IF(COUNTIF(F522:L522,"+III")&gt;0,"+III",IF(COUNTIF(F522:L522,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" si="16"/>
         <v>+III</v>
       </c>
       <c r="E522" s="23" t="str">
-        <f>IF(COUNTIF(F522:L522,"-III")&gt;0,"-III",IF(COUNTIF(F522:L522,"-II")&gt;0,"-II",IF(COUNTIF(F522:L522,"-I")&gt;0,"-I",IF(COUNTIF(F522:L522,"+0")&gt;0,"+0",IF(COUNTIF(F522:L522,"+I")&gt;0,"+I",IF(COUNTIF(F522:L522,"+II")&gt;0,"+II",IF(COUNTIF(F522:L522,"+III")&gt;0,"+III",IF(COUNTIF(F522:L522,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" si="17"/>
         <v>+III</v>
       </c>
       <c r="F522" s="9" t="str">
@@ -25201,48 +25201,17 @@
       </c>
     </row>
     <row r="523" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B523" s="8">
-        <v>20.5168</v>
-      </c>
-      <c r="C523" s="9">
-        <v>21.02</v>
-      </c>
-      <c r="D523" s="23" t="str">
-        <f>IF(COUNTIF(F523:L523,"D")&gt;0,"D",IF(COUNTIF(F523:L523,"-III")&gt;0,"-III",IF(COUNTIF(F523:L523,"-II")&gt;0,"-II",IF(COUNTIF(F523:L523,"-I")&gt;0,"-I",IF(COUNTIF(F523:L523,"+0")&gt;0,"+0",IF(COUNTIF(F523:L523,"+I")&gt;0,"+I",IF(COUNTIF(F523:L523,"+II")&gt;0,"+II",IF(COUNTIF(F523:L523,"+III")&gt;0,"+III",IF(COUNTIF(F523:L523,"ND")&gt;0,"ND","NR")))))))))</f>
-        <v>+II</v>
-      </c>
-      <c r="E523" s="23" t="str">
-        <f>IF(COUNTIF(F523:L523,"-III")&gt;0,"-III",IF(COUNTIF(F523:L523,"-II")&gt;0,"-II",IF(COUNTIF(F523:L523,"-I")&gt;0,"-I",IF(COUNTIF(F523:L523,"+0")&gt;0,"+0",IF(COUNTIF(F523:L523,"+I")&gt;0,"+I",IF(COUNTIF(F523:L523,"+II")&gt;0,"+II",IF(COUNTIF(F523:L523,"+III")&gt;0,"+III",IF(COUNTIF(F523:L523,"ND")&gt;0,"ND","NR"))))))))</f>
-        <v>+II</v>
-      </c>
-      <c r="F523" s="9" t="str">
-        <f t="array" ref="F523">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B523,C523),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="G523" s="9" t="str">
-        <f t="array" ref="G523">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B523,C523),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="H523" s="9" t="str">
-        <f t="array" ref="H523">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B523,C523),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="I523" s="9" t="str">
-        <f t="array" ref="I523">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B523,C523),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>NR</v>
-      </c>
-      <c r="J523" s="9" t="str">
-        <f t="array" ref="J523">INDEX(STKWp!$K$11:$K$35,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$35&gt;AVERAGE(B523,C523),STKWp!$D$11:$D$35)),STKWp!$D$11:$D$35),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="K523" s="9" t="str">
-        <f t="array" ref="K523">INDEX(BSKW!$K$11:$K$35,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$35&gt;AVERAGE(B523,C523),BSKW!$D$11:$D$35)),BSKW!$D$11:$D$35),1))</f>
-        <v>+II</v>
-      </c>
-      <c r="L523" s="12" t="str">
-        <f t="array" ref="L523">INDEX(HTKW!$K$11:$K$36,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$36&gt;AVERAGE(B523,C523),HTKW!$D$11:$D$36)),HTKW!$D$11:$D$36),1))</f>
-        <v>+III</v>
-      </c>
+      <c r="B523" s="8"/>
+      <c r="C523" s="9"/>
+      <c r="D523" s="23"/>
+      <c r="E523" s="23"/>
+      <c r="F523" s="9"/>
+      <c r="G523" s="9"/>
+      <c r="H523" s="9"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="9"/>
+      <c r="K523" s="9"/>
+      <c r="L523" s="12"/>
     </row>
     <row r="524" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B524" s="8"/>
@@ -25642,7 +25611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O11" sqref="O11:O33"/>
     </sheetView>
   </sheetViews>
@@ -29842,7 +29811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K11" sqref="K11:K33"/>
     </sheetView>
   </sheetViews>
